--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="325">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -700,6 +700,12 @@
     <t>['4', '10']</t>
   </si>
   <si>
+    <t>['44', '68', '90']</t>
+  </si>
+  <si>
+    <t>['2', '4']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -977,6 +983,12 @@
   </si>
   <si>
     <t>['70', '84']</t>
+  </si>
+  <si>
+    <t>['21', '62']</t>
+  </si>
+  <si>
+    <t>['86']</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1350,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1597,7 +1609,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1675,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ2">
         <v>1.44</v>
@@ -1803,7 +1815,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2215,7 +2227,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2627,7 +2639,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -3117,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3245,7 +3257,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3323,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ10">
         <v>1.18</v>
@@ -3451,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3532,7 +3544,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ11">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3657,7 +3669,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3738,7 +3750,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3863,7 +3875,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4069,7 +4081,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4150,7 +4162,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR14">
         <v>1.68</v>
@@ -4275,7 +4287,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4687,7 +4699,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4971,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5305,7 +5317,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5511,7 +5523,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5795,10 +5807,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ22">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -5923,7 +5935,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6129,7 +6141,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6207,7 +6219,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ24">
         <v>0.38</v>
@@ -6335,7 +6347,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6541,7 +6553,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6622,7 +6634,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.85</v>
@@ -6747,7 +6759,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6953,7 +6965,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7031,7 +7043,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ28">
         <v>0.8100000000000001</v>
@@ -7159,7 +7171,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7240,7 +7252,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR29">
         <v>1.98</v>
@@ -7571,7 +7583,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7777,7 +7789,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -8061,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ33">
         <v>1.41</v>
@@ -8189,7 +8201,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8395,7 +8407,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8888,7 +8900,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ37">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR37">
         <v>1.9</v>
@@ -9091,10 +9103,10 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9219,7 +9231,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -10043,7 +10055,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10121,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ43">
         <v>0.82</v>
@@ -10249,7 +10261,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10327,10 +10339,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR44">
         <v>1.51</v>
@@ -10455,7 +10467,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10661,7 +10673,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -11073,7 +11085,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11357,7 +11369,7 @@
         <v>0.75</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ49">
         <v>0.82</v>
@@ -11485,7 +11497,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11563,7 +11575,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ50">
         <v>1.41</v>
@@ -11772,7 +11784,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.63</v>
@@ -11897,7 +11909,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11978,7 +11990,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR52">
         <v>1.78</v>
@@ -12103,7 +12115,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12309,7 +12321,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12390,7 +12402,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR54">
         <v>1.54</v>
@@ -12515,7 +12527,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -12802,7 +12814,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ56">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13005,7 +13017,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ57">
         <v>1.44</v>
@@ -13133,7 +13145,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q58">
         <v>2.94</v>
@@ -13545,7 +13557,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14163,7 +14175,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14244,7 +14256,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ63">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.8</v>
@@ -14369,7 +14381,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14447,7 +14459,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ64">
         <v>1.71</v>
@@ -14781,7 +14793,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -14862,7 +14874,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -14987,7 +14999,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15193,7 +15205,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15274,7 +15286,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15605,7 +15617,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15683,7 +15695,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ70">
         <v>0.8100000000000001</v>
@@ -15889,7 +15901,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ71">
         <v>1.41</v>
@@ -16017,7 +16029,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16223,7 +16235,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16429,7 +16441,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -17047,7 +17059,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17128,7 +17140,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ77">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.38</v>
@@ -17253,7 +17265,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17334,7 +17346,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR78">
         <v>2.07</v>
@@ -17459,7 +17471,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17665,7 +17677,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17871,7 +17883,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -17949,10 +17961,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ81">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -18077,7 +18089,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18155,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ82">
         <v>1.06</v>
@@ -18283,7 +18295,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18361,7 +18373,7 @@
         <v>1.67</v>
       </c>
       <c r="AP83">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ83">
         <v>1.18</v>
@@ -18570,7 +18582,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR84">
         <v>1.67</v>
@@ -18901,7 +18913,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19188,7 +19200,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ87">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR87">
         <v>1.83</v>
@@ -19394,7 +19406,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -19597,7 +19609,7 @@
         <v>0.57</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ89">
         <v>0.53</v>
@@ -19803,7 +19815,7 @@
         <v>0.71</v>
       </c>
       <c r="AP90">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ90">
         <v>0.82</v>
@@ -20137,7 +20149,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20421,7 +20433,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ93">
         <v>0.8100000000000001</v>
@@ -20755,7 +20767,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -20833,7 +20845,7 @@
         <v>0.14</v>
       </c>
       <c r="AP95">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ95">
         <v>1.06</v>
@@ -21042,7 +21054,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ96">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR96">
         <v>1.86</v>
@@ -21454,7 +21466,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ98">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21579,7 +21591,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21863,10 +21875,10 @@
         <v>0.63</v>
       </c>
       <c r="AP100">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR100">
         <v>1.41</v>
@@ -21991,7 +22003,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22278,7 +22290,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22403,7 +22415,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22815,7 +22827,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -23099,7 +23111,7 @@
         <v>0.63</v>
       </c>
       <c r="AP106">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ106">
         <v>0.38</v>
@@ -23639,7 +23651,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23717,7 +23729,7 @@
         <v>1.13</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ109">
         <v>1.71</v>
@@ -24051,7 +24063,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24132,7 +24144,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ111">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.75</v>
@@ -24463,7 +24475,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24541,10 +24553,10 @@
         <v>0.44</v>
       </c>
       <c r="AP113">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ113">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24669,7 +24681,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24875,7 +24887,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25159,7 +25171,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ116">
         <v>0.38</v>
@@ -25287,7 +25299,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25368,7 +25380,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ117">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR117">
         <v>1.28</v>
@@ -25699,7 +25711,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25905,7 +25917,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -25983,7 +25995,7 @@
         <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ120">
         <v>1.18</v>
@@ -26111,7 +26123,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26317,7 +26329,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26523,7 +26535,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26807,7 +26819,7 @@
         <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ124">
         <v>0.53</v>
@@ -26935,7 +26947,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27141,7 +27153,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27347,7 +27359,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27553,7 +27565,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27631,10 +27643,10 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ128">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
@@ -27759,7 +27771,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27965,7 +27977,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28458,7 +28470,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR132">
         <v>1.65</v>
@@ -28583,7 +28595,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28661,10 +28673,10 @@
         <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ133">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28789,7 +28801,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29201,7 +29213,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29279,7 +29291,7 @@
         <v>1.64</v>
       </c>
       <c r="AP136">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ136">
         <v>1.41</v>
@@ -29694,7 +29706,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ138">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -29819,7 +29831,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -30025,7 +30037,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30106,7 +30118,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ140">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR140">
         <v>1.96</v>
@@ -30231,7 +30243,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30515,7 +30527,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -30724,7 +30736,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ143">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR143">
         <v>2.01</v>
@@ -31055,7 +31067,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31133,7 +31145,7 @@
         <v>1.45</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ145">
         <v>1.71</v>
@@ -31342,7 +31354,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ146">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR146">
         <v>1.93</v>
@@ -31467,7 +31479,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -31751,7 +31763,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ148">
         <v>0.8100000000000001</v>
@@ -31957,7 +31969,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ149">
         <v>1.18</v>
@@ -32085,7 +32097,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32166,7 +32178,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR150">
         <v>1.73</v>
@@ -32575,10 +32587,10 @@
         <v>0.75</v>
       </c>
       <c r="AP152">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ152">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.99</v>
@@ -32703,7 +32715,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32909,7 +32921,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33115,7 +33127,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33939,7 +33951,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34145,7 +34157,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34429,7 +34441,7 @@
         <v>0.77</v>
       </c>
       <c r="AP161">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ161">
         <v>0.82</v>
@@ -34969,7 +34981,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35050,7 +35062,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ164">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR164">
         <v>1.46</v>
@@ -35175,7 +35187,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35253,10 +35265,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ165">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR165">
         <v>1.32</v>
@@ -35459,7 +35471,7 @@
         <v>0.46</v>
       </c>
       <c r="AP166">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ166">
         <v>0.38</v>
@@ -35587,7 +35599,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -35668,7 +35680,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ167">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35999,7 +36011,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36411,7 +36423,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36617,7 +36629,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37029,7 +37041,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37107,7 +37119,7 @@
         <v>0.71</v>
       </c>
       <c r="AP174">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ174">
         <v>0.82</v>
@@ -37235,7 +37247,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37519,7 +37531,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ176">
         <v>1.06</v>
@@ -37647,7 +37659,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37725,10 +37737,10 @@
         <v>0.57</v>
       </c>
       <c r="AP177">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ177">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR177">
         <v>2.05</v>
@@ -37934,7 +37946,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ178">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR178">
         <v>1.56</v>
@@ -38059,7 +38071,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38140,7 +38152,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ179">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR179">
         <v>1.75</v>
@@ -38677,7 +38689,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38883,7 +38895,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39089,7 +39101,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39167,7 +39179,7 @@
         <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ184">
         <v>1.18</v>
@@ -39501,7 +39513,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39707,7 +39719,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39913,7 +39925,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -39991,7 +40003,7 @@
         <v>1.63</v>
       </c>
       <c r="AP188">
-        <v>1.31</v>
+        <v>1.41</v>
       </c>
       <c r="AQ188">
         <v>1.71</v>
@@ -40818,7 +40830,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ192">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR192">
         <v>1.21</v>
@@ -40943,7 +40955,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41227,7 +41239,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ194">
         <v>0.53</v>
@@ -41436,7 +41448,7 @@
         <v>2</v>
       </c>
       <c r="AQ195">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="AR195">
         <v>1.48</v>
@@ -41639,7 +41651,7 @@
         <v>0.88</v>
       </c>
       <c r="AP196">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AQ196">
         <v>0.82</v>
@@ -41973,7 +41985,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42260,7 +42272,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ199">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AR199">
         <v>1.56</v>
@@ -42336,6 +42348,624 @@
       </c>
       <c r="BP199">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7417502</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F200">
+        <v>34</v>
+      </c>
+      <c r="G200" t="s">
+        <v>70</v>
+      </c>
+      <c r="H200" t="s">
+        <v>75</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>3</v>
+      </c>
+      <c r="M200">
+        <v>2</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200" t="s">
+        <v>228</v>
+      </c>
+      <c r="P200" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q200">
+        <v>2.4</v>
+      </c>
+      <c r="R200">
+        <v>2.3</v>
+      </c>
+      <c r="S200">
+        <v>4.33</v>
+      </c>
+      <c r="T200">
+        <v>1.33</v>
+      </c>
+      <c r="U200">
+        <v>3.1</v>
+      </c>
+      <c r="V200">
+        <v>2.55</v>
+      </c>
+      <c r="W200">
+        <v>1.47</v>
+      </c>
+      <c r="X200">
+        <v>6</v>
+      </c>
+      <c r="Y200">
+        <v>1.11</v>
+      </c>
+      <c r="Z200">
+        <v>1.73</v>
+      </c>
+      <c r="AA200">
+        <v>3.85</v>
+      </c>
+      <c r="AB200">
+        <v>3.85</v>
+      </c>
+      <c r="AC200">
+        <v>1.05</v>
+      </c>
+      <c r="AD200">
+        <v>9.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.22</v>
+      </c>
+      <c r="AF200">
+        <v>4</v>
+      </c>
+      <c r="AG200">
+        <v>1.71</v>
+      </c>
+      <c r="AH200">
+        <v>2.06</v>
+      </c>
+      <c r="AI200">
+        <v>1.65</v>
+      </c>
+      <c r="AJ200">
+        <v>2.15</v>
+      </c>
+      <c r="AK200">
+        <v>1.18</v>
+      </c>
+      <c r="AL200">
+        <v>1.2</v>
+      </c>
+      <c r="AM200">
+        <v>2</v>
+      </c>
+      <c r="AN200">
+        <v>1.31</v>
+      </c>
+      <c r="AO200">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AP200">
+        <v>1.41</v>
+      </c>
+      <c r="AQ200">
+        <v>0.65</v>
+      </c>
+      <c r="AR200">
+        <v>1.28</v>
+      </c>
+      <c r="AS200">
+        <v>1.16</v>
+      </c>
+      <c r="AT200">
+        <v>2.44</v>
+      </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
+      <c r="AV200">
+        <v>5</v>
+      </c>
+      <c r="AW200">
+        <v>4</v>
+      </c>
+      <c r="AX200">
+        <v>4</v>
+      </c>
+      <c r="AY200">
+        <v>9</v>
+      </c>
+      <c r="AZ200">
+        <v>9</v>
+      </c>
+      <c r="BA200">
+        <v>4</v>
+      </c>
+      <c r="BB200">
+        <v>4</v>
+      </c>
+      <c r="BC200">
+        <v>8</v>
+      </c>
+      <c r="BD200">
+        <v>1.51</v>
+      </c>
+      <c r="BE200">
+        <v>9.6</v>
+      </c>
+      <c r="BF200">
+        <v>3.14</v>
+      </c>
+      <c r="BG200">
+        <v>1.19</v>
+      </c>
+      <c r="BH200">
+        <v>3.98</v>
+      </c>
+      <c r="BI200">
+        <v>1.39</v>
+      </c>
+      <c r="BJ200">
+        <v>2.76</v>
+      </c>
+      <c r="BK200">
+        <v>1.69</v>
+      </c>
+      <c r="BL200">
+        <v>2.09</v>
+      </c>
+      <c r="BM200">
+        <v>2.12</v>
+      </c>
+      <c r="BN200">
+        <v>1.64</v>
+      </c>
+      <c r="BO200">
+        <v>2.75</v>
+      </c>
+      <c r="BP200">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7417501</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F201">
+        <v>34</v>
+      </c>
+      <c r="G201" t="s">
+        <v>78</v>
+      </c>
+      <c r="H201" t="s">
+        <v>72</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>2</v>
+      </c>
+      <c r="L201">
+        <v>2</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>3</v>
+      </c>
+      <c r="O201" t="s">
+        <v>229</v>
+      </c>
+      <c r="P201" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q201">
+        <v>2.05</v>
+      </c>
+      <c r="R201">
+        <v>2.4</v>
+      </c>
+      <c r="S201">
+        <v>5.5</v>
+      </c>
+      <c r="T201">
+        <v>1.3</v>
+      </c>
+      <c r="U201">
+        <v>3.4</v>
+      </c>
+      <c r="V201">
+        <v>2.4</v>
+      </c>
+      <c r="W201">
+        <v>1.53</v>
+      </c>
+      <c r="X201">
+        <v>5.5</v>
+      </c>
+      <c r="Y201">
+        <v>1.12</v>
+      </c>
+      <c r="Z201">
+        <v>1.49</v>
+      </c>
+      <c r="AA201">
+        <v>4.1</v>
+      </c>
+      <c r="AB201">
+        <v>5.4</v>
+      </c>
+      <c r="AC201">
+        <v>1.03</v>
+      </c>
+      <c r="AD201">
+        <v>11</v>
+      </c>
+      <c r="AE201">
+        <v>1.2</v>
+      </c>
+      <c r="AF201">
+        <v>4.33</v>
+      </c>
+      <c r="AG201">
+        <v>1.62</v>
+      </c>
+      <c r="AH201">
+        <v>2.2</v>
+      </c>
+      <c r="AI201">
+        <v>1.72</v>
+      </c>
+      <c r="AJ201">
+        <v>2.05</v>
+      </c>
+      <c r="AK201">
+        <v>1.1</v>
+      </c>
+      <c r="AL201">
+        <v>1.16</v>
+      </c>
+      <c r="AM201">
+        <v>2.5</v>
+      </c>
+      <c r="AN201">
+        <v>2</v>
+      </c>
+      <c r="AO201">
+        <v>1.13</v>
+      </c>
+      <c r="AP201">
+        <v>2.06</v>
+      </c>
+      <c r="AQ201">
+        <v>1.06</v>
+      </c>
+      <c r="AR201">
+        <v>1.99</v>
+      </c>
+      <c r="AS201">
+        <v>1.54</v>
+      </c>
+      <c r="AT201">
+        <v>3.53</v>
+      </c>
+      <c r="AU201">
+        <v>6</v>
+      </c>
+      <c r="AV201">
+        <v>2</v>
+      </c>
+      <c r="AW201">
+        <v>8</v>
+      </c>
+      <c r="AX201">
+        <v>6</v>
+      </c>
+      <c r="AY201">
+        <v>14</v>
+      </c>
+      <c r="AZ201">
+        <v>8</v>
+      </c>
+      <c r="BA201">
+        <v>10</v>
+      </c>
+      <c r="BB201">
+        <v>1</v>
+      </c>
+      <c r="BC201">
+        <v>11</v>
+      </c>
+      <c r="BD201">
+        <v>1.24</v>
+      </c>
+      <c r="BE201">
+        <v>12</v>
+      </c>
+      <c r="BF201">
+        <v>5.13</v>
+      </c>
+      <c r="BG201">
+        <v>1.14</v>
+      </c>
+      <c r="BH201">
+        <v>4.6</v>
+      </c>
+      <c r="BI201">
+        <v>1.31</v>
+      </c>
+      <c r="BJ201">
+        <v>3.14</v>
+      </c>
+      <c r="BK201">
+        <v>1.56</v>
+      </c>
+      <c r="BL201">
+        <v>2.33</v>
+      </c>
+      <c r="BM201">
+        <v>1.9</v>
+      </c>
+      <c r="BN201">
+        <v>1.8</v>
+      </c>
+      <c r="BO201">
+        <v>2.42</v>
+      </c>
+      <c r="BP201">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="202" spans="1:68">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>7417503</v>
+      </c>
+      <c r="C202" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" t="s">
+        <v>69</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45416.64583333334</v>
+      </c>
+      <c r="F202">
+        <v>34</v>
+      </c>
+      <c r="G202" t="s">
+        <v>77</v>
+      </c>
+      <c r="H202" t="s">
+        <v>71</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>0</v>
+      </c>
+      <c r="M202">
+        <v>1</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>84</v>
+      </c>
+      <c r="P202" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q202">
+        <v>2.6</v>
+      </c>
+      <c r="R202">
+        <v>2.5</v>
+      </c>
+      <c r="S202">
+        <v>3.4</v>
+      </c>
+      <c r="T202">
+        <v>1.25</v>
+      </c>
+      <c r="U202">
+        <v>3.75</v>
+      </c>
+      <c r="V202">
+        <v>2.2</v>
+      </c>
+      <c r="W202">
+        <v>1.62</v>
+      </c>
+      <c r="X202">
+        <v>4.75</v>
+      </c>
+      <c r="Y202">
+        <v>1.16</v>
+      </c>
+      <c r="Z202">
+        <v>2.07</v>
+      </c>
+      <c r="AA202">
+        <v>3.65</v>
+      </c>
+      <c r="AB202">
+        <v>2.9</v>
+      </c>
+      <c r="AC202">
+        <v>1.04</v>
+      </c>
+      <c r="AD202">
+        <v>10</v>
+      </c>
+      <c r="AE202">
+        <v>1.16</v>
+      </c>
+      <c r="AF202">
+        <v>4.75</v>
+      </c>
+      <c r="AG202">
+        <v>1.57</v>
+      </c>
+      <c r="AH202">
+        <v>2.25</v>
+      </c>
+      <c r="AI202">
+        <v>1.44</v>
+      </c>
+      <c r="AJ202">
+        <v>2.7</v>
+      </c>
+      <c r="AK202">
+        <v>1.38</v>
+      </c>
+      <c r="AL202">
+        <v>1.2</v>
+      </c>
+      <c r="AM202">
+        <v>1.7</v>
+      </c>
+      <c r="AN202">
+        <v>1.88</v>
+      </c>
+      <c r="AO202">
+        <v>0.88</v>
+      </c>
+      <c r="AP202">
+        <v>1.76</v>
+      </c>
+      <c r="AQ202">
+        <v>1</v>
+      </c>
+      <c r="AR202">
+        <v>1.47</v>
+      </c>
+      <c r="AS202">
+        <v>1.77</v>
+      </c>
+      <c r="AT202">
+        <v>3.24</v>
+      </c>
+      <c r="AU202">
+        <v>5</v>
+      </c>
+      <c r="AV202">
+        <v>3</v>
+      </c>
+      <c r="AW202">
+        <v>5</v>
+      </c>
+      <c r="AX202">
+        <v>5</v>
+      </c>
+      <c r="AY202">
+        <v>10</v>
+      </c>
+      <c r="AZ202">
+        <v>8</v>
+      </c>
+      <c r="BA202">
+        <v>8</v>
+      </c>
+      <c r="BB202">
+        <v>1</v>
+      </c>
+      <c r="BC202">
+        <v>9</v>
+      </c>
+      <c r="BD202">
+        <v>1.91</v>
+      </c>
+      <c r="BE202">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF202">
+        <v>2.17</v>
+      </c>
+      <c r="BG202">
+        <v>1.16</v>
+      </c>
+      <c r="BH202">
+        <v>4.3</v>
+      </c>
+      <c r="BI202">
+        <v>1.33</v>
+      </c>
+      <c r="BJ202">
+        <v>2.93</v>
+      </c>
+      <c r="BK202">
+        <v>1.61</v>
+      </c>
+      <c r="BL202">
+        <v>2.17</v>
+      </c>
+      <c r="BM202">
+        <v>2.03</v>
+      </c>
+      <c r="BN202">
+        <v>1.73</v>
+      </c>
+      <c r="BO202">
+        <v>2.62</v>
+      </c>
+      <c r="BP202">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="327">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -706,6 +706,9 @@
     <t>['2', '4']</t>
   </si>
   <si>
+    <t>['52']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -989,6 +992,9 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -1350,7 +1356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP202"/>
+  <dimension ref="A1:BP203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1609,7 +1615,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1815,7 +1821,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2102,7 +2108,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ4">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2227,7 +2233,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2639,7 +2645,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -3257,7 +3263,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3463,7 +3469,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3669,7 +3675,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3747,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ12">
         <v>1.06</v>
@@ -3875,7 +3881,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4081,7 +4087,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4287,7 +4293,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4699,7 +4705,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -5192,7 +5198,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ19">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR19">
         <v>2.56</v>
@@ -5317,7 +5323,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5523,7 +5529,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5935,7 +5941,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6013,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ23">
         <v>0.82</v>
@@ -6141,7 +6147,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6347,7 +6353,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6553,7 +6559,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6759,7 +6765,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6965,7 +6971,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7046,7 +7052,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ28">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR28">
         <v>1.02</v>
@@ -7171,7 +7177,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7583,7 +7589,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7789,7 +7795,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -8201,7 +8207,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8407,7 +8413,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8485,7 +8491,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -9231,7 +9237,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -10055,7 +10061,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10261,7 +10267,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10467,7 +10473,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10673,7 +10679,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -10957,10 +10963,10 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ47">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR47">
         <v>1.87</v>
@@ -11085,7 +11091,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11497,7 +11503,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11909,7 +11915,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -11987,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ52">
         <v>0.65</v>
@@ -12115,7 +12121,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12321,7 +12327,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12527,7 +12533,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -13145,7 +13151,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q58">
         <v>2.94</v>
@@ -13226,7 +13232,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ58">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR58">
         <v>1.79</v>
@@ -13557,7 +13563,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14047,7 +14053,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ62">
         <v>1.44</v>
@@ -14175,7 +14181,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14381,7 +14387,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14793,7 +14799,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -14999,7 +15005,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15205,7 +15211,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15617,7 +15623,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15698,7 +15704,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ70">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR70">
         <v>1.81</v>
@@ -16029,7 +16035,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16235,7 +16241,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16441,7 +16447,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16931,7 +16937,7 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ76">
         <v>0.38</v>
@@ -17059,7 +17065,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17265,7 +17271,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17471,7 +17477,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17677,7 +17683,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17758,7 +17764,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ80">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17883,7 +17889,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18089,7 +18095,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18295,7 +18301,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18913,7 +18919,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19403,7 +19409,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -20149,7 +20155,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20436,7 +20442,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ93">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR93">
         <v>1.49</v>
@@ -20767,7 +20773,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -21257,7 +21263,7 @@
         <v>0.5</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ97">
         <v>0.53</v>
@@ -21591,7 +21597,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -22003,7 +22009,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22084,7 +22090,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ101">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -22415,7 +22421,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22827,7 +22833,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -23651,7 +23657,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -24063,7 +24069,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24475,7 +24481,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24681,7 +24687,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24762,7 +24768,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR114">
         <v>1.51</v>
@@ -24887,7 +24893,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25299,7 +25305,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25583,7 +25589,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ118">
         <v>1.41</v>
@@ -25711,7 +25717,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25917,7 +25923,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26123,7 +26129,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26329,7 +26335,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26535,7 +26541,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26947,7 +26953,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27153,7 +27159,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27359,7 +27365,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27440,7 +27446,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ127">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR127">
         <v>1.25</v>
@@ -27565,7 +27571,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27771,7 +27777,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27977,7 +27983,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28055,7 +28061,7 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ130">
         <v>1.71</v>
@@ -28595,7 +28601,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28801,7 +28807,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29213,7 +29219,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29500,7 +29506,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ137">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29703,7 +29709,7 @@
         <v>0.82</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29831,7 +29837,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -30037,7 +30043,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30243,7 +30249,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -31067,7 +31073,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31479,7 +31485,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -31766,7 +31772,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ148">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
@@ -32097,7 +32103,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32715,7 +32721,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32921,7 +32927,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -32999,7 +33005,7 @@
         <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ154">
         <v>0.82</v>
@@ -33127,7 +33133,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33951,7 +33957,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34157,7 +34163,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34650,7 +34656,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ162">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR162">
         <v>1.27</v>
@@ -34981,7 +34987,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35059,7 +35065,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ164">
         <v>1.06</v>
@@ -35187,7 +35193,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35599,7 +35605,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -36011,7 +36017,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36423,7 +36429,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36629,7 +36635,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36707,7 +36713,7 @@
         <v>1.14</v>
       </c>
       <c r="AP172">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ172">
         <v>1.18</v>
@@ -37041,7 +37047,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37247,7 +37253,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37328,7 +37334,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ175">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR175">
         <v>1.89</v>
@@ -37659,7 +37665,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -38071,7 +38077,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38689,7 +38695,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38895,7 +38901,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39101,7 +39107,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39513,7 +39519,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39719,7 +39725,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39925,7 +39931,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40621,7 +40627,7 @@
         <v>1.53</v>
       </c>
       <c r="AP191">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AQ191">
         <v>1.44</v>
@@ -40955,7 +40961,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41036,7 +41042,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ193">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="AR193">
         <v>2.01</v>
@@ -41985,7 +41991,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42397,7 +42403,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42490,22 +42496,22 @@
         <v>2.44</v>
       </c>
       <c r="AU200">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV200">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW200">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX200">
         <v>4</v>
       </c>
       <c r="AY200">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AZ200">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA200">
         <v>4</v>
@@ -42603,7 +42609,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -42696,22 +42702,22 @@
         <v>3.53</v>
       </c>
       <c r="AU201">
+        <v>4</v>
+      </c>
+      <c r="AV201">
+        <v>0</v>
+      </c>
+      <c r="AW201">
         <v>6</v>
       </c>
-      <c r="AV201">
-        <v>2</v>
-      </c>
-      <c r="AW201">
-        <v>8</v>
-      </c>
       <c r="AX201">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY201">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ201">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA201">
         <v>10</v>
@@ -42966,6 +42972,212 @@
       </c>
       <c r="BP202">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="203" spans="1:68">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>7417504</v>
+      </c>
+      <c r="C203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D203" t="s">
+        <v>69</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45417.38541666666</v>
+      </c>
+      <c r="F203">
+        <v>34</v>
+      </c>
+      <c r="G203" t="s">
+        <v>80</v>
+      </c>
+      <c r="H203" t="s">
+        <v>79</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+      <c r="K203">
+        <v>0</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>2</v>
+      </c>
+      <c r="O203" t="s">
+        <v>230</v>
+      </c>
+      <c r="P203" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q203">
+        <v>2.75</v>
+      </c>
+      <c r="R203">
+        <v>2.38</v>
+      </c>
+      <c r="S203">
+        <v>3.5</v>
+      </c>
+      <c r="T203">
+        <v>1.3</v>
+      </c>
+      <c r="U203">
+        <v>3.4</v>
+      </c>
+      <c r="V203">
+        <v>2.5</v>
+      </c>
+      <c r="W203">
+        <v>1.5</v>
+      </c>
+      <c r="X203">
+        <v>6</v>
+      </c>
+      <c r="Y203">
+        <v>1.13</v>
+      </c>
+      <c r="Z203">
+        <v>2.17</v>
+      </c>
+      <c r="AA203">
+        <v>3.6</v>
+      </c>
+      <c r="AB203">
+        <v>3.06</v>
+      </c>
+      <c r="AC203">
+        <v>1.04</v>
+      </c>
+      <c r="AD203">
+        <v>10</v>
+      </c>
+      <c r="AE203">
+        <v>1.18</v>
+      </c>
+      <c r="AF203">
+        <v>4.5</v>
+      </c>
+      <c r="AG203">
+        <v>1.62</v>
+      </c>
+      <c r="AH203">
+        <v>2.21</v>
+      </c>
+      <c r="AI203">
+        <v>1.53</v>
+      </c>
+      <c r="AJ203">
+        <v>2.38</v>
+      </c>
+      <c r="AK203">
+        <v>1.38</v>
+      </c>
+      <c r="AL203">
+        <v>1.22</v>
+      </c>
+      <c r="AM203">
+        <v>1.66</v>
+      </c>
+      <c r="AN203">
+        <v>1.38</v>
+      </c>
+      <c r="AO203">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP203">
+        <v>1.35</v>
+      </c>
+      <c r="AQ203">
+        <v>0.82</v>
+      </c>
+      <c r="AR203">
+        <v>1.49</v>
+      </c>
+      <c r="AS203">
+        <v>1.55</v>
+      </c>
+      <c r="AT203">
+        <v>3.04</v>
+      </c>
+      <c r="AU203">
+        <v>5</v>
+      </c>
+      <c r="AV203">
+        <v>6</v>
+      </c>
+      <c r="AW203">
+        <v>3</v>
+      </c>
+      <c r="AX203">
+        <v>2</v>
+      </c>
+      <c r="AY203">
+        <v>8</v>
+      </c>
+      <c r="AZ203">
+        <v>8</v>
+      </c>
+      <c r="BA203">
+        <v>5</v>
+      </c>
+      <c r="BB203">
+        <v>3</v>
+      </c>
+      <c r="BC203">
+        <v>8</v>
+      </c>
+      <c r="BD203">
+        <v>1.91</v>
+      </c>
+      <c r="BE203">
+        <v>8</v>
+      </c>
+      <c r="BF203">
+        <v>2.1</v>
+      </c>
+      <c r="BG203">
+        <v>1.13</v>
+      </c>
+      <c r="BH203">
+        <v>4.75</v>
+      </c>
+      <c r="BI203">
+        <v>1.28</v>
+      </c>
+      <c r="BJ203">
+        <v>3.2</v>
+      </c>
+      <c r="BK203">
+        <v>1.53</v>
+      </c>
+      <c r="BL203">
+        <v>2.34</v>
+      </c>
+      <c r="BM203">
+        <v>1.76</v>
+      </c>
+      <c r="BN203">
+        <v>2.02</v>
+      </c>
+      <c r="BO203">
+        <v>2.18</v>
+      </c>
+      <c r="BP203">
+        <v>1.66</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="329">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -709,6 +709,9 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['9', '14', '17']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -995,6 +998,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['42', '54']</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP203"/>
+  <dimension ref="A1:BP205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1615,7 +1621,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1821,7 +1827,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2233,7 +2239,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2314,7 +2320,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ5">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2517,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ6">
         <v>0.38</v>
@@ -2645,7 +2651,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -3263,7 +3269,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3469,7 +3475,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3675,7 +3681,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3881,7 +3887,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3959,10 +3965,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ13">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4087,7 +4093,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4293,7 +4299,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4577,7 +4583,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ16">
         <v>1.71</v>
@@ -4705,7 +4711,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -5323,7 +5329,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5529,7 +5535,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5941,7 +5947,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6022,7 +6028,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ23">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR23">
         <v>2.71</v>
@@ -6147,7 +6153,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6353,7 +6359,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6434,7 +6440,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ25">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6559,7 +6565,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6637,7 +6643,7 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6765,7 +6771,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6843,7 +6849,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ27">
         <v>1.44</v>
@@ -6971,7 +6977,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7177,7 +7183,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7464,7 +7470,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ30">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR30">
         <v>2.28</v>
@@ -7589,7 +7595,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7795,7 +7801,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -8082,7 +8088,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ33">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8207,7 +8213,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8413,7 +8419,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -9237,7 +9243,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9315,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ39">
         <v>1.06</v>
@@ -9933,7 +9939,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ42">
         <v>0.53</v>
@@ -10061,7 +10067,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10142,7 +10148,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ43">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR43">
         <v>1.62</v>
@@ -10267,7 +10273,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10473,7 +10479,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10554,7 +10560,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ45">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR45">
         <v>1.93</v>
@@ -10679,7 +10685,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -11091,7 +11097,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11378,7 +11384,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11503,7 +11509,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11584,7 +11590,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ50">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11787,7 +11793,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ51">
         <v>1</v>
@@ -11915,7 +11921,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12121,7 +12127,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12327,7 +12333,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12405,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ54">
         <v>1.06</v>
@@ -12533,7 +12539,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -12611,7 +12617,7 @@
         <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ55">
         <v>0.53</v>
@@ -13151,7 +13157,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q58">
         <v>2.94</v>
@@ -13563,7 +13569,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13644,7 +13650,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ60">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -14181,7 +14187,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14387,7 +14393,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14799,7 +14805,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -14877,7 +14883,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -15005,7 +15011,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15211,7 +15217,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15289,7 +15295,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ68">
         <v>0.65</v>
@@ -15623,7 +15629,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15910,7 +15916,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ71">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.54</v>
@@ -16035,7 +16041,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16116,7 +16122,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ72">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR72">
         <v>1.73</v>
@@ -16241,7 +16247,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16447,7 +16453,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16525,7 +16531,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ74">
         <v>1.44</v>
@@ -17065,7 +17071,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17271,7 +17277,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17477,7 +17483,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17555,10 +17561,10 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ79">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17683,7 +17689,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17889,7 +17895,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18095,7 +18101,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18301,7 +18307,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18791,10 +18797,10 @@
         <v>1.71</v>
       </c>
       <c r="AP85">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ85">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18919,7 +18925,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -18997,7 +19003,7 @@
         <v>0.86</v>
       </c>
       <c r="AP86">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ86">
         <v>1.71</v>
@@ -19824,7 +19830,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ90">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -20155,7 +20161,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20773,7 +20779,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -21597,7 +21603,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -22009,7 +22015,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22087,7 +22093,7 @@
         <v>0.63</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ101">
         <v>0.82</v>
@@ -22293,7 +22299,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ102">
         <v>0.65</v>
@@ -22421,7 +22427,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22833,7 +22839,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -22914,7 +22920,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ105">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.3</v>
@@ -23326,7 +23332,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ107">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR107">
         <v>1.65</v>
@@ -23657,7 +23663,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -24069,7 +24075,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24353,7 +24359,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ112">
         <v>1.06</v>
@@ -24481,7 +24487,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24687,7 +24693,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24765,7 +24771,7 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ114">
         <v>0.82</v>
@@ -24893,7 +24899,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25305,7 +25311,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25592,7 +25598,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ118">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR118">
         <v>1.54</v>
@@ -25717,7 +25723,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25923,7 +25929,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26129,7 +26135,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26210,7 +26216,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ121">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR121">
         <v>1.7</v>
@@ -26335,7 +26341,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26541,7 +26547,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26953,7 +26959,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27031,10 +27037,10 @@
         <v>0.5</v>
       </c>
       <c r="AP125">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ125">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR125">
         <v>1.63</v>
@@ -27159,7 +27165,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27365,7 +27371,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27571,7 +27577,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27777,7 +27783,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27858,7 +27864,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ129">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.73</v>
@@ -27983,7 +27989,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28267,7 +28273,7 @@
         <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ131">
         <v>1.18</v>
@@ -28601,7 +28607,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28807,7 +28813,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28888,7 +28894,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ134">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29091,7 +29097,7 @@
         <v>0.73</v>
       </c>
       <c r="AP135">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ135">
         <v>0.53</v>
@@ -29219,7 +29225,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29300,7 +29306,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ136">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR136">
         <v>1.47</v>
@@ -29837,7 +29843,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -29915,7 +29921,7 @@
         <v>1.73</v>
       </c>
       <c r="AP139">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ139">
         <v>1.44</v>
@@ -30043,7 +30049,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30249,7 +30255,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -31073,7 +31079,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31485,7 +31491,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -31563,7 +31569,7 @@
         <v>0.92</v>
       </c>
       <c r="AP147">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ147">
         <v>1.06</v>
@@ -32103,7 +32109,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32721,7 +32727,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32927,7 +32933,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33008,7 +33014,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ154">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33133,7 +33139,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33623,10 +33629,10 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ157">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR157">
         <v>1.54</v>
@@ -33957,7 +33963,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34035,7 +34041,7 @@
         <v>1.23</v>
       </c>
       <c r="AP159">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ159">
         <v>1.18</v>
@@ -34163,7 +34169,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34450,7 +34456,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR161">
         <v>1.98</v>
@@ -34987,7 +34993,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35193,7 +35199,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35605,7 +35611,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -35683,7 +35689,7 @@
         <v>0.54</v>
       </c>
       <c r="AP167">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ167">
         <v>0.65</v>
@@ -35892,7 +35898,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ168">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR168">
         <v>1.73</v>
@@ -36017,7 +36023,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36429,7 +36435,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36635,7 +36641,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36919,10 +36925,10 @@
         <v>1.36</v>
       </c>
       <c r="AP173">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ173">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37047,7 +37053,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37128,7 +37134,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ174">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR174">
         <v>1.32</v>
@@ -37253,7 +37259,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37665,7 +37671,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37949,7 +37955,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ178">
         <v>1.06</v>
@@ -38077,7 +38083,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38695,7 +38701,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38901,7 +38907,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39107,7 +39113,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39394,7 +39400,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ185">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR185">
         <v>1.63</v>
@@ -39519,7 +39525,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39600,7 +39606,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ186">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR186">
         <v>1.89</v>
@@ -39725,7 +39731,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39803,7 +39809,7 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ187">
         <v>0.53</v>
@@ -39931,7 +39937,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40961,7 +40967,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41451,7 +41457,7 @@
         <v>0.73</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ195">
         <v>0.65</v>
@@ -41660,7 +41666,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ196">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR196">
         <v>1.49</v>
@@ -41991,7 +41997,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42072,7 +42078,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ198">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AR198">
         <v>1.59</v>
@@ -42275,7 +42281,7 @@
         <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AQ199">
         <v>1</v>
@@ -42403,7 +42409,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42496,22 +42502,22 @@
         <v>2.44</v>
       </c>
       <c r="AU200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV200">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW200">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX200">
         <v>4</v>
       </c>
       <c r="AY200">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ200">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA200">
         <v>4</v>
@@ -42609,7 +42615,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -42702,22 +42708,22 @@
         <v>3.53</v>
       </c>
       <c r="AU201">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW201">
+        <v>8</v>
+      </c>
+      <c r="AX201">
         <v>6</v>
       </c>
-      <c r="AX201">
-        <v>7</v>
-      </c>
       <c r="AY201">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ201">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA201">
         <v>10</v>
@@ -43021,7 +43027,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43114,22 +43120,22 @@
         <v>3.04</v>
       </c>
       <c r="AU203">
+        <v>6</v>
+      </c>
+      <c r="AV203">
+        <v>7</v>
+      </c>
+      <c r="AW203">
         <v>5</v>
       </c>
-      <c r="AV203">
-        <v>6</v>
-      </c>
-      <c r="AW203">
+      <c r="AX203">
         <v>3</v>
       </c>
-      <c r="AX203">
-        <v>2</v>
-      </c>
       <c r="AY203">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ203">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA203">
         <v>5</v>
@@ -43178,6 +43184,418 @@
       </c>
       <c r="BP203">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="204" spans="1:68">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>7417505</v>
+      </c>
+      <c r="C204" t="s">
+        <v>68</v>
+      </c>
+      <c r="D204" t="s">
+        <v>69</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45417.47916666666</v>
+      </c>
+      <c r="F204">
+        <v>34</v>
+      </c>
+      <c r="G204" t="s">
+        <v>74</v>
+      </c>
+      <c r="H204" t="s">
+        <v>73</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>0</v>
+      </c>
+      <c r="M204">
+        <v>2</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>84</v>
+      </c>
+      <c r="P204" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q204">
+        <v>3.1</v>
+      </c>
+      <c r="R204">
+        <v>2.25</v>
+      </c>
+      <c r="S204">
+        <v>3.1</v>
+      </c>
+      <c r="T204">
+        <v>1.33</v>
+      </c>
+      <c r="U204">
+        <v>3.25</v>
+      </c>
+      <c r="V204">
+        <v>2.63</v>
+      </c>
+      <c r="W204">
+        <v>1.44</v>
+      </c>
+      <c r="X204">
+        <v>6.5</v>
+      </c>
+      <c r="Y204">
+        <v>1.11</v>
+      </c>
+      <c r="Z204">
+        <v>2.56</v>
+      </c>
+      <c r="AA204">
+        <v>3.35</v>
+      </c>
+      <c r="AB204">
+        <v>2.66</v>
+      </c>
+      <c r="AC204">
+        <v>1.05</v>
+      </c>
+      <c r="AD204">
+        <v>9.5</v>
+      </c>
+      <c r="AE204">
+        <v>1.22</v>
+      </c>
+      <c r="AF204">
+        <v>4</v>
+      </c>
+      <c r="AG204">
+        <v>1.7</v>
+      </c>
+      <c r="AH204">
+        <v>2.08</v>
+      </c>
+      <c r="AI204">
+        <v>1.57</v>
+      </c>
+      <c r="AJ204">
+        <v>2.25</v>
+      </c>
+      <c r="AK204">
+        <v>1.52</v>
+      </c>
+      <c r="AL204">
+        <v>1.22</v>
+      </c>
+      <c r="AM204">
+        <v>1.47</v>
+      </c>
+      <c r="AN204">
+        <v>1.75</v>
+      </c>
+      <c r="AO204">
+        <v>1.41</v>
+      </c>
+      <c r="AP204">
+        <v>1.65</v>
+      </c>
+      <c r="AQ204">
+        <v>1.5</v>
+      </c>
+      <c r="AR204">
+        <v>1.52</v>
+      </c>
+      <c r="AS204">
+        <v>1.54</v>
+      </c>
+      <c r="AT204">
+        <v>3.06</v>
+      </c>
+      <c r="AU204">
+        <v>4</v>
+      </c>
+      <c r="AV204">
+        <v>6</v>
+      </c>
+      <c r="AW204">
+        <v>1</v>
+      </c>
+      <c r="AX204">
+        <v>4</v>
+      </c>
+      <c r="AY204">
+        <v>5</v>
+      </c>
+      <c r="AZ204">
+        <v>10</v>
+      </c>
+      <c r="BA204">
+        <v>7</v>
+      </c>
+      <c r="BB204">
+        <v>2</v>
+      </c>
+      <c r="BC204">
+        <v>9</v>
+      </c>
+      <c r="BD204">
+        <v>2</v>
+      </c>
+      <c r="BE204">
+        <v>8</v>
+      </c>
+      <c r="BF204">
+        <v>2.05</v>
+      </c>
+      <c r="BG204">
+        <v>1.13</v>
+      </c>
+      <c r="BH204">
+        <v>4.75</v>
+      </c>
+      <c r="BI204">
+        <v>1.28</v>
+      </c>
+      <c r="BJ204">
+        <v>3.2</v>
+      </c>
+      <c r="BK204">
+        <v>1.57</v>
+      </c>
+      <c r="BL204">
+        <v>2.35</v>
+      </c>
+      <c r="BM204">
+        <v>1.93</v>
+      </c>
+      <c r="BN204">
+        <v>1.86</v>
+      </c>
+      <c r="BO204">
+        <v>2.43</v>
+      </c>
+      <c r="BP204">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="205" spans="1:68">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>7417506</v>
+      </c>
+      <c r="C205" t="s">
+        <v>68</v>
+      </c>
+      <c r="D205" t="s">
+        <v>69</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45417.47916666666</v>
+      </c>
+      <c r="F205">
+        <v>34</v>
+      </c>
+      <c r="G205" t="s">
+        <v>81</v>
+      </c>
+      <c r="H205" t="s">
+        <v>76</v>
+      </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
+        <v>3</v>
+      </c>
+      <c r="M205">
+        <v>1</v>
+      </c>
+      <c r="N205">
+        <v>4</v>
+      </c>
+      <c r="O205" t="s">
+        <v>231</v>
+      </c>
+      <c r="P205" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q205">
+        <v>3.75</v>
+      </c>
+      <c r="R205">
+        <v>2.3</v>
+      </c>
+      <c r="S205">
+        <v>2.63</v>
+      </c>
+      <c r="T205">
+        <v>1.33</v>
+      </c>
+      <c r="U205">
+        <v>3.25</v>
+      </c>
+      <c r="V205">
+        <v>2.5</v>
+      </c>
+      <c r="W205">
+        <v>1.5</v>
+      </c>
+      <c r="X205">
+        <v>6</v>
+      </c>
+      <c r="Y205">
+        <v>1.13</v>
+      </c>
+      <c r="Z205">
+        <v>3.43</v>
+      </c>
+      <c r="AA205">
+        <v>3.5</v>
+      </c>
+      <c r="AB205">
+        <v>2.05</v>
+      </c>
+      <c r="AC205">
+        <v>1.01</v>
+      </c>
+      <c r="AD205">
+        <v>11</v>
+      </c>
+      <c r="AE205">
+        <v>1.2</v>
+      </c>
+      <c r="AF205">
+        <v>4</v>
+      </c>
+      <c r="AG205">
+        <v>1.65</v>
+      </c>
+      <c r="AH205">
+        <v>2.16</v>
+      </c>
+      <c r="AI205">
+        <v>1.62</v>
+      </c>
+      <c r="AJ205">
+        <v>2.2</v>
+      </c>
+      <c r="AK205">
+        <v>1.78</v>
+      </c>
+      <c r="AL205">
+        <v>1.3</v>
+      </c>
+      <c r="AM205">
+        <v>1.3</v>
+      </c>
+      <c r="AN205">
+        <v>2</v>
+      </c>
+      <c r="AO205">
+        <v>0.82</v>
+      </c>
+      <c r="AP205">
+        <v>2.06</v>
+      </c>
+      <c r="AQ205">
+        <v>0.78</v>
+      </c>
+      <c r="AR205">
+        <v>1.49</v>
+      </c>
+      <c r="AS205">
+        <v>1.43</v>
+      </c>
+      <c r="AT205">
+        <v>2.92</v>
+      </c>
+      <c r="AU205">
+        <v>7</v>
+      </c>
+      <c r="AV205">
+        <v>9</v>
+      </c>
+      <c r="AW205">
+        <v>3</v>
+      </c>
+      <c r="AX205">
+        <v>7</v>
+      </c>
+      <c r="AY205">
+        <v>10</v>
+      </c>
+      <c r="AZ205">
+        <v>16</v>
+      </c>
+      <c r="BA205">
+        <v>5</v>
+      </c>
+      <c r="BB205">
+        <v>6</v>
+      </c>
+      <c r="BC205">
+        <v>11</v>
+      </c>
+      <c r="BD205">
+        <v>2.43</v>
+      </c>
+      <c r="BE205">
+        <v>8.5</v>
+      </c>
+      <c r="BF205">
+        <v>1.75</v>
+      </c>
+      <c r="BG205">
+        <v>1.12</v>
+      </c>
+      <c r="BH205">
+        <v>5</v>
+      </c>
+      <c r="BI205">
+        <v>1.26</v>
+      </c>
+      <c r="BJ205">
+        <v>3.34</v>
+      </c>
+      <c r="BK205">
+        <v>1.53</v>
+      </c>
+      <c r="BL205">
+        <v>2.44</v>
+      </c>
+      <c r="BM205">
+        <v>1.87</v>
+      </c>
+      <c r="BN205">
+        <v>1.93</v>
+      </c>
+      <c r="BO205">
+        <v>2.32</v>
+      </c>
+      <c r="BP205">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="330">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -712,6 +712,9 @@
     <t>['9', '14', '17']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -1362,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP205"/>
+  <dimension ref="A1:BP207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1624,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1827,7 +1830,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2239,7 +2242,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2651,7 +2654,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2935,10 +2938,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ8">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3269,7 +3272,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3475,7 +3478,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3553,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
         <v>0.65</v>
@@ -3681,7 +3684,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3887,7 +3890,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4093,7 +4096,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4299,7 +4302,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4711,7 +4714,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4789,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ17">
         <v>0.38</v>
@@ -5329,7 +5332,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5535,7 +5538,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5616,7 +5619,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ21">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR21">
         <v>2.13</v>
@@ -5947,7 +5950,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6153,7 +6156,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6359,7 +6362,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6437,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ25">
         <v>1.5</v>
@@ -6565,7 +6568,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6771,7 +6774,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6977,7 +6980,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7183,7 +7186,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7261,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ29">
         <v>1.06</v>
@@ -7595,7 +7598,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7676,7 +7679,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ31">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR31">
         <v>1.27</v>
@@ -7801,7 +7804,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -8213,7 +8216,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8291,7 +8294,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ34">
         <v>1.71</v>
@@ -8419,7 +8422,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8703,7 +8706,7 @@
         <v>1.67</v>
       </c>
       <c r="AP36">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ36">
         <v>1.18</v>
@@ -9243,7 +9246,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9527,7 +9530,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ40">
         <v>1.44</v>
@@ -9942,7 +9945,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ42">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR42">
         <v>1.57</v>
@@ -10067,7 +10070,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10273,7 +10276,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10479,7 +10482,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10685,7 +10688,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -11097,7 +11100,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11509,7 +11512,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11921,7 +11924,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12127,7 +12130,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12205,7 +12208,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
         <v>1.18</v>
@@ -12333,7 +12336,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12539,7 +12542,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -12620,7 +12623,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ55">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR55">
         <v>1.74</v>
@@ -13157,7 +13160,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q58">
         <v>2.94</v>
@@ -13235,7 +13238,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ58">
         <v>0.82</v>
@@ -13569,7 +13572,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14187,7 +14190,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14393,7 +14396,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14677,7 +14680,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ65">
         <v>0.38</v>
@@ -14805,7 +14808,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -15011,7 +15014,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15092,7 +15095,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ67">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR67">
         <v>2.08</v>
@@ -15217,7 +15220,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15501,7 +15504,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ69">
         <v>1.06</v>
@@ -15629,7 +15632,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -16041,7 +16044,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16247,7 +16250,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16325,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ73">
         <v>1.71</v>
@@ -16453,7 +16456,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16737,10 +16740,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ75">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR75">
         <v>1.61</v>
@@ -17071,7 +17074,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17277,7 +17280,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17483,7 +17486,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17689,7 +17692,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17895,7 +17898,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18101,7 +18104,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18307,7 +18310,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18591,7 +18594,7 @@
         <v>0.71</v>
       </c>
       <c r="AP84">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ84">
         <v>1.06</v>
@@ -18925,7 +18928,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19209,7 +19212,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ87">
         <v>0.65</v>
@@ -19624,7 +19627,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ89">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR89">
         <v>1.98</v>
@@ -20161,7 +20164,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20779,7 +20782,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -21272,7 +21275,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ97">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21603,7 +21606,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21681,7 +21684,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ99">
         <v>1.44</v>
@@ -22015,7 +22018,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22427,7 +22430,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22839,7 +22842,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -23535,7 +23538,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ108">
         <v>1.06</v>
@@ -23663,7 +23666,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23950,7 +23953,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ110">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR110">
         <v>1.86</v>
@@ -24075,7 +24078,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24153,7 +24156,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24487,7 +24490,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24693,7 +24696,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24899,7 +24902,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25311,7 +25314,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25723,7 +25726,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25929,7 +25932,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26135,7 +26138,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26213,7 +26216,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP121">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ121">
         <v>0.78</v>
@@ -26341,7 +26344,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26547,7 +26550,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26834,7 +26837,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ124">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR124">
         <v>1.52</v>
@@ -26959,7 +26962,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27165,7 +27168,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27371,7 +27374,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27577,7 +27580,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27783,7 +27786,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27861,7 +27864,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -27989,7 +27992,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28479,7 +28482,7 @@
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ132">
         <v>1</v>
@@ -28607,7 +28610,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28813,7 +28816,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29100,7 +29103,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ135">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR135">
         <v>1.62</v>
@@ -29225,7 +29228,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29843,7 +29846,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -30049,7 +30052,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30255,7 +30258,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30333,7 +30336,7 @@
         <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ141">
         <v>0.38</v>
@@ -30951,7 +30954,7 @@
         <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ144">
         <v>1.18</v>
@@ -31079,7 +31082,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31491,7 +31494,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -32109,7 +32112,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32187,7 +32190,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -32727,7 +32730,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32808,7 +32811,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ153">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -32933,7 +32936,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33139,7 +33142,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33217,7 +33220,7 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ155">
         <v>1.71</v>
@@ -33838,7 +33841,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ158">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR158">
         <v>1.57</v>
@@ -33963,7 +33966,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34169,7 +34172,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34993,7 +34996,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35199,7 +35202,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35611,7 +35614,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -35895,7 +35898,7 @@
         <v>1.46</v>
       </c>
       <c r="AP168">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ168">
         <v>1.5</v>
@@ -36023,7 +36026,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36101,7 +36104,7 @@
         <v>1.69</v>
       </c>
       <c r="AP169">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ169">
         <v>1.44</v>
@@ -36435,7 +36438,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36641,7 +36644,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37053,7 +37056,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37259,7 +37262,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37671,7 +37674,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -38083,7 +38086,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38161,7 +38164,7 @@
         <v>0.71</v>
       </c>
       <c r="AP179">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ179">
         <v>1</v>
@@ -38367,7 +38370,7 @@
         <v>0.43</v>
       </c>
       <c r="AP180">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ180">
         <v>0.38</v>
@@ -38576,7 +38579,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ181">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR181">
         <v>2.05</v>
@@ -38701,7 +38704,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38907,7 +38910,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39113,7 +39116,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39397,7 +39400,7 @@
         <v>0.87</v>
       </c>
       <c r="AP185">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ185">
         <v>0.78</v>
@@ -39525,7 +39528,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39731,7 +39734,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39812,7 +39815,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ187">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -39937,7 +39940,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40221,7 +40224,7 @@
         <v>1.25</v>
       </c>
       <c r="AP189">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AQ189">
         <v>1.18</v>
@@ -40967,7 +40970,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41254,7 +41257,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ194">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR194">
         <v>2.02</v>
@@ -41869,7 +41872,7 @@
         <v>1.06</v>
       </c>
       <c r="AP197">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AQ197">
         <v>1.06</v>
@@ -41997,7 +42000,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42409,7 +42412,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42615,7 +42618,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -43027,7 +43030,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43233,7 +43236,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43596,6 +43599,418 @@
       </c>
       <c r="BP205">
         <v>1.59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:68">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>7417507</v>
+      </c>
+      <c r="C206" t="s">
+        <v>68</v>
+      </c>
+      <c r="D206" t="s">
+        <v>69</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45422.64583333334</v>
+      </c>
+      <c r="F206">
+        <v>35</v>
+      </c>
+      <c r="G206" t="s">
+        <v>76</v>
+      </c>
+      <c r="H206" t="s">
+        <v>80</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+      <c r="K206">
+        <v>0</v>
+      </c>
+      <c r="L206">
+        <v>0</v>
+      </c>
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206" t="s">
+        <v>84</v>
+      </c>
+      <c r="P206" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q206">
+        <v>2.7</v>
+      </c>
+      <c r="R206">
+        <v>2.15</v>
+      </c>
+      <c r="S206">
+        <v>3.5</v>
+      </c>
+      <c r="T206">
+        <v>1.33</v>
+      </c>
+      <c r="U206">
+        <v>3</v>
+      </c>
+      <c r="V206">
+        <v>2.45</v>
+      </c>
+      <c r="W206">
+        <v>1.48</v>
+      </c>
+      <c r="X206">
+        <v>6.1</v>
+      </c>
+      <c r="Y206">
+        <v>1.11</v>
+      </c>
+      <c r="Z206">
+        <v>2.15</v>
+      </c>
+      <c r="AA206">
+        <v>3.5</v>
+      </c>
+      <c r="AB206">
+        <v>3.1</v>
+      </c>
+      <c r="AC206">
+        <v>1.05</v>
+      </c>
+      <c r="AD206">
+        <v>9.5</v>
+      </c>
+      <c r="AE206">
+        <v>1.22</v>
+      </c>
+      <c r="AF206">
+        <v>4</v>
+      </c>
+      <c r="AG206">
+        <v>1.61</v>
+      </c>
+      <c r="AH206">
+        <v>1.97</v>
+      </c>
+      <c r="AI206">
+        <v>1.55</v>
+      </c>
+      <c r="AJ206">
+        <v>2.25</v>
+      </c>
+      <c r="AK206">
+        <v>1.35</v>
+      </c>
+      <c r="AL206">
+        <v>1.25</v>
+      </c>
+      <c r="AM206">
+        <v>1.65</v>
+      </c>
+      <c r="AN206">
+        <v>1.63</v>
+      </c>
+      <c r="AO206">
+        <v>1.06</v>
+      </c>
+      <c r="AP206">
+        <v>1.59</v>
+      </c>
+      <c r="AQ206">
+        <v>1.06</v>
+      </c>
+      <c r="AR206">
+        <v>1.76</v>
+      </c>
+      <c r="AS206">
+        <v>1.54</v>
+      </c>
+      <c r="AT206">
+        <v>3.3</v>
+      </c>
+      <c r="AU206">
+        <v>7</v>
+      </c>
+      <c r="AV206">
+        <v>3</v>
+      </c>
+      <c r="AW206">
+        <v>7</v>
+      </c>
+      <c r="AX206">
+        <v>6</v>
+      </c>
+      <c r="AY206">
+        <v>14</v>
+      </c>
+      <c r="AZ206">
+        <v>9</v>
+      </c>
+      <c r="BA206">
+        <v>9</v>
+      </c>
+      <c r="BB206">
+        <v>2</v>
+      </c>
+      <c r="BC206">
+        <v>11</v>
+      </c>
+      <c r="BD206">
+        <v>1.63</v>
+      </c>
+      <c r="BE206">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF206">
+        <v>2.71</v>
+      </c>
+      <c r="BG206">
+        <v>1.12</v>
+      </c>
+      <c r="BH206">
+        <v>4.9</v>
+      </c>
+      <c r="BI206">
+        <v>1.27</v>
+      </c>
+      <c r="BJ206">
+        <v>3.28</v>
+      </c>
+      <c r="BK206">
+        <v>1.5</v>
+      </c>
+      <c r="BL206">
+        <v>2.41</v>
+      </c>
+      <c r="BM206">
+        <v>1.86</v>
+      </c>
+      <c r="BN206">
+        <v>1.88</v>
+      </c>
+      <c r="BO206">
+        <v>2.34</v>
+      </c>
+      <c r="BP206">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="207" spans="1:68">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>7417508</v>
+      </c>
+      <c r="C207" t="s">
+        <v>68</v>
+      </c>
+      <c r="D207" t="s">
+        <v>69</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45422.64583333334</v>
+      </c>
+      <c r="F207">
+        <v>35</v>
+      </c>
+      <c r="G207" t="s">
+        <v>79</v>
+      </c>
+      <c r="H207" t="s">
+        <v>70</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>0</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>2</v>
+      </c>
+      <c r="O207" t="s">
+        <v>232</v>
+      </c>
+      <c r="P207" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q207">
+        <v>2.28</v>
+      </c>
+      <c r="R207">
+        <v>2.39</v>
+      </c>
+      <c r="S207">
+        <v>4.25</v>
+      </c>
+      <c r="T207">
+        <v>1.28</v>
+      </c>
+      <c r="U207">
+        <v>3.48</v>
+      </c>
+      <c r="V207">
+        <v>2.32</v>
+      </c>
+      <c r="W207">
+        <v>1.57</v>
+      </c>
+      <c r="X207">
+        <v>5.3</v>
+      </c>
+      <c r="Y207">
+        <v>1.14</v>
+      </c>
+      <c r="Z207">
+        <v>1.75</v>
+      </c>
+      <c r="AA207">
+        <v>3.8</v>
+      </c>
+      <c r="AB207">
+        <v>4.33</v>
+      </c>
+      <c r="AC207">
+        <v>1.04</v>
+      </c>
+      <c r="AD207">
+        <v>10</v>
+      </c>
+      <c r="AE207">
+        <v>1.15</v>
+      </c>
+      <c r="AF207">
+        <v>4.5</v>
+      </c>
+      <c r="AG207">
+        <v>1.48</v>
+      </c>
+      <c r="AH207">
+        <v>2.2</v>
+      </c>
+      <c r="AI207">
+        <v>1.57</v>
+      </c>
+      <c r="AJ207">
+        <v>2.31</v>
+      </c>
+      <c r="AK207">
+        <v>1.24</v>
+      </c>
+      <c r="AL207">
+        <v>1.24</v>
+      </c>
+      <c r="AM207">
+        <v>2.04</v>
+      </c>
+      <c r="AN207">
+        <v>1.82</v>
+      </c>
+      <c r="AO207">
+        <v>0.53</v>
+      </c>
+      <c r="AP207">
+        <v>1.78</v>
+      </c>
+      <c r="AQ207">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR207">
+        <v>1.63</v>
+      </c>
+      <c r="AS207">
+        <v>1.33</v>
+      </c>
+      <c r="AT207">
+        <v>2.96</v>
+      </c>
+      <c r="AU207">
+        <v>4</v>
+      </c>
+      <c r="AV207">
+        <v>4</v>
+      </c>
+      <c r="AW207">
+        <v>3</v>
+      </c>
+      <c r="AX207">
+        <v>7</v>
+      </c>
+      <c r="AY207">
+        <v>7</v>
+      </c>
+      <c r="AZ207">
+        <v>11</v>
+      </c>
+      <c r="BA207">
+        <v>5</v>
+      </c>
+      <c r="BB207">
+        <v>5</v>
+      </c>
+      <c r="BC207">
+        <v>10</v>
+      </c>
+      <c r="BD207">
+        <v>1.67</v>
+      </c>
+      <c r="BE207">
+        <v>9.5</v>
+      </c>
+      <c r="BF207">
+        <v>2.62</v>
+      </c>
+      <c r="BG207">
+        <v>1.14</v>
+      </c>
+      <c r="BH207">
+        <v>4.55</v>
+      </c>
+      <c r="BI207">
+        <v>1.3</v>
+      </c>
+      <c r="BJ207">
+        <v>3.08</v>
+      </c>
+      <c r="BK207">
+        <v>1.55</v>
+      </c>
+      <c r="BL207">
+        <v>2.29</v>
+      </c>
+      <c r="BM207">
+        <v>1.95</v>
+      </c>
+      <c r="BN207">
+        <v>1.8</v>
+      </c>
+      <c r="BO207">
+        <v>2.49</v>
+      </c>
+      <c r="BP207">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="331">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -715,6 +715,9 @@
     <t>['89']</t>
   </si>
   <si>
+    <t>['66', '77', '87']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -1365,7 +1368,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP207"/>
+  <dimension ref="A1:BP209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1624,7 +1627,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1830,7 +1833,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2242,7 +2245,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2320,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ5">
         <v>0.78</v>
@@ -2529,7 +2532,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2654,7 +2657,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2732,10 +2735,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3272,7 +3275,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3478,7 +3481,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3684,7 +3687,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3890,7 +3893,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4096,7 +4099,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4174,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ14">
         <v>1.06</v>
@@ -4302,7 +4305,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4380,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4589,7 +4592,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ16">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR16">
         <v>1.92</v>
@@ -4714,7 +4717,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4795,7 +4798,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ17">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR17">
         <v>1.98</v>
@@ -5332,7 +5335,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5410,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ20">
         <v>1.18</v>
@@ -5538,7 +5541,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5950,7 +5953,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6156,7 +6159,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6237,7 +6240,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ24">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR24">
         <v>1.13</v>
@@ -6362,7 +6365,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6568,7 +6571,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6774,7 +6777,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6980,7 +6983,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7186,7 +7189,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7598,7 +7601,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7676,7 +7679,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ31">
         <v>0.5600000000000001</v>
@@ -7804,7 +7807,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -7885,7 +7888,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ32">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR32">
         <v>1.89</v>
@@ -8216,7 +8219,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8297,7 +8300,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ34">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8422,7 +8425,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -9246,7 +9249,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9736,10 +9739,10 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR41">
         <v>2.06</v>
@@ -10070,7 +10073,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10276,7 +10279,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10482,7 +10485,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10688,7 +10691,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -10766,10 +10769,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ46">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR46">
         <v>1.34</v>
@@ -11100,7 +11103,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11181,7 +11184,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ48">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR48">
         <v>1.79</v>
@@ -11512,7 +11515,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11924,7 +11927,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12130,7 +12133,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12336,7 +12339,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12542,7 +12545,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -13160,7 +13163,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q58">
         <v>2.94</v>
@@ -13444,7 +13447,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ59">
         <v>1.06</v>
@@ -13572,7 +13575,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13650,7 +13653,7 @@
         <v>0.6</v>
       </c>
       <c r="AP60">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ60">
         <v>0.78</v>
@@ -13856,7 +13859,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ61">
         <v>1.18</v>
@@ -14190,7 +14193,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14396,7 +14399,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14477,7 +14480,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ64">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR64">
         <v>1.26</v>
@@ -14683,7 +14686,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ65">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR65">
         <v>1.51</v>
@@ -14808,7 +14811,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -15014,7 +15017,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15220,7 +15223,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15632,7 +15635,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -16044,7 +16047,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16250,7 +16253,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16331,7 +16334,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ73">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR73">
         <v>1.84</v>
@@ -16456,7 +16459,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16949,7 +16952,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ76">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR76">
         <v>1.54</v>
@@ -17074,7 +17077,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17152,7 +17155,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17280,7 +17283,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17486,7 +17489,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17692,7 +17695,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17770,7 +17773,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ80">
         <v>0.82</v>
@@ -17898,7 +17901,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18104,7 +18107,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18310,7 +18313,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18928,7 +18931,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19009,7 +19012,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -20036,7 +20039,7 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ91">
         <v>1.06</v>
@@ -20164,7 +20167,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20242,7 +20245,7 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ92">
         <v>1.44</v>
@@ -20657,7 +20660,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ94">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR94">
         <v>2.11</v>
@@ -20782,7 +20785,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -21066,7 +21069,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ96">
         <v>0.65</v>
@@ -21478,7 +21481,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21606,7 +21609,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -22018,7 +22021,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22430,7 +22433,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22842,7 +22845,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -22920,7 +22923,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -23129,7 +23132,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ106">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR106">
         <v>1.33</v>
@@ -23666,7 +23669,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23747,7 +23750,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ109">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR109">
         <v>1.98</v>
@@ -23950,7 +23953,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ110">
         <v>0.5600000000000001</v>
@@ -24078,7 +24081,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24490,7 +24493,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24696,7 +24699,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24902,7 +24905,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25189,7 +25192,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ116">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -25314,7 +25317,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25392,7 +25395,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP117">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ117">
         <v>1.06</v>
@@ -25726,7 +25729,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25807,7 +25810,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ119">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR119">
         <v>2.09</v>
@@ -25932,7 +25935,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26138,7 +26141,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26344,7 +26347,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26550,7 +26553,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26628,10 +26631,10 @@
         <v>0.6</v>
       </c>
       <c r="AP123">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ123">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR123">
         <v>1.91</v>
@@ -26962,7 +26965,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27168,7 +27171,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27374,7 +27377,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27452,7 +27455,7 @@
         <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ127">
         <v>0.82</v>
@@ -27580,7 +27583,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27786,7 +27789,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27992,7 +27995,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28073,7 +28076,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ130">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
@@ -28610,7 +28613,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28816,7 +28819,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28894,7 +28897,7 @@
         <v>0.55</v>
       </c>
       <c r="AP134">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ134">
         <v>0.78</v>
@@ -29228,7 +29231,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29846,7 +29849,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -30052,7 +30055,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30258,7 +30261,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30339,7 +30342,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ141">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR141">
         <v>1.7</v>
@@ -30748,7 +30751,7 @@
         <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ143">
         <v>0.65</v>
@@ -31082,7 +31085,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31163,7 +31166,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ145">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR145">
         <v>1.94</v>
@@ -31494,7 +31497,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -32112,7 +32115,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32396,7 +32399,7 @@
         <v>1.58</v>
       </c>
       <c r="AP151">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ151">
         <v>1.44</v>
@@ -32730,7 +32733,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32808,7 +32811,7 @@
         <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ153">
         <v>0.5600000000000001</v>
@@ -32936,7 +32939,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33142,7 +33145,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33223,7 +33226,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33429,7 +33432,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ156">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR156">
         <v>1.55</v>
@@ -33966,7 +33969,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34172,7 +34175,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34253,7 +34256,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ160">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR160">
         <v>1.94</v>
@@ -34662,7 +34665,7 @@
         <v>0.92</v>
       </c>
       <c r="AP162">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ162">
         <v>0.82</v>
@@ -34868,7 +34871,7 @@
         <v>1.08</v>
       </c>
       <c r="AP163">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -34996,7 +34999,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35202,7 +35205,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35489,7 +35492,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ166">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR166">
         <v>1.46</v>
@@ -35614,7 +35617,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -36026,7 +36029,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36438,7 +36441,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36516,10 +36519,10 @@
         <v>1.57</v>
       </c>
       <c r="AP171">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ171">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR171">
         <v>1.26</v>
@@ -36644,7 +36647,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37056,7 +37059,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37262,7 +37265,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37674,7 +37677,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -38086,7 +38089,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38373,7 +38376,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ180">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR180">
         <v>1.64</v>
@@ -38576,7 +38579,7 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ181">
         <v>0.5600000000000001</v>
@@ -38704,7 +38707,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38782,7 +38785,7 @@
         <v>0.93</v>
       </c>
       <c r="AP182">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ182">
         <v>1.06</v>
@@ -38910,7 +38913,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -38991,7 +38994,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ183">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR183">
         <v>1.58</v>
@@ -39116,7 +39119,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39528,7 +39531,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39734,7 +39737,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39940,7 +39943,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40021,7 +40024,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ188">
-        <v>1.71</v>
+        <v>1.78</v>
       </c>
       <c r="AR188">
         <v>1.29</v>
@@ -40433,7 +40436,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ190">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="AR190">
         <v>1.85</v>
@@ -40842,7 +40845,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AQ192">
         <v>1.06</v>
@@ -40970,7 +40973,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41048,7 +41051,7 @@
         <v>0.87</v>
       </c>
       <c r="AP193">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="AQ193">
         <v>0.82</v>
@@ -42000,7 +42003,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42412,7 +42415,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42618,7 +42621,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -43030,7 +43033,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43236,7 +43239,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -44011,6 +44014,418 @@
       </c>
       <c r="BP207">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="208" spans="1:68">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>7417509</v>
+      </c>
+      <c r="C208" t="s">
+        <v>68</v>
+      </c>
+      <c r="D208" t="s">
+        <v>69</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45423.64583333334</v>
+      </c>
+      <c r="F208">
+        <v>35</v>
+      </c>
+      <c r="G208" t="s">
+        <v>73</v>
+      </c>
+      <c r="H208" t="s">
+        <v>77</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>0</v>
+      </c>
+      <c r="M208">
+        <v>1</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>84</v>
+      </c>
+      <c r="P208" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q208">
+        <v>2.39</v>
+      </c>
+      <c r="R208">
+        <v>2.42</v>
+      </c>
+      <c r="S208">
+        <v>3.82</v>
+      </c>
+      <c r="T208">
+        <v>1.26</v>
+      </c>
+      <c r="U208">
+        <v>3.64</v>
+      </c>
+      <c r="V208">
+        <v>2.22</v>
+      </c>
+      <c r="W208">
+        <v>1.62</v>
+      </c>
+      <c r="X208">
+        <v>4.9</v>
+      </c>
+      <c r="Y208">
+        <v>1.16</v>
+      </c>
+      <c r="Z208">
+        <v>1.85</v>
+      </c>
+      <c r="AA208">
+        <v>3.55</v>
+      </c>
+      <c r="AB208">
+        <v>3.25</v>
+      </c>
+      <c r="AC208">
+        <v>1.03</v>
+      </c>
+      <c r="AD208">
+        <v>18.75</v>
+      </c>
+      <c r="AE208">
+        <v>1.12</v>
+      </c>
+      <c r="AF208">
+        <v>4.9</v>
+      </c>
+      <c r="AG208">
+        <v>1.45</v>
+      </c>
+      <c r="AH208">
+        <v>2.26</v>
+      </c>
+      <c r="AI208">
+        <v>1.49</v>
+      </c>
+      <c r="AJ208">
+        <v>2.51</v>
+      </c>
+      <c r="AK208">
+        <v>1.29</v>
+      </c>
+      <c r="AL208">
+        <v>1.25</v>
+      </c>
+      <c r="AM208">
+        <v>1.9</v>
+      </c>
+      <c r="AN208">
+        <v>2.56</v>
+      </c>
+      <c r="AO208">
+        <v>1.71</v>
+      </c>
+      <c r="AP208">
+        <v>2.41</v>
+      </c>
+      <c r="AQ208">
+        <v>1.78</v>
+      </c>
+      <c r="AR208">
+        <v>2.06</v>
+      </c>
+      <c r="AS208">
+        <v>1.52</v>
+      </c>
+      <c r="AT208">
+        <v>3.58</v>
+      </c>
+      <c r="AU208">
+        <v>7</v>
+      </c>
+      <c r="AV208">
+        <v>2</v>
+      </c>
+      <c r="AW208">
+        <v>8</v>
+      </c>
+      <c r="AX208">
+        <v>3</v>
+      </c>
+      <c r="AY208">
+        <v>15</v>
+      </c>
+      <c r="AZ208">
+        <v>5</v>
+      </c>
+      <c r="BA208">
+        <v>6</v>
+      </c>
+      <c r="BB208">
+        <v>0</v>
+      </c>
+      <c r="BC208">
+        <v>6</v>
+      </c>
+      <c r="BD208">
+        <v>1.64</v>
+      </c>
+      <c r="BE208">
+        <v>8.5</v>
+      </c>
+      <c r="BF208">
+        <v>2.66</v>
+      </c>
+      <c r="BG208">
+        <v>1.16</v>
+      </c>
+      <c r="BH208">
+        <v>4.3</v>
+      </c>
+      <c r="BI208">
+        <v>1.33</v>
+      </c>
+      <c r="BJ208">
+        <v>2.93</v>
+      </c>
+      <c r="BK208">
+        <v>1.61</v>
+      </c>
+      <c r="BL208">
+        <v>2.27</v>
+      </c>
+      <c r="BM208">
+        <v>2</v>
+      </c>
+      <c r="BN208">
+        <v>1.8</v>
+      </c>
+      <c r="BO208">
+        <v>2.55</v>
+      </c>
+      <c r="BP208">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:68">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>7417510</v>
+      </c>
+      <c r="C209" t="s">
+        <v>68</v>
+      </c>
+      <c r="D209" t="s">
+        <v>69</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45423.64583333334</v>
+      </c>
+      <c r="F209">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
+        <v>75</v>
+      </c>
+      <c r="H209" t="s">
+        <v>81</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>3</v>
+      </c>
+      <c r="M209">
+        <v>1</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>233</v>
+      </c>
+      <c r="P209" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q209">
+        <v>3.12</v>
+      </c>
+      <c r="R209">
+        <v>2.27</v>
+      </c>
+      <c r="S209">
+        <v>3.02</v>
+      </c>
+      <c r="T209">
+        <v>1.32</v>
+      </c>
+      <c r="U209">
+        <v>3.22</v>
+      </c>
+      <c r="V209">
+        <v>2.46</v>
+      </c>
+      <c r="W209">
+        <v>1.51</v>
+      </c>
+      <c r="X209">
+        <v>5.8</v>
+      </c>
+      <c r="Y209">
+        <v>1.12</v>
+      </c>
+      <c r="Z209">
+        <v>2.45</v>
+      </c>
+      <c r="AA209">
+        <v>3.25</v>
+      </c>
+      <c r="AB209">
+        <v>2.43</v>
+      </c>
+      <c r="AC209">
+        <v>1.05</v>
+      </c>
+      <c r="AD209">
+        <v>9.5</v>
+      </c>
+      <c r="AE209">
+        <v>1.18</v>
+      </c>
+      <c r="AF209">
+        <v>4.05</v>
+      </c>
+      <c r="AG209">
+        <v>1.57</v>
+      </c>
+      <c r="AH209">
+        <v>2.02</v>
+      </c>
+      <c r="AI209">
+        <v>1.56</v>
+      </c>
+      <c r="AJ209">
+        <v>2.33</v>
+      </c>
+      <c r="AK209">
+        <v>1.52</v>
+      </c>
+      <c r="AL209">
+        <v>1.28</v>
+      </c>
+      <c r="AM209">
+        <v>1.51</v>
+      </c>
+      <c r="AN209">
+        <v>0.71</v>
+      </c>
+      <c r="AO209">
+        <v>0.38</v>
+      </c>
+      <c r="AP209">
+        <v>0.83</v>
+      </c>
+      <c r="AQ209">
+        <v>0.35</v>
+      </c>
+      <c r="AR209">
+        <v>1.19</v>
+      </c>
+      <c r="AS209">
+        <v>1.12</v>
+      </c>
+      <c r="AT209">
+        <v>2.31</v>
+      </c>
+      <c r="AU209">
+        <v>6</v>
+      </c>
+      <c r="AV209">
+        <v>4</v>
+      </c>
+      <c r="AW209">
+        <v>6</v>
+      </c>
+      <c r="AX209">
+        <v>5</v>
+      </c>
+      <c r="AY209">
+        <v>12</v>
+      </c>
+      <c r="AZ209">
+        <v>9</v>
+      </c>
+      <c r="BA209">
+        <v>5</v>
+      </c>
+      <c r="BB209">
+        <v>6</v>
+      </c>
+      <c r="BC209">
+        <v>11</v>
+      </c>
+      <c r="BD209">
+        <v>1.69</v>
+      </c>
+      <c r="BE209">
+        <v>8.5</v>
+      </c>
+      <c r="BF209">
+        <v>2.53</v>
+      </c>
+      <c r="BG209">
+        <v>1.16</v>
+      </c>
+      <c r="BH209">
+        <v>4.25</v>
+      </c>
+      <c r="BI209">
+        <v>1.33</v>
+      </c>
+      <c r="BJ209">
+        <v>2.91</v>
+      </c>
+      <c r="BK209">
+        <v>1.65</v>
+      </c>
+      <c r="BL209">
+        <v>2.21</v>
+      </c>
+      <c r="BM209">
+        <v>2.05</v>
+      </c>
+      <c r="BN209">
+        <v>1.76</v>
+      </c>
+      <c r="BO209">
+        <v>2.65</v>
+      </c>
+      <c r="BP209">
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="333">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -718,6 +718,12 @@
     <t>['66', '77', '87']</t>
   </si>
   <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -821,9 +827,6 @@
   </si>
   <si>
     <t>['17', '68', '72']</t>
-  </si>
-  <si>
-    <t>['31']</t>
   </si>
   <si>
     <t>['29', '81']</t>
@@ -1007,6 +1010,9 @@
   </si>
   <si>
     <t>['42', '54']</t>
+  </si>
+  <si>
+    <t>['21', '25', '73']</t>
   </si>
 </sst>
 </file>
@@ -1368,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP209"/>
+  <dimension ref="A1:BP211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1627,7 +1633,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1708,7 +1714,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ2">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1833,7 +1839,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1911,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ3">
         <v>1.06</v>
@@ -2117,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ4">
         <v>0.82</v>
@@ -2245,7 +2251,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2657,7 +2663,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -3275,7 +3281,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3356,7 +3362,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ10">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3481,7 +3487,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3687,7 +3693,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3893,7 +3899,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4099,7 +4105,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4305,7 +4311,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4386,7 +4392,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR15">
         <v>1.4</v>
@@ -4717,7 +4723,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -5207,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ19">
         <v>0.82</v>
@@ -5335,7 +5341,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5416,7 +5422,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ20">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR20">
         <v>1.28</v>
@@ -5541,7 +5547,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5619,7 +5625,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ21">
         <v>0.5600000000000001</v>
@@ -5953,7 +5959,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6159,7 +6165,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6365,7 +6371,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6571,7 +6577,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6777,7 +6783,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6858,7 +6864,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ27">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR27">
         <v>1.4</v>
@@ -6983,7 +6989,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7189,7 +7195,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7473,7 +7479,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ30">
         <v>0.78</v>
@@ -7601,7 +7607,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7807,7 +7813,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -7885,7 +7891,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ32">
         <v>0.35</v>
@@ -8219,7 +8225,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8425,7 +8431,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8506,7 +8512,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ35">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8712,7 +8718,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ36">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -8915,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ37">
         <v>0.65</v>
@@ -9249,7 +9255,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9536,7 +9542,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ40">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -10073,7 +10079,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10279,7 +10285,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10485,7 +10491,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10563,7 +10569,7 @@
         <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10691,7 +10697,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -11103,7 +11109,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11181,7 +11187,7 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ48">
         <v>1.78</v>
@@ -11515,7 +11521,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11927,7 +11933,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12133,7 +12139,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12214,7 +12220,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR53">
         <v>1.46</v>
@@ -12339,7 +12345,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12545,7 +12551,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -12829,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ56">
         <v>0.65</v>
@@ -13038,7 +13044,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ57">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR57">
         <v>1.57</v>
@@ -13163,7 +13169,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>2.94</v>
@@ -13575,7 +13581,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13862,7 +13868,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ61">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR61">
         <v>1.75</v>
@@ -14068,7 +14074,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ62">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14193,7 +14199,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14271,7 +14277,7 @@
         <v>0.6</v>
       </c>
       <c r="AP63">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14399,7 +14405,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14811,7 +14817,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -15017,7 +15023,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15095,7 +15101,7 @@
         <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ67">
         <v>0.5600000000000001</v>
@@ -15223,7 +15229,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15635,7 +15641,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -16047,7 +16053,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16125,7 +16131,7 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16253,7 +16259,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16459,7 +16465,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16540,7 +16546,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ74">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR74">
         <v>1.56</v>
@@ -17077,7 +17083,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17283,7 +17289,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17361,7 +17367,7 @@
         <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ78">
         <v>1.06</v>
@@ -17489,7 +17495,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17695,7 +17701,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17901,7 +17907,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18107,7 +18113,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18313,7 +18319,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18394,7 +18400,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ83">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
@@ -18931,7 +18937,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -20167,7 +20173,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20248,7 +20254,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ92">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20657,7 +20663,7 @@
         <v>0.71</v>
       </c>
       <c r="AP94">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ94">
         <v>0.35</v>
@@ -20785,7 +20791,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -21609,7 +21615,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21690,7 +21696,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ99">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR99">
         <v>1.78</v>
@@ -22021,7 +22027,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22433,7 +22439,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22511,10 +22517,10 @@
         <v>1.86</v>
       </c>
       <c r="AP103">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ103">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR103">
         <v>1.7</v>
@@ -22717,10 +22723,10 @@
         <v>1.63</v>
       </c>
       <c r="AP104">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ104">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR104">
         <v>2.13</v>
@@ -22845,7 +22851,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -23335,7 +23341,7 @@
         <v>0.63</v>
       </c>
       <c r="AP107">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ107">
         <v>0.78</v>
@@ -23669,7 +23675,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -24081,7 +24087,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24493,7 +24499,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24699,7 +24705,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24905,7 +24911,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24983,10 +24989,10 @@
         <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ115">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR115">
         <v>1.61</v>
@@ -25317,7 +25323,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25729,7 +25735,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25807,7 +25813,7 @@
         <v>1.11</v>
       </c>
       <c r="AP119">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ119">
         <v>1.78</v>
@@ -25935,7 +25941,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26016,7 +26022,7 @@
         <v>1.41</v>
       </c>
       <c r="AQ120">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26141,7 +26147,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26347,7 +26353,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26425,7 +26431,7 @@
         <v>0.8</v>
       </c>
       <c r="AP122">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ122">
         <v>1.06</v>
@@ -26553,7 +26559,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26965,7 +26971,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27171,7 +27177,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27249,10 +27255,10 @@
         <v>1.6</v>
       </c>
       <c r="AP126">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ126">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR126">
         <v>1.98</v>
@@ -27377,7 +27383,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27583,7 +27589,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27789,7 +27795,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27995,7 +28001,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28282,7 +28288,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ131">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR131">
         <v>1.51</v>
@@ -28613,7 +28619,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28819,7 +28825,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29231,7 +29237,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29515,7 +29521,7 @@
         <v>0.82</v>
       </c>
       <c r="AP137">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ137">
         <v>0.82</v>
@@ -29849,7 +29855,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -29930,7 +29936,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ139">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR139">
         <v>1.47</v>
@@ -30055,7 +30061,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30133,7 +30139,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ140">
         <v>1.06</v>
@@ -30261,7 +30267,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30960,7 +30966,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ144">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -31085,7 +31091,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31369,7 +31375,7 @@
         <v>0.58</v>
       </c>
       <c r="AP146">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ146">
         <v>0.65</v>
@@ -31497,7 +31503,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -31990,7 +31996,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ149">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -32115,7 +32121,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32402,7 +32408,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ151">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR151">
         <v>2.05</v>
@@ -32733,7 +32739,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32939,7 +32945,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33145,7 +33151,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33429,7 +33435,7 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ156">
         <v>0.35</v>
@@ -33841,7 +33847,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP158">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ158">
         <v>0.5600000000000001</v>
@@ -33969,7 +33975,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34050,7 +34056,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ159">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR159">
         <v>1.48</v>
@@ -34175,7 +34181,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34253,7 +34259,7 @@
         <v>1.46</v>
       </c>
       <c r="AP160">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ160">
         <v>1.78</v>
@@ -34999,7 +35005,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35205,7 +35211,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35617,7 +35623,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -36029,7 +36035,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36110,7 +36116,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ169">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR169">
         <v>1.61</v>
@@ -36313,10 +36319,10 @@
         <v>1.64</v>
       </c>
       <c r="AP170">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ170">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR170">
         <v>1.58</v>
@@ -36441,7 +36447,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36647,7 +36653,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36728,7 +36734,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ172">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
@@ -37059,7 +37065,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37265,7 +37271,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37343,7 +37349,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ175">
         <v>0.82</v>
@@ -37677,7 +37683,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -38089,7 +38095,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38707,7 +38713,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38913,7 +38919,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -38991,7 +38997,7 @@
         <v>1.67</v>
       </c>
       <c r="AP183">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ183">
         <v>1.78</v>
@@ -39119,7 +39125,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39200,7 +39206,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ184">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR184">
         <v>2.04</v>
@@ -39531,7 +39537,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39609,7 +39615,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ186">
         <v>1.5</v>
@@ -39737,7 +39743,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39943,7 +39949,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40230,7 +40236,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ189">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AR189">
         <v>1.78</v>
@@ -40433,7 +40439,7 @@
         <v>0.4</v>
       </c>
       <c r="AP190">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ190">
         <v>0.35</v>
@@ -40642,7 +40648,7 @@
         <v>1.35</v>
       </c>
       <c r="AQ191">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR191">
         <v>1.51</v>
@@ -40973,7 +40979,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -42003,7 +42009,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42081,7 +42087,7 @@
         <v>1.31</v>
       </c>
       <c r="AP198">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ198">
         <v>1.5</v>
@@ -42415,7 +42421,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42621,7 +42627,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -43033,7 +43039,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43239,7 +43245,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -44269,7 +44275,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q209">
         <v>3.12</v>
@@ -44426,6 +44432,418 @@
       </c>
       <c r="BP209">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="210" spans="1:68">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>7417511</v>
+      </c>
+      <c r="C210" t="s">
+        <v>68</v>
+      </c>
+      <c r="D210" t="s">
+        <v>69</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45424.38541666666</v>
+      </c>
+      <c r="F210">
+        <v>35</v>
+      </c>
+      <c r="G210" t="s">
+        <v>72</v>
+      </c>
+      <c r="H210" t="s">
+        <v>74</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+      <c r="K210">
+        <v>3</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+      <c r="M210">
+        <v>3</v>
+      </c>
+      <c r="N210">
+        <v>4</v>
+      </c>
+      <c r="O210" t="s">
+        <v>234</v>
+      </c>
+      <c r="P210" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q210">
+        <v>3.4</v>
+      </c>
+      <c r="R210">
+        <v>2.1</v>
+      </c>
+      <c r="S210">
+        <v>2.9</v>
+      </c>
+      <c r="T210">
+        <v>1.38</v>
+      </c>
+      <c r="U210">
+        <v>2.8</v>
+      </c>
+      <c r="V210">
+        <v>2.65</v>
+      </c>
+      <c r="W210">
+        <v>1.42</v>
+      </c>
+      <c r="X210">
+        <v>6</v>
+      </c>
+      <c r="Y210">
+        <v>1.11</v>
+      </c>
+      <c r="Z210">
+        <v>2.8</v>
+      </c>
+      <c r="AA210">
+        <v>3.15</v>
+      </c>
+      <c r="AB210">
+        <v>2.25</v>
+      </c>
+      <c r="AC210">
+        <v>1.06</v>
+      </c>
+      <c r="AD210">
+        <v>8.5</v>
+      </c>
+      <c r="AE210">
+        <v>1.28</v>
+      </c>
+      <c r="AF210">
+        <v>3.5</v>
+      </c>
+      <c r="AG210">
+        <v>1.8</v>
+      </c>
+      <c r="AH210">
+        <v>1.9</v>
+      </c>
+      <c r="AI210">
+        <v>1.62</v>
+      </c>
+      <c r="AJ210">
+        <v>2.1</v>
+      </c>
+      <c r="AK210">
+        <v>1.57</v>
+      </c>
+      <c r="AL210">
+        <v>1.28</v>
+      </c>
+      <c r="AM210">
+        <v>1.36</v>
+      </c>
+      <c r="AN210">
+        <v>1.82</v>
+      </c>
+      <c r="AO210">
+        <v>1.18</v>
+      </c>
+      <c r="AP210">
+        <v>1.72</v>
+      </c>
+      <c r="AQ210">
+        <v>1.28</v>
+      </c>
+      <c r="AR210">
+        <v>1.59</v>
+      </c>
+      <c r="AS210">
+        <v>1.67</v>
+      </c>
+      <c r="AT210">
+        <v>3.26</v>
+      </c>
+      <c r="AU210">
+        <v>4</v>
+      </c>
+      <c r="AV210">
+        <v>7</v>
+      </c>
+      <c r="AW210">
+        <v>10</v>
+      </c>
+      <c r="AX210">
+        <v>4</v>
+      </c>
+      <c r="AY210">
+        <v>14</v>
+      </c>
+      <c r="AZ210">
+        <v>11</v>
+      </c>
+      <c r="BA210">
+        <v>3</v>
+      </c>
+      <c r="BB210">
+        <v>4</v>
+      </c>
+      <c r="BC210">
+        <v>7</v>
+      </c>
+      <c r="BD210">
+        <v>2.44</v>
+      </c>
+      <c r="BE210">
+        <v>8</v>
+      </c>
+      <c r="BF210">
+        <v>1.75</v>
+      </c>
+      <c r="BG210">
+        <v>1.17</v>
+      </c>
+      <c r="BH210">
+        <v>4.2</v>
+      </c>
+      <c r="BI210">
+        <v>1.35</v>
+      </c>
+      <c r="BJ210">
+        <v>2.84</v>
+      </c>
+      <c r="BK210">
+        <v>1.67</v>
+      </c>
+      <c r="BL210">
+        <v>2.18</v>
+      </c>
+      <c r="BM210">
+        <v>2.07</v>
+      </c>
+      <c r="BN210">
+        <v>1.75</v>
+      </c>
+      <c r="BO210">
+        <v>2.69</v>
+      </c>
+      <c r="BP210">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="211" spans="1:68">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>7417512</v>
+      </c>
+      <c r="C211" t="s">
+        <v>68</v>
+      </c>
+      <c r="D211" t="s">
+        <v>69</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45424.47916666666</v>
+      </c>
+      <c r="F211">
+        <v>35</v>
+      </c>
+      <c r="G211" t="s">
+        <v>71</v>
+      </c>
+      <c r="H211" t="s">
+        <v>78</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>2</v>
+      </c>
+      <c r="O211" t="s">
+        <v>235</v>
+      </c>
+      <c r="P211" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q211">
+        <v>2.6</v>
+      </c>
+      <c r="R211">
+        <v>2.45</v>
+      </c>
+      <c r="S211">
+        <v>3.1</v>
+      </c>
+      <c r="T211">
+        <v>1.28</v>
+      </c>
+      <c r="U211">
+        <v>3.35</v>
+      </c>
+      <c r="V211">
+        <v>2.2</v>
+      </c>
+      <c r="W211">
+        <v>1.6</v>
+      </c>
+      <c r="X211">
+        <v>4.5</v>
+      </c>
+      <c r="Y211">
+        <v>1.17</v>
+      </c>
+      <c r="Z211">
+        <v>2.4</v>
+      </c>
+      <c r="AA211">
+        <v>3.5</v>
+      </c>
+      <c r="AB211">
+        <v>2.62</v>
+      </c>
+      <c r="AC211">
+        <v>1.03</v>
+      </c>
+      <c r="AD211">
+        <v>13</v>
+      </c>
+      <c r="AE211">
+        <v>1.18</v>
+      </c>
+      <c r="AF211">
+        <v>4.75</v>
+      </c>
+      <c r="AG211">
+        <v>1.5</v>
+      </c>
+      <c r="AH211">
+        <v>2.4</v>
+      </c>
+      <c r="AI211">
+        <v>1.42</v>
+      </c>
+      <c r="AJ211">
+        <v>2.6</v>
+      </c>
+      <c r="AK211">
+        <v>1.47</v>
+      </c>
+      <c r="AL211">
+        <v>1.27</v>
+      </c>
+      <c r="AM211">
+        <v>1.47</v>
+      </c>
+      <c r="AN211">
+        <v>2.12</v>
+      </c>
+      <c r="AO211">
+        <v>1.44</v>
+      </c>
+      <c r="AP211">
+        <v>2.06</v>
+      </c>
+      <c r="AQ211">
+        <v>1.41</v>
+      </c>
+      <c r="AR211">
+        <v>1.88</v>
+      </c>
+      <c r="AS211">
+        <v>1.63</v>
+      </c>
+      <c r="AT211">
+        <v>3.51</v>
+      </c>
+      <c r="AU211">
+        <v>5</v>
+      </c>
+      <c r="AV211">
+        <v>4</v>
+      </c>
+      <c r="AW211">
+        <v>4</v>
+      </c>
+      <c r="AX211">
+        <v>11</v>
+      </c>
+      <c r="AY211">
+        <v>9</v>
+      </c>
+      <c r="AZ211">
+        <v>15</v>
+      </c>
+      <c r="BA211">
+        <v>6</v>
+      </c>
+      <c r="BB211">
+        <v>5</v>
+      </c>
+      <c r="BC211">
+        <v>11</v>
+      </c>
+      <c r="BD211">
+        <v>2.05</v>
+      </c>
+      <c r="BE211">
+        <v>8</v>
+      </c>
+      <c r="BF211">
+        <v>1.95</v>
+      </c>
+      <c r="BG211">
+        <v>1.1</v>
+      </c>
+      <c r="BH211">
+        <v>5.4</v>
+      </c>
+      <c r="BI211">
+        <v>1.23</v>
+      </c>
+      <c r="BJ211">
+        <v>3.56</v>
+      </c>
+      <c r="BK211">
+        <v>1.44</v>
+      </c>
+      <c r="BL211">
+        <v>2.58</v>
+      </c>
+      <c r="BM211">
+        <v>2</v>
+      </c>
+      <c r="BN211">
+        <v>1.8</v>
+      </c>
+      <c r="BO211">
+        <v>2.21</v>
+      </c>
+      <c r="BP211">
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="335">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -724,6 +724,12 @@
     <t>['31']</t>
   </si>
   <si>
+    <t>['63', '90+6']</t>
+  </si>
+  <si>
+    <t>['40', '89']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -1374,7 +1380,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP211"/>
+  <dimension ref="A1:BP213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1633,7 +1639,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1711,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2">
         <v>1.41</v>
@@ -1839,7 +1845,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2251,7 +2257,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2538,7 +2544,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2663,7 +2669,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -3281,7 +3287,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3487,7 +3493,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3568,7 +3574,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ11">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3693,7 +3699,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3771,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ12">
         <v>1.06</v>
@@ -3899,7 +3905,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4105,7 +4111,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4311,7 +4317,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4723,7 +4729,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4804,7 +4810,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ17">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>1.98</v>
@@ -5007,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>1.06</v>
@@ -5341,7 +5347,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5547,7 +5553,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5959,7 +5965,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6037,7 +6043,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
         <v>0.78</v>
@@ -6165,7 +6171,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6246,7 +6252,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ24">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR24">
         <v>1.13</v>
@@ -6371,7 +6377,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6577,7 +6583,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6783,7 +6789,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6989,7 +6995,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7067,7 +7073,7 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>0.82</v>
@@ -7195,7 +7201,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7607,7 +7613,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7813,7 +7819,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -7894,7 +7900,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ32">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR32">
         <v>1.89</v>
@@ -8225,7 +8231,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8431,7 +8437,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8509,7 +8515,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ35">
         <v>1.28</v>
@@ -8924,7 +8930,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ37">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR37">
         <v>1.9</v>
@@ -9127,7 +9133,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9255,7 +9261,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -10079,7 +10085,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10285,7 +10291,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10491,7 +10497,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10697,7 +10703,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -10778,7 +10784,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ46">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR46">
         <v>1.34</v>
@@ -10981,7 +10987,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ47">
         <v>0.82</v>
@@ -11109,7 +11115,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11521,7 +11527,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11599,7 +11605,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11933,7 +11939,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12011,10 +12017,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR52">
         <v>1.78</v>
@@ -12139,7 +12145,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12345,7 +12351,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12551,7 +12557,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -12838,7 +12844,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ56">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13581,7 +13587,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14071,7 +14077,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ62">
         <v>1.41</v>
@@ -14199,7 +14205,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14405,7 +14411,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14483,7 +14489,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>1.78</v>
@@ -14692,7 +14698,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ65">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR65">
         <v>1.51</v>
@@ -14817,7 +14823,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -15023,7 +15029,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15229,7 +15235,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15310,7 +15316,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ68">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15641,7 +15647,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -16053,7 +16059,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16259,7 +16265,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16465,7 +16471,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16955,10 +16961,10 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ76">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR76">
         <v>1.54</v>
@@ -17083,7 +17089,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17289,7 +17295,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17495,7 +17501,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17701,7 +17707,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17907,7 +17913,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -17985,10 +17991,10 @@
         <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -18113,7 +18119,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18319,7 +18325,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18937,7 +18943,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19224,7 +19230,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ87">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR87">
         <v>1.83</v>
@@ -19427,7 +19433,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19839,7 +19845,7 @@
         <v>0.71</v>
       </c>
       <c r="AP90">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ90">
         <v>0.78</v>
@@ -20173,7 +20179,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20666,7 +20672,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ94">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR94">
         <v>2.11</v>
@@ -20791,7 +20797,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -21078,7 +21084,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ96">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR96">
         <v>1.86</v>
@@ -21281,7 +21287,7 @@
         <v>0.5</v>
       </c>
       <c r="AP97">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ97">
         <v>0.5600000000000001</v>
@@ -21615,7 +21621,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -22027,7 +22033,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22314,7 +22320,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ102">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22439,7 +22445,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22851,7 +22857,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -23135,10 +23141,10 @@
         <v>0.63</v>
       </c>
       <c r="AP106">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR106">
         <v>1.33</v>
@@ -23675,7 +23681,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -24087,7 +24093,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24499,7 +24505,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24580,7 +24586,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ113">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -24705,7 +24711,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24911,7 +24917,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25198,7 +25204,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ116">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -25323,7 +25329,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25607,7 +25613,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ118">
         <v>1.5</v>
@@ -25735,7 +25741,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25941,7 +25947,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26019,7 +26025,7 @@
         <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26147,7 +26153,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26353,7 +26359,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26559,7 +26565,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26640,7 +26646,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ123">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR123">
         <v>1.91</v>
@@ -26971,7 +26977,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27177,7 +27183,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27383,7 +27389,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27589,7 +27595,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27667,7 +27673,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128">
         <v>1.06</v>
@@ -27795,7 +27801,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28001,7 +28007,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28079,7 +28085,7 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ130">
         <v>1.78</v>
@@ -28619,7 +28625,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28700,7 +28706,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ133">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -28825,7 +28831,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29237,7 +29243,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29727,7 +29733,7 @@
         <v>0.82</v>
       </c>
       <c r="AP138">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29855,7 +29861,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -30061,7 +30067,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30267,7 +30273,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30348,7 +30354,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ141">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR141">
         <v>1.7</v>
@@ -30551,7 +30557,7 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ142">
         <v>1.06</v>
@@ -30760,7 +30766,7 @@
         <v>2.41</v>
       </c>
       <c r="AQ143">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR143">
         <v>2.01</v>
@@ -31091,7 +31097,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31378,7 +31384,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ146">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR146">
         <v>1.93</v>
@@ -31503,7 +31509,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -31787,7 +31793,7 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ148">
         <v>0.82</v>
@@ -32121,7 +32127,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32739,7 +32745,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32945,7 +32951,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33023,7 +33029,7 @@
         <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ154">
         <v>0.78</v>
@@ -33151,7 +33157,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33438,7 +33444,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ156">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR156">
         <v>1.55</v>
@@ -33975,7 +33981,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34181,7 +34187,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -35005,7 +35011,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35083,7 +35089,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ164">
         <v>1.06</v>
@@ -35211,7 +35217,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35289,7 +35295,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35498,7 +35504,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ166">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR166">
         <v>1.46</v>
@@ -35623,7 +35629,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -35704,7 +35710,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ167">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -36035,7 +36041,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36447,7 +36453,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36653,7 +36659,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36731,7 +36737,7 @@
         <v>1.14</v>
       </c>
       <c r="AP172">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ172">
         <v>1.28</v>
@@ -37065,7 +37071,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37143,7 +37149,7 @@
         <v>0.71</v>
       </c>
       <c r="AP174">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ174">
         <v>0.78</v>
@@ -37271,7 +37277,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37683,7 +37689,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37764,7 +37770,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ177">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR177">
         <v>2.05</v>
@@ -38095,7 +38101,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38382,7 +38388,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ180">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR180">
         <v>1.64</v>
@@ -38713,7 +38719,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38919,7 +38925,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39125,7 +39131,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39537,7 +39543,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39743,7 +39749,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39949,7 +39955,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40027,7 +40033,7 @@
         <v>1.63</v>
       </c>
       <c r="AP188">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ188">
         <v>1.78</v>
@@ -40442,7 +40448,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ190">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR190">
         <v>1.85</v>
@@ -40645,7 +40651,7 @@
         <v>1.53</v>
       </c>
       <c r="AP191">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ191">
         <v>1.41</v>
@@ -40979,7 +40985,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41472,7 +41478,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ195">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR195">
         <v>1.48</v>
@@ -42009,7 +42015,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42421,7 +42427,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42499,10 +42505,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP200">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AQ200">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AR200">
         <v>1.28</v>
@@ -42627,7 +42633,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -43039,7 +43045,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43117,7 +43123,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP203">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AQ203">
         <v>0.82</v>
@@ -43245,7 +43251,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -44275,7 +44281,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q209">
         <v>3.12</v>
@@ -44356,7 +44362,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ209">
-        <v>0.35</v>
+        <v>0.33</v>
       </c>
       <c r="AR209">
         <v>1.19</v>
@@ -44481,7 +44487,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44844,6 +44850,418 @@
       </c>
       <c r="BP211">
         <v>1.65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:68">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>7417513</v>
+      </c>
+      <c r="C212" t="s">
+        <v>68</v>
+      </c>
+      <c r="D212" t="s">
+        <v>69</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45426.64583333334</v>
+      </c>
+      <c r="F212">
+        <v>36</v>
+      </c>
+      <c r="G212" t="s">
+        <v>80</v>
+      </c>
+      <c r="H212" t="s">
+        <v>75</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>2</v>
+      </c>
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>2</v>
+      </c>
+      <c r="O212" t="s">
+        <v>236</v>
+      </c>
+      <c r="P212" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q212">
+        <v>2</v>
+      </c>
+      <c r="R212">
+        <v>2.38</v>
+      </c>
+      <c r="S212">
+        <v>5</v>
+      </c>
+      <c r="T212">
+        <v>1.28</v>
+      </c>
+      <c r="U212">
+        <v>3.3</v>
+      </c>
+      <c r="V212">
+        <v>2.35</v>
+      </c>
+      <c r="W212">
+        <v>1.53</v>
+      </c>
+      <c r="X212">
+        <v>5.4</v>
+      </c>
+      <c r="Y212">
+        <v>1.13</v>
+      </c>
+      <c r="Z212">
+        <v>1.55</v>
+      </c>
+      <c r="AA212">
+        <v>4.2</v>
+      </c>
+      <c r="AB212">
+        <v>5.5</v>
+      </c>
+      <c r="AC212">
+        <v>1.03</v>
+      </c>
+      <c r="AD212">
+        <v>11</v>
+      </c>
+      <c r="AE212">
+        <v>1.2</v>
+      </c>
+      <c r="AF212">
+        <v>4.5</v>
+      </c>
+      <c r="AG212">
+        <v>1.6</v>
+      </c>
+      <c r="AH212">
+        <v>2.25</v>
+      </c>
+      <c r="AI212">
+        <v>1.67</v>
+      </c>
+      <c r="AJ212">
+        <v>2.05</v>
+      </c>
+      <c r="AK212">
+        <v>1.13</v>
+      </c>
+      <c r="AL212">
+        <v>1.17</v>
+      </c>
+      <c r="AM212">
+        <v>2.45</v>
+      </c>
+      <c r="AN212">
+        <v>1.35</v>
+      </c>
+      <c r="AO212">
+        <v>0.65</v>
+      </c>
+      <c r="AP212">
+        <v>1.44</v>
+      </c>
+      <c r="AQ212">
+        <v>0.61</v>
+      </c>
+      <c r="AR212">
+        <v>1.5</v>
+      </c>
+      <c r="AS212">
+        <v>1.17</v>
+      </c>
+      <c r="AT212">
+        <v>2.67</v>
+      </c>
+      <c r="AU212">
+        <v>6</v>
+      </c>
+      <c r="AV212">
+        <v>2</v>
+      </c>
+      <c r="AW212">
+        <v>4</v>
+      </c>
+      <c r="AX212">
+        <v>3</v>
+      </c>
+      <c r="AY212">
+        <v>10</v>
+      </c>
+      <c r="AZ212">
+        <v>5</v>
+      </c>
+      <c r="BA212">
+        <v>9</v>
+      </c>
+      <c r="BB212">
+        <v>4</v>
+      </c>
+      <c r="BC212">
+        <v>13</v>
+      </c>
+      <c r="BD212">
+        <v>1.49</v>
+      </c>
+      <c r="BE212">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF212">
+        <v>3.12</v>
+      </c>
+      <c r="BG212">
+        <v>1.18</v>
+      </c>
+      <c r="BH212">
+        <v>4.15</v>
+      </c>
+      <c r="BI212">
+        <v>1.35</v>
+      </c>
+      <c r="BJ212">
+        <v>2.84</v>
+      </c>
+      <c r="BK212">
+        <v>1.66</v>
+      </c>
+      <c r="BL212">
+        <v>2.18</v>
+      </c>
+      <c r="BM212">
+        <v>2.06</v>
+      </c>
+      <c r="BN212">
+        <v>1.74</v>
+      </c>
+      <c r="BO212">
+        <v>2.69</v>
+      </c>
+      <c r="BP212">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="213" spans="1:68">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>7417514</v>
+      </c>
+      <c r="C213" t="s">
+        <v>68</v>
+      </c>
+      <c r="D213" t="s">
+        <v>69</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45426.64583333334</v>
+      </c>
+      <c r="F213">
+        <v>36</v>
+      </c>
+      <c r="G213" t="s">
+        <v>70</v>
+      </c>
+      <c r="H213" t="s">
+        <v>81</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>2</v>
+      </c>
+      <c r="O213" t="s">
+        <v>237</v>
+      </c>
+      <c r="P213" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q213">
+        <v>2.35</v>
+      </c>
+      <c r="R213">
+        <v>2.2</v>
+      </c>
+      <c r="S213">
+        <v>4.2</v>
+      </c>
+      <c r="T213">
+        <v>1.33</v>
+      </c>
+      <c r="U213">
+        <v>3</v>
+      </c>
+      <c r="V213">
+        <v>2.45</v>
+      </c>
+      <c r="W213">
+        <v>1.48</v>
+      </c>
+      <c r="X213">
+        <v>6.05</v>
+      </c>
+      <c r="Y213">
+        <v>1.11</v>
+      </c>
+      <c r="Z213">
+        <v>1.8</v>
+      </c>
+      <c r="AA213">
+        <v>3.75</v>
+      </c>
+      <c r="AB213">
+        <v>4.12</v>
+      </c>
+      <c r="AC213">
+        <v>1.04</v>
+      </c>
+      <c r="AD213">
+        <v>10</v>
+      </c>
+      <c r="AE213">
+        <v>1.25</v>
+      </c>
+      <c r="AF213">
+        <v>3.95</v>
+      </c>
+      <c r="AG213">
+        <v>1.72</v>
+      </c>
+      <c r="AH213">
+        <v>2.05</v>
+      </c>
+      <c r="AI213">
+        <v>1.65</v>
+      </c>
+      <c r="AJ213">
+        <v>2.05</v>
+      </c>
+      <c r="AK213">
+        <v>1.22</v>
+      </c>
+      <c r="AL213">
+        <v>1.22</v>
+      </c>
+      <c r="AM213">
+        <v>2</v>
+      </c>
+      <c r="AN213">
+        <v>1.41</v>
+      </c>
+      <c r="AO213">
+        <v>0.35</v>
+      </c>
+      <c r="AP213">
+        <v>1.5</v>
+      </c>
+      <c r="AQ213">
+        <v>0.33</v>
+      </c>
+      <c r="AR213">
+        <v>1.29</v>
+      </c>
+      <c r="AS213">
+        <v>1.13</v>
+      </c>
+      <c r="AT213">
+        <v>2.42</v>
+      </c>
+      <c r="AU213">
+        <v>7</v>
+      </c>
+      <c r="AV213">
+        <v>5</v>
+      </c>
+      <c r="AW213">
+        <v>4</v>
+      </c>
+      <c r="AX213">
+        <v>8</v>
+      </c>
+      <c r="AY213">
+        <v>11</v>
+      </c>
+      <c r="AZ213">
+        <v>13</v>
+      </c>
+      <c r="BA213">
+        <v>8</v>
+      </c>
+      <c r="BB213">
+        <v>3</v>
+      </c>
+      <c r="BC213">
+        <v>11</v>
+      </c>
+      <c r="BD213">
+        <v>1.52</v>
+      </c>
+      <c r="BE213">
+        <v>10</v>
+      </c>
+      <c r="BF213">
+        <v>2.98</v>
+      </c>
+      <c r="BG213">
+        <v>1.13</v>
+      </c>
+      <c r="BH213">
+        <v>4.75</v>
+      </c>
+      <c r="BI213">
+        <v>1.28</v>
+      </c>
+      <c r="BJ213">
+        <v>3.2</v>
+      </c>
+      <c r="BK213">
+        <v>1.56</v>
+      </c>
+      <c r="BL213">
+        <v>2.36</v>
+      </c>
+      <c r="BM213">
+        <v>1.92</v>
+      </c>
+      <c r="BN213">
+        <v>1.87</v>
+      </c>
+      <c r="BO213">
+        <v>2.42</v>
+      </c>
+      <c r="BP213">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="339">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -730,6 +730,15 @@
     <t>['40', '89']</t>
   </si>
   <si>
+    <t>['54', '70']</t>
+  </si>
+  <si>
+    <t>['43', '49', '67', '89']</t>
+  </si>
+  <si>
+    <t>['51', '71', '90+4']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -1019,6 +1028,9 @@
   </si>
   <si>
     <t>['21', '25', '73']</t>
+  </si>
+  <si>
+    <t>['14', '81']</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP213"/>
+  <dimension ref="A1:BP217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1651,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1720,7 +1732,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1845,7 +1857,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2132,7 +2144,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ4">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2257,7 +2269,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2335,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5">
         <v>0.78</v>
@@ -2541,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2669,7 +2681,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2953,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>0.5600000000000001</v>
@@ -3159,10 +3171,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3287,7 +3299,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3493,7 +3505,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3699,7 +3711,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3780,7 +3792,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ12">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3905,7 +3917,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4111,7 +4123,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4189,10 +4201,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ14">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>1.68</v>
@@ -4317,7 +4329,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4398,7 +4410,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ15">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR15">
         <v>1.4</v>
@@ -4601,7 +4613,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ16">
         <v>1.78</v>
@@ -4729,7 +4741,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4807,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>0.33</v>
@@ -5222,7 +5234,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ19">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR19">
         <v>2.56</v>
@@ -5347,7 +5359,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5553,7 +5565,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5840,7 +5852,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -5965,7 +5977,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6171,7 +6183,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6249,7 +6261,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24">
         <v>0.33</v>
@@ -6377,7 +6389,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6583,7 +6595,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6661,10 +6673,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR26">
         <v>1.85</v>
@@ -6789,7 +6801,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6870,7 +6882,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ27">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.4</v>
@@ -6995,7 +7007,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7076,7 +7088,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR28">
         <v>1.02</v>
@@ -7201,7 +7213,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7279,10 +7291,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ29">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>1.98</v>
@@ -7613,7 +7625,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7819,7 +7831,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -8231,7 +8243,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8437,7 +8449,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8721,7 +8733,7 @@
         <v>1.67</v>
       </c>
       <c r="AP36">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
         <v>1.28</v>
@@ -9136,7 +9148,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9261,7 +9273,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9548,7 +9560,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ40">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -9751,7 +9763,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ41">
         <v>1.78</v>
@@ -9957,7 +9969,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ42">
         <v>0.5600000000000001</v>
@@ -10085,7 +10097,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10163,7 +10175,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43">
         <v>0.78</v>
@@ -10291,7 +10303,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10372,7 +10384,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ44">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.51</v>
@@ -10497,7 +10509,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10703,7 +10715,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -10990,7 +11002,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR47">
         <v>1.87</v>
@@ -11115,7 +11127,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11527,7 +11539,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11814,7 +11826,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR51">
         <v>1.63</v>
@@ -11939,7 +11951,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12145,7 +12157,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12351,7 +12363,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12429,10 +12441,10 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ54">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.54</v>
@@ -12557,7 +12569,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -13047,10 +13059,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ57">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.57</v>
@@ -13253,10 +13265,10 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR58">
         <v>1.79</v>
@@ -13459,7 +13471,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ59">
         <v>1.06</v>
@@ -13587,7 +13599,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13871,7 +13883,7 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ61">
         <v>1.28</v>
@@ -14080,7 +14092,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ62">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14205,7 +14217,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14286,7 +14298,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR63">
         <v>1.8</v>
@@ -14411,7 +14423,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14823,7 +14835,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -14904,7 +14916,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ66">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -15029,7 +15041,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15235,7 +15247,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15313,7 +15325,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ68">
         <v>0.61</v>
@@ -15519,7 +15531,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69">
         <v>1.06</v>
@@ -15647,7 +15659,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15728,7 +15740,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ70">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR70">
         <v>1.81</v>
@@ -15931,7 +15943,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -16059,7 +16071,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16265,7 +16277,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16343,7 +16355,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73">
         <v>1.78</v>
@@ -16471,7 +16483,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16549,10 +16561,10 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ74">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.56</v>
@@ -17089,7 +17101,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17170,7 +17182,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR77">
         <v>1.38</v>
@@ -17295,7 +17307,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17376,7 +17388,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ78">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>2.07</v>
@@ -17501,7 +17513,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17707,7 +17719,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17785,10 +17797,10 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ80">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17913,7 +17925,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18119,7 +18131,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18325,7 +18337,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18403,7 +18415,7 @@
         <v>1.67</v>
       </c>
       <c r="AP83">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ83">
         <v>1.28</v>
@@ -18612,7 +18624,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ84">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.67</v>
@@ -18815,7 +18827,7 @@
         <v>1.71</v>
       </c>
       <c r="AP85">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18943,7 +18955,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19227,7 +19239,7 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.61</v>
@@ -19436,7 +19448,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -20179,7 +20191,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20257,10 +20269,10 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ92">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20463,10 +20475,10 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ93">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR93">
         <v>1.49</v>
@@ -20797,7 +20809,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -20875,7 +20887,7 @@
         <v>0.14</v>
       </c>
       <c r="AP95">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ95">
         <v>1.06</v>
@@ -21081,7 +21093,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ96">
         <v>0.61</v>
@@ -21493,10 +21505,10 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21621,7 +21633,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21699,10 +21711,10 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR99">
         <v>1.78</v>
@@ -21905,10 +21917,10 @@
         <v>0.63</v>
       </c>
       <c r="AP100">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.41</v>
@@ -22033,7 +22045,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22111,10 +22123,10 @@
         <v>0.63</v>
       </c>
       <c r="AP101">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ101">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -22445,7 +22457,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22857,7 +22869,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -23681,7 +23693,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23965,7 +23977,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
         <v>0.5600000000000001</v>
@@ -24093,7 +24105,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24171,10 +24183,10 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR111">
         <v>1.75</v>
@@ -24377,7 +24389,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ112">
         <v>1.06</v>
@@ -24505,7 +24517,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24583,7 +24595,7 @@
         <v>0.44</v>
       </c>
       <c r="AP113">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ113">
         <v>0.61</v>
@@ -24711,7 +24723,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24792,7 +24804,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ114">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR114">
         <v>1.51</v>
@@ -24917,7 +24929,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -24998,7 +25010,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ115">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
         <v>1.61</v>
@@ -25329,7 +25341,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25410,7 +25422,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ117">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR117">
         <v>1.28</v>
@@ -25741,7 +25753,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25947,7 +25959,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26153,7 +26165,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26359,7 +26371,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26565,7 +26577,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26643,7 +26655,7 @@
         <v>0.6</v>
       </c>
       <c r="AP123">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ123">
         <v>0.33</v>
@@ -26849,7 +26861,7 @@
         <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
         <v>0.5600000000000001</v>
@@ -26977,7 +26989,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27055,7 +27067,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ125">
         <v>0.78</v>
@@ -27183,7 +27195,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27264,7 +27276,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ126">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR126">
         <v>1.98</v>
@@ -27389,7 +27401,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27470,7 +27482,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ127">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR127">
         <v>1.25</v>
@@ -27595,7 +27607,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27676,7 +27688,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
@@ -27801,7 +27813,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27879,7 +27891,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -28007,7 +28019,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28500,7 +28512,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ132">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR132">
         <v>1.65</v>
@@ -28625,7 +28637,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28831,7 +28843,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29115,7 +29127,7 @@
         <v>0.73</v>
       </c>
       <c r="AP135">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ135">
         <v>0.5600000000000001</v>
@@ -29243,7 +29255,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29321,7 +29333,7 @@
         <v>1.64</v>
       </c>
       <c r="AP136">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ136">
         <v>1.5</v>
@@ -29530,7 +29542,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ137">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29736,7 +29748,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -29861,7 +29873,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -29942,7 +29954,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ139">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.47</v>
@@ -30067,7 +30079,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30148,7 +30160,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ140">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.96</v>
@@ -30273,7 +30285,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30351,7 +30363,7 @@
         <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ141">
         <v>0.33</v>
@@ -30763,7 +30775,7 @@
         <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ143">
         <v>0.61</v>
@@ -31097,7 +31109,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31509,7 +31521,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -31796,7 +31808,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ148">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
@@ -31999,7 +32011,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ149">
         <v>1.28</v>
@@ -32127,7 +32139,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32205,10 +32217,10 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ150">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.73</v>
@@ -32411,10 +32423,10 @@
         <v>1.58</v>
       </c>
       <c r="AP151">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ151">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR151">
         <v>2.05</v>
@@ -32620,7 +32632,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ152">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR152">
         <v>1.99</v>
@@ -32745,7 +32757,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32951,7 +32963,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33157,7 +33169,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33647,7 +33659,7 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ157">
         <v>1.5</v>
@@ -33981,7 +33993,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34187,7 +34199,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34680,7 +34692,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ162">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR162">
         <v>1.27</v>
@@ -34883,7 +34895,7 @@
         <v>1.08</v>
       </c>
       <c r="AP163">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ163">
         <v>1.06</v>
@@ -35011,7 +35023,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35092,7 +35104,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ164">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR164">
         <v>1.46</v>
@@ -35217,7 +35229,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35298,7 +35310,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ165">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR165">
         <v>1.32</v>
@@ -35501,7 +35513,7 @@
         <v>0.46</v>
       </c>
       <c r="AP166">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ166">
         <v>0.33</v>
@@ -35629,7 +35641,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -35707,7 +35719,7 @@
         <v>0.54</v>
       </c>
       <c r="AP167">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ167">
         <v>0.61</v>
@@ -35913,7 +35925,7 @@
         <v>1.46</v>
       </c>
       <c r="AP168">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ168">
         <v>1.5</v>
@@ -36041,7 +36053,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36122,7 +36134,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ169">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR169">
         <v>1.61</v>
@@ -36328,7 +36340,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ170">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR170">
         <v>1.58</v>
@@ -36453,7 +36465,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36659,7 +36671,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -37071,7 +37083,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37277,7 +37289,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37358,7 +37370,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ175">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR175">
         <v>1.89</v>
@@ -37561,7 +37573,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ176">
         <v>1.06</v>
@@ -37689,7 +37701,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37973,10 +37985,10 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ178">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR178">
         <v>1.56</v>
@@ -38101,7 +38113,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38179,10 +38191,10 @@
         <v>0.71</v>
       </c>
       <c r="AP179">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR179">
         <v>1.75</v>
@@ -38591,7 +38603,7 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ181">
         <v>0.5600000000000001</v>
@@ -38719,7 +38731,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38925,7 +38937,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39131,7 +39143,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39543,7 +39555,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39749,7 +39761,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39955,7 +39967,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40239,7 +40251,7 @@
         <v>1.25</v>
       </c>
       <c r="AP189">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ189">
         <v>1.28</v>
@@ -40654,7 +40666,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ191">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR191">
         <v>1.51</v>
@@ -40860,7 +40872,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ192">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.21</v>
@@ -40985,7 +40997,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41063,10 +41075,10 @@
         <v>0.87</v>
       </c>
       <c r="AP193">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ193">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR193">
         <v>2.01</v>
@@ -41681,7 +41693,7 @@
         <v>0.88</v>
       </c>
       <c r="AP196">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ196">
         <v>0.78</v>
@@ -42015,7 +42027,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42299,10 +42311,10 @@
         <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ199">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR199">
         <v>1.56</v>
@@ -42427,7 +42439,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42633,7 +42645,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -42714,7 +42726,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ201">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR201">
         <v>1.99</v>
@@ -42917,10 +42929,10 @@
         <v>0.88</v>
       </c>
       <c r="AP202">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AQ202">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR202">
         <v>1.47</v>
@@ -43045,7 +43057,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43126,7 +43138,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ203">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR203">
         <v>1.49</v>
@@ -43251,7 +43263,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43329,7 +43341,7 @@
         <v>1.41</v>
       </c>
       <c r="AP204">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="AQ204">
         <v>1.5</v>
@@ -43741,7 +43753,7 @@
         <v>1.06</v>
       </c>
       <c r="AP206">
-        <v>1.59</v>
+        <v>1.5</v>
       </c>
       <c r="AQ206">
         <v>1.06</v>
@@ -44153,7 +44165,7 @@
         <v>1.71</v>
       </c>
       <c r="AP208">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ208">
         <v>1.78</v>
@@ -44281,7 +44293,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q209">
         <v>3.12</v>
@@ -44487,7 +44499,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44774,7 +44786,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ211">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="AR211">
         <v>1.88</v>
@@ -45262,6 +45274,830 @@
       </c>
       <c r="BP213">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="214" spans="1:68">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>7417516</v>
+      </c>
+      <c r="C214" t="s">
+        <v>68</v>
+      </c>
+      <c r="D214" t="s">
+        <v>69</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45427.64583333334</v>
+      </c>
+      <c r="F214">
+        <v>36</v>
+      </c>
+      <c r="G214" t="s">
+        <v>76</v>
+      </c>
+      <c r="H214" t="s">
+        <v>79</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>2</v>
+      </c>
+      <c r="N214">
+        <v>2</v>
+      </c>
+      <c r="O214" t="s">
+        <v>84</v>
+      </c>
+      <c r="P214" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q214">
+        <v>2.7</v>
+      </c>
+      <c r="R214">
+        <v>2.25</v>
+      </c>
+      <c r="S214">
+        <v>3.25</v>
+      </c>
+      <c r="T214">
+        <v>1.28</v>
+      </c>
+      <c r="U214">
+        <v>3.35</v>
+      </c>
+      <c r="V214">
+        <v>2.25</v>
+      </c>
+      <c r="W214">
+        <v>1.57</v>
+      </c>
+      <c r="X214">
+        <v>5.15</v>
+      </c>
+      <c r="Y214">
+        <v>1.14</v>
+      </c>
+      <c r="Z214">
+        <v>2.19</v>
+      </c>
+      <c r="AA214">
+        <v>3.6</v>
+      </c>
+      <c r="AB214">
+        <v>2.88</v>
+      </c>
+      <c r="AC214">
+        <v>1.04</v>
+      </c>
+      <c r="AD214">
+        <v>12</v>
+      </c>
+      <c r="AE214">
+        <v>1.15</v>
+      </c>
+      <c r="AF214">
+        <v>4.75</v>
+      </c>
+      <c r="AG214">
+        <v>1.53</v>
+      </c>
+      <c r="AH214">
+        <v>2.25</v>
+      </c>
+      <c r="AI214">
+        <v>1.44</v>
+      </c>
+      <c r="AJ214">
+        <v>2.5</v>
+      </c>
+      <c r="AK214">
+        <v>1.38</v>
+      </c>
+      <c r="AL214">
+        <v>1.25</v>
+      </c>
+      <c r="AM214">
+        <v>1.62</v>
+      </c>
+      <c r="AN214">
+        <v>1.59</v>
+      </c>
+      <c r="AO214">
+        <v>0.82</v>
+      </c>
+      <c r="AP214">
+        <v>1.5</v>
+      </c>
+      <c r="AQ214">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR214">
+        <v>1.78</v>
+      </c>
+      <c r="AS214">
+        <v>1.55</v>
+      </c>
+      <c r="AT214">
+        <v>3.33</v>
+      </c>
+      <c r="AU214">
+        <v>4</v>
+      </c>
+      <c r="AV214">
+        <v>5</v>
+      </c>
+      <c r="AW214">
+        <v>8</v>
+      </c>
+      <c r="AX214">
+        <v>3</v>
+      </c>
+      <c r="AY214">
+        <v>12</v>
+      </c>
+      <c r="AZ214">
+        <v>8</v>
+      </c>
+      <c r="BA214">
+        <v>4</v>
+      </c>
+      <c r="BB214">
+        <v>6</v>
+      </c>
+      <c r="BC214">
+        <v>10</v>
+      </c>
+      <c r="BD214">
+        <v>1.75</v>
+      </c>
+      <c r="BE214">
+        <v>8.5</v>
+      </c>
+      <c r="BF214">
+        <v>2.41</v>
+      </c>
+      <c r="BG214">
+        <v>1.13</v>
+      </c>
+      <c r="BH214">
+        <v>4.9</v>
+      </c>
+      <c r="BI214">
+        <v>1.27</v>
+      </c>
+      <c r="BJ214">
+        <v>3.28</v>
+      </c>
+      <c r="BK214">
+        <v>1.5</v>
+      </c>
+      <c r="BL214">
+        <v>2.41</v>
+      </c>
+      <c r="BM214">
+        <v>1.87</v>
+      </c>
+      <c r="BN214">
+        <v>1.87</v>
+      </c>
+      <c r="BO214">
+        <v>2.36</v>
+      </c>
+      <c r="BP214">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="215" spans="1:68">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>7417515</v>
+      </c>
+      <c r="C215" t="s">
+        <v>68</v>
+      </c>
+      <c r="D215" t="s">
+        <v>69</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45427.64583333334</v>
+      </c>
+      <c r="F215">
+        <v>36</v>
+      </c>
+      <c r="G215" t="s">
+        <v>74</v>
+      </c>
+      <c r="H215" t="s">
+        <v>78</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
+        <v>2</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>3</v>
+      </c>
+      <c r="O215" t="s">
+        <v>238</v>
+      </c>
+      <c r="P215" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q215">
+        <v>3.2</v>
+      </c>
+      <c r="R215">
+        <v>2.1</v>
+      </c>
+      <c r="S215">
+        <v>3</v>
+      </c>
+      <c r="T215">
+        <v>1.36</v>
+      </c>
+      <c r="U215">
+        <v>2.88</v>
+      </c>
+      <c r="V215">
+        <v>2.62</v>
+      </c>
+      <c r="W215">
+        <v>1.42</v>
+      </c>
+      <c r="X215">
+        <v>6.55</v>
+      </c>
+      <c r="Y215">
+        <v>1.09</v>
+      </c>
+      <c r="Z215">
+        <v>2.6</v>
+      </c>
+      <c r="AA215">
+        <v>3.4</v>
+      </c>
+      <c r="AB215">
+        <v>2.49</v>
+      </c>
+      <c r="AC215">
+        <v>1.05</v>
+      </c>
+      <c r="AD215">
+        <v>9.5</v>
+      </c>
+      <c r="AE215">
+        <v>1.25</v>
+      </c>
+      <c r="AF215">
+        <v>3.7</v>
+      </c>
+      <c r="AG215">
+        <v>1.86</v>
+      </c>
+      <c r="AH215">
+        <v>2</v>
+      </c>
+      <c r="AI215">
+        <v>1.6</v>
+      </c>
+      <c r="AJ215">
+        <v>2.15</v>
+      </c>
+      <c r="AK215">
+        <v>1.5</v>
+      </c>
+      <c r="AL215">
+        <v>1.25</v>
+      </c>
+      <c r="AM215">
+        <v>1.45</v>
+      </c>
+      <c r="AN215">
+        <v>1.65</v>
+      </c>
+      <c r="AO215">
+        <v>1.41</v>
+      </c>
+      <c r="AP215">
+        <v>1.72</v>
+      </c>
+      <c r="AQ215">
+        <v>1.33</v>
+      </c>
+      <c r="AR215">
+        <v>1.49</v>
+      </c>
+      <c r="AS215">
+        <v>1.64</v>
+      </c>
+      <c r="AT215">
+        <v>3.13</v>
+      </c>
+      <c r="AU215">
+        <v>5</v>
+      </c>
+      <c r="AV215">
+        <v>4</v>
+      </c>
+      <c r="AW215">
+        <v>5</v>
+      </c>
+      <c r="AX215">
+        <v>5</v>
+      </c>
+      <c r="AY215">
+        <v>10</v>
+      </c>
+      <c r="AZ215">
+        <v>9</v>
+      </c>
+      <c r="BA215">
+        <v>3</v>
+      </c>
+      <c r="BB215">
+        <v>3</v>
+      </c>
+      <c r="BC215">
+        <v>6</v>
+      </c>
+      <c r="BD215">
+        <v>2.17</v>
+      </c>
+      <c r="BE215">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF215">
+        <v>1.91</v>
+      </c>
+      <c r="BG215">
+        <v>1.16</v>
+      </c>
+      <c r="BH215">
+        <v>4.25</v>
+      </c>
+      <c r="BI215">
+        <v>1.33</v>
+      </c>
+      <c r="BJ215">
+        <v>2.91</v>
+      </c>
+      <c r="BK215">
+        <v>1.61</v>
+      </c>
+      <c r="BL215">
+        <v>2.17</v>
+      </c>
+      <c r="BM215">
+        <v>2.04</v>
+      </c>
+      <c r="BN215">
+        <v>1.73</v>
+      </c>
+      <c r="BO215">
+        <v>2.65</v>
+      </c>
+      <c r="BP215">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:68">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>7417517</v>
+      </c>
+      <c r="C216" t="s">
+        <v>68</v>
+      </c>
+      <c r="D216" t="s">
+        <v>69</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45428.64583333334</v>
+      </c>
+      <c r="F216">
+        <v>36</v>
+      </c>
+      <c r="G216" t="s">
+        <v>77</v>
+      </c>
+      <c r="H216" t="s">
+        <v>72</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+      <c r="L216">
+        <v>4</v>
+      </c>
+      <c r="M216">
+        <v>2</v>
+      </c>
+      <c r="N216">
+        <v>6</v>
+      </c>
+      <c r="O216" t="s">
+        <v>239</v>
+      </c>
+      <c r="P216" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q216">
+        <v>2.15</v>
+      </c>
+      <c r="R216">
+        <v>2.3</v>
+      </c>
+      <c r="S216">
+        <v>4.5</v>
+      </c>
+      <c r="T216">
+        <v>1.28</v>
+      </c>
+      <c r="U216">
+        <v>3.3</v>
+      </c>
+      <c r="V216">
+        <v>2.25</v>
+      </c>
+      <c r="W216">
+        <v>1.57</v>
+      </c>
+      <c r="X216">
+        <v>4.8</v>
+      </c>
+      <c r="Y216">
+        <v>1.14</v>
+      </c>
+      <c r="Z216">
+        <v>1.71</v>
+      </c>
+      <c r="AA216">
+        <v>4.2</v>
+      </c>
+      <c r="AB216">
+        <v>4.37</v>
+      </c>
+      <c r="AC216">
+        <v>1.04</v>
+      </c>
+      <c r="AD216">
+        <v>10</v>
+      </c>
+      <c r="AE216">
+        <v>1.18</v>
+      </c>
+      <c r="AF216">
+        <v>4.75</v>
+      </c>
+      <c r="AG216">
+        <v>1.53</v>
+      </c>
+      <c r="AH216">
+        <v>2.3</v>
+      </c>
+      <c r="AI216">
+        <v>1.55</v>
+      </c>
+      <c r="AJ216">
+        <v>2.25</v>
+      </c>
+      <c r="AK216">
+        <v>1.18</v>
+      </c>
+      <c r="AL216">
+        <v>1.2</v>
+      </c>
+      <c r="AM216">
+        <v>2.15</v>
+      </c>
+      <c r="AN216">
+        <v>1.76</v>
+      </c>
+      <c r="AO216">
+        <v>1.06</v>
+      </c>
+      <c r="AP216">
+        <v>1.83</v>
+      </c>
+      <c r="AQ216">
+        <v>1</v>
+      </c>
+      <c r="AR216">
+        <v>1.48</v>
+      </c>
+      <c r="AS216">
+        <v>1.51</v>
+      </c>
+      <c r="AT216">
+        <v>2.99</v>
+      </c>
+      <c r="AU216">
+        <v>10</v>
+      </c>
+      <c r="AV216">
+        <v>7</v>
+      </c>
+      <c r="AW216">
+        <v>7</v>
+      </c>
+      <c r="AX216">
+        <v>9</v>
+      </c>
+      <c r="AY216">
+        <v>17</v>
+      </c>
+      <c r="AZ216">
+        <v>16</v>
+      </c>
+      <c r="BA216">
+        <v>6</v>
+      </c>
+      <c r="BB216">
+        <v>4</v>
+      </c>
+      <c r="BC216">
+        <v>10</v>
+      </c>
+      <c r="BD216">
+        <v>1.49</v>
+      </c>
+      <c r="BE216">
+        <v>9.5</v>
+      </c>
+      <c r="BF216">
+        <v>3.24</v>
+      </c>
+      <c r="BG216">
+        <v>1.26</v>
+      </c>
+      <c r="BH216">
+        <v>3.34</v>
+      </c>
+      <c r="BI216">
+        <v>1.5</v>
+      </c>
+      <c r="BJ216">
+        <v>2.41</v>
+      </c>
+      <c r="BK216">
+        <v>1.88</v>
+      </c>
+      <c r="BL216">
+        <v>1.86</v>
+      </c>
+      <c r="BM216">
+        <v>2.41</v>
+      </c>
+      <c r="BN216">
+        <v>1.5</v>
+      </c>
+      <c r="BO216">
+        <v>3.28</v>
+      </c>
+      <c r="BP216">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:68">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>7417518</v>
+      </c>
+      <c r="C217" t="s">
+        <v>68</v>
+      </c>
+      <c r="D217" t="s">
+        <v>69</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45428.64583333334</v>
+      </c>
+      <c r="F217">
+        <v>36</v>
+      </c>
+      <c r="G217" t="s">
+        <v>73</v>
+      </c>
+      <c r="H217" t="s">
+        <v>71</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>3</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>4</v>
+      </c>
+      <c r="O217" t="s">
+        <v>240</v>
+      </c>
+      <c r="P217" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q217">
+        <v>2.55</v>
+      </c>
+      <c r="R217">
+        <v>2.4</v>
+      </c>
+      <c r="S217">
+        <v>3.2</v>
+      </c>
+      <c r="T217">
+        <v>1.22</v>
+      </c>
+      <c r="U217">
+        <v>4.1</v>
+      </c>
+      <c r="V217">
+        <v>2</v>
+      </c>
+      <c r="W217">
+        <v>1.75</v>
+      </c>
+      <c r="X217">
+        <v>3.9</v>
+      </c>
+      <c r="Y217">
+        <v>1.2</v>
+      </c>
+      <c r="Z217">
+        <v>2.17</v>
+      </c>
+      <c r="AA217">
+        <v>4.1</v>
+      </c>
+      <c r="AB217">
+        <v>2.89</v>
+      </c>
+      <c r="AC217">
+        <v>1.01</v>
+      </c>
+      <c r="AD217">
+        <v>28</v>
+      </c>
+      <c r="AE217">
+        <v>1.11</v>
+      </c>
+      <c r="AF217">
+        <v>6.25</v>
+      </c>
+      <c r="AG217">
+        <v>1.33</v>
+      </c>
+      <c r="AH217">
+        <v>3</v>
+      </c>
+      <c r="AI217">
+        <v>1.33</v>
+      </c>
+      <c r="AJ217">
+        <v>3</v>
+      </c>
+      <c r="AK217">
+        <v>1.38</v>
+      </c>
+      <c r="AL217">
+        <v>1.2</v>
+      </c>
+      <c r="AM217">
+        <v>1.7</v>
+      </c>
+      <c r="AN217">
+        <v>2.41</v>
+      </c>
+      <c r="AO217">
+        <v>1</v>
+      </c>
+      <c r="AP217">
+        <v>2.44</v>
+      </c>
+      <c r="AQ217">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR217">
+        <v>2.07</v>
+      </c>
+      <c r="AS217">
+        <v>1.73</v>
+      </c>
+      <c r="AT217">
+        <v>3.8</v>
+      </c>
+      <c r="AU217">
+        <v>8</v>
+      </c>
+      <c r="AV217">
+        <v>6</v>
+      </c>
+      <c r="AW217">
+        <v>9</v>
+      </c>
+      <c r="AX217">
+        <v>6</v>
+      </c>
+      <c r="AY217">
+        <v>17</v>
+      </c>
+      <c r="AZ217">
+        <v>12</v>
+      </c>
+      <c r="BA217">
+        <v>14</v>
+      </c>
+      <c r="BB217">
+        <v>6</v>
+      </c>
+      <c r="BC217">
+        <v>20</v>
+      </c>
+      <c r="BD217">
+        <v>1.77</v>
+      </c>
+      <c r="BE217">
+        <v>9.9</v>
+      </c>
+      <c r="BF217">
+        <v>2.38</v>
+      </c>
+      <c r="BG217">
+        <v>1.09</v>
+      </c>
+      <c r="BH217">
+        <v>6.4</v>
+      </c>
+      <c r="BI217">
+        <v>1.17</v>
+      </c>
+      <c r="BJ217">
+        <v>4.25</v>
+      </c>
+      <c r="BK217">
+        <v>1.33</v>
+      </c>
+      <c r="BL217">
+        <v>2.93</v>
+      </c>
+      <c r="BM217">
+        <v>1.58</v>
+      </c>
+      <c r="BN217">
+        <v>2.23</v>
+      </c>
+      <c r="BO217">
+        <v>1.82</v>
+      </c>
+      <c r="BP217">
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="341">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -739,6 +739,9 @@
     <t>['51', '71', '90+4']</t>
   </si>
   <si>
+    <t>['45+2', '46', '54']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -1031,6 +1034,9 @@
   </si>
   <si>
     <t>['14', '81']</t>
+  </si>
+  <si>
+    <t>['26', '35', '42', '79']</t>
   </si>
 </sst>
 </file>
@@ -1392,7 +1398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP217"/>
+  <dimension ref="A1:BP220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1651,7 +1657,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1729,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1857,7 +1863,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1938,7 +1944,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ3">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2144,7 +2150,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ4">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2269,7 +2275,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2350,7 +2356,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ5">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2681,7 +2687,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2759,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ7">
         <v>1.78</v>
@@ -3299,7 +3305,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3505,7 +3511,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3711,7 +3717,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3917,7 +3923,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -3995,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -4123,7 +4129,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4329,7 +4335,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4407,7 +4413,7 @@
         <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ15">
         <v>1.33</v>
@@ -4741,7 +4747,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -5025,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR18">
         <v>0.89</v>
@@ -5234,7 +5240,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ19">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
         <v>2.56</v>
@@ -5359,7 +5365,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5437,7 +5443,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ20">
         <v>1.28</v>
@@ -5565,7 +5571,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5977,7 +5983,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6058,7 +6064,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ23">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
         <v>2.71</v>
@@ -6183,7 +6189,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6389,7 +6395,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6595,7 +6601,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6801,7 +6807,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6879,7 +6885,7 @@
         <v>2</v>
       </c>
       <c r="AP27">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -7007,7 +7013,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7085,10 +7091,10 @@
         <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>1.02</v>
@@ -7213,7 +7219,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7500,7 +7506,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ30">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
         <v>2.28</v>
@@ -7625,7 +7631,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7703,7 +7709,7 @@
         <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ31">
         <v>0.5600000000000001</v>
@@ -7831,7 +7837,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -8243,7 +8249,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8449,7 +8455,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -9145,7 +9151,7 @@
         <v>0.67</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38">
         <v>0.9399999999999999</v>
@@ -9273,7 +9279,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9351,10 +9357,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR39">
         <v>1.54</v>
@@ -10097,7 +10103,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10178,7 +10184,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
         <v>1.62</v>
@@ -10303,7 +10309,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10509,7 +10515,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10715,7 +10721,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -10793,7 +10799,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ46">
         <v>0.33</v>
@@ -11002,7 +11008,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ47">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
         <v>1.87</v>
@@ -11127,7 +11133,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11414,7 +11420,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11539,7 +11545,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11617,7 +11623,7 @@
         <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ50">
         <v>1.5</v>
@@ -11823,7 +11829,7 @@
         <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
         <v>0.9399999999999999</v>
@@ -11951,7 +11957,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12157,7 +12163,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12363,7 +12369,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12569,7 +12575,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -12647,7 +12653,7 @@
         <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ55">
         <v>0.5600000000000001</v>
@@ -13268,7 +13274,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
         <v>1.79</v>
@@ -13474,7 +13480,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ59">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR59">
         <v>1.87</v>
@@ -13599,7 +13605,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13677,10 +13683,10 @@
         <v>0.6</v>
       </c>
       <c r="AP60">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ60">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR60">
         <v>1.4</v>
@@ -14217,7 +14223,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14423,7 +14429,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14501,7 +14507,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ64">
         <v>1.78</v>
@@ -14835,7 +14841,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -14913,7 +14919,7 @@
         <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -15041,7 +15047,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15247,7 +15253,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15534,7 +15540,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR69">
         <v>1.81</v>
@@ -15659,7 +15665,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15740,7 +15746,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ70">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
         <v>1.81</v>
@@ -16071,7 +16077,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16277,7 +16283,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16483,7 +16489,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -17101,7 +17107,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17179,7 +17185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ77">
         <v>0.9399999999999999</v>
@@ -17307,7 +17313,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17513,7 +17519,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17591,10 +17597,10 @@
         <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ79">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
         <v>1.54</v>
@@ -17719,7 +17725,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17800,7 +17806,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ80">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR80">
         <v>1.66</v>
@@ -17925,7 +17931,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18003,7 +18009,7 @@
         <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ81">
         <v>0.61</v>
@@ -18131,7 +18137,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18212,7 +18218,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ82">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR82">
         <v>1.9</v>
@@ -18337,7 +18343,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18955,7 +18961,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19033,7 +19039,7 @@
         <v>0.86</v>
       </c>
       <c r="AP86">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
         <v>1.78</v>
@@ -19857,10 +19863,10 @@
         <v>0.71</v>
       </c>
       <c r="AP90">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ90">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR90">
         <v>1.27</v>
@@ -20063,10 +20069,10 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ91">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR91">
         <v>1.32</v>
@@ -20191,7 +20197,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20478,7 +20484,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ93">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR93">
         <v>1.49</v>
@@ -20809,7 +20815,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -20890,7 +20896,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ95">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -21633,7 +21639,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -22045,7 +22051,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22126,7 +22132,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ101">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
         <v>1.59</v>
@@ -22329,7 +22335,7 @@
         <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102">
         <v>0.61</v>
@@ -22457,7 +22463,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22869,7 +22875,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -22947,7 +22953,7 @@
         <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ105">
         <v>1.5</v>
@@ -23153,7 +23159,7 @@
         <v>0.63</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ106">
         <v>0.33</v>
@@ -23362,7 +23368,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ107">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR107">
         <v>1.65</v>
@@ -23568,7 +23574,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ108">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR108">
         <v>1.67</v>
@@ -23693,7 +23699,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -24105,7 +24111,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24392,7 +24398,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ112">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR112">
         <v>1.67</v>
@@ -24517,7 +24523,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24723,7 +24729,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24801,10 +24807,10 @@
         <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ114">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
         <v>1.51</v>
@@ -24929,7 +24935,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25341,7 +25347,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25419,7 +25425,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP117">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ117">
         <v>1</v>
@@ -25753,7 +25759,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25959,7 +25965,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26037,7 +26043,7 @@
         <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ120">
         <v>1.28</v>
@@ -26165,7 +26171,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26246,7 +26252,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ121">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
         <v>1.7</v>
@@ -26371,7 +26377,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26452,7 +26458,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ122">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR122">
         <v>1.59</v>
@@ -26577,7 +26583,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26989,7 +26995,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27070,7 +27076,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ125">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR125">
         <v>1.63</v>
@@ -27195,7 +27201,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27401,7 +27407,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27479,10 +27485,10 @@
         <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ127">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
         <v>1.25</v>
@@ -27607,7 +27613,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27685,7 +27691,7 @@
         <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27813,7 +27819,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28019,7 +28025,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28303,7 +28309,7 @@
         <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131">
         <v>1.28</v>
@@ -28637,7 +28643,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28843,7 +28849,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -28921,10 +28927,10 @@
         <v>0.55</v>
       </c>
       <c r="AP134">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ134">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29255,7 +29261,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29542,7 +29548,7 @@
         <v>1.72</v>
       </c>
       <c r="AQ137">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29873,7 +29879,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -29951,7 +29957,7 @@
         <v>1.73</v>
       </c>
       <c r="AP139">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ139">
         <v>1.33</v>
@@ -30079,7 +30085,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30285,7 +30291,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30569,10 +30575,10 @@
         <v>1</v>
       </c>
       <c r="AP142">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ142">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR142">
         <v>1.33</v>
@@ -31109,7 +31115,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31521,7 +31527,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -31599,10 +31605,10 @@
         <v>0.92</v>
       </c>
       <c r="AP147">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ147">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR147">
         <v>1.44</v>
@@ -31805,10 +31811,10 @@
         <v>0.75</v>
       </c>
       <c r="AP148">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ148">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
@@ -32139,7 +32145,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32757,7 +32763,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32835,7 +32841,7 @@
         <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ153">
         <v>0.5600000000000001</v>
@@ -32963,7 +32969,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33044,7 +33050,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ154">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR154">
         <v>1.46</v>
@@ -33169,7 +33175,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33993,7 +33999,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34071,7 +34077,7 @@
         <v>1.23</v>
       </c>
       <c r="AP159">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ159">
         <v>1.28</v>
@@ -34199,7 +34205,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34486,7 +34492,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ161">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR161">
         <v>1.98</v>
@@ -34689,10 +34695,10 @@
         <v>0.92</v>
       </c>
       <c r="AP162">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ162">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR162">
         <v>1.27</v>
@@ -34898,7 +34904,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ163">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -35023,7 +35029,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35229,7 +35235,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35307,7 +35313,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ165">
         <v>0.9399999999999999</v>
@@ -35641,7 +35647,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -36053,7 +36059,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36465,7 +36471,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36543,7 +36549,7 @@
         <v>1.57</v>
       </c>
       <c r="AP171">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ171">
         <v>1.78</v>
@@ -36671,7 +36677,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36955,7 +36961,7 @@
         <v>1.36</v>
       </c>
       <c r="AP173">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ173">
         <v>1.5</v>
@@ -37083,7 +37089,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37161,10 +37167,10 @@
         <v>0.71</v>
       </c>
       <c r="AP174">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ174">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR174">
         <v>1.32</v>
@@ -37289,7 +37295,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37370,7 +37376,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ175">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR175">
         <v>1.89</v>
@@ -37576,7 +37582,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ176">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR176">
         <v>1.49</v>
@@ -37701,7 +37707,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -38113,7 +38119,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38731,7 +38737,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38809,10 +38815,10 @@
         <v>0.93</v>
       </c>
       <c r="AP182">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ182">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR182">
         <v>1.25</v>
@@ -38937,7 +38943,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39143,7 +39149,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39430,7 +39436,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ185">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR185">
         <v>1.63</v>
@@ -39555,7 +39561,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39761,7 +39767,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39839,7 +39845,7 @@
         <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ187">
         <v>0.5600000000000001</v>
@@ -39967,7 +39973,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40045,7 +40051,7 @@
         <v>1.63</v>
       </c>
       <c r="AP188">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ188">
         <v>1.78</v>
@@ -40869,7 +40875,7 @@
         <v>1</v>
       </c>
       <c r="AP192">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ192">
         <v>1</v>
@@ -40997,7 +41003,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41078,7 +41084,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ193">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR193">
         <v>2.01</v>
@@ -41487,7 +41493,7 @@
         <v>0.73</v>
       </c>
       <c r="AP195">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ195">
         <v>0.61</v>
@@ -41696,7 +41702,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ196">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR196">
         <v>1.49</v>
@@ -41902,7 +41908,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ197">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR197">
         <v>1.64</v>
@@ -42027,7 +42033,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42439,7 +42445,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42517,7 +42523,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP200">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200">
         <v>0.61</v>
@@ -42645,7 +42651,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -43057,7 +43063,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43138,7 +43144,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ203">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR203">
         <v>1.49</v>
@@ -43263,7 +43269,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43547,10 +43553,10 @@
         <v>0.82</v>
       </c>
       <c r="AP205">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="AQ205">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AR205">
         <v>1.49</v>
@@ -43756,7 +43762,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ206">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="AR206">
         <v>1.76</v>
@@ -44293,7 +44299,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q209">
         <v>3.12</v>
@@ -44371,7 +44377,7 @@
         <v>0.38</v>
       </c>
       <c r="AP209">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AQ209">
         <v>0.33</v>
@@ -44499,7 +44505,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -45195,7 +45201,7 @@
         <v>0.35</v>
       </c>
       <c r="AP213">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AQ213">
         <v>0.33</v>
@@ -45323,7 +45329,7 @@
         <v>84</v>
       </c>
       <c r="P214" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q214">
         <v>2.7</v>
@@ -45404,7 +45410,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ214">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AR214">
         <v>1.78</v>
@@ -45735,7 +45741,7 @@
         <v>239</v>
       </c>
       <c r="P216" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q216">
         <v>2.15</v>
@@ -45941,7 +45947,7 @@
         <v>240</v>
       </c>
       <c r="P217" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q217">
         <v>2.55</v>
@@ -46098,6 +46104,624 @@
       </c>
       <c r="BP217">
         <v>1.98</v>
+      </c>
+    </row>
+    <row r="218" spans="1:68">
+      <c r="A218" s="1">
+        <v>217</v>
+      </c>
+      <c r="B218">
+        <v>7417519</v>
+      </c>
+      <c r="C218" t="s">
+        <v>68</v>
+      </c>
+      <c r="D218" t="s">
+        <v>69</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F218">
+        <v>37</v>
+      </c>
+      <c r="G218" t="s">
+        <v>70</v>
+      </c>
+      <c r="H218" t="s">
+        <v>80</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+      <c r="K218">
+        <v>0</v>
+      </c>
+      <c r="L218">
+        <v>0</v>
+      </c>
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218">
+        <v>1</v>
+      </c>
+      <c r="O218" t="s">
+        <v>84</v>
+      </c>
+      <c r="P218" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q218">
+        <v>3.07</v>
+      </c>
+      <c r="R218">
+        <v>2.33</v>
+      </c>
+      <c r="S218">
+        <v>3.34</v>
+      </c>
+      <c r="T218">
+        <v>1.34</v>
+      </c>
+      <c r="U218">
+        <v>3.3</v>
+      </c>
+      <c r="V218">
+        <v>2.66</v>
+      </c>
+      <c r="W218">
+        <v>1.48</v>
+      </c>
+      <c r="X218">
+        <v>6.3</v>
+      </c>
+      <c r="Y218">
+        <v>1.1</v>
+      </c>
+      <c r="Z218">
+        <v>2.7</v>
+      </c>
+      <c r="AA218">
+        <v>3.4</v>
+      </c>
+      <c r="AB218">
+        <v>2.6</v>
+      </c>
+      <c r="AC218">
+        <v>1.05</v>
+      </c>
+      <c r="AD218">
+        <v>8.5</v>
+      </c>
+      <c r="AE218">
+        <v>1.22</v>
+      </c>
+      <c r="AF218">
+        <v>3.9</v>
+      </c>
+      <c r="AG218">
+        <v>1.75</v>
+      </c>
+      <c r="AH218">
+        <v>1.95</v>
+      </c>
+      <c r="AI218">
+        <v>1.57</v>
+      </c>
+      <c r="AJ218">
+        <v>2.2</v>
+      </c>
+      <c r="AK218">
+        <v>1.45</v>
+      </c>
+      <c r="AL218">
+        <v>1.25</v>
+      </c>
+      <c r="AM218">
+        <v>1.52</v>
+      </c>
+      <c r="AN218">
+        <v>1.5</v>
+      </c>
+      <c r="AO218">
+        <v>1.06</v>
+      </c>
+      <c r="AP218">
+        <v>1.42</v>
+      </c>
+      <c r="AQ218">
+        <v>1.16</v>
+      </c>
+      <c r="AR218">
+        <v>1.31</v>
+      </c>
+      <c r="AS218">
+        <v>1.52</v>
+      </c>
+      <c r="AT218">
+        <v>2.83</v>
+      </c>
+      <c r="AU218">
+        <v>2</v>
+      </c>
+      <c r="AV218">
+        <v>3</v>
+      </c>
+      <c r="AW218">
+        <v>7</v>
+      </c>
+      <c r="AX218">
+        <v>5</v>
+      </c>
+      <c r="AY218">
+        <v>9</v>
+      </c>
+      <c r="AZ218">
+        <v>8</v>
+      </c>
+      <c r="BA218">
+        <v>6</v>
+      </c>
+      <c r="BB218">
+        <v>4</v>
+      </c>
+      <c r="BC218">
+        <v>10</v>
+      </c>
+      <c r="BD218">
+        <v>1.62</v>
+      </c>
+      <c r="BE218">
+        <v>9</v>
+      </c>
+      <c r="BF218">
+        <v>2.5</v>
+      </c>
+      <c r="BG218">
+        <v>1.16</v>
+      </c>
+      <c r="BH218">
+        <v>4.33</v>
+      </c>
+      <c r="BI218">
+        <v>1.3</v>
+      </c>
+      <c r="BJ218">
+        <v>3.2</v>
+      </c>
+      <c r="BK218">
+        <v>1.64</v>
+      </c>
+      <c r="BL218">
+        <v>2.23</v>
+      </c>
+      <c r="BM218">
+        <v>2.03</v>
+      </c>
+      <c r="BN218">
+        <v>1.78</v>
+      </c>
+      <c r="BO218">
+        <v>2.52</v>
+      </c>
+      <c r="BP218">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="219" spans="1:68">
+      <c r="A219" s="1">
+        <v>218</v>
+      </c>
+      <c r="B219">
+        <v>7417520</v>
+      </c>
+      <c r="C219" t="s">
+        <v>68</v>
+      </c>
+      <c r="D219" t="s">
+        <v>69</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F219">
+        <v>37</v>
+      </c>
+      <c r="G219" t="s">
+        <v>75</v>
+      </c>
+      <c r="H219" t="s">
+        <v>76</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>3</v>
+      </c>
+      <c r="K219">
+        <v>3</v>
+      </c>
+      <c r="L219">
+        <v>0</v>
+      </c>
+      <c r="M219">
+        <v>4</v>
+      </c>
+      <c r="N219">
+        <v>4</v>
+      </c>
+      <c r="O219" t="s">
+        <v>84</v>
+      </c>
+      <c r="P219" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q219">
+        <v>4.55</v>
+      </c>
+      <c r="R219">
+        <v>2.35</v>
+      </c>
+      <c r="S219">
+        <v>2.23</v>
+      </c>
+      <c r="T219">
+        <v>1.31</v>
+      </c>
+      <c r="U219">
+        <v>3.28</v>
+      </c>
+      <c r="V219">
+        <v>2.44</v>
+      </c>
+      <c r="W219">
+        <v>1.52</v>
+      </c>
+      <c r="X219">
+        <v>5.65</v>
+      </c>
+      <c r="Y219">
+        <v>1.12</v>
+      </c>
+      <c r="Z219">
+        <v>4.6</v>
+      </c>
+      <c r="AA219">
+        <v>4</v>
+      </c>
+      <c r="AB219">
+        <v>1.72</v>
+      </c>
+      <c r="AC219">
+        <v>1.01</v>
+      </c>
+      <c r="AD219">
+        <v>11</v>
+      </c>
+      <c r="AE219">
+        <v>1.18</v>
+      </c>
+      <c r="AF219">
+        <v>4.15</v>
+      </c>
+      <c r="AG219">
+        <v>1.61</v>
+      </c>
+      <c r="AH219">
+        <v>2.15</v>
+      </c>
+      <c r="AI219">
+        <v>1.65</v>
+      </c>
+      <c r="AJ219">
+        <v>2.16</v>
+      </c>
+      <c r="AK219">
+        <v>2.14</v>
+      </c>
+      <c r="AL219">
+        <v>1.24</v>
+      </c>
+      <c r="AM219">
+        <v>1.21</v>
+      </c>
+      <c r="AN219">
+        <v>0.83</v>
+      </c>
+      <c r="AO219">
+        <v>0.78</v>
+      </c>
+      <c r="AP219">
+        <v>0.79</v>
+      </c>
+      <c r="AQ219">
+        <v>0.89</v>
+      </c>
+      <c r="AR219">
+        <v>1.22</v>
+      </c>
+      <c r="AS219">
+        <v>1.47</v>
+      </c>
+      <c r="AT219">
+        <v>2.69</v>
+      </c>
+      <c r="AU219">
+        <v>2</v>
+      </c>
+      <c r="AV219">
+        <v>6</v>
+      </c>
+      <c r="AW219">
+        <v>2</v>
+      </c>
+      <c r="AX219">
+        <v>2</v>
+      </c>
+      <c r="AY219">
+        <v>4</v>
+      </c>
+      <c r="AZ219">
+        <v>8</v>
+      </c>
+      <c r="BA219">
+        <v>3</v>
+      </c>
+      <c r="BB219">
+        <v>2</v>
+      </c>
+      <c r="BC219">
+        <v>5</v>
+      </c>
+      <c r="BD219">
+        <v>2.6</v>
+      </c>
+      <c r="BE219">
+        <v>8.5</v>
+      </c>
+      <c r="BF219">
+        <v>1.6</v>
+      </c>
+      <c r="BG219">
+        <v>1.17</v>
+      </c>
+      <c r="BH219">
+        <v>4.25</v>
+      </c>
+      <c r="BI219">
+        <v>1.33</v>
+      </c>
+      <c r="BJ219">
+        <v>3.05</v>
+      </c>
+      <c r="BK219">
+        <v>1.67</v>
+      </c>
+      <c r="BL219">
+        <v>2.18</v>
+      </c>
+      <c r="BM219">
+        <v>2.06</v>
+      </c>
+      <c r="BN219">
+        <v>1.75</v>
+      </c>
+      <c r="BO219">
+        <v>2.6</v>
+      </c>
+      <c r="BP219">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:68">
+      <c r="A220" s="1">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>7417521</v>
+      </c>
+      <c r="C220" t="s">
+        <v>68</v>
+      </c>
+      <c r="D220" t="s">
+        <v>69</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45430.54166666666</v>
+      </c>
+      <c r="F220">
+        <v>37</v>
+      </c>
+      <c r="G220" t="s">
+        <v>81</v>
+      </c>
+      <c r="H220" t="s">
+        <v>79</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>1</v>
+      </c>
+      <c r="L220">
+        <v>3</v>
+      </c>
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220">
+        <v>4</v>
+      </c>
+      <c r="O220" t="s">
+        <v>241</v>
+      </c>
+      <c r="P220" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q220">
+        <v>3.68</v>
+      </c>
+      <c r="R220">
+        <v>2.39</v>
+      </c>
+      <c r="S220">
+        <v>2.49</v>
+      </c>
+      <c r="T220">
+        <v>1.27</v>
+      </c>
+      <c r="U220">
+        <v>3.55</v>
+      </c>
+      <c r="V220">
+        <v>2.26</v>
+      </c>
+      <c r="W220">
+        <v>1.6</v>
+      </c>
+      <c r="X220">
+        <v>5.05</v>
+      </c>
+      <c r="Y220">
+        <v>1.15</v>
+      </c>
+      <c r="Z220">
+        <v>3.3</v>
+      </c>
+      <c r="AA220">
+        <v>3.7</v>
+      </c>
+      <c r="AB220">
+        <v>2.08</v>
+      </c>
+      <c r="AC220">
+        <v>1.03</v>
+      </c>
+      <c r="AD220">
+        <v>18.25</v>
+      </c>
+      <c r="AE220">
+        <v>1.13</v>
+      </c>
+      <c r="AF220">
+        <v>4.75</v>
+      </c>
+      <c r="AG220">
+        <v>1.47</v>
+      </c>
+      <c r="AH220">
+        <v>2.57</v>
+      </c>
+      <c r="AI220">
+        <v>1.49</v>
+      </c>
+      <c r="AJ220">
+        <v>2.51</v>
+      </c>
+      <c r="AK220">
+        <v>1.79</v>
+      </c>
+      <c r="AL220">
+        <v>1.26</v>
+      </c>
+      <c r="AM220">
+        <v>1.34</v>
+      </c>
+      <c r="AN220">
+        <v>2.06</v>
+      </c>
+      <c r="AO220">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP220">
+        <v>2.11</v>
+      </c>
+      <c r="AQ220">
+        <v>0.89</v>
+      </c>
+      <c r="AR220">
+        <v>1.49</v>
+      </c>
+      <c r="AS220">
+        <v>1.53</v>
+      </c>
+      <c r="AT220">
+        <v>3.02</v>
+      </c>
+      <c r="AU220">
+        <v>7</v>
+      </c>
+      <c r="AV220">
+        <v>7</v>
+      </c>
+      <c r="AW220">
+        <v>7</v>
+      </c>
+      <c r="AX220">
+        <v>4</v>
+      </c>
+      <c r="AY220">
+        <v>14</v>
+      </c>
+      <c r="AZ220">
+        <v>11</v>
+      </c>
+      <c r="BA220">
+        <v>4</v>
+      </c>
+      <c r="BB220">
+        <v>7</v>
+      </c>
+      <c r="BC220">
+        <v>11</v>
+      </c>
+      <c r="BD220">
+        <v>2.6</v>
+      </c>
+      <c r="BE220">
+        <v>8.5</v>
+      </c>
+      <c r="BF220">
+        <v>1.6</v>
+      </c>
+      <c r="BG220">
+        <v>1.13</v>
+      </c>
+      <c r="BH220">
+        <v>4.9</v>
+      </c>
+      <c r="BI220">
+        <v>1.27</v>
+      </c>
+      <c r="BJ220">
+        <v>3.28</v>
+      </c>
+      <c r="BK220">
+        <v>1.51</v>
+      </c>
+      <c r="BL220">
+        <v>2.48</v>
+      </c>
+      <c r="BM220">
+        <v>1.73</v>
+      </c>
+      <c r="BN220">
+        <v>2.09</v>
+      </c>
+      <c r="BO220">
+        <v>2.13</v>
+      </c>
+      <c r="BP220">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -46249,19 +46249,19 @@
         <v>2</v>
       </c>
       <c r="AV218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW218">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX218">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY218">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ218">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA218">
         <v>6</v>
@@ -46452,31 +46452,31 @@
         <v>2.69</v>
       </c>
       <c r="AU219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV219">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AW219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX219">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY219">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ219">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA219">
         <v>3</v>
       </c>
       <c r="BB219">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC219">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD219">
         <v>2.6</v>
@@ -46658,19 +46658,19 @@
         <v>3.02</v>
       </c>
       <c r="AU220">
+        <v>5</v>
+      </c>
+      <c r="AV220">
+        <v>4</v>
+      </c>
+      <c r="AW220">
+        <v>10</v>
+      </c>
+      <c r="AX220">
         <v>7</v>
       </c>
-      <c r="AV220">
-        <v>7</v>
-      </c>
-      <c r="AW220">
-        <v>7</v>
-      </c>
-      <c r="AX220">
-        <v>4</v>
-      </c>
       <c r="AY220">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ220">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="343">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -742,6 +742,12 @@
     <t>['45+2', '46', '54']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['12', '55']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -794,9 +800,6 @@
   </si>
   <si>
     <t>['87']</t>
-  </si>
-  <si>
-    <t>['84']</t>
   </si>
   <si>
     <t>['10', '53', '57', '86', '90+3']</t>
@@ -1037,6 +1040,9 @@
   </si>
   <si>
     <t>['26', '35', '42', '79']</t>
+  </si>
+  <si>
+    <t>['12', '31', '85']</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP220"/>
+  <dimension ref="A1:BP223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1657,7 +1663,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1863,7 +1869,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2147,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
         <v>0.89</v>
@@ -2275,7 +2281,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2559,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ6">
         <v>0.33</v>
@@ -2687,7 +2693,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2768,7 +2774,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ7">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3180,7 +3186,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ9">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3305,7 +3311,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3383,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ10">
         <v>1.28</v>
@@ -3511,7 +3517,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3717,7 +3723,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3923,7 +3929,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4004,7 +4010,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4129,7 +4135,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4335,7 +4341,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4619,10 +4625,10 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ16">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR16">
         <v>1.92</v>
@@ -4747,7 +4753,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -5365,7 +5371,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5571,7 +5577,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5649,7 +5655,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
         <v>0.5600000000000001</v>
@@ -5855,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ22">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR22">
         <v>1.41</v>
@@ -5983,7 +5989,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6189,7 +6195,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6395,7 +6401,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6476,7 +6482,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR25">
         <v>1.68</v>
@@ -6601,7 +6607,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6679,10 +6685,10 @@
         <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ26">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
         <v>1.85</v>
@@ -6807,7 +6813,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -7013,7 +7019,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -7219,7 +7225,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7631,7 +7637,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7837,7 +7843,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -7915,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
         <v>0.33</v>
@@ -8121,10 +8127,10 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR33">
         <v>1.41</v>
@@ -8249,7 +8255,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8330,7 +8336,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ34">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR34">
         <v>1.56</v>
@@ -8455,7 +8461,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8945,7 +8951,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
         <v>0.61</v>
@@ -9154,7 +9160,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ38">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR38">
         <v>1.24</v>
@@ -9279,7 +9285,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9772,7 +9778,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ41">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR41">
         <v>2.06</v>
@@ -9975,7 +9981,7 @@
         <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ42">
         <v>0.5600000000000001</v>
@@ -10103,7 +10109,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10309,7 +10315,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10387,7 +10393,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ44">
         <v>1</v>
@@ -10515,7 +10521,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10596,7 +10602,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR45">
         <v>1.93</v>
@@ -10721,7 +10727,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -11133,7 +11139,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11211,10 +11217,10 @@
         <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR48">
         <v>1.79</v>
@@ -11417,7 +11423,7 @@
         <v>0.75</v>
       </c>
       <c r="AP49">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ49">
         <v>0.89</v>
@@ -11545,7 +11551,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11626,7 +11632,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR50">
         <v>1.21</v>
@@ -11832,7 +11838,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR51">
         <v>1.63</v>
@@ -11957,7 +11963,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12163,7 +12169,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12369,7 +12375,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12447,7 +12453,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12575,7 +12581,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -13605,7 +13611,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14223,7 +14229,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14301,10 +14307,10 @@
         <v>0.6</v>
       </c>
       <c r="AP63">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ63">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR63">
         <v>1.8</v>
@@ -14429,7 +14435,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14510,7 +14516,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ64">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR64">
         <v>1.26</v>
@@ -14841,7 +14847,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -15047,7 +15053,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15253,7 +15259,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15331,7 +15337,7 @@
         <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ68">
         <v>0.61</v>
@@ -15665,7 +15671,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15743,7 +15749,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ70">
         <v>0.89</v>
@@ -15952,7 +15958,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR71">
         <v>1.54</v>
@@ -16077,7 +16083,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16155,10 +16161,10 @@
         <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR72">
         <v>1.73</v>
@@ -16283,7 +16289,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16364,7 +16370,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR73">
         <v>1.84</v>
@@ -16489,7 +16495,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16567,7 +16573,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74">
         <v>1.33</v>
@@ -17107,7 +17113,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17188,7 +17194,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ77">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
         <v>1.38</v>
@@ -17313,7 +17319,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17519,7 +17525,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17725,7 +17731,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17931,7 +17937,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18137,7 +18143,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18215,7 +18221,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ82">
         <v>1.16</v>
@@ -18343,7 +18349,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18833,10 +18839,10 @@
         <v>1.71</v>
       </c>
       <c r="AP85">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR85">
         <v>1.49</v>
@@ -18961,7 +18967,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -19042,7 +19048,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ86">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR86">
         <v>1.51</v>
@@ -19454,7 +19460,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ88">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -19657,7 +19663,7 @@
         <v>0.57</v>
       </c>
       <c r="AP89">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ89">
         <v>0.5600000000000001</v>
@@ -20197,7 +20203,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20815,7 +20821,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -21514,7 +21520,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ98">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR98">
         <v>1.82</v>
@@ -21639,7 +21645,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -22051,7 +22057,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22129,7 +22135,7 @@
         <v>0.63</v>
       </c>
       <c r="AP101">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ101">
         <v>0.89</v>
@@ -22463,7 +22469,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22541,7 +22547,7 @@
         <v>1.86</v>
       </c>
       <c r="AP103">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
         <v>1.28</v>
@@ -22875,7 +22881,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -22956,7 +22962,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ105">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR105">
         <v>1.3</v>
@@ -23365,7 +23371,7 @@
         <v>0.63</v>
       </c>
       <c r="AP107">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107">
         <v>0.89</v>
@@ -23699,7 +23705,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23777,10 +23783,10 @@
         <v>1.13</v>
       </c>
       <c r="AP109">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ109">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR109">
         <v>1.98</v>
@@ -24111,7 +24117,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24192,7 +24198,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ111">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
         <v>1.75</v>
@@ -24395,7 +24401,7 @@
         <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ112">
         <v>1.16</v>
@@ -24523,7 +24529,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24729,7 +24735,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24935,7 +24941,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25013,7 +25019,7 @@
         <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115">
         <v>1.33</v>
@@ -25219,7 +25225,7 @@
         <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ116">
         <v>0.33</v>
@@ -25347,7 +25353,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25634,7 +25640,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR118">
         <v>1.54</v>
@@ -25759,7 +25765,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25840,7 +25846,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ119">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR119">
         <v>2.09</v>
@@ -25965,7 +25971,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26171,7 +26177,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26377,7 +26383,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26455,7 +26461,7 @@
         <v>0.8</v>
       </c>
       <c r="AP122">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ122">
         <v>1.16</v>
@@ -26583,7 +26589,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26995,7 +27001,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27073,7 +27079,7 @@
         <v>0.5</v>
       </c>
       <c r="AP125">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ125">
         <v>0.89</v>
@@ -27201,7 +27207,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27407,7 +27413,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27613,7 +27619,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27819,7 +27825,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27900,7 +27906,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR129">
         <v>1.73</v>
@@ -28025,7 +28031,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28106,7 +28112,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ130">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
@@ -28518,7 +28524,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ132">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR132">
         <v>1.65</v>
@@ -28643,7 +28649,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28721,7 +28727,7 @@
         <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
         <v>0.61</v>
@@ -28849,7 +28855,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29133,7 +29139,7 @@
         <v>0.73</v>
       </c>
       <c r="AP135">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ135">
         <v>0.5600000000000001</v>
@@ -29261,7 +29267,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29342,7 +29348,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ136">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR136">
         <v>1.47</v>
@@ -29545,7 +29551,7 @@
         <v>0.82</v>
       </c>
       <c r="AP137">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ137">
         <v>0.89</v>
@@ -29754,7 +29760,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ138">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR138">
         <v>1.52</v>
@@ -29879,7 +29885,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -30085,7 +30091,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30291,7 +30297,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -31115,7 +31121,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31193,10 +31199,10 @@
         <v>1.45</v>
       </c>
       <c r="AP145">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ145">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR145">
         <v>1.94</v>
@@ -31527,7 +31533,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -32145,7 +32151,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32635,10 +32641,10 @@
         <v>0.75</v>
       </c>
       <c r="AP152">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ152">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR152">
         <v>1.99</v>
@@ -32763,7 +32769,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32969,7 +32975,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33175,7 +33181,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -33256,7 +33262,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ155">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR155">
         <v>1.62</v>
@@ -33459,7 +33465,7 @@
         <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ156">
         <v>0.33</v>
@@ -33665,10 +33671,10 @@
         <v>1.58</v>
       </c>
       <c r="AP157">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ157">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR157">
         <v>1.54</v>
@@ -33871,7 +33877,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AP158">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ158">
         <v>0.5600000000000001</v>
@@ -33999,7 +34005,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34205,7 +34211,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34286,7 +34292,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ160">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR160">
         <v>1.94</v>
@@ -34489,7 +34495,7 @@
         <v>0.77</v>
       </c>
       <c r="AP161">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ161">
         <v>0.89</v>
@@ -35029,7 +35035,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35235,7 +35241,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35316,7 +35322,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ165">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR165">
         <v>1.32</v>
@@ -35647,7 +35653,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -35725,7 +35731,7 @@
         <v>0.54</v>
       </c>
       <c r="AP167">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ167">
         <v>0.61</v>
@@ -35934,7 +35940,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ168">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR168">
         <v>1.73</v>
@@ -36059,7 +36065,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36343,7 +36349,7 @@
         <v>1.64</v>
       </c>
       <c r="AP170">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ170">
         <v>1.33</v>
@@ -36471,7 +36477,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36552,7 +36558,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ171">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR171">
         <v>1.26</v>
@@ -36677,7 +36683,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36964,7 +36970,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ173">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR173">
         <v>1.48</v>
@@ -37089,7 +37095,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37295,7 +37301,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37707,7 +37713,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -37785,7 +37791,7 @@
         <v>0.57</v>
       </c>
       <c r="AP177">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ177">
         <v>0.61</v>
@@ -37991,7 +37997,7 @@
         <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ178">
         <v>1</v>
@@ -38119,7 +38125,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38200,7 +38206,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ179">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR179">
         <v>1.75</v>
@@ -38737,7 +38743,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38943,7 +38949,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39021,10 +39027,10 @@
         <v>1.67</v>
       </c>
       <c r="AP183">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR183">
         <v>1.58</v>
@@ -39149,7 +39155,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39227,7 +39233,7 @@
         <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ184">
         <v>1.28</v>
@@ -39561,7 +39567,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39642,7 +39648,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ186">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR186">
         <v>1.89</v>
@@ -39767,7 +39773,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39973,7 +39979,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40054,7 +40060,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ188">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR188">
         <v>1.29</v>
@@ -41003,7 +41009,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41287,7 +41293,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ194">
         <v>0.5600000000000001</v>
@@ -42033,7 +42039,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42111,10 +42117,10 @@
         <v>1.31</v>
       </c>
       <c r="AP198">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ198">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR198">
         <v>1.59</v>
@@ -42317,10 +42323,10 @@
         <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ199">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR199">
         <v>1.56</v>
@@ -42445,7 +42451,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42651,7 +42657,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -42729,7 +42735,7 @@
         <v>1.13</v>
       </c>
       <c r="AP201">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ201">
         <v>1</v>
@@ -42938,7 +42944,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ202">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR202">
         <v>1.47</v>
@@ -43063,7 +43069,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43269,7 +43275,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -43347,10 +43353,10 @@
         <v>1.41</v>
       </c>
       <c r="AP204">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ204">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AR204">
         <v>1.52</v>
@@ -44174,7 +44180,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ208">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AR208">
         <v>2.06</v>
@@ -44299,7 +44305,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q209">
         <v>3.12</v>
@@ -44505,7 +44511,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44583,7 +44589,7 @@
         <v>1.18</v>
       </c>
       <c r="AP210">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AQ210">
         <v>1.28</v>
@@ -45329,7 +45335,7 @@
         <v>84</v>
       </c>
       <c r="P214" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q214">
         <v>2.7</v>
@@ -45613,7 +45619,7 @@
         <v>1.41</v>
       </c>
       <c r="AP215">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AQ215">
         <v>1.33</v>
@@ -45741,7 +45747,7 @@
         <v>239</v>
       </c>
       <c r="P216" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q216">
         <v>2.15</v>
@@ -45947,7 +45953,7 @@
         <v>240</v>
       </c>
       <c r="P217" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q217">
         <v>2.55</v>
@@ -46028,7 +46034,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ217">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AR217">
         <v>2.07</v>
@@ -46153,7 +46159,7 @@
         <v>84</v>
       </c>
       <c r="P218" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q218">
         <v>3.07</v>
@@ -46359,7 +46365,7 @@
         <v>84</v>
       </c>
       <c r="P219" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q219">
         <v>4.55</v>
@@ -46565,7 +46571,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q220">
         <v>3.68</v>
@@ -46722,6 +46728,624 @@
       </c>
       <c r="BP220">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:68">
+      <c r="A221" s="1">
+        <v>220</v>
+      </c>
+      <c r="B221">
+        <v>7417522</v>
+      </c>
+      <c r="C221" t="s">
+        <v>68</v>
+      </c>
+      <c r="D221" t="s">
+        <v>69</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45432.54166666666</v>
+      </c>
+      <c r="F221">
+        <v>37</v>
+      </c>
+      <c r="G221" t="s">
+        <v>78</v>
+      </c>
+      <c r="H221" t="s">
+        <v>73</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>0</v>
+      </c>
+      <c r="K221">
+        <v>0</v>
+      </c>
+      <c r="L221">
+        <v>0</v>
+      </c>
+      <c r="M221">
+        <v>1</v>
+      </c>
+      <c r="N221">
+        <v>1</v>
+      </c>
+      <c r="O221" t="s">
+        <v>84</v>
+      </c>
+      <c r="P221" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q221">
+        <v>2.5</v>
+      </c>
+      <c r="R221">
+        <v>2.3</v>
+      </c>
+      <c r="S221">
+        <v>3.5</v>
+      </c>
+      <c r="T221">
+        <v>1.25</v>
+      </c>
+      <c r="U221">
+        <v>3.5</v>
+      </c>
+      <c r="V221">
+        <v>2.15</v>
+      </c>
+      <c r="W221">
+        <v>1.62</v>
+      </c>
+      <c r="X221">
+        <v>4.7</v>
+      </c>
+      <c r="Y221">
+        <v>1.17</v>
+      </c>
+      <c r="Z221">
+        <v>2</v>
+      </c>
+      <c r="AA221">
+        <v>3.8</v>
+      </c>
+      <c r="AB221">
+        <v>3.1</v>
+      </c>
+      <c r="AC221">
+        <v>1.02</v>
+      </c>
+      <c r="AD221">
+        <v>21</v>
+      </c>
+      <c r="AE221">
+        <v>1.17</v>
+      </c>
+      <c r="AF221">
+        <v>5</v>
+      </c>
+      <c r="AG221">
+        <v>1.4</v>
+      </c>
+      <c r="AH221">
+        <v>2.39</v>
+      </c>
+      <c r="AI221">
+        <v>1.42</v>
+      </c>
+      <c r="AJ221">
+        <v>2.62</v>
+      </c>
+      <c r="AK221">
+        <v>1.33</v>
+      </c>
+      <c r="AL221">
+        <v>1.22</v>
+      </c>
+      <c r="AM221">
+        <v>1.73</v>
+      </c>
+      <c r="AN221">
+        <v>2.06</v>
+      </c>
+      <c r="AO221">
+        <v>1.5</v>
+      </c>
+      <c r="AP221">
+        <v>1.95</v>
+      </c>
+      <c r="AQ221">
+        <v>1.58</v>
+      </c>
+      <c r="AR221">
+        <v>1.99</v>
+      </c>
+      <c r="AS221">
+        <v>1.54</v>
+      </c>
+      <c r="AT221">
+        <v>3.53</v>
+      </c>
+      <c r="AU221">
+        <v>0</v>
+      </c>
+      <c r="AV221">
+        <v>0</v>
+      </c>
+      <c r="AW221">
+        <v>3</v>
+      </c>
+      <c r="AX221">
+        <v>5</v>
+      </c>
+      <c r="AY221">
+        <v>3</v>
+      </c>
+      <c r="AZ221">
+        <v>5</v>
+      </c>
+      <c r="BA221">
+        <v>1</v>
+      </c>
+      <c r="BB221">
+        <v>0</v>
+      </c>
+      <c r="BC221">
+        <v>1</v>
+      </c>
+      <c r="BD221">
+        <v>1.66</v>
+      </c>
+      <c r="BE221">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF221">
+        <v>2.58</v>
+      </c>
+      <c r="BG221">
+        <v>1.11</v>
+      </c>
+      <c r="BH221">
+        <v>5.2</v>
+      </c>
+      <c r="BI221">
+        <v>1.24</v>
+      </c>
+      <c r="BJ221">
+        <v>3.48</v>
+      </c>
+      <c r="BK221">
+        <v>1.46</v>
+      </c>
+      <c r="BL221">
+        <v>2.52</v>
+      </c>
+      <c r="BM221">
+        <v>1.79</v>
+      </c>
+      <c r="BN221">
+        <v>1.96</v>
+      </c>
+      <c r="BO221">
+        <v>2.23</v>
+      </c>
+      <c r="BP221">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:68">
+      <c r="A222" s="1">
+        <v>221</v>
+      </c>
+      <c r="B222">
+        <v>7417523</v>
+      </c>
+      <c r="C222" t="s">
+        <v>68</v>
+      </c>
+      <c r="D222" t="s">
+        <v>69</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45432.54166666666</v>
+      </c>
+      <c r="F222">
+        <v>37</v>
+      </c>
+      <c r="G222" t="s">
+        <v>72</v>
+      </c>
+      <c r="H222" t="s">
+        <v>71</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>2</v>
+      </c>
+      <c r="K222">
+        <v>2</v>
+      </c>
+      <c r="L222">
+        <v>1</v>
+      </c>
+      <c r="M222">
+        <v>3</v>
+      </c>
+      <c r="N222">
+        <v>4</v>
+      </c>
+      <c r="O222" t="s">
+        <v>242</v>
+      </c>
+      <c r="P222" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q222">
+        <v>3.5</v>
+      </c>
+      <c r="R222">
+        <v>2.35</v>
+      </c>
+      <c r="S222">
+        <v>2.45</v>
+      </c>
+      <c r="T222">
+        <v>1.25</v>
+      </c>
+      <c r="U222">
+        <v>3.55</v>
+      </c>
+      <c r="V222">
+        <v>2.1</v>
+      </c>
+      <c r="W222">
+        <v>1.65</v>
+      </c>
+      <c r="X222">
+        <v>4.5</v>
+      </c>
+      <c r="Y222">
+        <v>1.18</v>
+      </c>
+      <c r="Z222">
+        <v>3.1</v>
+      </c>
+      <c r="AA222">
+        <v>3.8</v>
+      </c>
+      <c r="AB222">
+        <v>2</v>
+      </c>
+      <c r="AC222">
+        <v>1.02</v>
+      </c>
+      <c r="AD222">
+        <v>22.5</v>
+      </c>
+      <c r="AE222">
+        <v>1.15</v>
+      </c>
+      <c r="AF222">
+        <v>5.25</v>
+      </c>
+      <c r="AG222">
+        <v>1.38</v>
+      </c>
+      <c r="AH222">
+        <v>2.53</v>
+      </c>
+      <c r="AI222">
+        <v>1.38</v>
+      </c>
+      <c r="AJ222">
+        <v>2.7</v>
+      </c>
+      <c r="AK222">
+        <v>1.75</v>
+      </c>
+      <c r="AL222">
+        <v>1.22</v>
+      </c>
+      <c r="AM222">
+        <v>1.33</v>
+      </c>
+      <c r="AN222">
+        <v>1.72</v>
+      </c>
+      <c r="AO222">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AP222">
+        <v>1.63</v>
+      </c>
+      <c r="AQ222">
+        <v>1.05</v>
+      </c>
+      <c r="AR222">
+        <v>1.59</v>
+      </c>
+      <c r="AS222">
+        <v>1.72</v>
+      </c>
+      <c r="AT222">
+        <v>3.31</v>
+      </c>
+      <c r="AU222">
+        <v>4</v>
+      </c>
+      <c r="AV222">
+        <v>9</v>
+      </c>
+      <c r="AW222">
+        <v>7</v>
+      </c>
+      <c r="AX222">
+        <v>1</v>
+      </c>
+      <c r="AY222">
+        <v>11</v>
+      </c>
+      <c r="AZ222">
+        <v>10</v>
+      </c>
+      <c r="BA222">
+        <v>4</v>
+      </c>
+      <c r="BB222">
+        <v>2</v>
+      </c>
+      <c r="BC222">
+        <v>6</v>
+      </c>
+      <c r="BD222">
+        <v>2.38</v>
+      </c>
+      <c r="BE222">
+        <v>9.6</v>
+      </c>
+      <c r="BF222">
+        <v>1.76</v>
+      </c>
+      <c r="BG222">
+        <v>1.11</v>
+      </c>
+      <c r="BH222">
+        <v>5.1</v>
+      </c>
+      <c r="BI222">
+        <v>1.25</v>
+      </c>
+      <c r="BJ222">
+        <v>3.42</v>
+      </c>
+      <c r="BK222">
+        <v>1.47</v>
+      </c>
+      <c r="BL222">
+        <v>2.49</v>
+      </c>
+      <c r="BM222">
+        <v>1.81</v>
+      </c>
+      <c r="BN222">
+        <v>1.94</v>
+      </c>
+      <c r="BO222">
+        <v>2.27</v>
+      </c>
+      <c r="BP222">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="223" spans="1:68">
+      <c r="A223" s="1">
+        <v>222</v>
+      </c>
+      <c r="B223">
+        <v>7417524</v>
+      </c>
+      <c r="C223" t="s">
+        <v>68</v>
+      </c>
+      <c r="D223" t="s">
+        <v>69</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45432.54166666666</v>
+      </c>
+      <c r="F223">
+        <v>37</v>
+      </c>
+      <c r="G223" t="s">
+        <v>74</v>
+      </c>
+      <c r="H223" t="s">
+        <v>77</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>1</v>
+      </c>
+      <c r="L223">
+        <v>2</v>
+      </c>
+      <c r="M223">
+        <v>1</v>
+      </c>
+      <c r="N223">
+        <v>3</v>
+      </c>
+      <c r="O223" t="s">
+        <v>243</v>
+      </c>
+      <c r="P223" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q223">
+        <v>2.75</v>
+      </c>
+      <c r="R223">
+        <v>2.15</v>
+      </c>
+      <c r="S223">
+        <v>3.45</v>
+      </c>
+      <c r="T223">
+        <v>1.33</v>
+      </c>
+      <c r="U223">
+        <v>3</v>
+      </c>
+      <c r="V223">
+        <v>2.45</v>
+      </c>
+      <c r="W223">
+        <v>1.48</v>
+      </c>
+      <c r="X223">
+        <v>6.15</v>
+      </c>
+      <c r="Y223">
+        <v>1.1</v>
+      </c>
+      <c r="Z223">
+        <v>2.2</v>
+      </c>
+      <c r="AA223">
+        <v>3.5</v>
+      </c>
+      <c r="AB223">
+        <v>3</v>
+      </c>
+      <c r="AC223">
+        <v>1.05</v>
+      </c>
+      <c r="AD223">
+        <v>9.5</v>
+      </c>
+      <c r="AE223">
+        <v>1.25</v>
+      </c>
+      <c r="AF223">
+        <v>3.95</v>
+      </c>
+      <c r="AG223">
+        <v>1.65</v>
+      </c>
+      <c r="AH223">
+        <v>1.94</v>
+      </c>
+      <c r="AI223">
+        <v>1.55</v>
+      </c>
+      <c r="AJ223">
+        <v>2.25</v>
+      </c>
+      <c r="AK223">
+        <v>1.36</v>
+      </c>
+      <c r="AL223">
+        <v>1.25</v>
+      </c>
+      <c r="AM223">
+        <v>1.62</v>
+      </c>
+      <c r="AN223">
+        <v>1.72</v>
+      </c>
+      <c r="AO223">
+        <v>1.78</v>
+      </c>
+      <c r="AP223">
+        <v>1.79</v>
+      </c>
+      <c r="AQ223">
+        <v>1.68</v>
+      </c>
+      <c r="AR223">
+        <v>1.49</v>
+      </c>
+      <c r="AS223">
+        <v>1.48</v>
+      </c>
+      <c r="AT223">
+        <v>2.97</v>
+      </c>
+      <c r="AU223">
+        <v>6</v>
+      </c>
+      <c r="AV223">
+        <v>4</v>
+      </c>
+      <c r="AW223">
+        <v>1</v>
+      </c>
+      <c r="AX223">
+        <v>3</v>
+      </c>
+      <c r="AY223">
+        <v>7</v>
+      </c>
+      <c r="AZ223">
+        <v>7</v>
+      </c>
+      <c r="BA223">
+        <v>3</v>
+      </c>
+      <c r="BB223">
+        <v>7</v>
+      </c>
+      <c r="BC223">
+        <v>10</v>
+      </c>
+      <c r="BD223">
+        <v>1.74</v>
+      </c>
+      <c r="BE223">
+        <v>9</v>
+      </c>
+      <c r="BF223">
+        <v>2.45</v>
+      </c>
+      <c r="BG223">
+        <v>1.25</v>
+      </c>
+      <c r="BH223">
+        <v>3.42</v>
+      </c>
+      <c r="BI223">
+        <v>1.49</v>
+      </c>
+      <c r="BJ223">
+        <v>2.44</v>
+      </c>
+      <c r="BK223">
+        <v>1.86</v>
+      </c>
+      <c r="BL223">
+        <v>1.88</v>
+      </c>
+      <c r="BM223">
+        <v>2.39</v>
+      </c>
+      <c r="BN223">
+        <v>1.51</v>
+      </c>
+      <c r="BO223">
+        <v>3.18</v>
+      </c>
+      <c r="BP223">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -46873,28 +46873,28 @@
         <v>0</v>
       </c>
       <c r="AV221">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW221">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX221">
+        <v>6</v>
+      </c>
+      <c r="AY221">
         <v>5</v>
       </c>
-      <c r="AY221">
-        <v>3</v>
-      </c>
       <c r="AZ221">
+        <v>8</v>
+      </c>
+      <c r="BA221">
+        <v>2</v>
+      </c>
+      <c r="BB221">
         <v>5</v>
       </c>
-      <c r="BA221">
-        <v>1</v>
-      </c>
-      <c r="BB221">
-        <v>0</v>
-      </c>
       <c r="BC221">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BD221">
         <v>1.66</v>
@@ -47285,28 +47285,28 @@
         <v>6</v>
       </c>
       <c r="AV223">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW223">
         <v>1</v>
       </c>
       <c r="AX223">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY223">
         <v>7</v>
       </c>
       <c r="AZ223">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA223">
         <v>3</v>
       </c>
       <c r="BB223">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BC223">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD223">
         <v>1.74</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="344">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,9 @@
     <t>['12', '55']</t>
   </si>
   <si>
+    <t>['88']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -806,9 +809,6 @@
   </si>
   <si>
     <t>['21']</t>
-  </si>
-  <si>
-    <t>['88']</t>
   </si>
   <si>
     <t>['4', '90+6']</t>
@@ -1043,6 +1043,9 @@
   </si>
   <si>
     <t>['12', '31', '85']</t>
+  </si>
+  <si>
+    <t>['14', '15']</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP223"/>
+  <dimension ref="A1:BP226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1663,7 +1666,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1869,7 +1872,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -2281,7 +2284,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2568,7 +2571,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ6">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2693,7 +2696,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -2977,10 +2980,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3311,7 +3314,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3517,7 +3520,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3595,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3723,7 +3726,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3801,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3929,7 +3932,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4135,7 +4138,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4341,7 +4344,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4753,7 +4756,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -4831,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR17">
         <v>1.98</v>
@@ -5371,7 +5374,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5577,7 +5580,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5658,7 +5661,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR21">
         <v>2.13</v>
@@ -5989,7 +5992,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6067,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ23">
         <v>0.89</v>
@@ -6195,7 +6198,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6276,7 +6279,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR24">
         <v>1.13</v>
@@ -6401,7 +6404,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6479,7 +6482,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ25">
         <v>1.58</v>
@@ -6607,7 +6610,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6813,7 +6816,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -7225,7 +7228,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7303,7 +7306,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7637,7 +7640,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -7718,7 +7721,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ31">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR31">
         <v>1.27</v>
@@ -7843,7 +7846,7 @@
         <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Q32">
         <v>2.25</v>
@@ -7924,7 +7927,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR32">
         <v>1.89</v>
@@ -8333,7 +8336,7 @@
         <v>1.5</v>
       </c>
       <c r="AP34">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ34">
         <v>1.68</v>
@@ -8539,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ35">
         <v>1.28</v>
@@ -8745,7 +8748,7 @@
         <v>1.67</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
         <v>1.28</v>
@@ -8954,7 +8957,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR37">
         <v>1.9</v>
@@ -9569,7 +9572,7 @@
         <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9984,7 +9987,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ42">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
         <v>1.57</v>
@@ -10808,7 +10811,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ46">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR46">
         <v>1.34</v>
@@ -11011,7 +11014,7 @@
         <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ47">
         <v>0.89</v>
@@ -12041,10 +12044,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR52">
         <v>1.78</v>
@@ -12247,7 +12250,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ53">
         <v>1.28</v>
@@ -12662,7 +12665,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ55">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR55">
         <v>1.74</v>
@@ -12868,7 +12871,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ56">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR56">
         <v>1.98</v>
@@ -13277,7 +13280,7 @@
         <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
         <v>0.89</v>
@@ -14101,7 +14104,7 @@
         <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ62">
         <v>1.33</v>
@@ -14229,7 +14232,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14719,10 +14722,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ65">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR65">
         <v>1.51</v>
@@ -14847,7 +14850,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -15134,7 +15137,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ67">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR67">
         <v>2.08</v>
@@ -15340,7 +15343,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ68">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR68">
         <v>1.51</v>
@@ -15543,7 +15546,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
         <v>1.16</v>
@@ -16367,7 +16370,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ73">
         <v>1.68</v>
@@ -16779,10 +16782,10 @@
         <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ75">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR75">
         <v>1.61</v>
@@ -16985,10 +16988,10 @@
         <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR76">
         <v>1.54</v>
@@ -18018,7 +18021,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ81">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR81">
         <v>1.23</v>
@@ -18143,7 +18146,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18633,7 +18636,7 @@
         <v>0.71</v>
       </c>
       <c r="AP84">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -19251,10 +19254,10 @@
         <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR87">
         <v>1.83</v>
@@ -19457,7 +19460,7 @@
         <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88">
         <v>1.05</v>
@@ -19666,7 +19669,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ89">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR89">
         <v>1.98</v>
@@ -20203,7 +20206,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20696,7 +20699,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ94">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR94">
         <v>2.11</v>
@@ -21108,7 +21111,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ96">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR96">
         <v>1.86</v>
@@ -21311,10 +21314,10 @@
         <v>0.5</v>
       </c>
       <c r="AP97">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR97">
         <v>1.52</v>
@@ -21723,7 +21726,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
         <v>1.33</v>
@@ -22057,7 +22060,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22344,7 +22347,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ102">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR102">
         <v>1.41</v>
@@ -22469,7 +22472,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -23168,7 +23171,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR106">
         <v>1.33</v>
@@ -23577,7 +23580,7 @@
         <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ108">
         <v>1.16</v>
@@ -23992,7 +23995,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ110">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR110">
         <v>1.86</v>
@@ -24195,7 +24198,7 @@
         <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
         <v>1.05</v>
@@ -24610,7 +24613,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ113">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR113">
         <v>1.4</v>
@@ -25228,7 +25231,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ116">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR116">
         <v>1.94</v>
@@ -25637,7 +25640,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
         <v>1.58</v>
@@ -26255,7 +26258,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP121">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ121">
         <v>0.89</v>
@@ -26670,7 +26673,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ123">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR123">
         <v>1.91</v>
@@ -26876,7 +26879,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ124">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR124">
         <v>1.52</v>
@@ -27825,7 +27828,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -27903,7 +27906,7 @@
         <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
         <v>1.58</v>
@@ -28109,7 +28112,7 @@
         <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ130">
         <v>1.68</v>
@@ -28521,7 +28524,7 @@
         <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ132">
         <v>1.05</v>
@@ -28730,7 +28733,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ133">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR133">
         <v>1.99</v>
@@ -29142,7 +29145,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ135">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR135">
         <v>1.62</v>
@@ -29757,7 +29760,7 @@
         <v>0.82</v>
       </c>
       <c r="AP138">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
         <v>1.05</v>
@@ -30375,10 +30378,10 @@
         <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR141">
         <v>1.7</v>
@@ -30790,7 +30793,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ143">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR143">
         <v>2.01</v>
@@ -30993,7 +30996,7 @@
         <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ144">
         <v>1.28</v>
@@ -31408,7 +31411,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ146">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR146">
         <v>1.93</v>
@@ -32151,7 +32154,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32229,7 +32232,7 @@
         <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
         <v>1</v>
@@ -32850,7 +32853,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ153">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR153">
         <v>1.29</v>
@@ -33053,7 +33056,7 @@
         <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ154">
         <v>0.89</v>
@@ -33259,7 +33262,7 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ155">
         <v>1.68</v>
@@ -33468,7 +33471,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ156">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR156">
         <v>1.55</v>
@@ -33880,7 +33883,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ158">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
         <v>1.57</v>
@@ -35113,7 +35116,7 @@
         <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ164">
         <v>1</v>
@@ -35528,7 +35531,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ166">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR166">
         <v>1.46</v>
@@ -35734,7 +35737,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ167">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR167">
         <v>1.53</v>
@@ -35937,7 +35940,7 @@
         <v>1.46</v>
       </c>
       <c r="AP168">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
         <v>1.58</v>
@@ -36143,7 +36146,7 @@
         <v>1.69</v>
       </c>
       <c r="AP169">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ169">
         <v>1.33</v>
@@ -36761,7 +36764,7 @@
         <v>1.14</v>
       </c>
       <c r="AP172">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ172">
         <v>1.28</v>
@@ -37794,7 +37797,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ177">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR177">
         <v>2.05</v>
@@ -38203,7 +38206,7 @@
         <v>0.71</v>
       </c>
       <c r="AP179">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179">
         <v>1.05</v>
@@ -38409,10 +38412,10 @@
         <v>0.43</v>
       </c>
       <c r="AP180">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ180">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR180">
         <v>1.64</v>
@@ -38618,7 +38621,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ181">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR181">
         <v>2.05</v>
@@ -39439,7 +39442,7 @@
         <v>0.87</v>
       </c>
       <c r="AP185">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ185">
         <v>0.89</v>
@@ -39854,7 +39857,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ187">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR187">
         <v>1.45</v>
@@ -40263,7 +40266,7 @@
         <v>1.25</v>
       </c>
       <c r="AP189">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189">
         <v>1.28</v>
@@ -40472,7 +40475,7 @@
         <v>2.06</v>
       </c>
       <c r="AQ190">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR190">
         <v>1.85</v>
@@ -40675,7 +40678,7 @@
         <v>1.53</v>
       </c>
       <c r="AP191">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ191">
         <v>1.33</v>
@@ -41296,7 +41299,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ194">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR194">
         <v>2.02</v>
@@ -41502,7 +41505,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ195">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR195">
         <v>1.48</v>
@@ -41911,7 +41914,7 @@
         <v>1.06</v>
       </c>
       <c r="AP197">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ197">
         <v>1.16</v>
@@ -42532,7 +42535,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ200">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR200">
         <v>1.28</v>
@@ -43147,7 +43150,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AP203">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ203">
         <v>0.89</v>
@@ -43765,7 +43768,7 @@
         <v>1.06</v>
       </c>
       <c r="AP206">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ206">
         <v>1.16</v>
@@ -43971,10 +43974,10 @@
         <v>0.53</v>
       </c>
       <c r="AP207">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AQ207">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="AR207">
         <v>1.63</v>
@@ -44386,7 +44389,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ209">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR209">
         <v>1.19</v>
@@ -45001,10 +45004,10 @@
         <v>0.65</v>
       </c>
       <c r="AP212">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AQ212">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AR212">
         <v>1.5</v>
@@ -45210,7 +45213,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ213">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="AR213">
         <v>1.29</v>
@@ -45413,7 +45416,7 @@
         <v>0.82</v>
       </c>
       <c r="AP214">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
         <v>0.89</v>
@@ -46159,7 +46162,7 @@
         <v>84</v>
       </c>
       <c r="P218" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q218">
         <v>3.07</v>
@@ -46873,19 +46876,19 @@
         <v>0</v>
       </c>
       <c r="AV221">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW221">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX221">
+        <v>12</v>
+      </c>
+      <c r="AY221">
         <v>6</v>
       </c>
-      <c r="AY221">
-        <v>5</v>
-      </c>
       <c r="AZ221">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA221">
         <v>2</v>
@@ -47076,31 +47079,31 @@
         <v>3.31</v>
       </c>
       <c r="AU222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV222">
+        <v>11</v>
+      </c>
+      <c r="AW222">
         <v>9</v>
       </c>
-      <c r="AW222">
-        <v>7</v>
-      </c>
       <c r="AX222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY222">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ222">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB222">
         <v>2</v>
       </c>
       <c r="BC222">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD222">
         <v>2.38</v>
@@ -47189,7 +47192,7 @@
         <v>243</v>
       </c>
       <c r="P223" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="Q223">
         <v>2.75</v>
@@ -47282,22 +47285,22 @@
         <v>2.97</v>
       </c>
       <c r="AU223">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV223">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW223">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX223">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AY223">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ223">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="BA223">
         <v>3</v>
@@ -47346,6 +47349,624 @@
       </c>
       <c r="BP223">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:68">
+      <c r="A224" s="1">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>7417525</v>
+      </c>
+      <c r="C224" t="s">
+        <v>68</v>
+      </c>
+      <c r="D224" t="s">
+        <v>69</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45433.64583333334</v>
+      </c>
+      <c r="F224">
+        <v>38</v>
+      </c>
+      <c r="G224" t="s">
+        <v>80</v>
+      </c>
+      <c r="H224" t="s">
+        <v>81</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224" t="s">
+        <v>84</v>
+      </c>
+      <c r="P224" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q224">
+        <v>2.1</v>
+      </c>
+      <c r="R224">
+        <v>2.38</v>
+      </c>
+      <c r="S224">
+        <v>4.5</v>
+      </c>
+      <c r="T224">
+        <v>1.28</v>
+      </c>
+      <c r="U224">
+        <v>3.35</v>
+      </c>
+      <c r="V224">
+        <v>2.3</v>
+      </c>
+      <c r="W224">
+        <v>1.55</v>
+      </c>
+      <c r="X224">
+        <v>5</v>
+      </c>
+      <c r="Y224">
+        <v>1.13</v>
+      </c>
+      <c r="Z224">
+        <v>1.64</v>
+      </c>
+      <c r="AA224">
+        <v>4.28</v>
+      </c>
+      <c r="AB224">
+        <v>4.76</v>
+      </c>
+      <c r="AC224">
+        <v>1.03</v>
+      </c>
+      <c r="AD224">
+        <v>11</v>
+      </c>
+      <c r="AE224">
+        <v>1.18</v>
+      </c>
+      <c r="AF224">
+        <v>4.75</v>
+      </c>
+      <c r="AG224">
+        <v>1.6</v>
+      </c>
+      <c r="AH224">
+        <v>2.34</v>
+      </c>
+      <c r="AI224">
+        <v>1.57</v>
+      </c>
+      <c r="AJ224">
+        <v>2.2</v>
+      </c>
+      <c r="AK224">
+        <v>1.17</v>
+      </c>
+      <c r="AL224">
+        <v>1.18</v>
+      </c>
+      <c r="AM224">
+        <v>2.25</v>
+      </c>
+      <c r="AN224">
+        <v>1.44</v>
+      </c>
+      <c r="AO224">
+        <v>0.33</v>
+      </c>
+      <c r="AP224">
+        <v>1.42</v>
+      </c>
+      <c r="AQ224">
+        <v>0.37</v>
+      </c>
+      <c r="AR224">
+        <v>1.51</v>
+      </c>
+      <c r="AS224">
+        <v>1.15</v>
+      </c>
+      <c r="AT224">
+        <v>2.66</v>
+      </c>
+      <c r="AU224">
+        <v>6</v>
+      </c>
+      <c r="AV224">
+        <v>0</v>
+      </c>
+      <c r="AW224">
+        <v>9</v>
+      </c>
+      <c r="AX224">
+        <v>11</v>
+      </c>
+      <c r="AY224">
+        <v>15</v>
+      </c>
+      <c r="AZ224">
+        <v>11</v>
+      </c>
+      <c r="BA224">
+        <v>6</v>
+      </c>
+      <c r="BB224">
+        <v>3</v>
+      </c>
+      <c r="BC224">
+        <v>9</v>
+      </c>
+      <c r="BD224">
+        <v>1.48</v>
+      </c>
+      <c r="BE224">
+        <v>10.25</v>
+      </c>
+      <c r="BF224">
+        <v>3.12</v>
+      </c>
+      <c r="BG224">
+        <v>1.1</v>
+      </c>
+      <c r="BH224">
+        <v>5.3</v>
+      </c>
+      <c r="BI224">
+        <v>1.24</v>
+      </c>
+      <c r="BJ224">
+        <v>3.48</v>
+      </c>
+      <c r="BK224">
+        <v>1.44</v>
+      </c>
+      <c r="BL224">
+        <v>2.58</v>
+      </c>
+      <c r="BM224">
+        <v>1.78</v>
+      </c>
+      <c r="BN224">
+        <v>2.01</v>
+      </c>
+      <c r="BO224">
+        <v>2.23</v>
+      </c>
+      <c r="BP224">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="225" spans="1:68">
+      <c r="A225" s="1">
+        <v>224</v>
+      </c>
+      <c r="B225">
+        <v>7417526</v>
+      </c>
+      <c r="C225" t="s">
+        <v>68</v>
+      </c>
+      <c r="D225" t="s">
+        <v>69</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45433.64583333334</v>
+      </c>
+      <c r="F225">
+        <v>38</v>
+      </c>
+      <c r="G225" t="s">
+        <v>76</v>
+      </c>
+      <c r="H225" t="s">
+        <v>70</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225" t="s">
+        <v>84</v>
+      </c>
+      <c r="P225" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q225">
+        <v>2.41</v>
+      </c>
+      <c r="R225">
+        <v>2.43</v>
+      </c>
+      <c r="S225">
+        <v>4.33</v>
+      </c>
+      <c r="T225">
+        <v>1.3</v>
+      </c>
+      <c r="U225">
+        <v>3.2</v>
+      </c>
+      <c r="V225">
+        <v>2.48</v>
+      </c>
+      <c r="W225">
+        <v>1.51</v>
+      </c>
+      <c r="X225">
+        <v>5.5</v>
+      </c>
+      <c r="Y225">
+        <v>1.11</v>
+      </c>
+      <c r="Z225">
+        <v>1.97</v>
+      </c>
+      <c r="AA225">
+        <v>3.74</v>
+      </c>
+      <c r="AB225">
+        <v>3.6</v>
+      </c>
+      <c r="AC225">
+        <v>1.01</v>
+      </c>
+      <c r="AD225">
+        <v>11</v>
+      </c>
+      <c r="AE225">
+        <v>1.2</v>
+      </c>
+      <c r="AF225">
+        <v>4</v>
+      </c>
+      <c r="AG225">
+        <v>1.7</v>
+      </c>
+      <c r="AH225">
+        <v>2.15</v>
+      </c>
+      <c r="AI225">
+        <v>1.6</v>
+      </c>
+      <c r="AJ225">
+        <v>2.2</v>
+      </c>
+      <c r="AK225">
+        <v>1.25</v>
+      </c>
+      <c r="AL225">
+        <v>1.29</v>
+      </c>
+      <c r="AM225">
+        <v>1.91</v>
+      </c>
+      <c r="AN225">
+        <v>1.5</v>
+      </c>
+      <c r="AO225">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP225">
+        <v>1.47</v>
+      </c>
+      <c r="AQ225">
+        <v>0.58</v>
+      </c>
+      <c r="AR225">
+        <v>1.77</v>
+      </c>
+      <c r="AS225">
+        <v>1.34</v>
+      </c>
+      <c r="AT225">
+        <v>3.11</v>
+      </c>
+      <c r="AU225">
+        <v>5</v>
+      </c>
+      <c r="AV225">
+        <v>2</v>
+      </c>
+      <c r="AW225">
+        <v>15</v>
+      </c>
+      <c r="AX225">
+        <v>4</v>
+      </c>
+      <c r="AY225">
+        <v>20</v>
+      </c>
+      <c r="AZ225">
+        <v>6</v>
+      </c>
+      <c r="BA225">
+        <v>4</v>
+      </c>
+      <c r="BB225">
+        <v>3</v>
+      </c>
+      <c r="BC225">
+        <v>7</v>
+      </c>
+      <c r="BD225">
+        <v>1.69</v>
+      </c>
+      <c r="BE225">
+        <v>9.5</v>
+      </c>
+      <c r="BF225">
+        <v>2.52</v>
+      </c>
+      <c r="BG225">
+        <v>1.15</v>
+      </c>
+      <c r="BH225">
+        <v>4.55</v>
+      </c>
+      <c r="BI225">
+        <v>1.31</v>
+      </c>
+      <c r="BJ225">
+        <v>3.04</v>
+      </c>
+      <c r="BK225">
+        <v>1.59</v>
+      </c>
+      <c r="BL225">
+        <v>2.28</v>
+      </c>
+      <c r="BM225">
+        <v>1.98</v>
+      </c>
+      <c r="BN225">
+        <v>1.82</v>
+      </c>
+      <c r="BO225">
+        <v>2.5</v>
+      </c>
+      <c r="BP225">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:68">
+      <c r="A226" s="1">
+        <v>225</v>
+      </c>
+      <c r="B226">
+        <v>7417527</v>
+      </c>
+      <c r="C226" t="s">
+        <v>68</v>
+      </c>
+      <c r="D226" t="s">
+        <v>69</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45433.64583333334</v>
+      </c>
+      <c r="F226">
+        <v>38</v>
+      </c>
+      <c r="G226" t="s">
+        <v>79</v>
+      </c>
+      <c r="H226" t="s">
+        <v>75</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>2</v>
+      </c>
+      <c r="K226">
+        <v>2</v>
+      </c>
+      <c r="L226">
+        <v>1</v>
+      </c>
+      <c r="M226">
+        <v>2</v>
+      </c>
+      <c r="N226">
+        <v>3</v>
+      </c>
+      <c r="O226" t="s">
+        <v>244</v>
+      </c>
+      <c r="P226" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q226">
+        <v>1.85</v>
+      </c>
+      <c r="R226">
+        <v>2.65</v>
+      </c>
+      <c r="S226">
+        <v>5</v>
+      </c>
+      <c r="T226">
+        <v>1.2</v>
+      </c>
+      <c r="U226">
+        <v>4</v>
+      </c>
+      <c r="V226">
+        <v>2</v>
+      </c>
+      <c r="W226">
+        <v>1.73</v>
+      </c>
+      <c r="X226">
+        <v>4</v>
+      </c>
+      <c r="Y226">
+        <v>1.2</v>
+      </c>
+      <c r="Z226">
+        <v>1.5</v>
+      </c>
+      <c r="AA226">
+        <v>4.84</v>
+      </c>
+      <c r="AB226">
+        <v>5.6</v>
+      </c>
+      <c r="AC226">
+        <v>1.01</v>
+      </c>
+      <c r="AD226">
+        <v>26.5</v>
+      </c>
+      <c r="AE226">
+        <v>1.11</v>
+      </c>
+      <c r="AF226">
+        <v>6.25</v>
+      </c>
+      <c r="AG226">
+        <v>1.39</v>
+      </c>
+      <c r="AH226">
+        <v>2.86</v>
+      </c>
+      <c r="AI226">
+        <v>1.53</v>
+      </c>
+      <c r="AJ226">
+        <v>2.3</v>
+      </c>
+      <c r="AK226">
+        <v>1.12</v>
+      </c>
+      <c r="AL226">
+        <v>1.13</v>
+      </c>
+      <c r="AM226">
+        <v>2.7</v>
+      </c>
+      <c r="AN226">
+        <v>1.78</v>
+      </c>
+      <c r="AO226">
+        <v>0.61</v>
+      </c>
+      <c r="AP226">
+        <v>1.68</v>
+      </c>
+      <c r="AQ226">
+        <v>0.74</v>
+      </c>
+      <c r="AR226">
+        <v>1.62</v>
+      </c>
+      <c r="AS226">
+        <v>1.15</v>
+      </c>
+      <c r="AT226">
+        <v>2.77</v>
+      </c>
+      <c r="AU226">
+        <v>6</v>
+      </c>
+      <c r="AV226">
+        <v>5</v>
+      </c>
+      <c r="AW226">
+        <v>5</v>
+      </c>
+      <c r="AX226">
+        <v>6</v>
+      </c>
+      <c r="AY226">
+        <v>11</v>
+      </c>
+      <c r="AZ226">
+        <v>11</v>
+      </c>
+      <c r="BA226">
+        <v>7</v>
+      </c>
+      <c r="BB226">
+        <v>2</v>
+      </c>
+      <c r="BC226">
+        <v>9</v>
+      </c>
+      <c r="BD226">
+        <v>1.32</v>
+      </c>
+      <c r="BE226">
+        <v>11</v>
+      </c>
+      <c r="BF226">
+        <v>4.1</v>
+      </c>
+      <c r="BG226">
+        <v>1.16</v>
+      </c>
+      <c r="BH226">
+        <v>4.3</v>
+      </c>
+      <c r="BI226">
+        <v>1.33</v>
+      </c>
+      <c r="BJ226">
+        <v>2.93</v>
+      </c>
+      <c r="BK226">
+        <v>1.62</v>
+      </c>
+      <c r="BL226">
+        <v>2.24</v>
+      </c>
+      <c r="BM226">
+        <v>2.01</v>
+      </c>
+      <c r="BN226">
+        <v>1.78</v>
+      </c>
+      <c r="BO226">
+        <v>2.51</v>
+      </c>
+      <c r="BP226">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="347">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -751,6 +751,9 @@
     <t>['88']</t>
   </si>
   <si>
+    <t>['50', '69', '90+1']</t>
+  </si>
+  <si>
     <t>['16', '61', '77']</t>
   </si>
   <si>
@@ -1046,6 +1049,12 @@
   </si>
   <si>
     <t>['14', '15']</t>
+  </si>
+  <si>
+    <t>['24', '44']</t>
+  </si>
+  <si>
+    <t>['4', '52']</t>
   </si>
 </sst>
 </file>
@@ -1407,7 +1416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP226"/>
+  <dimension ref="A1:BP229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1666,7 +1675,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1747,7 +1756,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1872,7 +1881,7 @@
         <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q3">
         <v>2.25</v>
@@ -1950,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ3">
         <v>1.16</v>
@@ -2284,7 +2293,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q5">
         <v>1.73</v>
@@ -2362,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ5">
         <v>0.89</v>
@@ -2696,7 +2705,7 @@
         <v>84</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>3.5</v>
@@ -3186,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ9">
         <v>1.05</v>
@@ -3314,7 +3323,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q10">
         <v>2.35</v>
@@ -3395,7 +3404,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ10">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3520,7 +3529,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q11">
         <v>2.1</v>
@@ -3726,7 +3735,7 @@
         <v>91</v>
       </c>
       <c r="P12" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q12">
         <v>2.2</v>
@@ -3807,7 +3816,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3932,7 +3941,7 @@
         <v>92</v>
       </c>
       <c r="P13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q13">
         <v>5.5</v>
@@ -4138,7 +4147,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q14">
         <v>1.63</v>
@@ -4216,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR14">
         <v>1.68</v>
@@ -4344,7 +4353,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q15">
         <v>4.05</v>
@@ -4425,7 +4434,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ15">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR15">
         <v>1.4</v>
@@ -4756,7 +4765,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q17">
         <v>2.25</v>
@@ -5246,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="AP19">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ19">
         <v>0.89</v>
@@ -5374,7 +5383,7 @@
         <v>84</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q20">
         <v>3.75</v>
@@ -5455,7 +5464,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ20">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR20">
         <v>1.28</v>
@@ -5580,7 +5589,7 @@
         <v>99</v>
       </c>
       <c r="P21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q21">
         <v>2.8</v>
@@ -5992,7 +6001,7 @@
         <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>2.38</v>
@@ -6198,7 +6207,7 @@
         <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>1.83</v>
@@ -6276,7 +6285,7 @@
         <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ24">
         <v>0.37</v>
@@ -6404,7 +6413,7 @@
         <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q25">
         <v>3.6</v>
@@ -6610,7 +6619,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q26">
         <v>3</v>
@@ -6816,7 +6825,7 @@
         <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q27">
         <v>4.33</v>
@@ -6897,7 +6906,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR27">
         <v>1.4</v>
@@ -7228,7 +7237,7 @@
         <v>106</v>
       </c>
       <c r="P29" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q29">
         <v>2.25</v>
@@ -7309,7 +7318,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR29">
         <v>1.98</v>
@@ -7512,7 +7521,7 @@
         <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ30">
         <v>0.89</v>
@@ -7640,7 +7649,7 @@
         <v>108</v>
       </c>
       <c r="P31" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q31">
         <v>2.8</v>
@@ -8258,7 +8267,7 @@
         <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q34">
         <v>2.59</v>
@@ -8464,7 +8473,7 @@
         <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q35">
         <v>3.1</v>
@@ -8545,7 +8554,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ35">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR35">
         <v>1.95</v>
@@ -8751,7 +8760,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR36">
         <v>2.03</v>
@@ -9288,7 +9297,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q39">
         <v>3.4</v>
@@ -9575,7 +9584,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
         <v>1.62</v>
@@ -9778,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ41">
         <v>1.68</v>
@@ -10112,7 +10121,7 @@
         <v>118</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10190,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ43">
         <v>0.89</v>
@@ -10318,7 +10327,7 @@
         <v>119</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q44">
         <v>2.15</v>
@@ -10399,7 +10408,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR44">
         <v>1.51</v>
@@ -10524,7 +10533,7 @@
         <v>120</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10602,7 +10611,7 @@
         <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ45">
         <v>1.58</v>
@@ -10730,7 +10739,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q46">
         <v>2.45</v>
@@ -11142,7 +11151,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q48">
         <v>3.5</v>
@@ -11554,7 +11563,7 @@
         <v>84</v>
       </c>
       <c r="P50" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q50">
         <v>5</v>
@@ -11966,7 +11975,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q52">
         <v>2.25</v>
@@ -12172,7 +12181,7 @@
         <v>126</v>
       </c>
       <c r="P53" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q53">
         <v>3</v>
@@ -12253,7 +12262,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ53">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR53">
         <v>1.46</v>
@@ -12378,7 +12387,7 @@
         <v>127</v>
       </c>
       <c r="P54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q54">
         <v>2.05</v>
@@ -12459,7 +12468,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR54">
         <v>1.54</v>
@@ -12584,7 +12593,7 @@
         <v>84</v>
       </c>
       <c r="P55" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q55">
         <v>2.76</v>
@@ -12868,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ56">
         <v>0.74</v>
@@ -13074,10 +13083,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR57">
         <v>1.57</v>
@@ -13486,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ59">
         <v>1.16</v>
@@ -13614,7 +13623,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13898,10 +13907,10 @@
         <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ61">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR61">
         <v>1.75</v>
@@ -14107,7 +14116,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR62">
         <v>1.6</v>
@@ -14232,7 +14241,7 @@
         <v>132</v>
       </c>
       <c r="P63" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q63">
         <v>3.75</v>
@@ -14438,7 +14447,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q64">
         <v>3.25</v>
@@ -14850,7 +14859,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q66">
         <v>3.3</v>
@@ -14931,7 +14940,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -15056,7 +15065,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -15134,7 +15143,7 @@
         <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ67">
         <v>0.58</v>
@@ -15262,7 +15271,7 @@
         <v>137</v>
       </c>
       <c r="P68" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -15674,7 +15683,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q70">
         <v>2.5</v>
@@ -15958,7 +15967,7 @@
         <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ71">
         <v>1.58</v>
@@ -16086,7 +16095,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -16292,7 +16301,7 @@
         <v>142</v>
       </c>
       <c r="P73" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q73">
         <v>2.75</v>
@@ -16498,7 +16507,7 @@
         <v>84</v>
       </c>
       <c r="P74" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>2.78</v>
@@ -16579,7 +16588,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR74">
         <v>1.56</v>
@@ -17116,7 +17125,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q77">
         <v>4</v>
@@ -17322,7 +17331,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q78">
         <v>1.97</v>
@@ -17400,10 +17409,10 @@
         <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR78">
         <v>2.07</v>
@@ -17528,7 +17537,7 @@
         <v>147</v>
       </c>
       <c r="P79" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q79">
         <v>3.55</v>
@@ -17734,7 +17743,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q80">
         <v>2.15</v>
@@ -17812,7 +17821,7 @@
         <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ80">
         <v>0.89</v>
@@ -17940,7 +17949,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q81">
         <v>2.45</v>
@@ -18146,7 +18155,7 @@
         <v>150</v>
       </c>
       <c r="P82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q82">
         <v>2.3</v>
@@ -18352,7 +18361,7 @@
         <v>84</v>
       </c>
       <c r="P83" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q83">
         <v>2.9</v>
@@ -18430,10 +18439,10 @@
         <v>1.67</v>
       </c>
       <c r="AP83">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ83">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
@@ -18639,7 +18648,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
         <v>1.67</v>
@@ -18970,7 +18979,7 @@
         <v>84</v>
       </c>
       <c r="P86" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q86">
         <v>3.5</v>
@@ -20206,7 +20215,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q92">
         <v>2.5</v>
@@ -20284,10 +20293,10 @@
         <v>1.86</v>
       </c>
       <c r="AP92">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR92">
         <v>1.75</v>
@@ -20490,7 +20499,7 @@
         <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ93">
         <v>0.89</v>
@@ -20696,7 +20705,7 @@
         <v>0.71</v>
       </c>
       <c r="AP94">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ94">
         <v>0.37</v>
@@ -20824,7 +20833,7 @@
         <v>161</v>
       </c>
       <c r="P95" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>2.54</v>
@@ -20902,7 +20911,7 @@
         <v>0.14</v>
       </c>
       <c r="AP95">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ95">
         <v>1.16</v>
@@ -21108,7 +21117,7 @@
         <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ96">
         <v>0.74</v>
@@ -21520,7 +21529,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ98">
         <v>1.05</v>
@@ -21648,7 +21657,7 @@
         <v>164</v>
       </c>
       <c r="P99" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21729,7 +21738,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ99">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR99">
         <v>1.78</v>
@@ -21932,10 +21941,10 @@
         <v>0.63</v>
       </c>
       <c r="AP100">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR100">
         <v>1.41</v>
@@ -22060,7 +22069,7 @@
         <v>166</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.4</v>
@@ -22472,7 +22481,7 @@
         <v>168</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q103">
         <v>4.04</v>
@@ -22553,7 +22562,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR103">
         <v>1.7</v>
@@ -22756,10 +22765,10 @@
         <v>1.63</v>
       </c>
       <c r="AP104">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ104">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR104">
         <v>2.13</v>
@@ -22884,7 +22893,7 @@
         <v>170</v>
       </c>
       <c r="P105" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q105">
         <v>4.48</v>
@@ -23708,7 +23717,7 @@
         <v>173</v>
       </c>
       <c r="P109" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23992,7 +24001,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ110">
         <v>0.58</v>
@@ -24120,7 +24129,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q111">
         <v>3.4</v>
@@ -24532,7 +24541,7 @@
         <v>175</v>
       </c>
       <c r="P113" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24610,7 +24619,7 @@
         <v>0.44</v>
       </c>
       <c r="AP113">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ113">
         <v>0.74</v>
@@ -24738,7 +24747,7 @@
         <v>176</v>
       </c>
       <c r="P114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>4</v>
@@ -24944,7 +24953,7 @@
         <v>177</v>
       </c>
       <c r="P115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -25025,7 +25034,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR115">
         <v>1.61</v>
@@ -25356,7 +25365,7 @@
         <v>158</v>
       </c>
       <c r="P117" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q117">
         <v>3.1</v>
@@ -25437,7 +25446,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR117">
         <v>1.28</v>
@@ -25768,7 +25777,7 @@
         <v>94</v>
       </c>
       <c r="P119" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q119">
         <v>2.4</v>
@@ -25846,7 +25855,7 @@
         <v>1.11</v>
       </c>
       <c r="AP119">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ119">
         <v>1.68</v>
@@ -25974,7 +25983,7 @@
         <v>180</v>
       </c>
       <c r="P120" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q120">
         <v>4</v>
@@ -26055,7 +26064,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ120">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR120">
         <v>1.36</v>
@@ -26180,7 +26189,7 @@
         <v>181</v>
       </c>
       <c r="P121" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q121">
         <v>2.5</v>
@@ -26386,7 +26395,7 @@
         <v>178</v>
       </c>
       <c r="P122" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q122">
         <v>2.75</v>
@@ -26592,7 +26601,7 @@
         <v>182</v>
       </c>
       <c r="P123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q123">
         <v>1.73</v>
@@ -26670,7 +26679,7 @@
         <v>0.6</v>
       </c>
       <c r="AP123">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ123">
         <v>0.37</v>
@@ -26876,7 +26885,7 @@
         <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ124">
         <v>0.58</v>
@@ -27004,7 +27013,7 @@
         <v>183</v>
       </c>
       <c r="P125" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q125">
         <v>2.4</v>
@@ -27210,7 +27219,7 @@
         <v>84</v>
       </c>
       <c r="P126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>2.5</v>
@@ -27288,10 +27297,10 @@
         <v>1.6</v>
       </c>
       <c r="AP126">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ126">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR126">
         <v>1.98</v>
@@ -27416,7 +27425,7 @@
         <v>84</v>
       </c>
       <c r="P127" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q127">
         <v>3.25</v>
@@ -27622,7 +27631,7 @@
         <v>84</v>
       </c>
       <c r="P128" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27703,7 +27712,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
@@ -27828,7 +27837,7 @@
         <v>84</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>3.5</v>
@@ -28034,7 +28043,7 @@
         <v>84</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28321,7 +28330,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ131">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR131">
         <v>1.51</v>
@@ -28652,7 +28661,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q133">
         <v>2</v>
@@ -28858,7 +28867,7 @@
         <v>109</v>
       </c>
       <c r="P134" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>3.6</v>
@@ -29270,7 +29279,7 @@
         <v>186</v>
       </c>
       <c r="P136" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q136">
         <v>3.25</v>
@@ -29348,7 +29357,7 @@
         <v>1.64</v>
       </c>
       <c r="AP136">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ136">
         <v>1.58</v>
@@ -29888,7 +29897,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q139">
         <v>4.75</v>
@@ -29969,7 +29978,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR139">
         <v>1.47</v>
@@ -30094,7 +30103,7 @@
         <v>190</v>
       </c>
       <c r="P140" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q140">
         <v>2.1</v>
@@ -30172,10 +30181,10 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR140">
         <v>1.96</v>
@@ -30300,7 +30309,7 @@
         <v>191</v>
       </c>
       <c r="P141" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q141">
         <v>2.05</v>
@@ -30790,7 +30799,7 @@
         <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ143">
         <v>0.74</v>
@@ -30999,7 +31008,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ144">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR144">
         <v>1.66</v>
@@ -31124,7 +31133,7 @@
         <v>193</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31408,7 +31417,7 @@
         <v>0.58</v>
       </c>
       <c r="AP146">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ146">
         <v>0.74</v>
@@ -31536,7 +31545,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q147">
         <v>3.98</v>
@@ -32026,10 +32035,10 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR149">
         <v>1.46</v>
@@ -32154,7 +32163,7 @@
         <v>196</v>
       </c>
       <c r="P150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q150">
         <v>2.5</v>
@@ -32235,7 +32244,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ150">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR150">
         <v>1.73</v>
@@ -32438,10 +32447,10 @@
         <v>1.58</v>
       </c>
       <c r="AP151">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ151">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR151">
         <v>2.05</v>
@@ -32772,7 +32781,7 @@
         <v>109</v>
       </c>
       <c r="P153" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q153">
         <v>3.4</v>
@@ -32978,7 +32987,7 @@
         <v>198</v>
       </c>
       <c r="P154" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q154">
         <v>2.75</v>
@@ -33184,7 +33193,7 @@
         <v>84</v>
       </c>
       <c r="P155" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q155">
         <v>2.63</v>
@@ -34008,7 +34017,7 @@
         <v>202</v>
       </c>
       <c r="P159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q159">
         <v>4.2</v>
@@ -34089,7 +34098,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ159">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR159">
         <v>1.48</v>
@@ -34214,7 +34223,7 @@
         <v>203</v>
       </c>
       <c r="P160" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q160">
         <v>2.55</v>
@@ -34292,7 +34301,7 @@
         <v>1.46</v>
       </c>
       <c r="AP160">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ160">
         <v>1.68</v>
@@ -34910,7 +34919,7 @@
         <v>1.08</v>
       </c>
       <c r="AP163">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ163">
         <v>1.16</v>
@@ -35038,7 +35047,7 @@
         <v>207</v>
       </c>
       <c r="P164" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q164">
         <v>2.57</v>
@@ -35119,7 +35128,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ164">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR164">
         <v>1.46</v>
@@ -35244,7 +35253,7 @@
         <v>208</v>
       </c>
       <c r="P165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q165">
         <v>3.55</v>
@@ -35528,7 +35537,7 @@
         <v>0.46</v>
       </c>
       <c r="AP166">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ166">
         <v>0.37</v>
@@ -35656,7 +35665,7 @@
         <v>210</v>
       </c>
       <c r="P167" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q167">
         <v>2</v>
@@ -36068,7 +36077,7 @@
         <v>212</v>
       </c>
       <c r="P169" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q169">
         <v>3.25</v>
@@ -36149,7 +36158,7 @@
         <v>1.68</v>
       </c>
       <c r="AQ169">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR169">
         <v>1.61</v>
@@ -36355,7 +36364,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ170">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR170">
         <v>1.58</v>
@@ -36480,7 +36489,7 @@
         <v>126</v>
       </c>
       <c r="P171" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q171">
         <v>4.5</v>
@@ -36686,7 +36695,7 @@
         <v>213</v>
       </c>
       <c r="P172" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q172">
         <v>3.25</v>
@@ -36767,7 +36776,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ172">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
@@ -37098,7 +37107,7 @@
         <v>84</v>
       </c>
       <c r="P174" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q174">
         <v>3.25</v>
@@ -37304,7 +37313,7 @@
         <v>214</v>
       </c>
       <c r="P175" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q175">
         <v>2.63</v>
@@ -37382,7 +37391,7 @@
         <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ175">
         <v>0.89</v>
@@ -37588,7 +37597,7 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ176">
         <v>1.16</v>
@@ -37716,7 +37725,7 @@
         <v>140</v>
       </c>
       <c r="P177" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q177">
         <v>1.73</v>
@@ -38003,7 +38012,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR178">
         <v>1.56</v>
@@ -38128,7 +38137,7 @@
         <v>216</v>
       </c>
       <c r="P179" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q179">
         <v>3</v>
@@ -38618,7 +38627,7 @@
         <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ181">
         <v>0.58</v>
@@ -38746,7 +38755,7 @@
         <v>84</v>
       </c>
       <c r="P182" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q182">
         <v>4.12</v>
@@ -38952,7 +38961,7 @@
         <v>219</v>
       </c>
       <c r="P183" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q183">
         <v>3.62</v>
@@ -39158,7 +39167,7 @@
         <v>84</v>
       </c>
       <c r="P184" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q184">
         <v>2.44</v>
@@ -39239,7 +39248,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ184">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR184">
         <v>2.04</v>
@@ -39570,7 +39579,7 @@
         <v>220</v>
       </c>
       <c r="P186" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q186">
         <v>2.88</v>
@@ -39648,7 +39657,7 @@
         <v>1.33</v>
       </c>
       <c r="AP186">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ186">
         <v>1.58</v>
@@ -39776,7 +39785,7 @@
         <v>221</v>
       </c>
       <c r="P187" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39982,7 +39991,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q188">
         <v>3.75</v>
@@ -40269,7 +40278,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ189">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR189">
         <v>1.78</v>
@@ -40472,7 +40481,7 @@
         <v>0.4</v>
       </c>
       <c r="AP190">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ190">
         <v>0.37</v>
@@ -40681,7 +40690,7 @@
         <v>1.42</v>
       </c>
       <c r="AQ191">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR191">
         <v>1.51</v>
@@ -40887,7 +40896,7 @@
         <v>0.79</v>
       </c>
       <c r="AQ192">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR192">
         <v>1.21</v>
@@ -41012,7 +41021,7 @@
         <v>225</v>
       </c>
       <c r="P193" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q193">
         <v>2.25</v>
@@ -41090,7 +41099,7 @@
         <v>0.87</v>
       </c>
       <c r="AP193">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ193">
         <v>0.89</v>
@@ -41708,7 +41717,7 @@
         <v>0.88</v>
       </c>
       <c r="AP196">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ196">
         <v>0.89</v>
@@ -42042,7 +42051,7 @@
         <v>121</v>
       </c>
       <c r="P198" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q198">
         <v>3.75</v>
@@ -42454,7 +42463,7 @@
         <v>228</v>
       </c>
       <c r="P200" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q200">
         <v>2.4</v>
@@ -42660,7 +42669,7 @@
         <v>229</v>
       </c>
       <c r="P201" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q201">
         <v>2.05</v>
@@ -42741,7 +42750,7 @@
         <v>1.95</v>
       </c>
       <c r="AQ201">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR201">
         <v>1.99</v>
@@ -42944,7 +42953,7 @@
         <v>0.88</v>
       </c>
       <c r="AP202">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ202">
         <v>1.05</v>
@@ -43072,7 +43081,7 @@
         <v>230</v>
       </c>
       <c r="P203" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q203">
         <v>2.75</v>
@@ -43278,7 +43287,7 @@
         <v>84</v>
       </c>
       <c r="P204" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q204">
         <v>3.1</v>
@@ -44180,7 +44189,7 @@
         <v>1.71</v>
       </c>
       <c r="AP208">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ208">
         <v>1.68</v>
@@ -44308,7 +44317,7 @@
         <v>233</v>
       </c>
       <c r="P209" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q209">
         <v>3.12</v>
@@ -44514,7 +44523,7 @@
         <v>234</v>
       </c>
       <c r="P210" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q210">
         <v>3.4</v>
@@ -44595,7 +44604,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ210">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AR210">
         <v>1.59</v>
@@ -44798,10 +44807,10 @@
         <v>1.44</v>
       </c>
       <c r="AP211">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="AQ211">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR211">
         <v>1.88</v>
@@ -45338,7 +45347,7 @@
         <v>84</v>
       </c>
       <c r="P214" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q214">
         <v>2.7</v>
@@ -45625,7 +45634,7 @@
         <v>1.79</v>
       </c>
       <c r="AQ215">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AR215">
         <v>1.49</v>
@@ -45750,7 +45759,7 @@
         <v>239</v>
       </c>
       <c r="P216" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q216">
         <v>2.15</v>
@@ -45828,10 +45837,10 @@
         <v>1.06</v>
       </c>
       <c r="AP216">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="AQ216">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AR216">
         <v>1.48</v>
@@ -45956,7 +45965,7 @@
         <v>240</v>
       </c>
       <c r="P217" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q217">
         <v>2.55</v>
@@ -46034,7 +46043,7 @@
         <v>1</v>
       </c>
       <c r="AP217">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AQ217">
         <v>1.05</v>
@@ -46162,7 +46171,7 @@
         <v>84</v>
       </c>
       <c r="P218" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q218">
         <v>3.07</v>
@@ -46368,7 +46377,7 @@
         <v>84</v>
       </c>
       <c r="P219" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q219">
         <v>4.55</v>
@@ -46574,7 +46583,7 @@
         <v>241</v>
       </c>
       <c r="P220" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q220">
         <v>3.68</v>
@@ -46986,7 +46995,7 @@
         <v>242</v>
       </c>
       <c r="P222" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q222">
         <v>3.5</v>
@@ -47810,7 +47819,7 @@
         <v>244</v>
       </c>
       <c r="P226" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q226">
         <v>1.85</v>
@@ -47967,6 +47976,624 @@
       </c>
       <c r="BP226">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:68">
+      <c r="A227" s="1">
+        <v>226</v>
+      </c>
+      <c r="B227">
+        <v>7417529</v>
+      </c>
+      <c r="C227" t="s">
+        <v>68</v>
+      </c>
+      <c r="D227" t="s">
+        <v>69</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45437.64583333334</v>
+      </c>
+      <c r="F227">
+        <v>38</v>
+      </c>
+      <c r="G227" t="s">
+        <v>71</v>
+      </c>
+      <c r="H227" t="s">
+        <v>74</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227">
+        <v>2</v>
+      </c>
+      <c r="K227">
+        <v>3</v>
+      </c>
+      <c r="L227">
+        <v>1</v>
+      </c>
+      <c r="M227">
+        <v>2</v>
+      </c>
+      <c r="N227">
+        <v>3</v>
+      </c>
+      <c r="O227" t="s">
+        <v>234</v>
+      </c>
+      <c r="P227" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q227">
+        <v>2.48</v>
+      </c>
+      <c r="R227">
+        <v>2.42</v>
+      </c>
+      <c r="S227">
+        <v>3.62</v>
+      </c>
+      <c r="T227">
+        <v>1.25</v>
+      </c>
+      <c r="U227">
+        <v>3.72</v>
+      </c>
+      <c r="V227">
+        <v>2.18</v>
+      </c>
+      <c r="W227">
+        <v>1.64</v>
+      </c>
+      <c r="X227">
+        <v>4.8</v>
+      </c>
+      <c r="Y227">
+        <v>1.16</v>
+      </c>
+      <c r="Z227">
+        <v>2</v>
+      </c>
+      <c r="AA227">
+        <v>3.75</v>
+      </c>
+      <c r="AB227">
+        <v>3.2</v>
+      </c>
+      <c r="AC227">
+        <v>1.02</v>
+      </c>
+      <c r="AD227">
+        <v>20.5</v>
+      </c>
+      <c r="AE227">
+        <v>1.12</v>
+      </c>
+      <c r="AF227">
+        <v>5</v>
+      </c>
+      <c r="AG227">
+        <v>1.47</v>
+      </c>
+      <c r="AH227">
+        <v>2.57</v>
+      </c>
+      <c r="AI227">
+        <v>1.46</v>
+      </c>
+      <c r="AJ227">
+        <v>2.6</v>
+      </c>
+      <c r="AK227">
+        <v>1.34</v>
+      </c>
+      <c r="AL227">
+        <v>1.25</v>
+      </c>
+      <c r="AM227">
+        <v>1.79</v>
+      </c>
+      <c r="AN227">
+        <v>2.06</v>
+      </c>
+      <c r="AO227">
+        <v>1.28</v>
+      </c>
+      <c r="AP227">
+        <v>1.95</v>
+      </c>
+      <c r="AQ227">
+        <v>1.37</v>
+      </c>
+      <c r="AR227">
+        <v>1.86</v>
+      </c>
+      <c r="AS227">
+        <v>1.67</v>
+      </c>
+      <c r="AT227">
+        <v>3.53</v>
+      </c>
+      <c r="AU227">
+        <v>9</v>
+      </c>
+      <c r="AV227">
+        <v>9</v>
+      </c>
+      <c r="AW227">
+        <v>10</v>
+      </c>
+      <c r="AX227">
+        <v>13</v>
+      </c>
+      <c r="AY227">
+        <v>19</v>
+      </c>
+      <c r="AZ227">
+        <v>22</v>
+      </c>
+      <c r="BA227">
+        <v>5</v>
+      </c>
+      <c r="BB227">
+        <v>4</v>
+      </c>
+      <c r="BC227">
+        <v>9</v>
+      </c>
+      <c r="BD227">
+        <v>1.69</v>
+      </c>
+      <c r="BE227">
+        <v>8.5</v>
+      </c>
+      <c r="BF227">
+        <v>2.53</v>
+      </c>
+      <c r="BG227">
+        <v>1.12</v>
+      </c>
+      <c r="BH227">
+        <v>5.05</v>
+      </c>
+      <c r="BI227">
+        <v>1.26</v>
+      </c>
+      <c r="BJ227">
+        <v>3.34</v>
+      </c>
+      <c r="BK227">
+        <v>1.52</v>
+      </c>
+      <c r="BL227">
+        <v>2.49</v>
+      </c>
+      <c r="BM227">
+        <v>1.9</v>
+      </c>
+      <c r="BN227">
+        <v>1.9</v>
+      </c>
+      <c r="BO227">
+        <v>2.31</v>
+      </c>
+      <c r="BP227">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="228" spans="1:68">
+      <c r="A228" s="1">
+        <v>227</v>
+      </c>
+      <c r="B228">
+        <v>7417528</v>
+      </c>
+      <c r="C228" t="s">
+        <v>68</v>
+      </c>
+      <c r="D228" t="s">
+        <v>69</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45437.64583333334</v>
+      </c>
+      <c r="F228">
+        <v>38</v>
+      </c>
+      <c r="G228" t="s">
+        <v>77</v>
+      </c>
+      <c r="H228" t="s">
+        <v>78</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>1</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>2</v>
+      </c>
+      <c r="N228">
+        <v>2</v>
+      </c>
+      <c r="O228" t="s">
+        <v>84</v>
+      </c>
+      <c r="P228" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q228">
+        <v>2.95</v>
+      </c>
+      <c r="R228">
+        <v>2.33</v>
+      </c>
+      <c r="S228">
+        <v>3.08</v>
+      </c>
+      <c r="T228">
+        <v>1.28</v>
+      </c>
+      <c r="U228">
+        <v>3.48</v>
+      </c>
+      <c r="V228">
+        <v>2.32</v>
+      </c>
+      <c r="W228">
+        <v>1.57</v>
+      </c>
+      <c r="X228">
+        <v>5.3</v>
+      </c>
+      <c r="Y228">
+        <v>1.14</v>
+      </c>
+      <c r="Z228">
+        <v>2.45</v>
+      </c>
+      <c r="AA228">
+        <v>3.4</v>
+      </c>
+      <c r="AB228">
+        <v>2.62</v>
+      </c>
+      <c r="AC228">
+        <v>1.03</v>
+      </c>
+      <c r="AD228">
+        <v>12</v>
+      </c>
+      <c r="AE228">
+        <v>1.15</v>
+      </c>
+      <c r="AF228">
+        <v>4.5</v>
+      </c>
+      <c r="AG228">
+        <v>1.53</v>
+      </c>
+      <c r="AH228">
+        <v>2.4</v>
+      </c>
+      <c r="AI228">
+        <v>1.5</v>
+      </c>
+      <c r="AJ228">
+        <v>2.48</v>
+      </c>
+      <c r="AK228">
+        <v>1.51</v>
+      </c>
+      <c r="AL228">
+        <v>1.28</v>
+      </c>
+      <c r="AM228">
+        <v>1.53</v>
+      </c>
+      <c r="AN228">
+        <v>1.83</v>
+      </c>
+      <c r="AO228">
+        <v>1.33</v>
+      </c>
+      <c r="AP228">
+        <v>1.74</v>
+      </c>
+      <c r="AQ228">
+        <v>1.42</v>
+      </c>
+      <c r="AR228">
+        <v>1.53</v>
+      </c>
+      <c r="AS228">
+        <v>1.62</v>
+      </c>
+      <c r="AT228">
+        <v>3.15</v>
+      </c>
+      <c r="AU228">
+        <v>3</v>
+      </c>
+      <c r="AV228">
+        <v>7</v>
+      </c>
+      <c r="AW228">
+        <v>12</v>
+      </c>
+      <c r="AX228">
+        <v>10</v>
+      </c>
+      <c r="AY228">
+        <v>15</v>
+      </c>
+      <c r="AZ228">
+        <v>17</v>
+      </c>
+      <c r="BA228">
+        <v>2</v>
+      </c>
+      <c r="BB228">
+        <v>7</v>
+      </c>
+      <c r="BC228">
+        <v>9</v>
+      </c>
+      <c r="BD228">
+        <v>2.44</v>
+      </c>
+      <c r="BE228">
+        <v>8</v>
+      </c>
+      <c r="BF228">
+        <v>1.75</v>
+      </c>
+      <c r="BG228">
+        <v>1.24</v>
+      </c>
+      <c r="BH228">
+        <v>3.48</v>
+      </c>
+      <c r="BI228">
+        <v>1.5</v>
+      </c>
+      <c r="BJ228">
+        <v>2.51</v>
+      </c>
+      <c r="BK228">
+        <v>2</v>
+      </c>
+      <c r="BL228">
+        <v>1.8</v>
+      </c>
+      <c r="BM228">
+        <v>2.3</v>
+      </c>
+      <c r="BN228">
+        <v>1.58</v>
+      </c>
+      <c r="BO228">
+        <v>3.08</v>
+      </c>
+      <c r="BP228">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:68">
+      <c r="A229" s="1">
+        <v>228</v>
+      </c>
+      <c r="B229">
+        <v>7417530</v>
+      </c>
+      <c r="C229" t="s">
+        <v>68</v>
+      </c>
+      <c r="D229" t="s">
+        <v>69</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45437.64583333334</v>
+      </c>
+      <c r="F229">
+        <v>38</v>
+      </c>
+      <c r="G229" t="s">
+        <v>73</v>
+      </c>
+      <c r="H229" t="s">
+        <v>72</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>3</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>3</v>
+      </c>
+      <c r="O229" t="s">
+        <v>245</v>
+      </c>
+      <c r="P229" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q229">
+        <v>1.95</v>
+      </c>
+      <c r="R229">
+        <v>2.67</v>
+      </c>
+      <c r="S229">
+        <v>4.85</v>
+      </c>
+      <c r="T229">
+        <v>1.21</v>
+      </c>
+      <c r="U229">
+        <v>4.15</v>
+      </c>
+      <c r="V229">
+        <v>1.98</v>
+      </c>
+      <c r="W229">
+        <v>1.78</v>
+      </c>
+      <c r="X229">
+        <v>4.05</v>
+      </c>
+      <c r="Y229">
+        <v>1.22</v>
+      </c>
+      <c r="Z229">
+        <v>1.47</v>
+      </c>
+      <c r="AA229">
+        <v>4.75</v>
+      </c>
+      <c r="AB229">
+        <v>5.25</v>
+      </c>
+      <c r="AC229">
+        <v>1.01</v>
+      </c>
+      <c r="AD229">
+        <v>30.5</v>
+      </c>
+      <c r="AE229">
+        <v>1.08</v>
+      </c>
+      <c r="AF229">
+        <v>6.1</v>
+      </c>
+      <c r="AG229">
+        <v>1.35</v>
+      </c>
+      <c r="AH229">
+        <v>3.04</v>
+      </c>
+      <c r="AI229">
+        <v>1.47</v>
+      </c>
+      <c r="AJ229">
+        <v>2.57</v>
+      </c>
+      <c r="AK229">
+        <v>1.16</v>
+      </c>
+      <c r="AL229">
+        <v>1.18</v>
+      </c>
+      <c r="AM229">
+        <v>2.53</v>
+      </c>
+      <c r="AN229">
+        <v>2.44</v>
+      </c>
+      <c r="AO229">
+        <v>1</v>
+      </c>
+      <c r="AP229">
+        <v>2.47</v>
+      </c>
+      <c r="AQ229">
+        <v>0.95</v>
+      </c>
+      <c r="AR229">
+        <v>2.09</v>
+      </c>
+      <c r="AS229">
+        <v>1.53</v>
+      </c>
+      <c r="AT229">
+        <v>3.62</v>
+      </c>
+      <c r="AU229">
+        <v>11</v>
+      </c>
+      <c r="AV229">
+        <v>3</v>
+      </c>
+      <c r="AW229">
+        <v>13</v>
+      </c>
+      <c r="AX229">
+        <v>9</v>
+      </c>
+      <c r="AY229">
+        <v>24</v>
+      </c>
+      <c r="AZ229">
+        <v>12</v>
+      </c>
+      <c r="BA229">
+        <v>8</v>
+      </c>
+      <c r="BB229">
+        <v>2</v>
+      </c>
+      <c r="BC229">
+        <v>10</v>
+      </c>
+      <c r="BD229">
+        <v>1.34</v>
+      </c>
+      <c r="BE229">
+        <v>9.5</v>
+      </c>
+      <c r="BF229">
+        <v>3.86</v>
+      </c>
+      <c r="BG229">
+        <v>1.13</v>
+      </c>
+      <c r="BH229">
+        <v>4.85</v>
+      </c>
+      <c r="BI229">
+        <v>1.28</v>
+      </c>
+      <c r="BJ229">
+        <v>3.2</v>
+      </c>
+      <c r="BK229">
+        <v>1.52</v>
+      </c>
+      <c r="BL229">
+        <v>2.46</v>
+      </c>
+      <c r="BM229">
+        <v>1.86</v>
+      </c>
+      <c r="BN229">
+        <v>1.93</v>
+      </c>
+      <c r="BO229">
+        <v>2.3</v>
+      </c>
+      <c r="BP229">
+        <v>1.58</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ5">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2783,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ7">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2989,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AU8">
         <v>7</v>
@@ -3189,25 +3189,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ9">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="AU9">
         <v>4</v>
@@ -3395,25 +3395,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ10">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="AU10">
         <v>5</v>
@@ -3601,25 +3601,25 @@
         <v>2.25</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3810,22 +3810,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -4016,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4219,25 +4219,25 @@
         <v>3.9</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ14">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="AS14">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AT14">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4428,22 +4428,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ15">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR15">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS15">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT15">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4631,25 +4631,25 @@
         <v>1.59</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ16">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR16">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AS16">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>3.45</v>
+        <v>3.24</v>
       </c>
       <c r="AU16">
         <v>8</v>
@@ -4837,25 +4837,25 @@
         <v>2</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ17">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR17">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="AS17">
-        <v>0.8100000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AT17">
-        <v>2.79</v>
+        <v>2.66</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -5043,25 +5043,25 @@
         <v>1.42</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="AS18">
-        <v>0.96</v>
+        <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>1.85</v>
+        <v>3.16</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5249,25 +5249,25 @@
         <v>2.05</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
-        <v>2.56</v>
+        <v>2.07</v>
       </c>
       <c r="AS19">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AT19">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5455,25 +5455,25 @@
         <v>1.22</v>
       </c>
       <c r="AN20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ20">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR20">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5661,25 +5661,25 @@
         <v>1.65</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AS21">
-        <v>1.77</v>
+        <v>1.27</v>
       </c>
       <c r="AT21">
-        <v>3.9</v>
+        <v>3.14</v>
       </c>
       <c r="AU21">
         <v>9</v>
@@ -5867,25 +5867,25 @@
         <v>1.55</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ22">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AS22">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="AT22">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -6073,25 +6073,25 @@
         <v>1.88</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR23">
-        <v>2.71</v>
+        <v>1.94</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>3.85</v>
+        <v>3.64</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6279,25 +6279,25 @@
         <v>2.88</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR24">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AS24">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AT24">
-        <v>2.11</v>
+        <v>2.36</v>
       </c>
       <c r="AU24">
         <v>10</v>
@@ -6485,25 +6485,25 @@
         <v>1.25</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT25">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6691,25 +6691,25 @@
         <v>1.55</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO26">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP26">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ26">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS26">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="AT26">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6900,22 +6900,22 @@
         <v>1</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR27">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AS27">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT27">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -7103,25 +7103,25 @@
         <v>1.36</v>
       </c>
       <c r="AN28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP28">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AS28">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
       <c r="AT28">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7309,25 +7309,25 @@
         <v>2.05</v>
       </c>
       <c r="AN29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ29">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT29">
-        <v>3.73</v>
+        <v>3.51</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7515,25 +7515,25 @@
         <v>2.3</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO30">
+        <v>0.8</v>
+      </c>
+      <c r="AP30">
         <v>1.5</v>
       </c>
-      <c r="AP30">
-        <v>1.95</v>
-      </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR30">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="AS30">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AT30">
-        <v>3.69</v>
+        <v>3.81</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7721,25 +7721,25 @@
         <v>1.58</v>
       </c>
       <c r="AN31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP31">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ31">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7927,25 +7927,25 @@
         <v>2</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP32">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR32">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AS32">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="AT32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -8133,25 +8133,25 @@
         <v>1.32</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ33">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR33">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS33">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AT33">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -8339,25 +8339,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP34">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR34">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AS34">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT34">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8545,25 +8545,25 @@
         <v>1.42</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP35">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR35">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AS35">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AT35">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8751,25 +8751,25 @@
         <v>1.42</v>
       </c>
       <c r="AN36">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO36">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ36">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR36">
-        <v>2.03</v>
+        <v>1.71</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8957,25 +8957,25 @@
         <v>1.75</v>
       </c>
       <c r="AN37">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS37">
         <v>1.34</v>
       </c>
       <c r="AT37">
-        <v>3.24</v>
+        <v>3.14</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9163,25 +9163,25 @@
         <v>1.2</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AP38">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AT38">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -9369,25 +9369,25 @@
         <v>1.28</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ39">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9575,25 +9575,25 @@
         <v>1.72</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP40">
+        <v>1.29</v>
+      </c>
+      <c r="AQ40">
         <v>1.68</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>1.42</v>
       </c>
-      <c r="AR40">
-        <v>1.62</v>
-      </c>
       <c r="AS40">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT40">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="AU40">
         <v>3</v>
@@ -9781,25 +9781,25 @@
         <v>2.38</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP41">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ41">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
-        <v>3.56</v>
+        <v>3.31</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9987,25 +9987,25 @@
         <v>1.95</v>
       </c>
       <c r="AN42">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP42">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ42">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS42">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT42">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10193,25 +10193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP43">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR43">
+        <v>1.49</v>
+      </c>
+      <c r="AS43">
         <v>1.62</v>
       </c>
-      <c r="AS43">
-        <v>1.39</v>
-      </c>
       <c r="AT43">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10399,25 +10399,25 @@
         <v>2.25</v>
       </c>
       <c r="AN44">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP44">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ44">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="AS44">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>3.21</v>
+        <v>3.53</v>
       </c>
       <c r="AU44">
         <v>10</v>
@@ -10605,25 +10605,25 @@
         <v>1.45</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="AO45">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR45">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AT45">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10811,25 +10811,25 @@
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP46">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ46">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR46">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AT46">
-        <v>2.34</v>
+        <v>2.67</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -11017,25 +11017,25 @@
         <v>1.55</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO47">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AT47">
-        <v>3.08</v>
+        <v>3.02</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11223,25 +11223,25 @@
         <v>1.38</v>
       </c>
       <c r="AN48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>0.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR48">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AS48">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11429,25 +11429,25 @@
         <v>2.01</v>
       </c>
       <c r="AN49">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO49">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AP49">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ49">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="AT49">
-        <v>3.07</v>
+        <v>3.41</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11635,25 +11635,25 @@
         <v>1.18</v>
       </c>
       <c r="AN50">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO50">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR50">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS50">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AT50">
-        <v>2.67</v>
+        <v>2.94</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11841,25 +11841,25 @@
         <v>1.18</v>
       </c>
       <c r="AN51">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP51">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ51">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="AS51">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AT51">
-        <v>3.44</v>
+        <v>3.12</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -12047,25 +12047,25 @@
         <v>2.05</v>
       </c>
       <c r="AN52">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP52">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR52">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT52">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12253,25 +12253,25 @@
         <v>1.58</v>
       </c>
       <c r="AN53">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR53">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AS53">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AT53">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12459,25 +12459,25 @@
         <v>2.3</v>
       </c>
       <c r="AN54">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS54">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AT54">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12665,25 +12665,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO55">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP55">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ55">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AT55">
-        <v>3.14</v>
+        <v>2.64</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>2.84</v>
       </c>
       <c r="AN56">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR56">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AS56">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AT56">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="AU56">
         <v>11</v>
@@ -13077,25 +13077,25 @@
         <v>1.57</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="AO57">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP57">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AS57">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AT57">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13283,25 +13283,25 @@
         <v>1.52</v>
       </c>
       <c r="AN58">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO58">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ58">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="AS58">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AT58">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13489,25 +13489,25 @@
         <v>2.5</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AP59">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ59">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="AS59">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AT59">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13695,25 +13695,25 @@
         <v>1.4</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO60">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP60">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR60">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS60">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="AU60">
         <v>4</v>
@@ -13901,25 +13901,25 @@
         <v>2</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="AO61">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP61">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ61">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR61">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AS61">
         <v>1.51</v>
       </c>
       <c r="AT61">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14107,25 +14107,25 @@
         <v>1.5</v>
       </c>
       <c r="AN62">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO62">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AP62">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR62">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AS62">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT62">
-        <v>3.49</v>
+        <v>3.37</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -14313,25 +14313,25 @@
         <v>1.3</v>
       </c>
       <c r="AN63">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO63">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14522,22 +14522,22 @@
         <v>0.8</v>
       </c>
       <c r="AO64">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR64">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS64">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AT64">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14725,25 +14725,25 @@
         <v>2.55</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR65">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AS65">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="AT65">
-        <v>2.49</v>
+        <v>2.63</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14931,25 +14931,25 @@
         <v>1.4</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AO66">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AP66">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AS66">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AT66">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15137,25 +15137,25 @@
         <v>2.5</v>
       </c>
       <c r="AN67">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="AO67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR67">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="AS67">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AT67">
-        <v>3.59</v>
+        <v>3.35</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15343,25 +15343,25 @@
         <v>2.55</v>
       </c>
       <c r="AN68">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="AO68">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AP68">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ68">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR68">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS68">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15549,25 +15549,25 @@
         <v>1.66</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ69">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AS69">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT69">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="AU69">
         <v>9</v>
@@ -15755,25 +15755,25 @@
         <v>1.75</v>
       </c>
       <c r="AN70">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AS70">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>3.04</v>
+        <v>3.29</v>
       </c>
       <c r="AU70">
         <v>10</v>
@@ -15961,25 +15961,25 @@
         <v>1.4</v>
       </c>
       <c r="AN71">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AP71">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR71">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS71">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AT71">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16167,25 +16167,25 @@
         <v>1.18</v>
       </c>
       <c r="AN72">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO72">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR72">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AS72">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AT72">
-        <v>3.13</v>
+        <v>3.23</v>
       </c>
       <c r="AU72">
         <v>6</v>
@@ -16373,25 +16373,25 @@
         <v>1.63</v>
       </c>
       <c r="AN73">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AP73">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ73">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR73">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT73">
-        <v>3.42</v>
+        <v>3.17</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16579,25 +16579,25 @@
         <v>1.7</v>
       </c>
       <c r="AN74">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP74">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ74">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR74">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AS74">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AT74">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16785,25 +16785,25 @@
         <v>2.15</v>
       </c>
       <c r="AN75">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO75">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT75">
-        <v>3.06</v>
+        <v>2.79</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16991,25 +16991,25 @@
         <v>2</v>
       </c>
       <c r="AN76">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR76">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AS76">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="AT76">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="AU76">
         <v>6</v>
@@ -17197,25 +17197,25 @@
         <v>1.29</v>
       </c>
       <c r="AN77">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO77">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ77">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS77">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="AT77">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17403,25 +17403,25 @@
         <v>2.6</v>
       </c>
       <c r="AN78">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="AO78">
-        <v>0.83</v>
+        <v>1.23</v>
       </c>
       <c r="AP78">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="AS78">
         <v>1.69</v>
       </c>
       <c r="AT78">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="AU78">
         <v>12</v>
@@ -17609,25 +17609,25 @@
         <v>1.3</v>
       </c>
       <c r="AN79">
-        <v>1.83</v>
+        <v>1.23</v>
       </c>
       <c r="AO79">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AP79">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ79">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AT79">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17815,25 +17815,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="AO80">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AP80">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ80">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR80">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS80">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -18021,25 +18021,25 @@
         <v>1.8</v>
       </c>
       <c r="AN81">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AO81">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AP81">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR81">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AS81">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT81">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18227,25 +18227,25 @@
         <v>1.9</v>
       </c>
       <c r="AN82">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ82">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR82">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS82">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AT82">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18433,25 +18433,25 @@
         <v>1.47</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO83">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AP83">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ83">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
       </c>
       <c r="AS83">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT83">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18639,25 +18639,25 @@
         <v>1.9</v>
       </c>
       <c r="AN84">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO84">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AP84">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
         <v>1.7</v>
       </c>
       <c r="AT84">
-        <v>3.37</v>
+        <v>3.23</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18845,25 +18845,25 @@
         <v>1.5</v>
       </c>
       <c r="AN85">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO85">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AP85">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ85">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR85">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS85">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AT85">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="AU85">
         <v>10</v>
@@ -19051,25 +19051,25 @@
         <v>1.36</v>
       </c>
       <c r="AN86">
+        <v>1.21</v>
+      </c>
+      <c r="AO86">
+        <v>1.23</v>
+      </c>
+      <c r="AP86">
+        <v>1.24</v>
+      </c>
+      <c r="AQ86">
         <v>1.71</v>
       </c>
-      <c r="AO86">
-        <v>0.86</v>
-      </c>
-      <c r="AP86">
-        <v>2.11</v>
-      </c>
-      <c r="AQ86">
-        <v>1.68</v>
-      </c>
       <c r="AR86">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AS86">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AT86">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -19257,25 +19257,25 @@
         <v>1.95</v>
       </c>
       <c r="AN87">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AO87">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="AP87">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR87">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AS87">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19463,25 +19463,25 @@
         <v>1.22</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>0.62</v>
       </c>
       <c r="AO88">
-        <v>0.86</v>
+        <v>1.93</v>
       </c>
       <c r="AP88">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AS88">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="AT88">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19669,25 +19669,25 @@
         <v>2.25</v>
       </c>
       <c r="AN89">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AO89">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ89">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR89">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS89">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT89">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19875,25 +19875,25 @@
         <v>1.48</v>
       </c>
       <c r="AN90">
-        <v>1.43</v>
+        <v>0.93</v>
       </c>
       <c r="AO90">
-        <v>0.71</v>
+        <v>1.27</v>
       </c>
       <c r="AP90">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AS90">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AT90">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20081,25 +20081,25 @@
         <v>1.45</v>
       </c>
       <c r="AN91">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AO91">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AP91">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ91">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS91">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20287,25 +20287,25 @@
         <v>1.73</v>
       </c>
       <c r="AN92">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AO92">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AP92">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ92">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR92">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AS92">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AT92">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="AU92">
         <v>10</v>
@@ -20493,25 +20493,25 @@
         <v>1.62</v>
       </c>
       <c r="AN93">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AO93">
-        <v>0.71</v>
+        <v>1.6</v>
       </c>
       <c r="AP93">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AS93">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20699,25 +20699,25 @@
         <v>3.1</v>
       </c>
       <c r="AN94">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO94">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR94">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="AS94">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="AT94">
-        <v>3.12</v>
+        <v>3.21</v>
       </c>
       <c r="AU94">
         <v>12</v>
@@ -20905,25 +20905,25 @@
         <v>1.83</v>
       </c>
       <c r="AN95">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="AO95">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ95">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR95">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AS95">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT95">
-        <v>2.72</v>
+        <v>2.93</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21111,25 +21111,25 @@
         <v>3</v>
       </c>
       <c r="AN96">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="AO96">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AP96">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ96">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR96">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AS96">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT96">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21317,25 +21317,25 @@
         <v>1.77</v>
       </c>
       <c r="AN97">
-        <v>1.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO97">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AP97">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AS97">
         <v>1.34</v>
       </c>
       <c r="AT97">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21523,25 +21523,25 @@
         <v>1.73</v>
       </c>
       <c r="AN98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO98">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP98">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="AS98">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AT98">
-        <v>3.69</v>
+        <v>3.66</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21729,25 +21729,25 @@
         <v>1.45</v>
       </c>
       <c r="AN99">
-        <v>1.75</v>
+        <v>1.19</v>
       </c>
       <c r="AO99">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ99">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR99">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AS99">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AT99">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -21935,25 +21935,25 @@
         <v>2</v>
       </c>
       <c r="AN100">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AO100">
-        <v>0.63</v>
+        <v>1.07</v>
       </c>
       <c r="AP100">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR100">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS100">
         <v>1.7</v>
       </c>
       <c r="AT100">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22141,25 +22141,25 @@
         <v>1.88</v>
       </c>
       <c r="AN101">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO101">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR101">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS101">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AT101">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22347,25 +22347,25 @@
         <v>1.58</v>
       </c>
       <c r="AN102">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AO102">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP102">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ102">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR102">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AS102">
         <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>2.71</v>
+        <v>2.54</v>
       </c>
       <c r="AU102">
         <v>9</v>
@@ -22553,25 +22553,25 @@
         <v>1.29</v>
       </c>
       <c r="AN103">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="AP103">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR103">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AS103">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="AU103">
         <v>4</v>
@@ -22759,25 +22759,25 @@
         <v>1.67</v>
       </c>
       <c r="AN104">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="AO104">
+        <v>1.82</v>
+      </c>
+      <c r="AP104">
+        <v>1.5</v>
+      </c>
+      <c r="AQ104">
+        <v>1.58</v>
+      </c>
+      <c r="AR104">
+        <v>1.98</v>
+      </c>
+      <c r="AS104">
         <v>1.63</v>
       </c>
-      <c r="AP104">
-        <v>1.95</v>
-      </c>
-      <c r="AQ104">
-        <v>1.37</v>
-      </c>
-      <c r="AR104">
-        <v>2.13</v>
-      </c>
-      <c r="AS104">
-        <v>1.59</v>
-      </c>
       <c r="AT104">
-        <v>3.72</v>
+        <v>3.61</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -22965,25 +22965,25 @@
         <v>1.23</v>
       </c>
       <c r="AN105">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="AP105">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ105">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR105">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS105">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AT105">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23171,25 +23171,25 @@
         <v>2.2</v>
       </c>
       <c r="AN106">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="AO106">
-        <v>0.63</v>
+        <v>1.18</v>
       </c>
       <c r="AP106">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR106">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS106">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AT106">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23377,25 +23377,25 @@
         <v>1.45</v>
       </c>
       <c r="AN107">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="AO107">
-        <v>0.63</v>
+        <v>1.18</v>
       </c>
       <c r="AP107">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR107">
         <v>1.65</v>
       </c>
       <c r="AS107">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AT107">
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23583,25 +23583,25 @@
         <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>2.38</v>
+        <v>1.47</v>
       </c>
       <c r="AO108">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="AP108">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AS108">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AT108">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23789,25 +23789,25 @@
         <v>1.95</v>
       </c>
       <c r="AN109">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AO109">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AP109">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ109">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR109">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="AS109">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT109">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23995,25 +23995,25 @@
         <v>2.55</v>
       </c>
       <c r="AN110">
-        <v>2.56</v>
+        <v>2.11</v>
       </c>
       <c r="AO110">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ110">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR110">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT110">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24201,22 +24201,22 @@
         <v>1.39</v>
       </c>
       <c r="AN111">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AP111">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AS111">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AT111">
         <v>3.6</v>
@@ -24407,25 +24407,25 @@
         <v>2.2</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AO112">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ112">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS112">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24613,25 +24613,25 @@
         <v>2.05</v>
       </c>
       <c r="AN113">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="AO113">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="AP113">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ113">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR113">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AS113">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT113">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>10</v>
@@ -24819,25 +24819,25 @@
         <v>1.3</v>
       </c>
       <c r="AN114">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO114">
-        <v>0.67</v>
+        <v>1.39</v>
       </c>
       <c r="AP114">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS114">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25025,25 +25025,25 @@
         <v>1.27</v>
       </c>
       <c r="AN115">
-        <v>1.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO115">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AP115">
+        <v>1.29</v>
+      </c>
+      <c r="AQ115">
+        <v>1.68</v>
+      </c>
+      <c r="AR115">
         <v>1.63</v>
       </c>
-      <c r="AQ115">
-        <v>1.42</v>
-      </c>
-      <c r="AR115">
-        <v>1.61</v>
-      </c>
       <c r="AS115">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AT115">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25231,25 +25231,25 @@
         <v>2.9</v>
       </c>
       <c r="AN116">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>1.26</v>
       </c>
       <c r="AP116">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ116">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AS116">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT116">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AU116">
         <v>8</v>
@@ -25437,25 +25437,25 @@
         <v>1.44</v>
       </c>
       <c r="AN117">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AO117">
-        <v>0.5600000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="AP117">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ117">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR117">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS117">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AT117">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25643,25 +25643,25 @@
         <v>1.3</v>
       </c>
       <c r="AN118">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO118">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="AP118">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR118">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS118">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AT118">
-        <v>3.01</v>
+        <v>3.14</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25849,25 +25849,25 @@
         <v>2.02</v>
       </c>
       <c r="AN119">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="AO119">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AP119">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AS119">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT119">
-        <v>3.66</v>
+        <v>3.45</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26055,25 +26055,25 @@
         <v>1.24</v>
       </c>
       <c r="AN120">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AO120">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AP120">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR120">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AS120">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AT120">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26261,25 +26261,25 @@
         <v>1.83</v>
       </c>
       <c r="AN121">
-        <v>2.11</v>
+        <v>1.32</v>
       </c>
       <c r="AO121">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AP121">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR121">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AS121">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="AT121">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26467,25 +26467,25 @@
         <v>1.57</v>
       </c>
       <c r="AN122">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AO122">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP122">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AS122">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AT122">
-        <v>2.94</v>
+        <v>3.03</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26673,25 +26673,25 @@
         <v>3.2</v>
       </c>
       <c r="AN123">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AO123">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP123">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ123">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR123">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AS123">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="AT123">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AU123">
         <v>12</v>
@@ -26879,25 +26879,25 @@
         <v>2.1</v>
       </c>
       <c r="AN124">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AO124">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AP124">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ124">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR124">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS124">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT124">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -27085,25 +27085,25 @@
         <v>2</v>
       </c>
       <c r="AN125">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AO125">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ125">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR125">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AS125">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AT125">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27291,22 +27291,22 @@
         <v>1.8</v>
       </c>
       <c r="AN126">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AO126">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AP126">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR126">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT126">
         <v>3.73</v>
@@ -27500,22 +27500,22 @@
         <v>0.7</v>
       </c>
       <c r="AO127">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ127">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR127">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS127">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT127">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27703,25 +27703,25 @@
         <v>1.57</v>
       </c>
       <c r="AN128">
-        <v>1.7</v>
+        <v>1.19</v>
       </c>
       <c r="AO128">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
       </c>
       <c r="AS128">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT128">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27909,25 +27909,25 @@
         <v>1.38</v>
       </c>
       <c r="AN129">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO129">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ129">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR129">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AS129">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AT129">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -28115,25 +28115,25 @@
         <v>1.52</v>
       </c>
       <c r="AN130">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AO130">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AP130">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ130">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
       </c>
       <c r="AS130">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT130">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28321,25 +28321,25 @@
         <v>1.25</v>
       </c>
       <c r="AN131">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AO131">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ131">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR131">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="AS131">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT131">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="AU131">
         <v>6</v>
@@ -28527,25 +28527,25 @@
         <v>1.47</v>
       </c>
       <c r="AN132">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="AO132">
-        <v>0.9</v>
+        <v>1.71</v>
       </c>
       <c r="AP132">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR132">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS132">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28733,25 +28733,25 @@
         <v>2.62</v>
       </c>
       <c r="AN133">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AO133">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ133">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR133">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="AS133">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AT133">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28942,22 +28942,22 @@
         <v>0.64</v>
       </c>
       <c r="AO134">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="AP134">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ134">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR134">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS134">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT134">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29145,25 +29145,25 @@
         <v>2.1</v>
       </c>
       <c r="AN135">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AO135">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="AP135">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ135">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.62</v>
       </c>
       <c r="AS135">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT135">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29351,25 +29351,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AO136">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="AP136">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR136">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AT136">
-        <v>2.97</v>
+        <v>3.27</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29557,25 +29557,25 @@
         <v>1.45</v>
       </c>
       <c r="AN137">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="AO137">
-        <v>0.82</v>
+        <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
       </c>
       <c r="AS137">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AT137">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="AU137">
         <v>6</v>
@@ -29763,25 +29763,25 @@
         <v>1.42</v>
       </c>
       <c r="AN138">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AO138">
-        <v>0.82</v>
+        <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS138">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AT138">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29969,25 +29969,25 @@
         <v>1.17</v>
       </c>
       <c r="AN139">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="AO139">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR139">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AS139">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AT139">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30175,25 +30175,25 @@
         <v>2.2</v>
       </c>
       <c r="AN140">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="AP140">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR140">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="AS140">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT140">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="AU140">
         <v>5</v>
@@ -30381,25 +30381,25 @@
         <v>2.2</v>
       </c>
       <c r="AN141">
-        <v>1.36</v>
+        <v>0.96</v>
       </c>
       <c r="AO141">
-        <v>0.55</v>
+        <v>1.3</v>
       </c>
       <c r="AP141">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ141">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR141">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AS141">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AT141">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30587,25 +30587,25 @@
         <v>1.47</v>
       </c>
       <c r="AN142">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP142">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR142">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS142">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT142">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AU142">
         <v>4</v>
@@ -30793,25 +30793,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.64</v>
+        <v>2.09</v>
       </c>
       <c r="AO143">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AP143">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ143">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR143">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AS143">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AT143">
-        <v>3.22</v>
+        <v>3.01</v>
       </c>
       <c r="AU143">
         <v>8</v>
@@ -30999,25 +30999,25 @@
         <v>1.55</v>
       </c>
       <c r="AN144">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="AO144">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ144">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR144">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS144">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AT144">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31205,25 +31205,25 @@
         <v>1.83</v>
       </c>
       <c r="AN145">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO145">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AP145">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ145">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR145">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="AS145">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT145">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="AU145">
         <v>9</v>
@@ -31411,25 +31411,25 @@
         <v>2.82</v>
       </c>
       <c r="AN146">
-        <v>2.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO146">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="AP146">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR146">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AS146">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AT146">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31617,25 +31617,25 @@
         <v>1.32</v>
       </c>
       <c r="AN147">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO147">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ147">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS147">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT147">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31823,25 +31823,25 @@
         <v>1.44</v>
       </c>
       <c r="AN148">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO148">
-        <v>0.75</v>
+        <v>1.42</v>
       </c>
       <c r="AP148">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
       </c>
       <c r="AS148">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT148">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32029,25 +32029,25 @@
         <v>1.47</v>
       </c>
       <c r="AN149">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AO149">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AP149">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR149">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS149">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="AT149">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32235,25 +32235,25 @@
         <v>1.83</v>
       </c>
       <c r="AN150">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="AO150">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ150">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR150">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AS150">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT150">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32441,25 +32441,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AO151">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AP151">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ151">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR151">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="AS151">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AT151">
-        <v>3.73</v>
+        <v>3.63</v>
       </c>
       <c r="AU151">
         <v>5</v>
@@ -32647,25 +32647,25 @@
         <v>1.83</v>
       </c>
       <c r="AN152">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AO152">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AP152">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ152">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="AS152">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="AT152">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -32853,25 +32853,25 @@
         <v>1.44</v>
       </c>
       <c r="AN153">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AO153">
-        <v>0.67</v>
+        <v>1.12</v>
       </c>
       <c r="AP153">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ153">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR153">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AS153">
         <v>1.32</v>
       </c>
       <c r="AT153">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33059,25 +33059,25 @@
         <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AO154">
-        <v>0.58</v>
+        <v>1.04</v>
       </c>
       <c r="AP154">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR154">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AT154">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="AU154">
         <v>6</v>
@@ -33265,25 +33265,25 @@
         <v>1.75</v>
       </c>
       <c r="AN155">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="AO155">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AP155">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ155">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR155">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT155">
-        <v>3.12</v>
+        <v>3.04</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33471,25 +33471,25 @@
         <v>1.9</v>
       </c>
       <c r="AN156">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="AO156">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP156">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR156">
         <v>1.55</v>
       </c>
       <c r="AS156">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AT156">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33677,25 +33677,25 @@
         <v>1.5</v>
       </c>
       <c r="AN157">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="AO157">
+        <v>2.04</v>
+      </c>
+      <c r="AP157">
         <v>1.58</v>
       </c>
-      <c r="AP157">
+      <c r="AQ157">
+        <v>2.03</v>
+      </c>
+      <c r="AR157">
+        <v>1.58</v>
+      </c>
+      <c r="AS157">
         <v>1.79</v>
       </c>
-      <c r="AQ157">
-        <v>1.58</v>
-      </c>
-      <c r="AR157">
-        <v>1.54</v>
-      </c>
-      <c r="AS157">
-        <v>1.53</v>
-      </c>
       <c r="AT157">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33883,22 +33883,22 @@
         <v>1.66</v>
       </c>
       <c r="AN158">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="AO158">
-        <v>0.6899999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AP158">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR158">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS158">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT158">
         <v>2.87</v>
@@ -34089,25 +34089,25 @@
         <v>1.18</v>
       </c>
       <c r="AN159">
-        <v>1.85</v>
+        <v>1.15</v>
       </c>
       <c r="AO159">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="AP159">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ159">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR159">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS159">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AT159">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AU159">
         <v>6</v>
@@ -34295,25 +34295,25 @@
         <v>1.8</v>
       </c>
       <c r="AN160">
-        <v>2.38</v>
+        <v>1.54</v>
       </c>
       <c r="AO160">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AP160">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT160">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34501,25 +34501,25 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="AO161">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AP161">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ161">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR161">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="AS161">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT161">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="AU161">
         <v>12</v>
@@ -34707,22 +34707,22 @@
         <v>1.3</v>
       </c>
       <c r="AN162">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AO162">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AP162">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ162">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR162">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT162">
         <v>2.78</v>
@@ -34913,25 +34913,25 @@
         <v>2.05</v>
       </c>
       <c r="AN163">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="AO163">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AP163">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ163">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR163">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="AS163">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT163">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35119,25 +35119,25 @@
         <v>1.83</v>
       </c>
       <c r="AN164">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP164">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ164">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR164">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AT164">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="AU164">
         <v>6</v>
@@ -35325,25 +35325,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
       <c r="AO165">
-        <v>0.6899999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="AP165">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS165">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AT165">
-        <v>3.06</v>
+        <v>3.15</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35531,25 +35531,25 @@
         <v>2.35</v>
       </c>
       <c r="AN166">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AO166">
-        <v>0.46</v>
+        <v>1.22</v>
       </c>
       <c r="AP166">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ166">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR166">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AT166">
-        <v>2.61</v>
+        <v>2.82</v>
       </c>
       <c r="AU166">
         <v>7</v>
@@ -35737,25 +35737,25 @@
         <v>2.6</v>
       </c>
       <c r="AN167">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO167">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="AP167">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ167">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR167">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AS167">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AT167">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="AU167">
         <v>9</v>
@@ -35943,25 +35943,25 @@
         <v>1.35</v>
       </c>
       <c r="AN168">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="AO168">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ168">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR168">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AS168">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="AT168">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36149,25 +36149,25 @@
         <v>1.44</v>
       </c>
       <c r="AN169">
-        <v>1.92</v>
+        <v>1.37</v>
       </c>
       <c r="AO169">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AP169">
+        <v>1.29</v>
+      </c>
+      <c r="AQ169">
         <v>1.68</v>
       </c>
-      <c r="AQ169">
-        <v>1.42</v>
-      </c>
       <c r="AR169">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AS169">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AT169">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36355,25 +36355,25 @@
         <v>1.22</v>
       </c>
       <c r="AN170">
+        <v>1.46</v>
+      </c>
+      <c r="AO170">
         <v>1.93</v>
       </c>
-      <c r="AO170">
-        <v>1.64</v>
-      </c>
       <c r="AP170">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ170">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR170">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS170">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AT170">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="AU170">
         <v>7</v>
@@ -36561,25 +36561,25 @@
         <v>1.18</v>
       </c>
       <c r="AN171">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AO171">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AP171">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ171">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR171">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS171">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT171">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36767,25 +36767,25 @@
         <v>1.5</v>
       </c>
       <c r="AN172">
+        <v>1.14</v>
+      </c>
+      <c r="AO172">
+        <v>1.54</v>
+      </c>
+      <c r="AP172">
         <v>1.29</v>
       </c>
-      <c r="AO172">
-        <v>1.14</v>
-      </c>
-      <c r="AP172">
-        <v>1.42</v>
-      </c>
       <c r="AQ172">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
       </c>
       <c r="AS172">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AT172">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU172">
         <v>4</v>
@@ -36973,25 +36973,25 @@
         <v>1.12</v>
       </c>
       <c r="AN173">
+        <v>1.18</v>
+      </c>
+      <c r="AO173">
         <v>1.93</v>
       </c>
-      <c r="AO173">
-        <v>1.36</v>
-      </c>
       <c r="AP173">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ173">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR173">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="AS173">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="AT173">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37179,25 +37179,25 @@
         <v>1.47</v>
       </c>
       <c r="AN174">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="AO174">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AP174">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ174">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR174">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS174">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT174">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37385,25 +37385,25 @@
         <v>1.72</v>
       </c>
       <c r="AN175">
-        <v>2.21</v>
+        <v>1.46</v>
       </c>
       <c r="AO175">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AP175">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR175">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AS175">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AT175">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37591,25 +37591,25 @@
         <v>1.75</v>
       </c>
       <c r="AN176">
+        <v>1.69</v>
+      </c>
+      <c r="AO176">
+        <v>1.14</v>
+      </c>
+      <c r="AP176">
         <v>1.71</v>
       </c>
-      <c r="AO176">
-        <v>1</v>
-      </c>
-      <c r="AP176">
-        <v>1.74</v>
-      </c>
       <c r="AQ176">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR176">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AS176">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AT176">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="AU176">
         <v>4</v>
@@ -37797,25 +37797,25 @@
         <v>3.4</v>
       </c>
       <c r="AN177">
-        <v>2.21</v>
+        <v>1.86</v>
       </c>
       <c r="AO177">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP177">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ177">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR177">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="AS177">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AT177">
-        <v>3.21</v>
+        <v>3.04</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -38003,25 +38003,25 @@
         <v>2</v>
       </c>
       <c r="AN178">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="AO178">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="AP178">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ178">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR178">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS178">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT178">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38209,25 +38209,25 @@
         <v>1.48</v>
       </c>
       <c r="AN179">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AO179">
-        <v>0.71</v>
+        <v>1.45</v>
       </c>
       <c r="AP179">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ179">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR179">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="AS179">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AT179">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="AU179">
         <v>7</v>
@@ -38415,25 +38415,25 @@
         <v>2.85</v>
       </c>
       <c r="AN180">
-        <v>1.86</v>
+        <v>1.34</v>
       </c>
       <c r="AO180">
-        <v>0.43</v>
+        <v>1.17</v>
       </c>
       <c r="AP180">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ180">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR180">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AS180">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AT180">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38621,25 +38621,25 @@
         <v>2.4</v>
       </c>
       <c r="AN181">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AO181">
-        <v>0.64</v>
+        <v>1.03</v>
       </c>
       <c r="AP181">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ181">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR181">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AS181">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT181">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38827,25 +38827,25 @@
         <v>1.22</v>
       </c>
       <c r="AN182">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AO182">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AP182">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ182">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR182">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS182">
         <v>1.52</v>
       </c>
       <c r="AT182">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU182">
         <v>0</v>
@@ -39033,25 +39033,25 @@
         <v>1.37</v>
       </c>
       <c r="AN183">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO183">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AP183">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ183">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR183">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS183">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT183">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39239,25 +39239,25 @@
         <v>1.93</v>
       </c>
       <c r="AN184">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="AO184">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ184">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR184">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="AS184">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT184">
-        <v>3.69</v>
+        <v>3.44</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39445,25 +39445,25 @@
         <v>1.78</v>
       </c>
       <c r="AN185">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="AO185">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ185">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR185">
+        <v>1.58</v>
+      </c>
+      <c r="AS185">
         <v>1.63</v>
       </c>
-      <c r="AS185">
-        <v>1.48</v>
-      </c>
       <c r="AT185">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39651,25 +39651,25 @@
         <v>1.54</v>
       </c>
       <c r="AN186">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AO186">
-        <v>1.33</v>
+        <v>1.93</v>
       </c>
       <c r="AP186">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ186">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR186">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AS186">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AT186">
-        <v>3.39</v>
+        <v>3.61</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39857,25 +39857,25 @@
         <v>1.47</v>
       </c>
       <c r="AN187">
-        <v>1.87</v>
+        <v>1.13</v>
       </c>
       <c r="AO187">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP187">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ187">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR187">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT187">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="AU187">
         <v>10</v>
@@ -40063,25 +40063,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>1.4</v>
+        <v>0.97</v>
       </c>
       <c r="AO188">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AP188">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR188">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS188">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT188">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU188">
         <v>2</v>
@@ -40269,25 +40269,25 @@
         <v>1.53</v>
       </c>
       <c r="AN189">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="AO189">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AP189">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR189">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AS189">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AT189">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40475,25 +40475,25 @@
         <v>2.7</v>
       </c>
       <c r="AN190">
-        <v>2.06</v>
+        <v>1.42</v>
       </c>
       <c r="AO190">
-        <v>0.4</v>
+        <v>1.19</v>
       </c>
       <c r="AP190">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR190">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="AS190">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AT190">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="AU190">
         <v>8</v>
@@ -40681,25 +40681,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AO191">
+        <v>1.74</v>
+      </c>
+      <c r="AP191">
+        <v>1.29</v>
+      </c>
+      <c r="AQ191">
+        <v>1.68</v>
+      </c>
+      <c r="AR191">
         <v>1.53</v>
       </c>
-      <c r="AP191">
-        <v>1.42</v>
-      </c>
-      <c r="AQ191">
-        <v>1.42</v>
-      </c>
-      <c r="AR191">
-        <v>1.51</v>
-      </c>
       <c r="AS191">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AT191">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="AU191">
         <v>5</v>
@@ -40887,22 +40887,22 @@
         <v>1.33</v>
       </c>
       <c r="AN192">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="AO192">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP192">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ192">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR192">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS192">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT192">
         <v>2.73</v>
@@ -41093,25 +41093,25 @@
         <v>1.95</v>
       </c>
       <c r="AN193">
-        <v>2.53</v>
+        <v>1.9</v>
       </c>
       <c r="AO193">
-        <v>0.87</v>
+        <v>1.39</v>
       </c>
       <c r="AP193">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ193">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR193">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="AS193">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AT193">
-        <v>3.53</v>
+        <v>3.33</v>
       </c>
       <c r="AU193">
         <v>12</v>
@@ -41299,25 +41299,25 @@
         <v>2.45</v>
       </c>
       <c r="AN194">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="AO194">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP194">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ194">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR194">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="AS194">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT194">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="AU194">
         <v>5</v>
@@ -41505,25 +41505,25 @@
         <v>1.73</v>
       </c>
       <c r="AN195">
-        <v>1.94</v>
+        <v>1.16</v>
       </c>
       <c r="AO195">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="AP195">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ195">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR195">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AS195">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AT195">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41711,25 +41711,25 @@
         <v>1.73</v>
       </c>
       <c r="AN196">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AO196">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ196">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR196">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS196">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AT196">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -41917,25 +41917,25 @@
         <v>1.83</v>
       </c>
       <c r="AN197">
-        <v>1.88</v>
+        <v>1.34</v>
       </c>
       <c r="AO197">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AP197">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ197">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR197">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="AS197">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT197">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="AU197">
         <v>6</v>
@@ -42123,25 +42123,25 @@
         <v>1.33</v>
       </c>
       <c r="AN198">
+        <v>1.53</v>
+      </c>
+      <c r="AO198">
         <v>1.94</v>
       </c>
-      <c r="AO198">
-        <v>1.31</v>
-      </c>
       <c r="AP198">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ198">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR198">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS198">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AT198">
-        <v>3.09</v>
+        <v>3.34</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42329,25 +42329,25 @@
         <v>1.62</v>
       </c>
       <c r="AN199">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="AO199">
-        <v>0.73</v>
+        <v>1.47</v>
       </c>
       <c r="AP199">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ199">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR199">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS199">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AT199">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="AU199">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ2">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ5">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ6">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2783,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2989,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR8">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>7</v>
@@ -3189,25 +3189,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR9">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>4</v>
@@ -3395,25 +3395,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ10">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR10">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>5</v>
@@ -3601,25 +3601,25 @@
         <v>2.25</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR11">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3810,22 +3810,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR12">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -4016,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ13">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4219,25 +4219,25 @@
         <v>3.9</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR14">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS14">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AT14">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4428,22 +4428,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ15">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR15">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS15">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AT15">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4631,25 +4631,25 @@
         <v>1.59</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ16">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR16">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT16">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="AU16">
         <v>8</v>
@@ -4837,25 +4837,25 @@
         <v>2</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR17">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="AS17">
-        <v>1.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT17">
-        <v>2.66</v>
+        <v>2.79</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -5043,25 +5043,25 @@
         <v>1.42</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR18">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>0.96</v>
       </c>
       <c r="AT18">
-        <v>3.16</v>
+        <v>1.85</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5249,25 +5249,25 @@
         <v>2.05</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
-        <v>2.07</v>
+        <v>2.56</v>
       </c>
       <c r="AS19">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AT19">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5455,25 +5455,25 @@
         <v>1.22</v>
       </c>
       <c r="AN20">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO20">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ20">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR20">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS20">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5661,25 +5661,25 @@
         <v>1.65</v>
       </c>
       <c r="AN21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR21">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AS21">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="AT21">
-        <v>3.14</v>
+        <v>3.9</v>
       </c>
       <c r="AU21">
         <v>9</v>
@@ -5867,25 +5867,25 @@
         <v>1.55</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR22">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AS22">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="AT22">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -6073,25 +6073,25 @@
         <v>1.88</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ23">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
-        <v>1.94</v>
+        <v>2.71</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="AT23">
-        <v>3.64</v>
+        <v>3.85</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6279,25 +6279,25 @@
         <v>2.88</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ24">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR24">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AS24">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="AT24">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="AU24">
         <v>10</v>
@@ -6485,25 +6485,25 @@
         <v>1.25</v>
       </c>
       <c r="AN25">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ25">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR25">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="AS25">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6691,25 +6691,25 @@
         <v>1.55</v>
       </c>
       <c r="AN26">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS26">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT26">
-        <v>3.86</v>
+        <v>3.93</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6900,22 +6900,22 @@
         <v>1</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ27">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR27">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AS27">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT27">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -7103,25 +7103,25 @@
         <v>1.36</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AS28">
-        <v>1.26</v>
+        <v>0.96</v>
       </c>
       <c r="AT28">
-        <v>2.45</v>
+        <v>1.98</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7309,25 +7309,25 @@
         <v>2.05</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR29">
-        <v>1.69</v>
+        <v>1.98</v>
       </c>
       <c r="AS29">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
-        <v>3.51</v>
+        <v>3.73</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7515,25 +7515,25 @@
         <v>2.3</v>
       </c>
       <c r="AN30">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ30">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>2.03</v>
+        <v>2.28</v>
       </c>
       <c r="AS30">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AT30">
-        <v>3.81</v>
+        <v>3.69</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7721,25 +7721,25 @@
         <v>1.58</v>
       </c>
       <c r="AN31">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO31">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR31">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS31">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7927,25 +7927,25 @@
         <v>2</v>
       </c>
       <c r="AN32">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR32">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AT32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -8133,25 +8133,25 @@
         <v>1.32</v>
       </c>
       <c r="AN33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ33">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR33">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AS33">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AT33">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -8339,25 +8339,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
+        <v>1.68</v>
+      </c>
+      <c r="AQ34">
+        <v>1.68</v>
+      </c>
+      <c r="AR34">
+        <v>1.56</v>
+      </c>
+      <c r="AS34">
         <v>1.29</v>
       </c>
-      <c r="AQ34">
-        <v>1.71</v>
-      </c>
-      <c r="AR34">
-        <v>1.35</v>
-      </c>
-      <c r="AS34">
-        <v>1.46</v>
-      </c>
       <c r="AT34">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8545,25 +8545,25 @@
         <v>1.42</v>
       </c>
       <c r="AN35">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ35">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR35">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AS35">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT35">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8751,25 +8751,25 @@
         <v>1.42</v>
       </c>
       <c r="AN36">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP36">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR36">
-        <v>1.71</v>
+        <v>2.03</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT36">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8957,25 +8957,25 @@
         <v>1.75</v>
       </c>
       <c r="AN37">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO37">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS37">
         <v>1.34</v>
       </c>
       <c r="AT37">
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9163,25 +9163,25 @@
         <v>1.2</v>
       </c>
       <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>0.67</v>
       </c>
-      <c r="AO38">
-        <v>1.83</v>
-      </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR38">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AS38">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -9369,25 +9369,25 @@
         <v>1.28</v>
       </c>
       <c r="AN39">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR39">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9575,25 +9575,25 @@
         <v>1.72</v>
       </c>
       <c r="AN40">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ40">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS40">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="AU40">
         <v>3</v>
@@ -9781,25 +9781,25 @@
         <v>2.38</v>
       </c>
       <c r="AN41">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR41">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>3.31</v>
+        <v>3.56</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9987,25 +9987,25 @@
         <v>1.95</v>
       </c>
       <c r="AN42">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO42">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS42">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT42">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10193,25 +10193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO43">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ43">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AS43">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AT43">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10399,25 +10399,25 @@
         <v>2.25</v>
       </c>
       <c r="AN44">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO44">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR44">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT44">
-        <v>3.53</v>
+        <v>3.21</v>
       </c>
       <c r="AU44">
         <v>10</v>
@@ -10605,25 +10605,25 @@
         <v>1.45</v>
       </c>
       <c r="AN45">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ45">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR45">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AS45">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AT45">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10811,25 +10811,25 @@
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ46">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR46">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS46">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>2.67</v>
+        <v>2.34</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -11017,25 +11017,25 @@
         <v>1.55</v>
       </c>
       <c r="AN47">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="AS47">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AT47">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11223,25 +11223,25 @@
         <v>1.38</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO48">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR48">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AS48">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AT48">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11429,25 +11429,25 @@
         <v>2.01</v>
       </c>
       <c r="AN49">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO49">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AP49">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR49">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AS49">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>3.41</v>
+        <v>3.07</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11635,25 +11635,25 @@
         <v>1.18</v>
       </c>
       <c r="AN50">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ50">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR50">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AS50">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>2.94</v>
+        <v>2.67</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11841,25 +11841,25 @@
         <v>1.18</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO51">
-        <v>1.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR51">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AS51">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AT51">
-        <v>3.12</v>
+        <v>3.44</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -12047,25 +12047,25 @@
         <v>2.05</v>
       </c>
       <c r="AN52">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="AO52">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR52">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AS52">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12253,25 +12253,25 @@
         <v>1.58</v>
       </c>
       <c r="AN53">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ53">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR53">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AS53">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AT53">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12459,25 +12459,25 @@
         <v>2.3</v>
       </c>
       <c r="AN54">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR54">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS54">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12665,25 +12665,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="AS55">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT55">
-        <v>2.64</v>
+        <v>3.14</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>2.84</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ56">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR56">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT56">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="AU56">
         <v>11</v>
@@ -13077,25 +13077,25 @@
         <v>1.57</v>
       </c>
       <c r="AN57">
-        <v>1.88</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ57">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR57">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AT57">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13283,25 +13283,25 @@
         <v>1.52</v>
       </c>
       <c r="AN58">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AO58">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="AS58">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="AT58">
-        <v>2.91</v>
+        <v>3.02</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13489,25 +13489,25 @@
         <v>2.5</v>
       </c>
       <c r="AN59">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR59">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AT59">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13695,25 +13695,25 @@
         <v>1.4</v>
       </c>
       <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>0.6</v>
+      </c>
+      <c r="AP60">
+        <v>0.79</v>
+      </c>
+      <c r="AQ60">
         <v>0.89</v>
       </c>
-      <c r="AO60">
-        <v>0.8</v>
-      </c>
-      <c r="AP60">
-        <v>0.76</v>
-      </c>
-      <c r="AQ60">
-        <v>1.18</v>
-      </c>
       <c r="AR60">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AT60">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="AU60">
         <v>4</v>
@@ -13901,25 +13901,25 @@
         <v>2</v>
       </c>
       <c r="AN61">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ61">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AS61">
         <v>1.51</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14107,25 +14107,25 @@
         <v>1.5</v>
       </c>
       <c r="AN62">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO62">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ62">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR62">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT62">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -14313,25 +14313,25 @@
         <v>1.3</v>
       </c>
       <c r="AN63">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO63">
+        <v>0.6</v>
+      </c>
+      <c r="AP63">
+        <v>1.63</v>
+      </c>
+      <c r="AQ63">
+        <v>1.05</v>
+      </c>
+      <c r="AR63">
         <v>1.8</v>
       </c>
-      <c r="AP63">
-        <v>1.29</v>
-      </c>
-      <c r="AQ63">
-        <v>1.5</v>
-      </c>
-      <c r="AR63">
-        <v>1.75</v>
-      </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT63">
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14522,22 +14522,22 @@
         <v>0.8</v>
       </c>
       <c r="AO64">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ64">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR64">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS64">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AT64">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14725,25 +14725,25 @@
         <v>2.55</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ65">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR65">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS65">
-        <v>1.26</v>
+        <v>0.98</v>
       </c>
       <c r="AT65">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14931,25 +14931,25 @@
         <v>1.4</v>
       </c>
       <c r="AN66">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>1.36</v>
+        <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR66">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AS66">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AT66">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15137,25 +15137,25 @@
         <v>2.5</v>
       </c>
       <c r="AN67">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR67">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="AS67">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AT67">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15343,25 +15343,25 @@
         <v>2.55</v>
       </c>
       <c r="AN68">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="AO68">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ68">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR68">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT68">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15549,25 +15549,25 @@
         <v>1.66</v>
       </c>
       <c r="AN69">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR69">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AS69">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT69">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="AU69">
         <v>9</v>
@@ -15755,25 +15755,25 @@
         <v>1.75</v>
       </c>
       <c r="AN70">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AT70">
-        <v>3.29</v>
+        <v>3.04</v>
       </c>
       <c r="AU70">
         <v>10</v>
@@ -15961,25 +15961,25 @@
         <v>1.4</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO71">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ71">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR71">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS71">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AT71">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16167,25 +16167,25 @@
         <v>1.18</v>
       </c>
       <c r="AN72">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR72">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AS72">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AT72">
-        <v>3.23</v>
+        <v>3.13</v>
       </c>
       <c r="AU72">
         <v>6</v>
@@ -16373,25 +16373,25 @@
         <v>1.63</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO73">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ73">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR73">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="AS73">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16579,25 +16579,25 @@
         <v>1.7</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO74">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR74">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AS74">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="AT74">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16785,25 +16785,25 @@
         <v>2.15</v>
       </c>
       <c r="AN75">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AO75">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR75">
+        <v>1.61</v>
+      </c>
+      <c r="AS75">
         <v>1.45</v>
       </c>
-      <c r="AS75">
-        <v>1.34</v>
-      </c>
       <c r="AT75">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16991,25 +16991,25 @@
         <v>2</v>
       </c>
       <c r="AN76">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="AO76">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR76">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AS76">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="AT76">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="AU76">
         <v>6</v>
@@ -17197,25 +17197,25 @@
         <v>1.29</v>
       </c>
       <c r="AN77">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO77">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS77">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AT77">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17403,25 +17403,25 @@
         <v>2.6</v>
       </c>
       <c r="AN78">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="AO78">
-        <v>1.23</v>
+        <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ78">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR78">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="AS78">
         <v>1.69</v>
       </c>
       <c r="AT78">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="AU78">
         <v>12</v>
@@ -17609,25 +17609,25 @@
         <v>1.3</v>
       </c>
       <c r="AN79">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="AO79">
-        <v>1.15</v>
+        <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ79">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="AS79">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AT79">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17815,25 +17815,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="AO80">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ80">
+        <v>0.89</v>
+      </c>
+      <c r="AR80">
+        <v>1.66</v>
+      </c>
+      <c r="AS80">
         <v>1.29</v>
       </c>
-      <c r="AR80">
-        <v>1.56</v>
-      </c>
-      <c r="AS80">
-        <v>1.5</v>
-      </c>
       <c r="AT80">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -18021,25 +18021,25 @@
         <v>1.8</v>
       </c>
       <c r="AN81">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AO81">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ81">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR81">
+        <v>1.23</v>
+      </c>
+      <c r="AS81">
         <v>1.31</v>
       </c>
-      <c r="AS81">
-        <v>1.32</v>
-      </c>
       <c r="AT81">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18227,25 +18227,25 @@
         <v>1.9</v>
       </c>
       <c r="AN82">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AO82">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR82">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS82">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AT82">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18433,25 +18433,25 @@
         <v>1.47</v>
       </c>
       <c r="AN83">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AP83">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ83">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
       </c>
       <c r="AS83">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT83">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18639,25 +18639,25 @@
         <v>1.9</v>
       </c>
       <c r="AN84">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="AO84">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AS84">
         <v>1.7</v>
       </c>
       <c r="AT84">
-        <v>3.23</v>
+        <v>3.37</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18845,25 +18845,25 @@
         <v>1.5</v>
       </c>
       <c r="AN85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO85">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AP85">
+        <v>1.79</v>
+      </c>
+      <c r="AQ85">
         <v>1.58</v>
       </c>
-      <c r="AQ85">
-        <v>2.03</v>
-      </c>
       <c r="AR85">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AS85">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AT85">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="AU85">
         <v>10</v>
@@ -19051,25 +19051,25 @@
         <v>1.36</v>
       </c>
       <c r="AN86">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="AO86">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="AP86">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR86">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AS86">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -19257,25 +19257,25 @@
         <v>1.95</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AO87">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR87">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT87">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19463,25 +19463,25 @@
         <v>1.22</v>
       </c>
       <c r="AN88">
-        <v>0.62</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>1.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR88">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AS88">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AT88">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19669,25 +19669,25 @@
         <v>2.25</v>
       </c>
       <c r="AN89">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AO89">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP89">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR89">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS89">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT89">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19875,25 +19875,25 @@
         <v>1.48</v>
       </c>
       <c r="AN90">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="AO90">
+        <v>0.71</v>
+      </c>
+      <c r="AP90">
+        <v>1.42</v>
+      </c>
+      <c r="AQ90">
+        <v>0.89</v>
+      </c>
+      <c r="AR90">
         <v>1.27</v>
       </c>
-      <c r="AP90">
-        <v>1</v>
-      </c>
-      <c r="AQ90">
-        <v>1.18</v>
-      </c>
-      <c r="AR90">
-        <v>1.31</v>
-      </c>
       <c r="AS90">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AT90">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20081,25 +20081,25 @@
         <v>1.45</v>
       </c>
       <c r="AN91">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
         <v>0.79</v>
       </c>
-      <c r="AP91">
-        <v>0.76</v>
-      </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR91">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS91">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT91">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20287,25 +20287,25 @@
         <v>1.73</v>
       </c>
       <c r="AN92">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO92">
+        <v>1.86</v>
+      </c>
+      <c r="AP92">
+        <v>2.47</v>
+      </c>
+      <c r="AQ92">
+        <v>1.42</v>
+      </c>
+      <c r="AR92">
+        <v>1.75</v>
+      </c>
+      <c r="AS92">
         <v>1.87</v>
       </c>
-      <c r="AP92">
-        <v>2.03</v>
-      </c>
-      <c r="AQ92">
-        <v>1.68</v>
-      </c>
-      <c r="AR92">
-        <v>1.6</v>
-      </c>
-      <c r="AS92">
-        <v>1.93</v>
-      </c>
       <c r="AT92">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="AU92">
         <v>10</v>
@@ -20493,25 +20493,25 @@
         <v>1.62</v>
       </c>
       <c r="AN93">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AO93">
-        <v>1.6</v>
+        <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR93">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AS93">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AT93">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20699,25 +20699,25 @@
         <v>3.1</v>
       </c>
       <c r="AN94">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ94">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR94">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="AS94">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="AT94">
-        <v>3.21</v>
+        <v>3.12</v>
       </c>
       <c r="AU94">
         <v>12</v>
@@ -20905,25 +20905,25 @@
         <v>1.83</v>
       </c>
       <c r="AN95">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="AO95">
-        <v>0.8</v>
+        <v>0.14</v>
       </c>
       <c r="AP95">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ95">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR95">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AS95">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT95">
-        <v>2.93</v>
+        <v>2.72</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21111,25 +21111,25 @@
         <v>3</v>
       </c>
       <c r="AN96">
-        <v>1.93</v>
+        <v>2.43</v>
       </c>
       <c r="AO96">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ96">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR96">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AS96">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT96">
-        <v>2.95</v>
+        <v>3.14</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21317,25 +21317,25 @@
         <v>1.77</v>
       </c>
       <c r="AN97">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AO97">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR97">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AS97">
         <v>1.34</v>
       </c>
       <c r="AT97">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21523,25 +21523,25 @@
         <v>1.73</v>
       </c>
       <c r="AN98">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO98">
-        <v>1.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR98">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT98">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21729,25 +21729,25 @@
         <v>1.45</v>
       </c>
       <c r="AN99">
-        <v>1.19</v>
+        <v>1.75</v>
       </c>
       <c r="AO99">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR99">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AS99">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT99">
-        <v>3.55</v>
+        <v>3.64</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -21935,25 +21935,25 @@
         <v>2</v>
       </c>
       <c r="AN100">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AO100">
-        <v>1.07</v>
+        <v>0.63</v>
       </c>
       <c r="AP100">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR100">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS100">
         <v>1.7</v>
       </c>
       <c r="AT100">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22141,25 +22141,25 @@
         <v>1.88</v>
       </c>
       <c r="AN101">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO101">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP101">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS101">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AT101">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22347,25 +22347,25 @@
         <v>1.58</v>
       </c>
       <c r="AN102">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="AO102">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR102">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AS102">
         <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>2.54</v>
+        <v>2.71</v>
       </c>
       <c r="AU102">
         <v>9</v>
@@ -22553,25 +22553,25 @@
         <v>1.29</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO103">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR103">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AS103">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AT103">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU103">
         <v>4</v>
@@ -22759,25 +22759,25 @@
         <v>1.67</v>
       </c>
       <c r="AN104">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="AO104">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ104">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR104">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="AS104">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT104">
-        <v>3.61</v>
+        <v>3.72</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -22965,25 +22965,25 @@
         <v>1.23</v>
       </c>
       <c r="AN105">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="AO105">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ105">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR105">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS105">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="AT105">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23171,25 +23171,25 @@
         <v>2.2</v>
       </c>
       <c r="AN106">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="AO106">
-        <v>1.18</v>
+        <v>0.63</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR106">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="AT106">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23377,25 +23377,25 @@
         <v>1.45</v>
       </c>
       <c r="AN107">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="AO107">
-        <v>1.18</v>
+        <v>0.63</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR107">
         <v>1.65</v>
       </c>
       <c r="AS107">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AT107">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23583,25 +23583,25 @@
         <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>1.47</v>
+        <v>2.38</v>
       </c>
       <c r="AO108">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ108">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR108">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AS108">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23789,25 +23789,25 @@
         <v>1.95</v>
       </c>
       <c r="AN109">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AO109">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AP109">
+        <v>1.95</v>
+      </c>
+      <c r="AQ109">
         <v>1.68</v>
       </c>
-      <c r="AQ109">
-        <v>1.71</v>
-      </c>
       <c r="AR109">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="AS109">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AT109">
-        <v>3.35</v>
+        <v>3.57</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23995,25 +23995,25 @@
         <v>2.55</v>
       </c>
       <c r="AN110">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
       <c r="AO110">
-        <v>1.17</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR110">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AS110">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AT110">
-        <v>3.06</v>
+        <v>3.29</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24201,22 +24201,22 @@
         <v>1.39</v>
       </c>
       <c r="AN111">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="AO111">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AS111">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AT111">
         <v>3.6</v>
@@ -24407,25 +24407,25 @@
         <v>2.2</v>
       </c>
       <c r="AN112">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ112">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR112">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AT112">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24613,25 +24613,25 @@
         <v>2.05</v>
       </c>
       <c r="AN113">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="AO113">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="AP113">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ113">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR113">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AS113">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AT113">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="AU113">
         <v>10</v>
@@ -24819,25 +24819,25 @@
         <v>1.3</v>
       </c>
       <c r="AN114">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO114">
-        <v>1.39</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AT114">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25025,25 +25025,25 @@
         <v>1.27</v>
       </c>
       <c r="AN115">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AO115">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR115">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AS115">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT115">
-        <v>3.47</v>
+        <v>3.36</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25231,25 +25231,25 @@
         <v>2.9</v>
       </c>
       <c r="AN116">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AO116">
-        <v>1.26</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR116">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT116">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="AU116">
         <v>8</v>
@@ -25437,25 +25437,25 @@
         <v>1.44</v>
       </c>
       <c r="AN117">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="AO117">
-        <v>1.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP117">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR117">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS117">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AT117">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25643,25 +25643,25 @@
         <v>1.3</v>
       </c>
       <c r="AN118">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO118">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR118">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AS118">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AT118">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25849,25 +25849,25 @@
         <v>2.02</v>
       </c>
       <c r="AN119">
-        <v>1.89</v>
+        <v>3</v>
       </c>
       <c r="AO119">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ119">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR119">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="AS119">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT119">
-        <v>3.45</v>
+        <v>3.66</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26055,25 +26055,25 @@
         <v>1.24</v>
       </c>
       <c r="AN120">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
       <c r="AO120">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ120">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR120">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AS120">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AT120">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26261,25 +26261,25 @@
         <v>1.83</v>
       </c>
       <c r="AN121">
-        <v>1.32</v>
+        <v>2.11</v>
       </c>
       <c r="AO121">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ121">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AS121">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="AT121">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26467,25 +26467,25 @@
         <v>1.57</v>
       </c>
       <c r="AN122">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AO122">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP122">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ122">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR122">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS122">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AT122">
-        <v>3.03</v>
+        <v>2.94</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26673,25 +26673,25 @@
         <v>3.2</v>
       </c>
       <c r="AN123">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AO123">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP123">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ123">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR123">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AS123">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="AT123">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="AU123">
         <v>12</v>
@@ -26879,25 +26879,25 @@
         <v>2.1</v>
       </c>
       <c r="AN124">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AO124">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR124">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT124">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -27085,25 +27085,25 @@
         <v>2</v>
       </c>
       <c r="AN125">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AO125">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP125">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ125">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR125">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AS125">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AT125">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27291,22 +27291,22 @@
         <v>1.8</v>
       </c>
       <c r="AN126">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="AO126">
+        <v>1.6</v>
+      </c>
+      <c r="AP126">
+        <v>1.95</v>
+      </c>
+      <c r="AQ126">
+        <v>1.42</v>
+      </c>
+      <c r="AR126">
+        <v>1.98</v>
+      </c>
+      <c r="AS126">
         <v>1.75</v>
-      </c>
-      <c r="AP126">
-        <v>1.5</v>
-      </c>
-      <c r="AQ126">
-        <v>1.68</v>
-      </c>
-      <c r="AR126">
-        <v>1.86</v>
-      </c>
-      <c r="AS126">
-        <v>1.87</v>
       </c>
       <c r="AT126">
         <v>3.73</v>
@@ -27500,22 +27500,22 @@
         <v>0.7</v>
       </c>
       <c r="AO127">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AT127">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27703,25 +27703,25 @@
         <v>1.57</v>
       </c>
       <c r="AN128">
-        <v>1.19</v>
+        <v>1.7</v>
       </c>
       <c r="AO128">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
       </c>
       <c r="AS128">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AT128">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27909,25 +27909,25 @@
         <v>1.38</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO129">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR129">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AS129">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="AT129">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -28115,25 +28115,25 @@
         <v>1.52</v>
       </c>
       <c r="AN130">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AO130">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ130">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
       </c>
       <c r="AS130">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AT130">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28321,25 +28321,25 @@
         <v>1.25</v>
       </c>
       <c r="AN131">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AO131">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR131">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="AS131">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT131">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="AU131">
         <v>6</v>
@@ -28527,25 +28527,25 @@
         <v>1.47</v>
       </c>
       <c r="AN132">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="AO132">
-        <v>1.71</v>
+        <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR132">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT132">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28733,25 +28733,25 @@
         <v>2.62</v>
       </c>
       <c r="AN133">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AO133">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR133">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="AS133">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT133">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28942,22 +28942,22 @@
         <v>0.64</v>
       </c>
       <c r="AO134">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="AP134">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ134">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR134">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS134">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AT134">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29145,25 +29145,25 @@
         <v>2.1</v>
       </c>
       <c r="AN135">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AO135">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AP135">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR135">
         <v>1.62</v>
       </c>
       <c r="AS135">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29351,25 +29351,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
+        <v>1.55</v>
+      </c>
+      <c r="AO136">
+        <v>1.64</v>
+      </c>
+      <c r="AP136">
+        <v>1.74</v>
+      </c>
+      <c r="AQ136">
+        <v>1.58</v>
+      </c>
+      <c r="AR136">
+        <v>1.47</v>
+      </c>
+      <c r="AS136">
         <v>1.5</v>
       </c>
-      <c r="AO136">
-        <v>2.14</v>
-      </c>
-      <c r="AP136">
-        <v>1.71</v>
-      </c>
-      <c r="AQ136">
-        <v>2.03</v>
-      </c>
-      <c r="AR136">
-        <v>1.51</v>
-      </c>
-      <c r="AS136">
-        <v>1.76</v>
-      </c>
       <c r="AT136">
-        <v>3.27</v>
+        <v>2.97</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29557,25 +29557,25 @@
         <v>1.45</v>
       </c>
       <c r="AN137">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
       </c>
       <c r="AS137">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AT137">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AU137">
         <v>6</v>
@@ -29763,25 +29763,25 @@
         <v>1.42</v>
       </c>
       <c r="AN138">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AO138">
-        <v>1.64</v>
+        <v>0.82</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR138">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS138">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="AT138">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29969,25 +29969,25 @@
         <v>1.17</v>
       </c>
       <c r="AN139">
-        <v>1.23</v>
+        <v>1.91</v>
       </c>
       <c r="AO139">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AP139">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ139">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR139">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AS139">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AT139">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30175,25 +30175,25 @@
         <v>2.2</v>
       </c>
       <c r="AN140">
+        <v>2.45</v>
+      </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
+      <c r="AP140">
+        <v>1.95</v>
+      </c>
+      <c r="AQ140">
+        <v>0.95</v>
+      </c>
+      <c r="AR140">
+        <v>1.96</v>
+      </c>
+      <c r="AS140">
         <v>1.57</v>
       </c>
-      <c r="AO140">
-        <v>1.39</v>
-      </c>
-      <c r="AP140">
-        <v>1.5</v>
-      </c>
-      <c r="AQ140">
-        <v>1.29</v>
-      </c>
-      <c r="AR140">
-        <v>1.84</v>
-      </c>
-      <c r="AS140">
-        <v>1.56</v>
-      </c>
       <c r="AT140">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="AU140">
         <v>5</v>
@@ -30381,25 +30381,25 @@
         <v>2.2</v>
       </c>
       <c r="AN141">
-        <v>0.96</v>
+        <v>1.36</v>
       </c>
       <c r="AO141">
-        <v>1.3</v>
+        <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR141">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AS141">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT141">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30587,25 +30587,25 @@
         <v>1.47</v>
       </c>
       <c r="AN142">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="AO142">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ142">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR142">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS142">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AT142">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AU142">
         <v>4</v>
@@ -30793,25 +30793,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="AO143">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ143">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR143">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AS143">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT143">
-        <v>3.01</v>
+        <v>3.22</v>
       </c>
       <c r="AU143">
         <v>8</v>
@@ -30999,25 +30999,25 @@
         <v>1.55</v>
       </c>
       <c r="AN144">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="AO144">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ144">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR144">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AS144">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AT144">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31205,25 +31205,25 @@
         <v>1.83</v>
       </c>
       <c r="AN145">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO145">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AP145">
+        <v>1.95</v>
+      </c>
+      <c r="AQ145">
         <v>1.68</v>
       </c>
-      <c r="AQ145">
-        <v>1.71</v>
-      </c>
       <c r="AR145">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT145">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="AU145">
         <v>9</v>
@@ -31411,25 +31411,25 @@
         <v>2.82</v>
       </c>
       <c r="AN146">
-        <v>1.54</v>
+        <v>2.33</v>
       </c>
       <c r="AO146">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ146">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR146">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AS146">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AT146">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31617,25 +31617,25 @@
         <v>1.32</v>
       </c>
       <c r="AN147">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO147">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AP147">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR147">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS147">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT147">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31823,25 +31823,25 @@
         <v>1.44</v>
       </c>
       <c r="AN148">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO148">
+        <v>0.75</v>
+      </c>
+      <c r="AP148">
         <v>1.42</v>
       </c>
-      <c r="AP148">
-        <v>1</v>
-      </c>
       <c r="AQ148">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
       </c>
       <c r="AS148">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT148">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32029,25 +32029,25 @@
         <v>1.47</v>
       </c>
       <c r="AN149">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR149">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS149">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="AT149">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32235,25 +32235,25 @@
         <v>1.83</v>
       </c>
       <c r="AN150">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="AO150">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR150">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AS150">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT150">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32441,25 +32441,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AO151">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AP151">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ151">
+        <v>1.42</v>
+      </c>
+      <c r="AR151">
+        <v>2.05</v>
+      </c>
+      <c r="AS151">
         <v>1.68</v>
       </c>
-      <c r="AR151">
-        <v>1.79</v>
-      </c>
-      <c r="AS151">
-        <v>1.84</v>
-      </c>
       <c r="AT151">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
       <c r="AU151">
         <v>5</v>
@@ -32647,25 +32647,25 @@
         <v>1.83</v>
       </c>
       <c r="AN152">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="AO152">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="AP152">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR152">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="AS152">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="AT152">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -32853,25 +32853,25 @@
         <v>1.44</v>
       </c>
       <c r="AN153">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO153">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR153">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AS153">
         <v>1.32</v>
       </c>
       <c r="AT153">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33059,25 +33059,25 @@
         <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AO154">
-        <v>1.04</v>
+        <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ154">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR154">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS154">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AT154">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="AU154">
         <v>6</v>
@@ -33265,25 +33265,25 @@
         <v>1.75</v>
       </c>
       <c r="AN155">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="AO155">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ155">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR155">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS155">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AT155">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33471,25 +33471,25 @@
         <v>1.9</v>
       </c>
       <c r="AN156">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="AO156">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ156">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR156">
         <v>1.55</v>
       </c>
       <c r="AS156">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AT156">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33677,25 +33677,25 @@
         <v>1.5</v>
       </c>
       <c r="AN157">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="AO157">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="AP157">
+        <v>1.79</v>
+      </c>
+      <c r="AQ157">
         <v>1.58</v>
       </c>
-      <c r="AQ157">
-        <v>2.03</v>
-      </c>
       <c r="AR157">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS157">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT157">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33883,22 +33883,22 @@
         <v>1.66</v>
       </c>
       <c r="AN158">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="AO158">
-        <v>1.12</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP158">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT158">
         <v>2.87</v>
@@ -34089,25 +34089,25 @@
         <v>1.18</v>
       </c>
       <c r="AN159">
-        <v>1.15</v>
+        <v>1.85</v>
       </c>
       <c r="AO159">
+        <v>1.23</v>
+      </c>
+      <c r="AP159">
+        <v>2.11</v>
+      </c>
+      <c r="AQ159">
+        <v>1.37</v>
+      </c>
+      <c r="AR159">
+        <v>1.48</v>
+      </c>
+      <c r="AS159">
         <v>1.62</v>
       </c>
-      <c r="AP159">
-        <v>1.24</v>
-      </c>
-      <c r="AQ159">
-        <v>1.58</v>
-      </c>
-      <c r="AR159">
-        <v>1.32</v>
-      </c>
-      <c r="AS159">
-        <v>1.58</v>
-      </c>
       <c r="AT159">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU159">
         <v>6</v>
@@ -34295,25 +34295,25 @@
         <v>1.8</v>
       </c>
       <c r="AN160">
-        <v>1.54</v>
+        <v>2.38</v>
       </c>
       <c r="AO160">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AP160">
+        <v>1.95</v>
+      </c>
+      <c r="AQ160">
+        <v>1.68</v>
+      </c>
+      <c r="AR160">
+        <v>1.94</v>
+      </c>
+      <c r="AS160">
         <v>1.5</v>
       </c>
-      <c r="AQ160">
-        <v>1.71</v>
-      </c>
-      <c r="AR160">
-        <v>1.84</v>
-      </c>
-      <c r="AS160">
-        <v>1.48</v>
-      </c>
       <c r="AT160">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34501,25 +34501,25 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="AO161">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AP161">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR161">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AS161">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="AU161">
         <v>12</v>
@@ -34707,22 +34707,22 @@
         <v>1.3</v>
       </c>
       <c r="AN162">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO162">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="AP162">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ162">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR162">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AS162">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AT162">
         <v>2.78</v>
@@ -34913,25 +34913,25 @@
         <v>2.05</v>
       </c>
       <c r="AN163">
-        <v>1.96</v>
+        <v>2.46</v>
       </c>
       <c r="AO163">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AP163">
+        <v>2.47</v>
+      </c>
+      <c r="AQ163">
+        <v>1.16</v>
+      </c>
+      <c r="AR163">
         <v>2.03</v>
       </c>
-      <c r="AQ163">
-        <v>1.29</v>
-      </c>
-      <c r="AR163">
-        <v>1.78</v>
-      </c>
       <c r="AS163">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AT163">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35119,25 +35119,25 @@
         <v>1.83</v>
       </c>
       <c r="AN164">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="AO164">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ164">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR164">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS164">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AT164">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="AU164">
         <v>6</v>
@@ -35325,25 +35325,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.07</v>
+        <v>1.54</v>
       </c>
       <c r="AO165">
-        <v>1.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR165">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS165">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AT165">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35531,25 +35531,25 @@
         <v>2.35</v>
       </c>
       <c r="AN166">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AO166">
-        <v>1.22</v>
+        <v>0.46</v>
       </c>
       <c r="AP166">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR166">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS166">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AT166">
-        <v>2.82</v>
+        <v>2.61</v>
       </c>
       <c r="AU166">
         <v>7</v>
@@ -35737,25 +35737,25 @@
         <v>2.6</v>
       </c>
       <c r="AN167">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO167">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="AP167">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ167">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR167">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AS167">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT167">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="AU167">
         <v>9</v>
@@ -35943,25 +35943,25 @@
         <v>1.35</v>
       </c>
       <c r="AN168">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="AO168">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AP168">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR168">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AS168">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="AT168">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36149,25 +36149,25 @@
         <v>1.44</v>
       </c>
       <c r="AN169">
-        <v>1.37</v>
+        <v>1.92</v>
       </c>
       <c r="AO169">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AP169">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ169">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR169">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS169">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AT169">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36355,25 +36355,25 @@
         <v>1.22</v>
       </c>
       <c r="AN170">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="AO170">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="AP170">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ170">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR170">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS170">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AT170">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="AU170">
         <v>7</v>
@@ -36561,25 +36561,25 @@
         <v>1.18</v>
       </c>
       <c r="AN171">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AO171">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AP171">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ171">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR171">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS171">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT171">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36767,25 +36767,25 @@
         <v>1.5</v>
       </c>
       <c r="AN172">
+        <v>1.29</v>
+      </c>
+      <c r="AO172">
         <v>1.14</v>
       </c>
-      <c r="AO172">
-        <v>1.54</v>
-      </c>
       <c r="AP172">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ172">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
       </c>
       <c r="AS172">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AT172">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU172">
         <v>4</v>
@@ -36973,25 +36973,25 @@
         <v>1.12</v>
       </c>
       <c r="AN173">
-        <v>1.18</v>
+        <v>1.93</v>
       </c>
       <c r="AO173">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="AP173">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ173">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR173">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="AS173">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37179,25 +37179,25 @@
         <v>1.47</v>
       </c>
       <c r="AN174">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="AO174">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP174">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ174">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR174">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS174">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AT174">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37385,25 +37385,25 @@
         <v>1.72</v>
       </c>
       <c r="AN175">
-        <v>1.46</v>
+        <v>2.21</v>
       </c>
       <c r="AO175">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ175">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR175">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AS175">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AT175">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37591,25 +37591,25 @@
         <v>1.75</v>
       </c>
       <c r="AN176">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AO176">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ176">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR176">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS176">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AT176">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="AU176">
         <v>4</v>
@@ -37797,25 +37797,25 @@
         <v>3.4</v>
       </c>
       <c r="AN177">
-        <v>1.86</v>
+        <v>2.21</v>
       </c>
       <c r="AO177">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AP177">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ177">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR177">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="AS177">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AT177">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -38003,25 +38003,25 @@
         <v>2</v>
       </c>
       <c r="AN178">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="AO178">
-        <v>1.52</v>
+        <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ178">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR178">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS178">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT178">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38209,25 +38209,25 @@
         <v>1.48</v>
       </c>
       <c r="AN179">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AO179">
-        <v>1.45</v>
+        <v>0.71</v>
       </c>
       <c r="AP179">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR179">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AS179">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AT179">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="AU179">
         <v>7</v>
@@ -38415,25 +38415,25 @@
         <v>2.85</v>
       </c>
       <c r="AN180">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="AO180">
-        <v>1.17</v>
+        <v>0.43</v>
       </c>
       <c r="AP180">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ180">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR180">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AS180">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT180">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38621,25 +38621,25 @@
         <v>2.4</v>
       </c>
       <c r="AN181">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AO181">
-        <v>1.03</v>
+        <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR181">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="AS181">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT181">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38827,25 +38827,25 @@
         <v>1.22</v>
       </c>
       <c r="AN182">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="AO182">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AP182">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ182">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR182">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS182">
         <v>1.52</v>
       </c>
       <c r="AT182">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU182">
         <v>0</v>
@@ -39033,25 +39033,25 @@
         <v>1.37</v>
       </c>
       <c r="AN183">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO183">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AP183">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR183">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS183">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AT183">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39239,25 +39239,25 @@
         <v>1.93</v>
       </c>
       <c r="AN184">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="AO184">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ184">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR184">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="AS184">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AT184">
-        <v>3.44</v>
+        <v>3.69</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39445,25 +39445,25 @@
         <v>1.78</v>
       </c>
       <c r="AN185">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="AO185">
-        <v>1.2</v>
+        <v>0.87</v>
       </c>
       <c r="AP185">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ185">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR185">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AS185">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AT185">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39651,25 +39651,25 @@
         <v>1.54</v>
       </c>
       <c r="AN186">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AO186">
-        <v>1.93</v>
+        <v>1.33</v>
       </c>
       <c r="AP186">
+        <v>1.95</v>
+      </c>
+      <c r="AQ186">
+        <v>1.58</v>
+      </c>
+      <c r="AR186">
+        <v>1.89</v>
+      </c>
+      <c r="AS186">
         <v>1.5</v>
       </c>
-      <c r="AQ186">
-        <v>2.03</v>
-      </c>
-      <c r="AR186">
-        <v>1.85</v>
-      </c>
-      <c r="AS186">
-        <v>1.76</v>
-      </c>
       <c r="AT186">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39857,25 +39857,25 @@
         <v>1.47</v>
       </c>
       <c r="AN187">
-        <v>1.13</v>
+        <v>1.87</v>
       </c>
       <c r="AO187">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR187">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AS187">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT187">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="AU187">
         <v>10</v>
@@ -40063,25 +40063,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>0.97</v>
+        <v>1.4</v>
       </c>
       <c r="AO188">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AP188">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ188">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR188">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS188">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AT188">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU188">
         <v>2</v>
@@ -40269,25 +40269,25 @@
         <v>1.53</v>
       </c>
       <c r="AN189">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="AO189">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AP189">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR189">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AS189">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AT189">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40475,25 +40475,25 @@
         <v>2.7</v>
       </c>
       <c r="AN190">
-        <v>1.42</v>
+        <v>2.06</v>
       </c>
       <c r="AO190">
-        <v>1.19</v>
+        <v>0.4</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ190">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR190">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AS190">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AT190">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="AU190">
         <v>8</v>
@@ -40681,25 +40681,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AO191">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="AP191">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ191">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR191">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AS191">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AT191">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="AU191">
         <v>5</v>
@@ -40887,22 +40887,22 @@
         <v>1.33</v>
       </c>
       <c r="AN192">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AO192">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP192">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ192">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR192">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS192">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT192">
         <v>2.73</v>
@@ -41093,25 +41093,25 @@
         <v>1.95</v>
       </c>
       <c r="AN193">
-        <v>1.9</v>
+        <v>2.53</v>
       </c>
       <c r="AO193">
-        <v>1.39</v>
+        <v>0.87</v>
       </c>
       <c r="AP193">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ193">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR193">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="AS193">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AT193">
-        <v>3.33</v>
+        <v>3.53</v>
       </c>
       <c r="AU193">
         <v>12</v>
@@ -41299,25 +41299,25 @@
         <v>2.45</v>
       </c>
       <c r="AN194">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AO194">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR194">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="AS194">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AT194">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="AU194">
         <v>5</v>
@@ -41505,25 +41505,25 @@
         <v>1.73</v>
       </c>
       <c r="AN195">
-        <v>1.16</v>
+        <v>1.94</v>
       </c>
       <c r="AO195">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="AP195">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ195">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR195">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AS195">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT195">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41711,25 +41711,25 @@
         <v>1.73</v>
       </c>
       <c r="AN196">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AO196">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP196">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ196">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR196">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AS196">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT196">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -41917,25 +41917,25 @@
         <v>1.83</v>
       </c>
       <c r="AN197">
-        <v>1.34</v>
+        <v>1.88</v>
       </c>
       <c r="AO197">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AP197">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ197">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR197">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="AS197">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT197">
-        <v>3.11</v>
+        <v>3.19</v>
       </c>
       <c r="AU197">
         <v>6</v>
@@ -42123,25 +42123,25 @@
         <v>1.33</v>
       </c>
       <c r="AN198">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AO198">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="AP198">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ198">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR198">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS198">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AT198">
-        <v>3.34</v>
+        <v>3.09</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42329,25 +42329,25 @@
         <v>1.62</v>
       </c>
       <c r="AN199">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="AO199">
-        <v>1.47</v>
+        <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ199">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR199">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AS199">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT199">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="AU199">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -42741,25 +42741,25 @@
         <v>2.5</v>
       </c>
       <c r="AN201">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AO201">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="AP201">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ201">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR201">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="AS201">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT201">
-        <v>3.53</v>
+        <v>3.38</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42947,25 +42947,25 @@
         <v>1.7</v>
       </c>
       <c r="AN202">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AO202">
-        <v>0.88</v>
+        <v>1.52</v>
       </c>
       <c r="AP202">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ202">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR202">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AS202">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AT202">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AU202">
         <v>5</v>
@@ -43359,25 +43359,25 @@
         <v>1.47</v>
       </c>
       <c r="AN204">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AO204">
-        <v>1.41</v>
+        <v>1.97</v>
       </c>
       <c r="AP204">
+        <v>1.58</v>
+      </c>
+      <c r="AQ204">
+        <v>2.03</v>
+      </c>
+      <c r="AR204">
+        <v>1.6</v>
+      </c>
+      <c r="AS204">
         <v>1.79</v>
       </c>
-      <c r="AQ204">
-        <v>1.58</v>
-      </c>
-      <c r="AR204">
-        <v>1.52</v>
-      </c>
-      <c r="AS204">
-        <v>1.54</v>
-      </c>
       <c r="AT204">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="AU204">
         <v>4</v>
@@ -44183,25 +44183,25 @@
         <v>1.9</v>
       </c>
       <c r="AN208">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="AO208">
+        <v>1.74</v>
+      </c>
+      <c r="AP208">
+        <v>2.03</v>
+      </c>
+      <c r="AQ208">
         <v>1.71</v>
       </c>
-      <c r="AP208">
-        <v>2.47</v>
-      </c>
-      <c r="AQ208">
-        <v>1.68</v>
-      </c>
       <c r="AR208">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AS208">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT208">
-        <v>3.58</v>
+        <v>3.28</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44595,25 +44595,25 @@
         <v>1.36</v>
       </c>
       <c r="AN210">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="AO210">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AP210">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ210">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR210">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS210">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT210">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="AU210">
         <v>4</v>
@@ -44801,25 +44801,25 @@
         <v>1.47</v>
       </c>
       <c r="AN211">
-        <v>2.12</v>
+        <v>1.56</v>
       </c>
       <c r="AO211">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AP211">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ211">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR211">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AS211">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AT211">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="AU211">
         <v>5</v>
@@ -45625,25 +45625,25 @@
         <v>1.45</v>
       </c>
       <c r="AN215">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AO215">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AP215">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ215">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR215">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AS215">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AT215">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45831,25 +45831,25 @@
         <v>2.15</v>
       </c>
       <c r="AN216">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="AO216">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="AP216">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ216">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR216">
         <v>1.48</v>
       </c>
       <c r="AS216">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AT216">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="AU216">
         <v>10</v>
@@ -46037,25 +46037,25 @@
         <v>1.7</v>
       </c>
       <c r="AN217">
-        <v>2.41</v>
+        <v>1.94</v>
       </c>
       <c r="AO217">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AP217">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ217">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR217">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="AS217">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AT217">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="AU217">
         <v>8</v>
@@ -46861,25 +46861,25 @@
         <v>1.73</v>
       </c>
       <c r="AN221">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="AO221">
-        <v>1.5</v>
+        <v>1.97</v>
       </c>
       <c r="AP221">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ221">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR221">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="AS221">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="AT221">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="AU221">
         <v>0</v>
@@ -47067,25 +47067,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="AO222">
-        <v>0.9399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AP222">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ222">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR222">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS222">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT222">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47273,25 +47273,25 @@
         <v>1.62</v>
       </c>
       <c r="AN223">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AO223">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AP223">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ223">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR223">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AS223">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AT223">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -48097,25 +48097,25 @@
         <v>1.79</v>
       </c>
       <c r="AN227">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="AO227">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="AP227">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ227">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR227">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AS227">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT227">
-        <v>3.53</v>
+        <v>3.37</v>
       </c>
       <c r="AU227">
         <v>9</v>
@@ -48303,25 +48303,25 @@
         <v>1.53</v>
       </c>
       <c r="AN228">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="AO228">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AP228">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ228">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR228">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AS228">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AT228">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48509,25 +48509,25 @@
         <v>2.53</v>
       </c>
       <c r="AN229">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="AO229">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="AP229">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ229">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR229">
-        <v>2.09</v>
+        <v>1.81</v>
       </c>
       <c r="AS229">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AT229">
-        <v>3.62</v>
+        <v>3.37</v>
       </c>
       <c r="AU229">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -42741,25 +42741,25 @@
         <v>2.5</v>
       </c>
       <c r="AN201">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AO201">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="AP201">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ201">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR201">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="AS201">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT201">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42947,25 +42947,25 @@
         <v>1.7</v>
       </c>
       <c r="AN202">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AO202">
-        <v>1.52</v>
+        <v>0.88</v>
       </c>
       <c r="AP202">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ202">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR202">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AS202">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT202">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="AU202">
         <v>5</v>
@@ -43359,25 +43359,25 @@
         <v>1.47</v>
       </c>
       <c r="AN204">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AO204">
-        <v>1.97</v>
+        <v>1.41</v>
       </c>
       <c r="AP204">
+        <v>1.79</v>
+      </c>
+      <c r="AQ204">
         <v>1.58</v>
       </c>
-      <c r="AQ204">
-        <v>2.03</v>
-      </c>
       <c r="AR204">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AS204">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AT204">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="AU204">
         <v>4</v>
@@ -44183,25 +44183,25 @@
         <v>1.9</v>
       </c>
       <c r="AN208">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="AO208">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AP208">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ208">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR208">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AS208">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AT208">
-        <v>3.28</v>
+        <v>3.58</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44595,25 +44595,25 @@
         <v>1.36</v>
       </c>
       <c r="AN210">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="AO210">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="AP210">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ210">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR210">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS210">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AT210">
-        <v>3.13</v>
+        <v>3.26</v>
       </c>
       <c r="AU210">
         <v>4</v>
@@ -44801,25 +44801,25 @@
         <v>1.47</v>
       </c>
       <c r="AN211">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="AO211">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AP211">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ211">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR211">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AS211">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AT211">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="AU211">
         <v>5</v>
@@ -45625,25 +45625,25 @@
         <v>1.45</v>
       </c>
       <c r="AN215">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AO215">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AP215">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ215">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR215">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AS215">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AT215">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45831,25 +45831,25 @@
         <v>2.15</v>
       </c>
       <c r="AN216">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AO216">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="AP216">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ216">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR216">
         <v>1.48</v>
       </c>
       <c r="AS216">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT216">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AU216">
         <v>10</v>
@@ -46037,25 +46037,25 @@
         <v>1.7</v>
       </c>
       <c r="AN217">
-        <v>1.94</v>
+        <v>2.41</v>
       </c>
       <c r="AO217">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AP217">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ217">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR217">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="AS217">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT217">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="AU217">
         <v>8</v>
@@ -46861,25 +46861,25 @@
         <v>1.73</v>
       </c>
       <c r="AN221">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="AO221">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="AP221">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ221">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR221">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AS221">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="AT221">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="AU221">
         <v>0</v>
@@ -47067,25 +47067,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="AO222">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP222">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR222">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS222">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="AT222">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47273,25 +47273,25 @@
         <v>1.62</v>
       </c>
       <c r="AN223">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AO223">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AP223">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ223">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR223">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AS223">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT223">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -48097,25 +48097,25 @@
         <v>1.79</v>
       </c>
       <c r="AN227">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="AO227">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="AP227">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ227">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR227">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AS227">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AT227">
-        <v>3.37</v>
+        <v>3.53</v>
       </c>
       <c r="AU227">
         <v>9</v>
@@ -48303,25 +48303,25 @@
         <v>1.53</v>
       </c>
       <c r="AN228">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AO228">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="AP228">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ228">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR228">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AS228">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="AT228">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48509,25 +48509,25 @@
         <v>2.53</v>
       </c>
       <c r="AN229">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AO229">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="AP229">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ229">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR229">
-        <v>1.81</v>
+        <v>2.09</v>
       </c>
       <c r="AS229">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT229">
-        <v>3.37</v>
+        <v>3.62</v>
       </c>
       <c r="AU229">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ4">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ5">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2783,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ7">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2989,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ8">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AU8">
         <v>7</v>
@@ -3189,25 +3189,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP9">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ9">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>4.09</v>
       </c>
       <c r="AU9">
         <v>4</v>
@@ -3395,25 +3395,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ10">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>3.39</v>
       </c>
       <c r="AU10">
         <v>5</v>
@@ -3601,25 +3601,25 @@
         <v>2.25</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ11">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3810,22 +3810,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ12">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -4016,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ13">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4219,25 +4219,25 @@
         <v>3.9</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ14">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="AS14">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AT14">
-        <v>3.51</v>
+        <v>3.57</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4428,22 +4428,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ15">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR15">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS15">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT15">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4631,25 +4631,25 @@
         <v>1.59</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ16">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR16">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="AS16">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>3.45</v>
+        <v>3.24</v>
       </c>
       <c r="AU16">
         <v>8</v>
@@ -4837,25 +4837,25 @@
         <v>2</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP17">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ17">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR17">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="AS17">
-        <v>0.8100000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AT17">
-        <v>2.79</v>
+        <v>2.66</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -5043,25 +5043,25 @@
         <v>1.42</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP18">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ18">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR18">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
       <c r="AS18">
-        <v>0.96</v>
+        <v>1.83</v>
       </c>
       <c r="AT18">
-        <v>1.85</v>
+        <v>3.16</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5249,25 +5249,25 @@
         <v>2.05</v>
       </c>
       <c r="AN19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP19">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR19">
-        <v>2.56</v>
+        <v>2.07</v>
       </c>
       <c r="AS19">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AT19">
-        <v>3.7</v>
+        <v>3.48</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5455,25 +5455,25 @@
         <v>1.22</v>
       </c>
       <c r="AN20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO20">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP20">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ20">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR20">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS20">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AT20">
-        <v>3.18</v>
+        <v>3.16</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5661,25 +5661,25 @@
         <v>1.65</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO21">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP21">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ21">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR21">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AS21">
-        <v>1.77</v>
+        <v>1.27</v>
       </c>
       <c r="AT21">
-        <v>3.9</v>
+        <v>3.14</v>
       </c>
       <c r="AU21">
         <v>9</v>
@@ -5867,25 +5867,25 @@
         <v>1.55</v>
       </c>
       <c r="AN22">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ22">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="AS22">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="AT22">
-        <v>2.99</v>
+        <v>3.49</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -6073,25 +6073,25 @@
         <v>1.88</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR23">
-        <v>2.71</v>
+        <v>1.94</v>
       </c>
       <c r="AS23">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="AT23">
-        <v>3.85</v>
+        <v>3.64</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6279,25 +6279,25 @@
         <v>2.88</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP24">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR24">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="AS24">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="AT24">
-        <v>2.11</v>
+        <v>2.36</v>
       </c>
       <c r="AU24">
         <v>10</v>
@@ -6485,25 +6485,25 @@
         <v>1.25</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP25">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ25">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR25">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="AS25">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AT25">
-        <v>3.18</v>
+        <v>3.08</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6691,25 +6691,25 @@
         <v>1.55</v>
       </c>
       <c r="AN26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO26">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP26">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ26">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS26">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="AT26">
-        <v>3.93</v>
+        <v>3.86</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6900,22 +6900,22 @@
         <v>1</v>
       </c>
       <c r="AO27">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP27">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ27">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR27">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AS27">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT27">
-        <v>2.86</v>
+        <v>2.54</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -7103,25 +7103,25 @@
         <v>1.36</v>
       </c>
       <c r="AN28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP28">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
-        <v>1.02</v>
+        <v>1.19</v>
       </c>
       <c r="AS28">
-        <v>0.96</v>
+        <v>1.26</v>
       </c>
       <c r="AT28">
-        <v>1.98</v>
+        <v>2.45</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7309,25 +7309,25 @@
         <v>2.05</v>
       </c>
       <c r="AN29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ29">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR29">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="AS29">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AT29">
-        <v>3.73</v>
+        <v>3.51</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7515,25 +7515,25 @@
         <v>2.3</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO30">
+        <v>0.8</v>
+      </c>
+      <c r="AP30">
         <v>1.5</v>
       </c>
-      <c r="AP30">
-        <v>1.95</v>
-      </c>
       <c r="AQ30">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR30">
-        <v>2.28</v>
+        <v>2.03</v>
       </c>
       <c r="AS30">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="AT30">
-        <v>3.69</v>
+        <v>3.81</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7721,25 +7721,25 @@
         <v>1.58</v>
       </c>
       <c r="AN31">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AO31">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AP31">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ31">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR31">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
-        <v>2.63</v>
+        <v>2.58</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7927,25 +7927,25 @@
         <v>2</v>
       </c>
       <c r="AN32">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP32">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR32">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="AS32">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="AT32">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -8133,25 +8133,25 @@
         <v>1.32</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP33">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ33">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR33">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="AS33">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="AT33">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -8339,25 +8339,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AP34">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR34">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="AS34">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="AT34">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8545,25 +8545,25 @@
         <v>1.42</v>
       </c>
       <c r="AN35">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="AO35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AP35">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR35">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AS35">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AT35">
-        <v>3.46</v>
+        <v>3.3</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8751,25 +8751,25 @@
         <v>1.42</v>
       </c>
       <c r="AN36">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO36">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ36">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR36">
-        <v>2.03</v>
+        <v>1.71</v>
       </c>
       <c r="AS36">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>3.46</v>
+        <v>3.21</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8957,25 +8957,25 @@
         <v>1.75</v>
       </c>
       <c r="AN37">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO37">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP37">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR37">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS37">
         <v>1.34</v>
       </c>
       <c r="AT37">
-        <v>3.24</v>
+        <v>3.14</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9163,25 +9163,25 @@
         <v>1.2</v>
       </c>
       <c r="AN38">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO38">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AP38">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="AS38">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AT38">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -9369,25 +9369,25 @@
         <v>1.28</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP39">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ39">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR39">
-        <v>1.54</v>
+        <v>1.18</v>
       </c>
       <c r="AS39">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>3.09</v>
+        <v>2.93</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9575,25 +9575,25 @@
         <v>1.72</v>
       </c>
       <c r="AN40">
-        <v>2.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO40">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP40">
+        <v>1.29</v>
+      </c>
+      <c r="AQ40">
         <v>1.68</v>
       </c>
-      <c r="AQ40">
+      <c r="AR40">
         <v>1.42</v>
       </c>
-      <c r="AR40">
-        <v>1.62</v>
-      </c>
       <c r="AS40">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AT40">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="AU40">
         <v>3</v>
@@ -9781,25 +9781,25 @@
         <v>2.38</v>
       </c>
       <c r="AN41">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="AP41">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ41">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR41">
-        <v>2.06</v>
+        <v>1.76</v>
       </c>
       <c r="AS41">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT41">
-        <v>3.56</v>
+        <v>3.31</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9987,25 +9987,25 @@
         <v>1.95</v>
       </c>
       <c r="AN42">
-        <v>2.33</v>
+        <v>1.86</v>
       </c>
       <c r="AO42">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AP42">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ42">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR42">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS42">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="AT42">
-        <v>2.94</v>
+        <v>2.82</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10193,25 +10193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO43">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP43">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR43">
+        <v>1.49</v>
+      </c>
+      <c r="AS43">
         <v>1.62</v>
       </c>
-      <c r="AS43">
-        <v>1.39</v>
-      </c>
       <c r="AT43">
-        <v>3.01</v>
+        <v>3.11</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10399,25 +10399,25 @@
         <v>2.25</v>
       </c>
       <c r="AN44">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP44">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ44">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="AS44">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AT44">
-        <v>3.21</v>
+        <v>3.53</v>
       </c>
       <c r="AU44">
         <v>10</v>
@@ -10605,25 +10605,25 @@
         <v>1.45</v>
       </c>
       <c r="AN45">
-        <v>3</v>
+        <v>1.71</v>
       </c>
       <c r="AO45">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP45">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR45">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AT45">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10811,25 +10811,25 @@
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AP46">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ46">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR46">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="AT46">
-        <v>2.34</v>
+        <v>2.67</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -11017,25 +11017,25 @@
         <v>1.55</v>
       </c>
       <c r="AN47">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO47">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR47">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AT47">
-        <v>3.08</v>
+        <v>3.02</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11223,25 +11223,25 @@
         <v>1.38</v>
       </c>
       <c r="AN48">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO48">
-        <v>0.75</v>
+        <v>1.71</v>
       </c>
       <c r="AP48">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR48">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AS48">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="AT48">
-        <v>3.21</v>
+        <v>3.19</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11429,25 +11429,25 @@
         <v>2.01</v>
       </c>
       <c r="AN49">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AO49">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AP49">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ49">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR49">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="AS49">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="AT49">
-        <v>3.07</v>
+        <v>3.41</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11635,25 +11635,25 @@
         <v>1.18</v>
       </c>
       <c r="AN50">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO50">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR50">
-        <v>1.21</v>
+        <v>1.31</v>
       </c>
       <c r="AS50">
-        <v>1.46</v>
+        <v>1.63</v>
       </c>
       <c r="AT50">
-        <v>2.67</v>
+        <v>2.94</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11841,25 +11841,25 @@
         <v>1.18</v>
       </c>
       <c r="AN51">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP51">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ51">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR51">
-        <v>1.63</v>
+        <v>1.22</v>
       </c>
       <c r="AS51">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AT51">
-        <v>3.44</v>
+        <v>3.12</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -12047,25 +12047,25 @@
         <v>2.05</v>
       </c>
       <c r="AN52">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP52">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ52">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR52">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AS52">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT52">
-        <v>3.28</v>
+        <v>3.08</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12253,25 +12253,25 @@
         <v>1.58</v>
       </c>
       <c r="AN53">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO53">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ53">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR53">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="AS53">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="AT53">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12459,25 +12459,25 @@
         <v>2.3</v>
       </c>
       <c r="AN54">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="AO54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ54">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR54">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AS54">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AT54">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12665,25 +12665,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO55">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP55">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ55">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="AS55">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AT55">
-        <v>3.14</v>
+        <v>2.64</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>2.84</v>
       </c>
       <c r="AN56">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ56">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR56">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="AS56">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="AT56">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="AU56">
         <v>11</v>
@@ -13077,25 +13077,25 @@
         <v>1.57</v>
       </c>
       <c r="AN57">
-        <v>3</v>
+        <v>1.88</v>
       </c>
       <c r="AO57">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AP57">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ57">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR57">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AS57">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AT57">
-        <v>3.55</v>
+        <v>3.41</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13283,25 +13283,25 @@
         <v>1.52</v>
       </c>
       <c r="AN58">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO58">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ58">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="AS58">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="AT58">
-        <v>3.02</v>
+        <v>2.91</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13489,25 +13489,25 @@
         <v>2.5</v>
       </c>
       <c r="AN59">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="AO59">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AP59">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ59">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR59">
-        <v>1.87</v>
+        <v>1.59</v>
       </c>
       <c r="AS59">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="AT59">
-        <v>3.34</v>
+        <v>3.14</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13695,25 +13695,25 @@
         <v>1.4</v>
       </c>
       <c r="AN60">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AO60">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AP60">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ60">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR60">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="AS60">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>2.7</v>
+        <v>2.96</v>
       </c>
       <c r="AU60">
         <v>4</v>
@@ -13901,25 +13901,25 @@
         <v>2</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>2.22</v>
       </c>
       <c r="AO61">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="AP61">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ61">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR61">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AS61">
         <v>1.51</v>
       </c>
       <c r="AT61">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14107,25 +14107,25 @@
         <v>1.5</v>
       </c>
       <c r="AN62">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO62">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AP62">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR62">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AS62">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AT62">
-        <v>3.49</v>
+        <v>3.37</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -14313,25 +14313,25 @@
         <v>1.3</v>
       </c>
       <c r="AN63">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO63">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ63">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AS63">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>3.71</v>
+        <v>3.75</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14522,22 +14522,22 @@
         <v>0.8</v>
       </c>
       <c r="AO64">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ64">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR64">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="AS64">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AT64">
-        <v>2.77</v>
+        <v>2.92</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14725,25 +14725,25 @@
         <v>2.55</v>
       </c>
       <c r="AN65">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ65">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR65">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AS65">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="AT65">
-        <v>2.49</v>
+        <v>2.63</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14931,25 +14931,25 @@
         <v>1.4</v>
       </c>
       <c r="AN66">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AO66">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="AP66">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ66">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR66">
-        <v>1.55</v>
+        <v>1.27</v>
       </c>
       <c r="AS66">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AT66">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15137,25 +15137,25 @@
         <v>2.5</v>
       </c>
       <c r="AN67">
-        <v>3</v>
+        <v>1.64</v>
       </c>
       <c r="AO67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR67">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="AS67">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="AT67">
-        <v>3.59</v>
+        <v>3.35</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15343,25 +15343,25 @@
         <v>2.55</v>
       </c>
       <c r="AN68">
-        <v>2.6</v>
+        <v>2.09</v>
       </c>
       <c r="AO68">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AP68">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ68">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR68">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS68">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AT68">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15549,25 +15549,25 @@
         <v>1.66</v>
       </c>
       <c r="AN69">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ69">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR69">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="AS69">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AT69">
-        <v>3.22</v>
+        <v>3.05</v>
       </c>
       <c r="AU69">
         <v>9</v>
@@ -15755,25 +15755,25 @@
         <v>1.75</v>
       </c>
       <c r="AN70">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>1.64</v>
       </c>
       <c r="AP70">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ70">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR70">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="AS70">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="AT70">
-        <v>3.04</v>
+        <v>3.29</v>
       </c>
       <c r="AU70">
         <v>10</v>
@@ -15961,25 +15961,25 @@
         <v>1.4</v>
       </c>
       <c r="AN71">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO71">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AP71">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR71">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS71">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="AT71">
-        <v>2.97</v>
+        <v>3.12</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16167,25 +16167,25 @@
         <v>1.18</v>
       </c>
       <c r="AN72">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AO72">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP72">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR72">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AS72">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="AT72">
-        <v>3.13</v>
+        <v>3.23</v>
       </c>
       <c r="AU72">
         <v>6</v>
@@ -16373,25 +16373,25 @@
         <v>1.63</v>
       </c>
       <c r="AN73">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>1.45</v>
       </c>
       <c r="AP73">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ73">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR73">
-        <v>1.84</v>
+        <v>1.6</v>
       </c>
       <c r="AS73">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT73">
-        <v>3.42</v>
+        <v>3.17</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16579,25 +16579,25 @@
         <v>1.7</v>
       </c>
       <c r="AN74">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AP74">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ74">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR74">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AS74">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="AT74">
-        <v>3.44</v>
+        <v>3.38</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16785,25 +16785,25 @@
         <v>2.15</v>
       </c>
       <c r="AN75">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AO75">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="AP75">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR75">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT75">
-        <v>3.06</v>
+        <v>2.79</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16991,25 +16991,25 @@
         <v>2</v>
       </c>
       <c r="AN76">
-        <v>0.83</v>
+        <v>0.45</v>
       </c>
       <c r="AO76">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ76">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR76">
-        <v>1.54</v>
+        <v>1.45</v>
       </c>
       <c r="AS76">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="AT76">
-        <v>2.57</v>
+        <v>2.73</v>
       </c>
       <c r="AU76">
         <v>6</v>
@@ -17197,25 +17197,25 @@
         <v>1.29</v>
       </c>
       <c r="AN77">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AO77">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP77">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ77">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS77">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="AT77">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17403,25 +17403,25 @@
         <v>2.6</v>
       </c>
       <c r="AN78">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="AO78">
-        <v>0.83</v>
+        <v>1.23</v>
       </c>
       <c r="AP78">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
-        <v>2.07</v>
+        <v>2.01</v>
       </c>
       <c r="AS78">
         <v>1.69</v>
       </c>
       <c r="AT78">
-        <v>3.76</v>
+        <v>3.7</v>
       </c>
       <c r="AU78">
         <v>12</v>
@@ -17609,25 +17609,25 @@
         <v>1.3</v>
       </c>
       <c r="AN79">
-        <v>1.83</v>
+        <v>1.23</v>
       </c>
       <c r="AO79">
-        <v>0.67</v>
+        <v>1.15</v>
       </c>
       <c r="AP79">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ79">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR79">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.61</v>
       </c>
       <c r="AT79">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17815,25 +17815,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="AO80">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AP80">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ80">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR80">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS80">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT80">
-        <v>2.95</v>
+        <v>3.06</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -18021,25 +18021,25 @@
         <v>1.8</v>
       </c>
       <c r="AN81">
-        <v>1.17</v>
+        <v>0.85</v>
       </c>
       <c r="AO81">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AP81">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR81">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="AS81">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AT81">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18227,25 +18227,25 @@
         <v>1.9</v>
       </c>
       <c r="AN82">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AO82">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ82">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR82">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS82">
-        <v>1.34</v>
+        <v>1.47</v>
       </c>
       <c r="AT82">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18433,25 +18433,25 @@
         <v>1.47</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO83">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AP83">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ83">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
       </c>
       <c r="AS83">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT83">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18639,25 +18639,25 @@
         <v>1.9</v>
       </c>
       <c r="AN84">
-        <v>2.29</v>
+        <v>1.5</v>
       </c>
       <c r="AO84">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AP84">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ84">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AS84">
         <v>1.7</v>
       </c>
       <c r="AT84">
-        <v>3.37</v>
+        <v>3.23</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18845,25 +18845,25 @@
         <v>1.5</v>
       </c>
       <c r="AN85">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AO85">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="AP85">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ85">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR85">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS85">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AT85">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="AU85">
         <v>10</v>
@@ -19051,25 +19051,25 @@
         <v>1.36</v>
       </c>
       <c r="AN86">
+        <v>1.21</v>
+      </c>
+      <c r="AO86">
+        <v>1.23</v>
+      </c>
+      <c r="AP86">
+        <v>1.24</v>
+      </c>
+      <c r="AQ86">
         <v>1.71</v>
       </c>
-      <c r="AO86">
-        <v>0.86</v>
-      </c>
-      <c r="AP86">
-        <v>2.11</v>
-      </c>
-      <c r="AQ86">
-        <v>1.68</v>
-      </c>
       <c r="AR86">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AS86">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AT86">
-        <v>3.05</v>
+        <v>2.78</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -19257,25 +19257,25 @@
         <v>1.95</v>
       </c>
       <c r="AN87">
-        <v>1.57</v>
+        <v>1.14</v>
       </c>
       <c r="AO87">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="AP87">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ87">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR87">
-        <v>1.83</v>
+        <v>1.63</v>
       </c>
       <c r="AS87">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
-        <v>3.17</v>
+        <v>2.96</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19463,25 +19463,25 @@
         <v>1.22</v>
       </c>
       <c r="AN88">
-        <v>1.14</v>
+        <v>0.62</v>
       </c>
       <c r="AO88">
-        <v>0.86</v>
+        <v>1.93</v>
       </c>
       <c r="AP88">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR88">
-        <v>1.55</v>
+        <v>1.46</v>
       </c>
       <c r="AS88">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="AT88">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19669,25 +19669,25 @@
         <v>2.25</v>
       </c>
       <c r="AN89">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AO89">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ89">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR89">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AS89">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AT89">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19875,25 +19875,25 @@
         <v>1.48</v>
       </c>
       <c r="AN90">
-        <v>1.43</v>
+        <v>0.93</v>
       </c>
       <c r="AO90">
-        <v>0.71</v>
+        <v>1.27</v>
       </c>
       <c r="AP90">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR90">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="AS90">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AT90">
-        <v>2.71</v>
+        <v>2.93</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20081,25 +20081,25 @@
         <v>1.45</v>
       </c>
       <c r="AN91">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AO91">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AP91">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ91">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR91">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS91">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="AT91">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20287,25 +20287,25 @@
         <v>1.73</v>
       </c>
       <c r="AN92">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="AO92">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AP92">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ92">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR92">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AS92">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AT92">
-        <v>3.62</v>
+        <v>3.53</v>
       </c>
       <c r="AU92">
         <v>10</v>
@@ -20493,25 +20493,25 @@
         <v>1.62</v>
       </c>
       <c r="AN93">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AO93">
-        <v>0.71</v>
+        <v>1.6</v>
       </c>
       <c r="AP93">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="AS93">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AT93">
-        <v>2.87</v>
+        <v>3.08</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20699,25 +20699,25 @@
         <v>3.1</v>
       </c>
       <c r="AN94">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO94">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="AP94">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR94">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="AS94">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="AT94">
-        <v>3.12</v>
+        <v>3.21</v>
       </c>
       <c r="AU94">
         <v>12</v>
@@ -20905,25 +20905,25 @@
         <v>1.83</v>
       </c>
       <c r="AN95">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="AO95">
-        <v>0.14</v>
+        <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ95">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR95">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="AS95">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AT95">
-        <v>2.72</v>
+        <v>2.93</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21111,25 +21111,25 @@
         <v>3</v>
       </c>
       <c r="AN96">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="AO96">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="AP96">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ96">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR96">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AS96">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AT96">
-        <v>3.14</v>
+        <v>2.95</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21317,25 +21317,25 @@
         <v>1.77</v>
       </c>
       <c r="AN97">
-        <v>1.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO97">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AP97">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR97">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="AS97">
         <v>1.34</v>
       </c>
       <c r="AT97">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21523,25 +21523,25 @@
         <v>1.73</v>
       </c>
       <c r="AN98">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO98">
-        <v>0.75</v>
+        <v>1.88</v>
       </c>
       <c r="AP98">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ98">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR98">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="AS98">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AT98">
-        <v>3.69</v>
+        <v>3.66</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21729,25 +21729,25 @@
         <v>1.45</v>
       </c>
       <c r="AN99">
-        <v>1.75</v>
+        <v>1.19</v>
       </c>
       <c r="AO99">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="AP99">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ99">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR99">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AS99">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="AT99">
-        <v>3.64</v>
+        <v>3.55</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -21935,25 +21935,25 @@
         <v>2</v>
       </c>
       <c r="AN100">
-        <v>1.63</v>
+        <v>1.38</v>
       </c>
       <c r="AO100">
-        <v>0.63</v>
+        <v>1.07</v>
       </c>
       <c r="AP100">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ100">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR100">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS100">
         <v>1.7</v>
       </c>
       <c r="AT100">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22141,25 +22141,25 @@
         <v>1.88</v>
       </c>
       <c r="AN101">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO101">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AP101">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR101">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS101">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AT101">
-        <v>3.07</v>
+        <v>3.13</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22347,25 +22347,25 @@
         <v>1.58</v>
       </c>
       <c r="AN102">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="AO102">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP102">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ102">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR102">
-        <v>1.41</v>
+        <v>1.24</v>
       </c>
       <c r="AS102">
         <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>2.71</v>
+        <v>2.54</v>
       </c>
       <c r="AU102">
         <v>9</v>
@@ -22553,25 +22553,25 @@
         <v>1.29</v>
       </c>
       <c r="AN103">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO103">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="AP103">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR103">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AS103">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AT103">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="AU103">
         <v>4</v>
@@ -22759,25 +22759,25 @@
         <v>1.67</v>
       </c>
       <c r="AN104">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="AO104">
+        <v>1.82</v>
+      </c>
+      <c r="AP104">
+        <v>1.5</v>
+      </c>
+      <c r="AQ104">
+        <v>1.58</v>
+      </c>
+      <c r="AR104">
+        <v>1.98</v>
+      </c>
+      <c r="AS104">
         <v>1.63</v>
       </c>
-      <c r="AP104">
-        <v>1.95</v>
-      </c>
-      <c r="AQ104">
-        <v>1.37</v>
-      </c>
-      <c r="AR104">
-        <v>2.13</v>
-      </c>
-      <c r="AS104">
-        <v>1.59</v>
-      </c>
       <c r="AT104">
-        <v>3.72</v>
+        <v>3.61</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -22965,25 +22965,25 @@
         <v>1.23</v>
       </c>
       <c r="AN105">
-        <v>0.88</v>
+        <v>0.65</v>
       </c>
       <c r="AO105">
-        <v>1.5</v>
+        <v>2.06</v>
       </c>
       <c r="AP105">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ105">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR105">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AS105">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="AT105">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23171,25 +23171,25 @@
         <v>2.2</v>
       </c>
       <c r="AN106">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="AO106">
-        <v>0.63</v>
+        <v>1.18</v>
       </c>
       <c r="AP106">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR106">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AS106">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
       <c r="AT106">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23377,25 +23377,25 @@
         <v>1.45</v>
       </c>
       <c r="AN107">
-        <v>1.75</v>
+        <v>1.12</v>
       </c>
       <c r="AO107">
-        <v>0.63</v>
+        <v>1.18</v>
       </c>
       <c r="AP107">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR107">
         <v>1.65</v>
       </c>
       <c r="AS107">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="AT107">
-        <v>3.13</v>
+        <v>3.27</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23583,25 +23583,25 @@
         <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>2.38</v>
+        <v>1.47</v>
       </c>
       <c r="AO108">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="AP108">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR108">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AS108">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AT108">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23789,25 +23789,25 @@
         <v>1.95</v>
       </c>
       <c r="AN109">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="AO109">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AP109">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ109">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR109">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="AS109">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AT109">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23995,25 +23995,25 @@
         <v>2.55</v>
       </c>
       <c r="AN110">
-        <v>2.56</v>
+        <v>2.11</v>
       </c>
       <c r="AO110">
-        <v>0.78</v>
+        <v>1.17</v>
       </c>
       <c r="AP110">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ110">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR110">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AS110">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT110">
-        <v>3.29</v>
+        <v>3.06</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24201,22 +24201,22 @@
         <v>1.39</v>
       </c>
       <c r="AN111">
-        <v>1.67</v>
+        <v>1.11</v>
       </c>
       <c r="AO111">
-        <v>0.67</v>
+        <v>1.83</v>
       </c>
       <c r="AP111">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ111">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR111">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AS111">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="AT111">
         <v>3.6</v>
@@ -24407,25 +24407,25 @@
         <v>2.2</v>
       </c>
       <c r="AN112">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="AO112">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ112">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR112">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="AS112">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24613,25 +24613,25 @@
         <v>2.05</v>
       </c>
       <c r="AN113">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="AO113">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="AP113">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ113">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR113">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AS113">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT113">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="AU113">
         <v>10</v>
@@ -24819,25 +24819,25 @@
         <v>1.3</v>
       </c>
       <c r="AN114">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO114">
-        <v>0.67</v>
+        <v>1.39</v>
       </c>
       <c r="AP114">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ114">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="AS114">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="AT114">
-        <v>2.94</v>
+        <v>2.89</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25025,25 +25025,25 @@
         <v>1.27</v>
       </c>
       <c r="AN115">
-        <v>1.89</v>
+        <v>1.22</v>
       </c>
       <c r="AO115">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="AP115">
+        <v>1.29</v>
+      </c>
+      <c r="AQ115">
+        <v>1.68</v>
+      </c>
+      <c r="AR115">
         <v>1.63</v>
       </c>
-      <c r="AQ115">
-        <v>1.42</v>
-      </c>
-      <c r="AR115">
-        <v>1.61</v>
-      </c>
       <c r="AS115">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="AT115">
-        <v>3.36</v>
+        <v>3.47</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25231,25 +25231,25 @@
         <v>2.9</v>
       </c>
       <c r="AN116">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="AO116">
-        <v>0.67</v>
+        <v>1.26</v>
       </c>
       <c r="AP116">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ116">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR116">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AS116">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT116">
-        <v>3.07</v>
+        <v>3.17</v>
       </c>
       <c r="AU116">
         <v>8</v>
@@ -25437,25 +25437,25 @@
         <v>1.44</v>
       </c>
       <c r="AN117">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="AO117">
-        <v>0.5600000000000001</v>
+        <v>1.21</v>
       </c>
       <c r="AP117">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ117">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR117">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS117">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="AT117">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25643,25 +25643,25 @@
         <v>1.3</v>
       </c>
       <c r="AN118">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO118">
-        <v>1.67</v>
+        <v>2.16</v>
       </c>
       <c r="AP118">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ118">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR118">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AS118">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AT118">
-        <v>3.01</v>
+        <v>3.14</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25849,25 +25849,25 @@
         <v>2.02</v>
       </c>
       <c r="AN119">
-        <v>3</v>
+        <v>1.89</v>
       </c>
       <c r="AO119">
-        <v>1.11</v>
+        <v>1.37</v>
       </c>
       <c r="AP119">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ119">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR119">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="AS119">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT119">
-        <v>3.66</v>
+        <v>3.45</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26055,25 +26055,25 @@
         <v>1.24</v>
       </c>
       <c r="AN120">
-        <v>1.56</v>
+        <v>1.11</v>
       </c>
       <c r="AO120">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="AP120">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR120">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AS120">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="AT120">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26261,25 +26261,25 @@
         <v>1.83</v>
       </c>
       <c r="AN121">
-        <v>2.11</v>
+        <v>1.32</v>
       </c>
       <c r="AO121">
-        <v>0.5600000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AP121">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR121">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AS121">
-        <v>1.51</v>
+        <v>1.63</v>
       </c>
       <c r="AT121">
-        <v>3.21</v>
+        <v>3.18</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26467,25 +26467,25 @@
         <v>1.57</v>
       </c>
       <c r="AN122">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AO122">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP122">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ122">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AS122">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="AT122">
-        <v>2.94</v>
+        <v>3.03</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26673,25 +26673,25 @@
         <v>3.2</v>
       </c>
       <c r="AN123">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AO123">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP123">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ123">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR123">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AS123">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="AT123">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AU123">
         <v>12</v>
@@ -26879,25 +26879,25 @@
         <v>2.1</v>
       </c>
       <c r="AN124">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AO124">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="AP124">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ124">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR124">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AS124">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AT124">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -27085,25 +27085,25 @@
         <v>2</v>
       </c>
       <c r="AN125">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AO125">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP125">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ125">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR125">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AS125">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="AT125">
-        <v>3.12</v>
+        <v>3.25</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27291,22 +27291,22 @@
         <v>1.8</v>
       </c>
       <c r="AN126">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AO126">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AP126">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR126">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AT126">
         <v>3.73</v>
@@ -27500,22 +27500,22 @@
         <v>0.7</v>
       </c>
       <c r="AO127">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="AP127">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ127">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR127">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AS127">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT127">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27703,25 +27703,25 @@
         <v>1.57</v>
       </c>
       <c r="AN128">
-        <v>1.7</v>
+        <v>1.19</v>
       </c>
       <c r="AO128">
-        <v>0.8</v>
+        <v>1.24</v>
       </c>
       <c r="AP128">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ128">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
       </c>
       <c r="AS128">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT128">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27909,25 +27909,25 @@
         <v>1.38</v>
       </c>
       <c r="AN129">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO129">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AP129">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ129">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR129">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AS129">
-        <v>1.49</v>
+        <v>1.76</v>
       </c>
       <c r="AT129">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -28115,25 +28115,25 @@
         <v>1.52</v>
       </c>
       <c r="AN130">
-        <v>1.4</v>
+        <v>1.19</v>
       </c>
       <c r="AO130">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AP130">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ130">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
       </c>
       <c r="AS130">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AT130">
-        <v>3.1</v>
+        <v>3.03</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28321,25 +28321,25 @@
         <v>1.25</v>
       </c>
       <c r="AN131">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="AO131">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AP131">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ131">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR131">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="AS131">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AT131">
-        <v>3.15</v>
+        <v>2.94</v>
       </c>
       <c r="AU131">
         <v>6</v>
@@ -28527,25 +28527,25 @@
         <v>1.47</v>
       </c>
       <c r="AN132">
-        <v>2.2</v>
+        <v>1.48</v>
       </c>
       <c r="AO132">
-        <v>0.9</v>
+        <v>1.71</v>
       </c>
       <c r="AP132">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR132">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS132">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AT132">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28733,25 +28733,25 @@
         <v>2.62</v>
       </c>
       <c r="AN133">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AO133">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ133">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR133">
-        <v>1.99</v>
+        <v>1.85</v>
       </c>
       <c r="AS133">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AT133">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28942,22 +28942,22 @@
         <v>0.64</v>
       </c>
       <c r="AO134">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="AP134">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ134">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR134">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS134">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AT134">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29145,25 +29145,25 @@
         <v>2.1</v>
       </c>
       <c r="AN135">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AO135">
-        <v>0.73</v>
+        <v>1.14</v>
       </c>
       <c r="AP135">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ135">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR135">
         <v>1.62</v>
       </c>
       <c r="AS135">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT135">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29351,25 +29351,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AO136">
-        <v>1.64</v>
+        <v>2.14</v>
       </c>
       <c r="AP136">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ136">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR136">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AT136">
-        <v>2.97</v>
+        <v>3.27</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29557,25 +29557,25 @@
         <v>1.45</v>
       </c>
       <c r="AN137">
-        <v>1.64</v>
+        <v>1.32</v>
       </c>
       <c r="AO137">
-        <v>0.82</v>
+        <v>1.55</v>
       </c>
       <c r="AP137">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ137">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
       </c>
       <c r="AS137">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="AT137">
-        <v>3.05</v>
+        <v>3.13</v>
       </c>
       <c r="AU137">
         <v>6</v>
@@ -29763,25 +29763,25 @@
         <v>1.42</v>
       </c>
       <c r="AN138">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="AO138">
-        <v>0.82</v>
+        <v>1.64</v>
       </c>
       <c r="AP138">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ138">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR138">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS138">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="AT138">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29969,25 +29969,25 @@
         <v>1.17</v>
       </c>
       <c r="AN139">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="AO139">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="AP139">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ139">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR139">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="AS139">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AT139">
-        <v>3.19</v>
+        <v>3.13</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30175,25 +30175,25 @@
         <v>2.2</v>
       </c>
       <c r="AN140">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="AO140">
-        <v>1</v>
+        <v>1.39</v>
       </c>
       <c r="AP140">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ140">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR140">
-        <v>1.96</v>
+        <v>1.84</v>
       </c>
       <c r="AS140">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AT140">
-        <v>3.53</v>
+        <v>3.4</v>
       </c>
       <c r="AU140">
         <v>5</v>
@@ -30381,25 +30381,25 @@
         <v>2.2</v>
       </c>
       <c r="AN141">
-        <v>1.36</v>
+        <v>0.96</v>
       </c>
       <c r="AO141">
-        <v>0.55</v>
+        <v>1.3</v>
       </c>
       <c r="AP141">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ141">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR141">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="AS141">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AT141">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30587,25 +30587,25 @@
         <v>1.47</v>
       </c>
       <c r="AN142">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="AO142">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP142">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR142">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS142">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT142">
-        <v>2.83</v>
+        <v>2.8</v>
       </c>
       <c r="AU142">
         <v>4</v>
@@ -30793,25 +30793,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.64</v>
+        <v>2.09</v>
       </c>
       <c r="AO143">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="AP143">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ143">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR143">
-        <v>2.01</v>
+        <v>1.76</v>
       </c>
       <c r="AS143">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="AT143">
-        <v>3.22</v>
+        <v>3.01</v>
       </c>
       <c r="AU143">
         <v>8</v>
@@ -30999,25 +30999,25 @@
         <v>1.55</v>
       </c>
       <c r="AN144">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="AO144">
-        <v>1.18</v>
+        <v>1.57</v>
       </c>
       <c r="AP144">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ144">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR144">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="AS144">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AT144">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31205,25 +31205,25 @@
         <v>1.83</v>
       </c>
       <c r="AN145">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AO145">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="AP145">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ145">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR145">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="AS145">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT145">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="AU145">
         <v>9</v>
@@ -31411,25 +31411,25 @@
         <v>2.82</v>
       </c>
       <c r="AN146">
-        <v>2.33</v>
+        <v>1.54</v>
       </c>
       <c r="AO146">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="AP146">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ146">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR146">
-        <v>1.93</v>
+        <v>1.84</v>
       </c>
       <c r="AS146">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AT146">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31617,25 +31617,25 @@
         <v>1.32</v>
       </c>
       <c r="AN147">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO147">
-        <v>0.92</v>
+        <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ147">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="AS147">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="AT147">
-        <v>2.93</v>
+        <v>2.75</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31823,25 +31823,25 @@
         <v>1.44</v>
       </c>
       <c r="AN148">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO148">
-        <v>0.75</v>
+        <v>1.42</v>
       </c>
       <c r="AP148">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ148">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
       </c>
       <c r="AS148">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="AT148">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32029,25 +32029,25 @@
         <v>1.47</v>
       </c>
       <c r="AN149">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AO149">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="AP149">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ149">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR149">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AS149">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="AT149">
-        <v>3.1</v>
+        <v>3.07</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32235,25 +32235,25 @@
         <v>1.83</v>
       </c>
       <c r="AN150">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="AO150">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AP150">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ150">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR150">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AS150">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="AT150">
-        <v>3.31</v>
+        <v>3.2</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32441,25 +32441,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>2.67</v>
+        <v>2.13</v>
       </c>
       <c r="AO151">
-        <v>1.58</v>
+        <v>1.83</v>
       </c>
       <c r="AP151">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ151">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR151">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="AS151">
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="AT151">
-        <v>3.73</v>
+        <v>3.63</v>
       </c>
       <c r="AU151">
         <v>5</v>
@@ -32647,25 +32647,25 @@
         <v>1.83</v>
       </c>
       <c r="AN152">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="AO152">
-        <v>0.75</v>
+        <v>1.6</v>
       </c>
       <c r="AP152">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ152">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR152">
-        <v>1.99</v>
+        <v>1.82</v>
       </c>
       <c r="AS152">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="AT152">
-        <v>3.73</v>
+        <v>3.66</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -32853,25 +32853,25 @@
         <v>1.44</v>
       </c>
       <c r="AN153">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AO153">
-        <v>0.67</v>
+        <v>1.12</v>
       </c>
       <c r="AP153">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ153">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR153">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AS153">
         <v>1.32</v>
       </c>
       <c r="AT153">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33059,25 +33059,25 @@
         <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="AO154">
-        <v>0.58</v>
+        <v>1.04</v>
       </c>
       <c r="AP154">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR154">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS154">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AT154">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="AU154">
         <v>6</v>
@@ -33265,25 +33265,25 @@
         <v>1.75</v>
       </c>
       <c r="AN155">
-        <v>2.08</v>
+        <v>1.48</v>
       </c>
       <c r="AO155">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="AP155">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ155">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR155">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AS155">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT155">
-        <v>3.12</v>
+        <v>3.04</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33471,25 +33471,25 @@
         <v>1.9</v>
       </c>
       <c r="AN156">
-        <v>1.75</v>
+        <v>1.36</v>
       </c>
       <c r="AO156">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP156">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR156">
         <v>1.55</v>
       </c>
       <c r="AS156">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AT156">
-        <v>2.67</v>
+        <v>2.86</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33677,25 +33677,25 @@
         <v>1.5</v>
       </c>
       <c r="AN157">
-        <v>1.92</v>
+        <v>1.56</v>
       </c>
       <c r="AO157">
+        <v>2.04</v>
+      </c>
+      <c r="AP157">
         <v>1.58</v>
       </c>
-      <c r="AP157">
+      <c r="AQ157">
+        <v>2.03</v>
+      </c>
+      <c r="AR157">
+        <v>1.58</v>
+      </c>
+      <c r="AS157">
         <v>1.79</v>
       </c>
-      <c r="AQ157">
-        <v>1.58</v>
-      </c>
-      <c r="AR157">
-        <v>1.54</v>
-      </c>
-      <c r="AS157">
-        <v>1.53</v>
-      </c>
       <c r="AT157">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33883,22 +33883,22 @@
         <v>1.66</v>
       </c>
       <c r="AN158">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="AO158">
-        <v>0.6899999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="AP158">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ158">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR158">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="AS158">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="AT158">
         <v>2.87</v>
@@ -34089,25 +34089,25 @@
         <v>1.18</v>
       </c>
       <c r="AN159">
-        <v>1.85</v>
+        <v>1.15</v>
       </c>
       <c r="AO159">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="AP159">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ159">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR159">
-        <v>1.48</v>
+        <v>1.32</v>
       </c>
       <c r="AS159">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AT159">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="AU159">
         <v>6</v>
@@ -34295,25 +34295,25 @@
         <v>1.8</v>
       </c>
       <c r="AN160">
-        <v>2.38</v>
+        <v>1.54</v>
       </c>
       <c r="AO160">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AP160">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ160">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="AS160">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT160">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34501,25 +34501,25 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="AO161">
-        <v>0.77</v>
+        <v>1.12</v>
       </c>
       <c r="AP161">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ161">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR161">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="AS161">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT161">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="AU161">
         <v>12</v>
@@ -34707,22 +34707,22 @@
         <v>1.3</v>
       </c>
       <c r="AN162">
-        <v>0.6899999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="AO162">
-        <v>0.92</v>
+        <v>1.42</v>
       </c>
       <c r="AP162">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ162">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR162">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AT162">
         <v>2.78</v>
@@ -34913,25 +34913,25 @@
         <v>2.05</v>
       </c>
       <c r="AN163">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="AO163">
-        <v>1.08</v>
+        <v>1.19</v>
       </c>
       <c r="AP163">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ163">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR163">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="AS163">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT163">
-        <v>3.57</v>
+        <v>3.28</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35119,25 +35119,25 @@
         <v>1.83</v>
       </c>
       <c r="AN164">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP164">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ164">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR164">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS164">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="AT164">
-        <v>3</v>
+        <v>3.06</v>
       </c>
       <c r="AU164">
         <v>6</v>
@@ -35325,25 +35325,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.54</v>
+        <v>1.07</v>
       </c>
       <c r="AO165">
-        <v>0.6899999999999999</v>
+        <v>1.48</v>
       </c>
       <c r="AP165">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ165">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR165">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS165">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="AT165">
-        <v>3.06</v>
+        <v>3.15</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35531,25 +35531,25 @@
         <v>2.35</v>
       </c>
       <c r="AN166">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="AO166">
-        <v>0.46</v>
+        <v>1.22</v>
       </c>
       <c r="AP166">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ166">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR166">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.15</v>
+        <v>1.32</v>
       </c>
       <c r="AT166">
-        <v>2.61</v>
+        <v>2.82</v>
       </c>
       <c r="AU166">
         <v>7</v>
@@ -35737,25 +35737,25 @@
         <v>2.6</v>
       </c>
       <c r="AN167">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO167">
-        <v>0.54</v>
+        <v>0.7</v>
       </c>
       <c r="AP167">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ167">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR167">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AS167">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AT167">
-        <v>2.69</v>
+        <v>2.82</v>
       </c>
       <c r="AU167">
         <v>9</v>
@@ -35943,25 +35943,25 @@
         <v>1.35</v>
       </c>
       <c r="AN168">
-        <v>1.46</v>
+        <v>1.07</v>
       </c>
       <c r="AO168">
-        <v>1.46</v>
+        <v>2</v>
       </c>
       <c r="AP168">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ168">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR168">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="AS168">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="AT168">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36149,25 +36149,25 @@
         <v>1.44</v>
       </c>
       <c r="AN169">
-        <v>1.92</v>
+        <v>1.37</v>
       </c>
       <c r="AO169">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="AP169">
+        <v>1.29</v>
+      </c>
+      <c r="AQ169">
         <v>1.68</v>
       </c>
-      <c r="AQ169">
-        <v>1.42</v>
-      </c>
       <c r="AR169">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AS169">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AT169">
-        <v>3.27</v>
+        <v>3.43</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36355,25 +36355,25 @@
         <v>1.22</v>
       </c>
       <c r="AN170">
+        <v>1.46</v>
+      </c>
+      <c r="AO170">
         <v>1.93</v>
       </c>
-      <c r="AO170">
-        <v>1.64</v>
-      </c>
       <c r="AP170">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ170">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR170">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS170">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AT170">
-        <v>3.23</v>
+        <v>3.4</v>
       </c>
       <c r="AU170">
         <v>7</v>
@@ -36561,25 +36561,25 @@
         <v>1.18</v>
       </c>
       <c r="AN171">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AO171">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AP171">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ171">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR171">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="AS171">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="AT171">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36767,25 +36767,25 @@
         <v>1.5</v>
       </c>
       <c r="AN172">
+        <v>1.14</v>
+      </c>
+      <c r="AO172">
+        <v>1.54</v>
+      </c>
+      <c r="AP172">
         <v>1.29</v>
       </c>
-      <c r="AO172">
-        <v>1.14</v>
-      </c>
-      <c r="AP172">
-        <v>1.42</v>
-      </c>
       <c r="AQ172">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
       </c>
       <c r="AS172">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AT172">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU172">
         <v>4</v>
@@ -36973,25 +36973,25 @@
         <v>1.12</v>
       </c>
       <c r="AN173">
+        <v>1.18</v>
+      </c>
+      <c r="AO173">
         <v>1.93</v>
       </c>
-      <c r="AO173">
-        <v>1.36</v>
-      </c>
       <c r="AP173">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ173">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR173">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="AS173">
-        <v>1.51</v>
+        <v>1.78</v>
       </c>
       <c r="AT173">
-        <v>2.99</v>
+        <v>3.09</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37179,25 +37179,25 @@
         <v>1.47</v>
       </c>
       <c r="AN174">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="AO174">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AP174">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ174">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR174">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS174">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AT174">
-        <v>2.81</v>
+        <v>2.95</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37385,25 +37385,25 @@
         <v>1.72</v>
       </c>
       <c r="AN175">
-        <v>2.21</v>
+        <v>1.46</v>
       </c>
       <c r="AO175">
-        <v>0.86</v>
+        <v>1.36</v>
       </c>
       <c r="AP175">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ175">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR175">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AS175">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AT175">
-        <v>3.41</v>
+        <v>3.43</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37591,25 +37591,25 @@
         <v>1.75</v>
       </c>
       <c r="AN176">
+        <v>1.69</v>
+      </c>
+      <c r="AO176">
+        <v>1.14</v>
+      </c>
+      <c r="AP176">
         <v>1.71</v>
       </c>
-      <c r="AO176">
-        <v>1</v>
-      </c>
-      <c r="AP176">
-        <v>1.74</v>
-      </c>
       <c r="AQ176">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR176">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AS176">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="AT176">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="AU176">
         <v>4</v>
@@ -37797,25 +37797,25 @@
         <v>3.4</v>
       </c>
       <c r="AN177">
-        <v>2.21</v>
+        <v>1.86</v>
       </c>
       <c r="AO177">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP177">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ177">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR177">
-        <v>2.05</v>
+        <v>1.84</v>
       </c>
       <c r="AS177">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AT177">
-        <v>3.21</v>
+        <v>3.04</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -38003,25 +38003,25 @@
         <v>2</v>
       </c>
       <c r="AN178">
-        <v>1.93</v>
+        <v>1.52</v>
       </c>
       <c r="AO178">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="AP178">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ178">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR178">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="AS178">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AT178">
-        <v>3.09</v>
+        <v>3.16</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38209,25 +38209,25 @@
         <v>1.48</v>
       </c>
       <c r="AN179">
-        <v>1.57</v>
+        <v>1.21</v>
       </c>
       <c r="AO179">
-        <v>0.71</v>
+        <v>1.45</v>
       </c>
       <c r="AP179">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ179">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR179">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="AS179">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AT179">
-        <v>3.56</v>
+        <v>3.47</v>
       </c>
       <c r="AU179">
         <v>7</v>
@@ -38415,25 +38415,25 @@
         <v>2.85</v>
       </c>
       <c r="AN180">
-        <v>1.86</v>
+        <v>1.34</v>
       </c>
       <c r="AO180">
-        <v>0.43</v>
+        <v>1.17</v>
       </c>
       <c r="AP180">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ180">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR180">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AS180">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="AT180">
-        <v>2.77</v>
+        <v>2.87</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38621,25 +38621,25 @@
         <v>2.4</v>
       </c>
       <c r="AN181">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="AO181">
-        <v>0.64</v>
+        <v>1.03</v>
       </c>
       <c r="AP181">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ181">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR181">
-        <v>2.05</v>
+        <v>1.77</v>
       </c>
       <c r="AS181">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT181">
-        <v>3.4</v>
+        <v>3.09</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38827,25 +38827,25 @@
         <v>1.22</v>
       </c>
       <c r="AN182">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="AO182">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AP182">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ182">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR182">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AS182">
         <v>1.52</v>
       </c>
       <c r="AT182">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="AU182">
         <v>0</v>
@@ -39033,25 +39033,25 @@
         <v>1.37</v>
       </c>
       <c r="AN183">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO183">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AP183">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ183">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR183">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AS183">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AT183">
-        <v>3.14</v>
+        <v>3.07</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39239,25 +39239,25 @@
         <v>1.93</v>
       </c>
       <c r="AN184">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="AO184">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AP184">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ184">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR184">
-        <v>2.04</v>
+        <v>1.84</v>
       </c>
       <c r="AS184">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT184">
-        <v>3.69</v>
+        <v>3.44</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39445,25 +39445,25 @@
         <v>1.78</v>
       </c>
       <c r="AN185">
-        <v>1.93</v>
+        <v>1.4</v>
       </c>
       <c r="AO185">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
       <c r="AP185">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ185">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR185">
+        <v>1.58</v>
+      </c>
+      <c r="AS185">
         <v>1.63</v>
       </c>
-      <c r="AS185">
-        <v>1.48</v>
-      </c>
       <c r="AT185">
-        <v>3.11</v>
+        <v>3.21</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39651,25 +39651,25 @@
         <v>1.54</v>
       </c>
       <c r="AN186">
-        <v>2.13</v>
+        <v>1.43</v>
       </c>
       <c r="AO186">
-        <v>1.33</v>
+        <v>1.93</v>
       </c>
       <c r="AP186">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ186">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR186">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="AS186">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="AT186">
-        <v>3.39</v>
+        <v>3.61</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39857,25 +39857,25 @@
         <v>1.47</v>
       </c>
       <c r="AN187">
-        <v>1.87</v>
+        <v>1.13</v>
       </c>
       <c r="AO187">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP187">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ187">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR187">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="AS187">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AT187">
-        <v>2.8</v>
+        <v>2.61</v>
       </c>
       <c r="AU187">
         <v>10</v>
@@ -40063,25 +40063,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>1.4</v>
+        <v>0.97</v>
       </c>
       <c r="AO188">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AP188">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ188">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR188">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS188">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT188">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="AU188">
         <v>2</v>
@@ -40269,25 +40269,25 @@
         <v>1.53</v>
       </c>
       <c r="AN189">
-        <v>1.53</v>
+        <v>1.19</v>
       </c>
       <c r="AO189">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="AP189">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ189">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR189">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="AS189">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="AT189">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40475,25 +40475,25 @@
         <v>2.7</v>
       </c>
       <c r="AN190">
-        <v>2.06</v>
+        <v>1.42</v>
       </c>
       <c r="AO190">
-        <v>0.4</v>
+        <v>1.19</v>
       </c>
       <c r="AP190">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ190">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR190">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="AS190">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AT190">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="AU190">
         <v>8</v>
@@ -40681,25 +40681,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AO191">
+        <v>1.74</v>
+      </c>
+      <c r="AP191">
+        <v>1.29</v>
+      </c>
+      <c r="AQ191">
+        <v>1.68</v>
+      </c>
+      <c r="AR191">
         <v>1.53</v>
       </c>
-      <c r="AP191">
-        <v>1.42</v>
-      </c>
-      <c r="AQ191">
-        <v>1.42</v>
-      </c>
-      <c r="AR191">
-        <v>1.51</v>
-      </c>
       <c r="AS191">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AT191">
-        <v>3.15</v>
+        <v>3.37</v>
       </c>
       <c r="AU191">
         <v>5</v>
@@ -40887,22 +40887,22 @@
         <v>1.33</v>
       </c>
       <c r="AN192">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="AO192">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AP192">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ192">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR192">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS192">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT192">
         <v>2.73</v>
@@ -41093,25 +41093,25 @@
         <v>1.95</v>
       </c>
       <c r="AN193">
-        <v>2.53</v>
+        <v>1.9</v>
       </c>
       <c r="AO193">
-        <v>0.87</v>
+        <v>1.39</v>
       </c>
       <c r="AP193">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ193">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR193">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="AS193">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="AT193">
-        <v>3.53</v>
+        <v>3.33</v>
       </c>
       <c r="AU193">
         <v>12</v>
@@ -41299,25 +41299,25 @@
         <v>2.45</v>
       </c>
       <c r="AN194">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="AO194">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP194">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ194">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR194">
-        <v>2.02</v>
+        <v>1.82</v>
       </c>
       <c r="AS194">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT194">
-        <v>3.36</v>
+        <v>3.13</v>
       </c>
       <c r="AU194">
         <v>5</v>
@@ -41505,25 +41505,25 @@
         <v>1.73</v>
       </c>
       <c r="AN195">
-        <v>1.94</v>
+        <v>1.16</v>
       </c>
       <c r="AO195">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="AP195">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ195">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR195">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AS195">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AT195">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41711,25 +41711,25 @@
         <v>1.73</v>
       </c>
       <c r="AN196">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AO196">
-        <v>0.88</v>
+        <v>1.25</v>
       </c>
       <c r="AP196">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ196">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR196">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AS196">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AT196">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -41917,25 +41917,25 @@
         <v>1.83</v>
       </c>
       <c r="AN197">
-        <v>1.88</v>
+        <v>1.34</v>
       </c>
       <c r="AO197">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AP197">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ197">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR197">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="AS197">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT197">
-        <v>3.19</v>
+        <v>3.11</v>
       </c>
       <c r="AU197">
         <v>6</v>
@@ -42123,25 +42123,25 @@
         <v>1.33</v>
       </c>
       <c r="AN198">
+        <v>1.53</v>
+      </c>
+      <c r="AO198">
         <v>1.94</v>
       </c>
-      <c r="AO198">
-        <v>1.31</v>
-      </c>
       <c r="AP198">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ198">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR198">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS198">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="AT198">
-        <v>3.09</v>
+        <v>3.34</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42329,25 +42329,25 @@
         <v>1.62</v>
       </c>
       <c r="AN199">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="AO199">
-        <v>0.73</v>
+        <v>1.47</v>
       </c>
       <c r="AP199">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ199">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR199">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS199">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="AT199">
-        <v>3.38</v>
+        <v>3.47</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -42535,25 +42535,25 @@
         <v>2</v>
       </c>
       <c r="AN200">
-        <v>1.31</v>
+        <v>0.91</v>
       </c>
       <c r="AO200">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="AP200">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ200">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR200">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AS200">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AT200">
-        <v>2.44</v>
+        <v>2.47</v>
       </c>
       <c r="AU200">
         <v>5</v>
@@ -42741,25 +42741,25 @@
         <v>2.5</v>
       </c>
       <c r="AN201">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AO201">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="AP201">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ201">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR201">
-        <v>1.99</v>
+        <v>1.81</v>
       </c>
       <c r="AS201">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT201">
-        <v>3.53</v>
+        <v>3.38</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42947,25 +42947,25 @@
         <v>1.7</v>
       </c>
       <c r="AN202">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="AO202">
-        <v>0.88</v>
+        <v>1.52</v>
       </c>
       <c r="AP202">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ202">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR202">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AS202">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AT202">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="AU202">
         <v>5</v>
@@ -43153,25 +43153,25 @@
         <v>1.66</v>
       </c>
       <c r="AN203">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="AO203">
-        <v>0.8100000000000001</v>
+        <v>1.33</v>
       </c>
       <c r="AP203">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ203">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR203">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AS203">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AT203">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43359,25 +43359,25 @@
         <v>1.47</v>
       </c>
       <c r="AN204">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="AO204">
-        <v>1.41</v>
+        <v>1.97</v>
       </c>
       <c r="AP204">
+        <v>1.58</v>
+      </c>
+      <c r="AQ204">
+        <v>2.03</v>
+      </c>
+      <c r="AR204">
+        <v>1.6</v>
+      </c>
+      <c r="AS204">
         <v>1.79</v>
       </c>
-      <c r="AQ204">
-        <v>1.58</v>
-      </c>
-      <c r="AR204">
-        <v>1.52</v>
-      </c>
-      <c r="AS204">
-        <v>1.54</v>
-      </c>
       <c r="AT204">
-        <v>3.06</v>
+        <v>3.39</v>
       </c>
       <c r="AU204">
         <v>4</v>
@@ -43565,25 +43565,25 @@
         <v>1.3</v>
       </c>
       <c r="AN205">
-        <v>2</v>
+        <v>1.21</v>
       </c>
       <c r="AO205">
-        <v>0.82</v>
+        <v>1.21</v>
       </c>
       <c r="AP205">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ205">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR205">
-        <v>1.49</v>
+        <v>1.31</v>
       </c>
       <c r="AS205">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="AT205">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -43771,25 +43771,25 @@
         <v>1.65</v>
       </c>
       <c r="AN206">
-        <v>1.63</v>
+        <v>1.18</v>
       </c>
       <c r="AO206">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="AP206">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ206">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR206">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="AS206">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="AT206">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="AU206">
         <v>7</v>
@@ -43977,25 +43977,25 @@
         <v>2.04</v>
       </c>
       <c r="AN207">
-        <v>1.82</v>
+        <v>1.32</v>
       </c>
       <c r="AO207">
-        <v>0.53</v>
+        <v>0.97</v>
       </c>
       <c r="AP207">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ207">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR207">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AS207">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT207">
-        <v>2.96</v>
+        <v>2.9</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44183,25 +44183,25 @@
         <v>1.9</v>
       </c>
       <c r="AN208">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="AO208">
+        <v>1.74</v>
+      </c>
+      <c r="AP208">
+        <v>2.03</v>
+      </c>
+      <c r="AQ208">
         <v>1.71</v>
       </c>
-      <c r="AP208">
-        <v>2.47</v>
-      </c>
-      <c r="AQ208">
-        <v>1.68</v>
-      </c>
       <c r="AR208">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AS208">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AT208">
-        <v>3.58</v>
+        <v>3.28</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44389,25 +44389,25 @@
         <v>1.51</v>
       </c>
       <c r="AN209">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="AO209">
-        <v>0.38</v>
+        <v>1.26</v>
       </c>
       <c r="AP209">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ209">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR209">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AS209">
-        <v>1.12</v>
+        <v>1.32</v>
       </c>
       <c r="AT209">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="AU209">
         <v>6</v>
@@ -44595,25 +44595,25 @@
         <v>1.36</v>
       </c>
       <c r="AN210">
-        <v>1.82</v>
+        <v>1.44</v>
       </c>
       <c r="AO210">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AP210">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ210">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR210">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AS210">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT210">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="AU210">
         <v>4</v>
@@ -44801,25 +44801,25 @@
         <v>1.47</v>
       </c>
       <c r="AN211">
-        <v>2.12</v>
+        <v>1.56</v>
       </c>
       <c r="AO211">
-        <v>1.44</v>
+        <v>1.76</v>
       </c>
       <c r="AP211">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ211">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR211">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AS211">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="AT211">
-        <v>3.51</v>
+        <v>3.62</v>
       </c>
       <c r="AU211">
         <v>5</v>
@@ -45007,25 +45007,25 @@
         <v>2.45</v>
       </c>
       <c r="AN212">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AO212">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="AP212">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ212">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR212">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AS212">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AT212">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AU212">
         <v>6</v>
@@ -45213,25 +45213,25 @@
         <v>2</v>
       </c>
       <c r="AN213">
-        <v>1.41</v>
+        <v>0.97</v>
       </c>
       <c r="AO213">
-        <v>0.35</v>
+        <v>1.23</v>
       </c>
       <c r="AP213">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ213">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR213">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AS213">
-        <v>1.13</v>
+        <v>1.31</v>
       </c>
       <c r="AT213">
-        <v>2.42</v>
+        <v>2.63</v>
       </c>
       <c r="AU213">
         <v>7</v>
@@ -45419,25 +45419,25 @@
         <v>1.62</v>
       </c>
       <c r="AN214">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="AO214">
-        <v>0.82</v>
+        <v>1.31</v>
       </c>
       <c r="AP214">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ214">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR214">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="AS214">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AT214">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45625,25 +45625,25 @@
         <v>1.45</v>
       </c>
       <c r="AN215">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AO215">
-        <v>1.41</v>
+        <v>1.74</v>
       </c>
       <c r="AP215">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ215">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR215">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AS215">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AT215">
-        <v>3.13</v>
+        <v>3.4</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45831,25 +45831,25 @@
         <v>2.15</v>
       </c>
       <c r="AN216">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="AO216">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="AP216">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ216">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR216">
         <v>1.48</v>
       </c>
       <c r="AS216">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="AT216">
-        <v>2.99</v>
+        <v>3.03</v>
       </c>
       <c r="AU216">
         <v>10</v>
@@ -46037,25 +46037,25 @@
         <v>1.7</v>
       </c>
       <c r="AN217">
-        <v>2.41</v>
+        <v>1.94</v>
       </c>
       <c r="AO217">
-        <v>1</v>
+        <v>1.54</v>
       </c>
       <c r="AP217">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ217">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR217">
-        <v>2.07</v>
+        <v>1.8</v>
       </c>
       <c r="AS217">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="AT217">
-        <v>3.8</v>
+        <v>3.59</v>
       </c>
       <c r="AU217">
         <v>8</v>
@@ -46243,25 +46243,25 @@
         <v>1.52</v>
       </c>
       <c r="AN218">
-        <v>1.5</v>
+        <v>1.03</v>
       </c>
       <c r="AO218">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AP218">
-        <v>1.42</v>
+        <v>1</v>
       </c>
       <c r="AQ218">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="AR218">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AS218">
         <v>1.52</v>
       </c>
       <c r="AT218">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AU218">
         <v>2</v>
@@ -46449,25 +46449,25 @@
         <v>1.21</v>
       </c>
       <c r="AN219">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="AO219">
-        <v>0.78</v>
+        <v>1.14</v>
       </c>
       <c r="AP219">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AQ219">
-        <v>0.89</v>
+        <v>1.18</v>
       </c>
       <c r="AR219">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AS219">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="AT219">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="AU219">
         <v>3</v>
@@ -46655,25 +46655,25 @@
         <v>1.34</v>
       </c>
       <c r="AN220">
-        <v>2.06</v>
+        <v>1.19</v>
       </c>
       <c r="AO220">
-        <v>0.9399999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="AP220">
-        <v>2.11</v>
+        <v>1.24</v>
       </c>
       <c r="AQ220">
-        <v>0.89</v>
+        <v>1.29</v>
       </c>
       <c r="AR220">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
       <c r="AS220">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AT220">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46861,25 +46861,25 @@
         <v>1.73</v>
       </c>
       <c r="AN221">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="AO221">
-        <v>1.5</v>
+        <v>1.97</v>
       </c>
       <c r="AP221">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AQ221">
-        <v>1.58</v>
+        <v>2.03</v>
       </c>
       <c r="AR221">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="AS221">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
       <c r="AT221">
-        <v>3.53</v>
+        <v>3.61</v>
       </c>
       <c r="AU221">
         <v>0</v>
@@ -47067,25 +47067,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="AO222">
-        <v>0.9399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AP222">
-        <v>1.63</v>
+        <v>1.29</v>
       </c>
       <c r="AQ222">
-        <v>1.05</v>
+        <v>1.5</v>
       </c>
       <c r="AR222">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AS222">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="AT222">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47273,25 +47273,25 @@
         <v>1.62</v>
       </c>
       <c r="AN223">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="AO223">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AP223">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="AQ223">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AR223">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="AS223">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AT223">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47479,25 +47479,25 @@
         <v>2.25</v>
       </c>
       <c r="AN224">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AO224">
-        <v>0.33</v>
+        <v>1.24</v>
       </c>
       <c r="AP224">
-        <v>1.42</v>
+        <v>1.29</v>
       </c>
       <c r="AQ224">
-        <v>0.37</v>
+        <v>1.24</v>
       </c>
       <c r="AR224">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS224">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="AT224">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47685,25 +47685,25 @@
         <v>1.91</v>
       </c>
       <c r="AN225">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="AO225">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AP225">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="AQ225">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="AR225">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AS225">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AT225">
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
       <c r="AU225">
         <v>5</v>
@@ -47891,25 +47891,25 @@
         <v>2.7</v>
       </c>
       <c r="AN226">
-        <v>1.78</v>
+        <v>1.32</v>
       </c>
       <c r="AO226">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="AP226">
-        <v>1.68</v>
+        <v>1.29</v>
       </c>
       <c r="AQ226">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="AR226">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AS226">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AT226">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AU226">
         <v>6</v>
@@ -48097,25 +48097,25 @@
         <v>1.79</v>
       </c>
       <c r="AN227">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="AO227">
-        <v>1.28</v>
+        <v>1.54</v>
       </c>
       <c r="AP227">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AQ227">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="AR227">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="AS227">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT227">
-        <v>3.53</v>
+        <v>3.37</v>
       </c>
       <c r="AU227">
         <v>9</v>
@@ -48303,25 +48303,25 @@
         <v>1.53</v>
       </c>
       <c r="AN228">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="AO228">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="AP228">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AQ228">
-        <v>1.42</v>
+        <v>1.68</v>
       </c>
       <c r="AR228">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AS228">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AT228">
-        <v>3.15</v>
+        <v>3.33</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48509,25 +48509,25 @@
         <v>2.53</v>
       </c>
       <c r="AN229">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="AO229">
-        <v>1</v>
+        <v>1.32</v>
       </c>
       <c r="AP229">
-        <v>2.47</v>
+        <v>2.03</v>
       </c>
       <c r="AQ229">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="AR229">
-        <v>2.09</v>
+        <v>1.81</v>
       </c>
       <c r="AS229">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AT229">
-        <v>3.62</v>
+        <v>3.37</v>
       </c>
       <c r="AU229">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -1753,10 +1753,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ2">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2165,10 +2165,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ5">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ6">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2783,10 +2783,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ7">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2989,19 +2989,19 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR8">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.03</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>7</v>
@@ -3189,25 +3189,25 @@
         <v>1.5</v>
       </c>
       <c r="AN9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ9">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR9">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.56</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>4.09</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>4</v>
@@ -3395,25 +3395,25 @@
         <v>1.95</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ10">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR10">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>3.39</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>5</v>
@@ -3601,25 +3601,25 @@
         <v>2.25</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ11">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR11">
-        <v>1.14</v>
+        <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AT11">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3810,22 +3810,22 @@
         <v>0</v>
       </c>
       <c r="AO12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR12">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.09</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>12</v>
@@ -4016,22 +4016,22 @@
         <v>0</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ13">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR13">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="AU13">
         <v>4</v>
@@ -4219,25 +4219,25 @@
         <v>3.9</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR14">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="AS14">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AT14">
-        <v>3.57</v>
+        <v>3.51</v>
       </c>
       <c r="AU14">
         <v>9</v>
@@ -4428,22 +4428,22 @@
         <v>0</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP15">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ15">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR15">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AS15">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AT15">
-        <v>2.81</v>
+        <v>2.87</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4631,25 +4631,25 @@
         <v>1.59</v>
       </c>
       <c r="AN16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO16">
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ16">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR16">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AS16">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AT16">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="AU16">
         <v>8</v>
@@ -4837,25 +4837,25 @@
         <v>2</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ17">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR17">
-        <v>1.56</v>
+        <v>1.98</v>
       </c>
       <c r="AS17">
-        <v>1.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AT17">
-        <v>2.66</v>
+        <v>2.79</v>
       </c>
       <c r="AU17">
         <v>8</v>
@@ -5043,25 +5043,25 @@
         <v>1.42</v>
       </c>
       <c r="AN18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO18">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ18">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR18">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="AS18">
-        <v>1.83</v>
+        <v>0.96</v>
       </c>
       <c r="AT18">
-        <v>3.16</v>
+        <v>1.85</v>
       </c>
       <c r="AU18">
         <v>5</v>
@@ -5249,25 +5249,25 @@
         <v>2.05</v>
       </c>
       <c r="AN19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ19">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR19">
-        <v>2.07</v>
+        <v>2.56</v>
       </c>
       <c r="AS19">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AT19">
-        <v>3.48</v>
+        <v>3.7</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5455,25 +5455,25 @@
         <v>1.22</v>
       </c>
       <c r="AN20">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO20">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP20">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ20">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR20">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS20">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AT20">
-        <v>3.16</v>
+        <v>3.18</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5661,25 +5661,25 @@
         <v>1.65</v>
       </c>
       <c r="AN21">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR21">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AS21">
-        <v>1.27</v>
+        <v>1.77</v>
       </c>
       <c r="AT21">
-        <v>3.14</v>
+        <v>3.9</v>
       </c>
       <c r="AU21">
         <v>9</v>
@@ -5867,25 +5867,25 @@
         <v>1.55</v>
       </c>
       <c r="AN22">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR22">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AS22">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="AT22">
-        <v>3.49</v>
+        <v>2.99</v>
       </c>
       <c r="AU22">
         <v>6</v>
@@ -6073,25 +6073,25 @@
         <v>1.88</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ23">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR23">
-        <v>1.94</v>
+        <v>2.71</v>
       </c>
       <c r="AS23">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="AT23">
-        <v>3.64</v>
+        <v>3.85</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -6279,25 +6279,25 @@
         <v>2.88</v>
       </c>
       <c r="AN24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP24">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ24">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR24">
-        <v>1.24</v>
+        <v>1.13</v>
       </c>
       <c r="AS24">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="AT24">
-        <v>2.36</v>
+        <v>2.11</v>
       </c>
       <c r="AU24">
         <v>10</v>
@@ -6485,25 +6485,25 @@
         <v>1.25</v>
       </c>
       <c r="AN25">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ25">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR25">
-        <v>1.2</v>
+        <v>1.68</v>
       </c>
       <c r="AS25">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AT25">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6691,25 +6691,25 @@
         <v>1.55</v>
       </c>
       <c r="AN26">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO26">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP26">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR26">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS26">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT26">
-        <v>3.86</v>
+        <v>3.93</v>
       </c>
       <c r="AU26">
         <v>2</v>
@@ -6900,22 +6900,22 @@
         <v>1</v>
       </c>
       <c r="AO27">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP27">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ27">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR27">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AS27">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AT27">
-        <v>2.54</v>
+        <v>2.86</v>
       </c>
       <c r="AU27">
         <v>7</v>
@@ -7103,25 +7103,25 @@
         <v>1.36</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO28">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
-        <v>1.19</v>
+        <v>1.02</v>
       </c>
       <c r="AS28">
-        <v>1.26</v>
+        <v>0.96</v>
       </c>
       <c r="AT28">
-        <v>2.45</v>
+        <v>1.98</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -7309,25 +7309,25 @@
         <v>2.05</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR29">
-        <v>1.69</v>
+        <v>1.98</v>
       </c>
       <c r="AS29">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT29">
-        <v>3.51</v>
+        <v>3.73</v>
       </c>
       <c r="AU29">
         <v>6</v>
@@ -7515,25 +7515,25 @@
         <v>2.3</v>
       </c>
       <c r="AN30">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP30">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ30">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR30">
-        <v>2.03</v>
+        <v>2.28</v>
       </c>
       <c r="AS30">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AT30">
-        <v>3.81</v>
+        <v>3.69</v>
       </c>
       <c r="AU30">
         <v>4</v>
@@ -7721,25 +7721,25 @@
         <v>1.58</v>
       </c>
       <c r="AN31">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AO31">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AP31">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR31">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AS31">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>2.58</v>
+        <v>2.63</v>
       </c>
       <c r="AU31">
         <v>5</v>
@@ -7927,25 +7927,25 @@
         <v>2</v>
       </c>
       <c r="AN32">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO32">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR32">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="AS32">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="AT32">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -8133,25 +8133,25 @@
         <v>1.32</v>
       </c>
       <c r="AN33">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AO33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP33">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ33">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR33">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="AS33">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="AT33">
-        <v>3.35</v>
+        <v>2.94</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -8339,25 +8339,25 @@
         <v>1.68</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="AP34">
+        <v>1.68</v>
+      </c>
+      <c r="AQ34">
+        <v>1.68</v>
+      </c>
+      <c r="AR34">
+        <v>1.56</v>
+      </c>
+      <c r="AS34">
         <v>1.29</v>
       </c>
-      <c r="AQ34">
-        <v>1.71</v>
-      </c>
-      <c r="AR34">
-        <v>1.35</v>
-      </c>
-      <c r="AS34">
-        <v>1.46</v>
-      </c>
       <c r="AT34">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8545,25 +8545,25 @@
         <v>1.42</v>
       </c>
       <c r="AN35">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO35">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ35">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR35">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AS35">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT35">
-        <v>3.3</v>
+        <v>3.46</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8751,25 +8751,25 @@
         <v>1.42</v>
       </c>
       <c r="AN36">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="AO36">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP36">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ36">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR36">
-        <v>1.71</v>
+        <v>2.03</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AT36">
-        <v>3.21</v>
+        <v>3.46</v>
       </c>
       <c r="AU36">
         <v>4</v>
@@ -8957,25 +8957,25 @@
         <v>1.75</v>
       </c>
       <c r="AN37">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO37">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ37">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR37">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS37">
         <v>1.34</v>
       </c>
       <c r="AT37">
-        <v>3.14</v>
+        <v>3.24</v>
       </c>
       <c r="AU37">
         <v>5</v>
@@ -9163,25 +9163,25 @@
         <v>1.2</v>
       </c>
       <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>0.67</v>
       </c>
-      <c r="AO38">
-        <v>1.83</v>
-      </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR38">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AS38">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AT38">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -9369,25 +9369,25 @@
         <v>1.28</v>
       </c>
       <c r="AN39">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO39">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ39">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR39">
-        <v>1.18</v>
+        <v>1.54</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AT39">
-        <v>2.93</v>
+        <v>3.09</v>
       </c>
       <c r="AU39">
         <v>8</v>
@@ -9575,25 +9575,25 @@
         <v>1.72</v>
       </c>
       <c r="AN40">
-        <v>1.83</v>
+        <v>2.33</v>
       </c>
       <c r="AO40">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP40">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ40">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR40">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
       <c r="AS40">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AT40">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="AU40">
         <v>3</v>
@@ -9781,25 +9781,25 @@
         <v>2.38</v>
       </c>
       <c r="AN41">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO41">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ41">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR41">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="AS41">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT41">
-        <v>3.31</v>
+        <v>3.56</v>
       </c>
       <c r="AU41">
         <v>6</v>
@@ -9987,25 +9987,25 @@
         <v>1.95</v>
       </c>
       <c r="AN42">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AO42">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="AP42">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR42">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS42">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AT42">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10193,25 +10193,25 @@
         <v>1.9</v>
       </c>
       <c r="AN43">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO43">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ43">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR43">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="AS43">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AT43">
-        <v>3.11</v>
+        <v>3.01</v>
       </c>
       <c r="AU43">
         <v>6</v>
@@ -10399,25 +10399,25 @@
         <v>2.25</v>
       </c>
       <c r="AN44">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="AO44">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR44">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="AS44">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AT44">
-        <v>3.53</v>
+        <v>3.21</v>
       </c>
       <c r="AU44">
         <v>10</v>
@@ -10605,25 +10605,25 @@
         <v>1.45</v>
       </c>
       <c r="AN45">
-        <v>1.71</v>
+        <v>3</v>
       </c>
       <c r="AO45">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ45">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR45">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AS45">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AT45">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="AU45">
         <v>7</v>
@@ -10811,25 +10811,25 @@
         <v>1.8</v>
       </c>
       <c r="AN46">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ46">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR46">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AS46">
-        <v>1.27</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>2.67</v>
+        <v>2.34</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -11017,25 +11017,25 @@
         <v>1.55</v>
       </c>
       <c r="AN47">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP47">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ47">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.87</v>
       </c>
       <c r="AS47">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
       <c r="AT47">
-        <v>3.02</v>
+        <v>3.08</v>
       </c>
       <c r="AU47">
         <v>4</v>
@@ -11223,25 +11223,25 @@
         <v>1.38</v>
       </c>
       <c r="AN48">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO48">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ48">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR48">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AS48">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="AT48">
-        <v>3.19</v>
+        <v>3.21</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11429,25 +11429,25 @@
         <v>2.01</v>
       </c>
       <c r="AN49">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="AO49">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AP49">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ49">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR49">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
       <c r="AS49">
-        <v>1.54</v>
+        <v>1.3</v>
       </c>
       <c r="AT49">
-        <v>3.41</v>
+        <v>3.07</v>
       </c>
       <c r="AU49">
         <v>7</v>
@@ -11635,25 +11635,25 @@
         <v>1.18</v>
       </c>
       <c r="AN50">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO50">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ50">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR50">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AS50">
-        <v>1.63</v>
+        <v>1.46</v>
       </c>
       <c r="AT50">
-        <v>2.94</v>
+        <v>2.67</v>
       </c>
       <c r="AU50">
         <v>4</v>
@@ -11841,25 +11841,25 @@
         <v>1.18</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO51">
-        <v>1.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP51">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR51">
-        <v>1.22</v>
+        <v>1.63</v>
       </c>
       <c r="AS51">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="AT51">
-        <v>3.12</v>
+        <v>3.44</v>
       </c>
       <c r="AU51">
         <v>9</v>
@@ -12047,25 +12047,25 @@
         <v>2.05</v>
       </c>
       <c r="AN52">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="AO52">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ52">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR52">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AS52">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="AT52">
-        <v>3.08</v>
+        <v>3.28</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12253,25 +12253,25 @@
         <v>1.58</v>
       </c>
       <c r="AN53">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="AO53">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ53">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR53">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="AS53">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="AT53">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="AU53">
         <v>5</v>
@@ -12459,25 +12459,25 @@
         <v>2.3</v>
       </c>
       <c r="AN54">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ54">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR54">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AS54">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT54">
-        <v>3.25</v>
+        <v>3.17</v>
       </c>
       <c r="AU54">
         <v>6</v>
@@ -12665,25 +12665,25 @@
         <v>1.46</v>
       </c>
       <c r="AN55">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="AP55">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR55">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="AS55">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT55">
-        <v>2.64</v>
+        <v>3.14</v>
       </c>
       <c r="AU55">
         <v>0</v>
@@ -12871,25 +12871,25 @@
         <v>2.84</v>
       </c>
       <c r="AN56">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO56">
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ56">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR56">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="AS56">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AT56">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="AU56">
         <v>11</v>
@@ -13077,25 +13077,25 @@
         <v>1.57</v>
       </c>
       <c r="AN57">
-        <v>1.88</v>
+        <v>3</v>
       </c>
       <c r="AO57">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ57">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR57">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AS57">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="AT57">
-        <v>3.41</v>
+        <v>3.55</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -13283,25 +13283,25 @@
         <v>1.52</v>
       </c>
       <c r="AN58">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AO58">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AP58">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR58">
-        <v>1.52</v>
+        <v>1.79</v>
       </c>
       <c r="AS58">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="AT58">
-        <v>2.91</v>
+        <v>3.02</v>
       </c>
       <c r="AU58">
         <v>7</v>
@@ -13489,25 +13489,25 @@
         <v>2.5</v>
       </c>
       <c r="AN59">
-        <v>2.13</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ59">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR59">
-        <v>1.59</v>
+        <v>1.87</v>
       </c>
       <c r="AS59">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AT59">
-        <v>3.14</v>
+        <v>3.34</v>
       </c>
       <c r="AU59">
         <v>5</v>
@@ -13695,25 +13695,25 @@
         <v>1.4</v>
       </c>
       <c r="AN60">
+        <v>1</v>
+      </c>
+      <c r="AO60">
+        <v>0.6</v>
+      </c>
+      <c r="AP60">
+        <v>0.79</v>
+      </c>
+      <c r="AQ60">
         <v>0.89</v>
       </c>
-      <c r="AO60">
-        <v>0.8</v>
-      </c>
-      <c r="AP60">
-        <v>0.76</v>
-      </c>
-      <c r="AQ60">
-        <v>1.18</v>
-      </c>
       <c r="AR60">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AT60">
-        <v>2.96</v>
+        <v>2.7</v>
       </c>
       <c r="AU60">
         <v>4</v>
@@ -13901,25 +13901,25 @@
         <v>2</v>
       </c>
       <c r="AN61">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AP61">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ61">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR61">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AS61">
         <v>1.51</v>
       </c>
       <c r="AT61">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="AU61">
         <v>2</v>
@@ -14107,25 +14107,25 @@
         <v>1.5</v>
       </c>
       <c r="AN62">
-        <v>0.5600000000000001</v>
+        <v>1</v>
       </c>
       <c r="AO62">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AP62">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ62">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR62">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="AS62">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AT62">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -14313,25 +14313,25 @@
         <v>1.3</v>
       </c>
       <c r="AN63">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO63">
+        <v>0.6</v>
+      </c>
+      <c r="AP63">
+        <v>1.63</v>
+      </c>
+      <c r="AQ63">
+        <v>1.05</v>
+      </c>
+      <c r="AR63">
         <v>1.8</v>
       </c>
-      <c r="AP63">
-        <v>1.29</v>
-      </c>
-      <c r="AQ63">
-        <v>1.5</v>
-      </c>
-      <c r="AR63">
-        <v>1.75</v>
-      </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT63">
-        <v>3.75</v>
+        <v>3.71</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14522,22 +14522,22 @@
         <v>0.8</v>
       </c>
       <c r="AO64">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AP64">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ64">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR64">
-        <v>1.39</v>
+        <v>1.26</v>
       </c>
       <c r="AS64">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AT64">
-        <v>2.92</v>
+        <v>2.77</v>
       </c>
       <c r="AU64">
         <v>5</v>
@@ -14725,25 +14725,25 @@
         <v>2.55</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ65">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR65">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS65">
-        <v>1.26</v>
+        <v>0.98</v>
       </c>
       <c r="AT65">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="AU65">
         <v>6</v>
@@ -14931,25 +14931,25 @@
         <v>1.4</v>
       </c>
       <c r="AN66">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AO66">
-        <v>1.36</v>
+        <v>0.8</v>
       </c>
       <c r="AP66">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ66">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR66">
-        <v>1.27</v>
+        <v>1.55</v>
       </c>
       <c r="AS66">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AT66">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="AU66">
         <v>7</v>
@@ -15137,25 +15137,25 @@
         <v>2.5</v>
       </c>
       <c r="AN67">
-        <v>1.64</v>
+        <v>3</v>
       </c>
       <c r="AO67">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AP67">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR67">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="AS67">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="AT67">
-        <v>3.35</v>
+        <v>3.59</v>
       </c>
       <c r="AU67">
         <v>8</v>
@@ -15343,25 +15343,25 @@
         <v>2.55</v>
       </c>
       <c r="AN68">
-        <v>2.09</v>
+        <v>2.6</v>
       </c>
       <c r="AO68">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AP68">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ68">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR68">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="AS68">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="AT68">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="AU68">
         <v>5</v>
@@ -15549,25 +15549,25 @@
         <v>1.66</v>
       </c>
       <c r="AN69">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ69">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR69">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="AS69">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AT69">
-        <v>3.05</v>
+        <v>3.22</v>
       </c>
       <c r="AU69">
         <v>9</v>
@@ -15755,25 +15755,25 @@
         <v>1.75</v>
       </c>
       <c r="AN70">
-        <v>1.45</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR70">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AS70">
-        <v>1.44</v>
+        <v>1.23</v>
       </c>
       <c r="AT70">
-        <v>3.29</v>
+        <v>3.04</v>
       </c>
       <c r="AU70">
         <v>10</v>
@@ -15961,25 +15961,25 @@
         <v>1.4</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO71">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="AP71">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ71">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR71">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS71">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="AT71">
-        <v>3.12</v>
+        <v>2.97</v>
       </c>
       <c r="AU71">
         <v>6</v>
@@ -16167,25 +16167,25 @@
         <v>1.18</v>
       </c>
       <c r="AN72">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="AO72">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ72">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR72">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AS72">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AT72">
-        <v>3.23</v>
+        <v>3.13</v>
       </c>
       <c r="AU72">
         <v>6</v>
@@ -16373,25 +16373,25 @@
         <v>1.63</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO73">
-        <v>1.45</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ73">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR73">
-        <v>1.6</v>
+        <v>1.84</v>
       </c>
       <c r="AS73">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT73">
-        <v>3.17</v>
+        <v>3.42</v>
       </c>
       <c r="AU73">
         <v>6</v>
@@ -16579,25 +16579,25 @@
         <v>1.7</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO74">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ74">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR74">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AS74">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="AT74">
-        <v>3.38</v>
+        <v>3.44</v>
       </c>
       <c r="AU74">
         <v>4</v>
@@ -16785,25 +16785,25 @@
         <v>2.15</v>
       </c>
       <c r="AN75">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AO75">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR75">
+        <v>1.61</v>
+      </c>
+      <c r="AS75">
         <v>1.45</v>
       </c>
-      <c r="AS75">
-        <v>1.34</v>
-      </c>
       <c r="AT75">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="AU75">
         <v>7</v>
@@ -16991,25 +16991,25 @@
         <v>2</v>
       </c>
       <c r="AN76">
-        <v>0.45</v>
+        <v>0.83</v>
       </c>
       <c r="AO76">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP76">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ76">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR76">
-        <v>1.45</v>
+        <v>1.54</v>
       </c>
       <c r="AS76">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="AT76">
-        <v>2.73</v>
+        <v>2.57</v>
       </c>
       <c r="AU76">
         <v>6</v>
@@ -17197,25 +17197,25 @@
         <v>1.29</v>
       </c>
       <c r="AN77">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AO77">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR77">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS77">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="AT77">
-        <v>3.34</v>
+        <v>3.29</v>
       </c>
       <c r="AU77">
         <v>5</v>
@@ -17403,25 +17403,25 @@
         <v>2.6</v>
       </c>
       <c r="AN78">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="AO78">
-        <v>1.23</v>
+        <v>0.83</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ78">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR78">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="AS78">
         <v>1.69</v>
       </c>
       <c r="AT78">
-        <v>3.7</v>
+        <v>3.76</v>
       </c>
       <c r="AU78">
         <v>12</v>
@@ -17609,25 +17609,25 @@
         <v>1.3</v>
       </c>
       <c r="AN79">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="AO79">
-        <v>1.15</v>
+        <v>0.67</v>
       </c>
       <c r="AP79">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ79">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR79">
-        <v>1.25</v>
+        <v>1.54</v>
       </c>
       <c r="AS79">
-        <v>1.61</v>
+        <v>1.36</v>
       </c>
       <c r="AT79">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="AU79">
         <v>7</v>
@@ -17815,25 +17815,25 @@
         <v>2.1</v>
       </c>
       <c r="AN80">
-        <v>2.08</v>
+        <v>2.6</v>
       </c>
       <c r="AO80">
-        <v>1.62</v>
+        <v>0.83</v>
       </c>
       <c r="AP80">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ80">
+        <v>0.89</v>
+      </c>
+      <c r="AR80">
+        <v>1.66</v>
+      </c>
+      <c r="AS80">
         <v>1.29</v>
       </c>
-      <c r="AR80">
-        <v>1.56</v>
-      </c>
-      <c r="AS80">
-        <v>1.5</v>
-      </c>
       <c r="AT80">
-        <v>3.06</v>
+        <v>2.95</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -18021,25 +18021,25 @@
         <v>1.8</v>
       </c>
       <c r="AN81">
-        <v>0.85</v>
+        <v>1.17</v>
       </c>
       <c r="AO81">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ81">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR81">
+        <v>1.23</v>
+      </c>
+      <c r="AS81">
         <v>1.31</v>
       </c>
-      <c r="AS81">
-        <v>1.32</v>
-      </c>
       <c r="AT81">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="AU81">
         <v>8</v>
@@ -18227,25 +18227,25 @@
         <v>1.9</v>
       </c>
       <c r="AN82">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AO82">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR82">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AS82">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
       <c r="AT82">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="AU82">
         <v>10</v>
@@ -18433,25 +18433,25 @@
         <v>1.47</v>
       </c>
       <c r="AN83">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AP83">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ83">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR83">
         <v>1.54</v>
       </c>
       <c r="AS83">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT83">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18639,25 +18639,25 @@
         <v>1.9</v>
       </c>
       <c r="AN84">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="AO84">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP84">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR84">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AS84">
         <v>1.7</v>
       </c>
       <c r="AT84">
-        <v>3.23</v>
+        <v>3.37</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18845,25 +18845,25 @@
         <v>1.5</v>
       </c>
       <c r="AN85">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AO85">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="AP85">
+        <v>1.79</v>
+      </c>
+      <c r="AQ85">
         <v>1.58</v>
       </c>
-      <c r="AQ85">
-        <v>2.03</v>
-      </c>
       <c r="AR85">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AS85">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AT85">
-        <v>3.12</v>
+        <v>2.98</v>
       </c>
       <c r="AU85">
         <v>10</v>
@@ -19051,25 +19051,25 @@
         <v>1.36</v>
       </c>
       <c r="AN86">
-        <v>1.21</v>
+        <v>1.71</v>
       </c>
       <c r="AO86">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
       <c r="AP86">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR86">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="AS86">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AT86">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="AU86">
         <v>2</v>
@@ -19257,25 +19257,25 @@
         <v>1.95</v>
       </c>
       <c r="AN87">
-        <v>1.14</v>
+        <v>1.57</v>
       </c>
       <c r="AO87">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="AP87">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ87">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR87">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT87">
-        <v>2.96</v>
+        <v>3.17</v>
       </c>
       <c r="AU87">
         <v>7</v>
@@ -19463,25 +19463,25 @@
         <v>1.22</v>
       </c>
       <c r="AN88">
-        <v>0.62</v>
+        <v>1.14</v>
       </c>
       <c r="AO88">
-        <v>1.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ88">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR88">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="AS88">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="AT88">
-        <v>3.5</v>
+        <v>3.51</v>
       </c>
       <c r="AU88">
         <v>5</v>
@@ -19669,25 +19669,25 @@
         <v>2.25</v>
       </c>
       <c r="AN89">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AO89">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="AP89">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR89">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AS89">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="AT89">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="AU89">
         <v>7</v>
@@ -19875,25 +19875,25 @@
         <v>1.48</v>
       </c>
       <c r="AN90">
-        <v>0.93</v>
+        <v>1.43</v>
       </c>
       <c r="AO90">
+        <v>0.71</v>
+      </c>
+      <c r="AP90">
+        <v>1.42</v>
+      </c>
+      <c r="AQ90">
+        <v>0.89</v>
+      </c>
+      <c r="AR90">
         <v>1.27</v>
       </c>
-      <c r="AP90">
-        <v>1</v>
-      </c>
-      <c r="AQ90">
-        <v>1.18</v>
-      </c>
-      <c r="AR90">
-        <v>1.31</v>
-      </c>
       <c r="AS90">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AT90">
-        <v>2.93</v>
+        <v>2.71</v>
       </c>
       <c r="AU90">
         <v>7</v>
@@ -20081,25 +20081,25 @@
         <v>1.45</v>
       </c>
       <c r="AN91">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AO91">
+        <v>0</v>
+      </c>
+      <c r="AP91">
         <v>0.79</v>
       </c>
-      <c r="AP91">
-        <v>0.76</v>
-      </c>
       <c r="AQ91">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR91">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AS91">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="AT91">
-        <v>2.75</v>
+        <v>2.66</v>
       </c>
       <c r="AU91">
         <v>4</v>
@@ -20287,25 +20287,25 @@
         <v>1.73</v>
       </c>
       <c r="AN92">
-        <v>2</v>
+        <v>2.67</v>
       </c>
       <c r="AO92">
+        <v>1.86</v>
+      </c>
+      <c r="AP92">
+        <v>2.47</v>
+      </c>
+      <c r="AQ92">
+        <v>1.42</v>
+      </c>
+      <c r="AR92">
+        <v>1.75</v>
+      </c>
+      <c r="AS92">
         <v>1.87</v>
       </c>
-      <c r="AP92">
-        <v>2.03</v>
-      </c>
-      <c r="AQ92">
-        <v>1.68</v>
-      </c>
-      <c r="AR92">
-        <v>1.6</v>
-      </c>
-      <c r="AS92">
-        <v>1.93</v>
-      </c>
       <c r="AT92">
-        <v>3.53</v>
+        <v>3.62</v>
       </c>
       <c r="AU92">
         <v>10</v>
@@ -20493,25 +20493,25 @@
         <v>1.62</v>
       </c>
       <c r="AN93">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AO93">
-        <v>1.6</v>
+        <v>0.71</v>
       </c>
       <c r="AP93">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR93">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="AS93">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AT93">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="AU93">
         <v>3</v>
@@ -20699,25 +20699,25 @@
         <v>3.1</v>
       </c>
       <c r="AN94">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO94">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ94">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR94">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="AS94">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="AT94">
-        <v>3.21</v>
+        <v>3.12</v>
       </c>
       <c r="AU94">
         <v>12</v>
@@ -20905,25 +20905,25 @@
         <v>1.83</v>
       </c>
       <c r="AN95">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="AO95">
-        <v>0.8</v>
+        <v>0.14</v>
       </c>
       <c r="AP95">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ95">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR95">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AS95">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
       <c r="AT95">
-        <v>2.93</v>
+        <v>2.72</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21111,25 +21111,25 @@
         <v>3</v>
       </c>
       <c r="AN96">
-        <v>1.93</v>
+        <v>2.43</v>
       </c>
       <c r="AO96">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="AP96">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ96">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR96">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="AS96">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="AT96">
-        <v>2.95</v>
+        <v>3.14</v>
       </c>
       <c r="AU96">
         <v>3</v>
@@ -21317,25 +21317,25 @@
         <v>1.77</v>
       </c>
       <c r="AN97">
-        <v>0.9399999999999999</v>
+        <v>1.38</v>
       </c>
       <c r="AO97">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ97">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR97">
-        <v>1.46</v>
+        <v>1.52</v>
       </c>
       <c r="AS97">
         <v>1.34</v>
       </c>
       <c r="AT97">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21523,25 +21523,25 @@
         <v>1.73</v>
       </c>
       <c r="AN98">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO98">
-        <v>1.88</v>
+        <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ98">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR98">
-        <v>1.66</v>
+        <v>1.82</v>
       </c>
       <c r="AS98">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT98">
-        <v>3.66</v>
+        <v>3.69</v>
       </c>
       <c r="AU98">
         <v>8</v>
@@ -21729,25 +21729,25 @@
         <v>1.45</v>
       </c>
       <c r="AN99">
-        <v>1.19</v>
+        <v>1.75</v>
       </c>
       <c r="AO99">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="AP99">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ99">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR99">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AS99">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AT99">
-        <v>3.55</v>
+        <v>3.64</v>
       </c>
       <c r="AU99">
         <v>6</v>
@@ -21935,25 +21935,25 @@
         <v>2</v>
       </c>
       <c r="AN100">
-        <v>1.38</v>
+        <v>1.63</v>
       </c>
       <c r="AO100">
-        <v>1.07</v>
+        <v>0.63</v>
       </c>
       <c r="AP100">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ100">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR100">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS100">
         <v>1.7</v>
       </c>
       <c r="AT100">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="AU100">
         <v>3</v>
@@ -22141,25 +22141,25 @@
         <v>1.88</v>
       </c>
       <c r="AN101">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO101">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP101">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR101">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS101">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="AT101">
-        <v>3.13</v>
+        <v>3.07</v>
       </c>
       <c r="AU101">
         <v>7</v>
@@ -22347,25 +22347,25 @@
         <v>1.58</v>
       </c>
       <c r="AN102">
-        <v>1.06</v>
+        <v>1.5</v>
       </c>
       <c r="AO102">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AP102">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ102">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR102">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="AS102">
         <v>1.3</v>
       </c>
       <c r="AT102">
-        <v>2.54</v>
+        <v>2.71</v>
       </c>
       <c r="AU102">
         <v>9</v>
@@ -22553,25 +22553,25 @@
         <v>1.29</v>
       </c>
       <c r="AN103">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO103">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR103">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AS103">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AT103">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU103">
         <v>4</v>
@@ -22759,25 +22759,25 @@
         <v>1.67</v>
       </c>
       <c r="AN104">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="AO104">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AP104">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ104">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR104">
-        <v>1.98</v>
+        <v>2.13</v>
       </c>
       <c r="AS104">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="AT104">
-        <v>3.61</v>
+        <v>3.72</v>
       </c>
       <c r="AU104">
         <v>7</v>
@@ -22965,25 +22965,25 @@
         <v>1.23</v>
       </c>
       <c r="AN105">
-        <v>0.65</v>
+        <v>0.88</v>
       </c>
       <c r="AO105">
-        <v>2.06</v>
+        <v>1.5</v>
       </c>
       <c r="AP105">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ105">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR105">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AS105">
-        <v>1.69</v>
+        <v>1.49</v>
       </c>
       <c r="AT105">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="AU105">
         <v>4</v>
@@ -23171,25 +23171,25 @@
         <v>2.2</v>
       </c>
       <c r="AN106">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="AO106">
-        <v>1.18</v>
+        <v>0.63</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ106">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR106">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="AT106">
-        <v>2.69</v>
+        <v>2.4</v>
       </c>
       <c r="AU106">
         <v>5</v>
@@ -23377,25 +23377,25 @@
         <v>1.45</v>
       </c>
       <c r="AN107">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="AO107">
-        <v>1.18</v>
+        <v>0.63</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ107">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR107">
         <v>1.65</v>
       </c>
       <c r="AS107">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AT107">
-        <v>3.27</v>
+        <v>3.13</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23583,25 +23583,25 @@
         <v>1.78</v>
       </c>
       <c r="AN108">
-        <v>1.47</v>
+        <v>2.38</v>
       </c>
       <c r="AO108">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="AP108">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ108">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR108">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AS108">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AT108">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="AU108">
         <v>5</v>
@@ -23789,25 +23789,25 @@
         <v>1.95</v>
       </c>
       <c r="AN109">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="AO109">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AP109">
+        <v>1.95</v>
+      </c>
+      <c r="AQ109">
         <v>1.68</v>
       </c>
-      <c r="AQ109">
-        <v>1.71</v>
-      </c>
       <c r="AR109">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="AS109">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="AT109">
-        <v>3.35</v>
+        <v>3.57</v>
       </c>
       <c r="AU109">
         <v>7</v>
@@ -23995,25 +23995,25 @@
         <v>2.55</v>
       </c>
       <c r="AN110">
-        <v>2.11</v>
+        <v>2.56</v>
       </c>
       <c r="AO110">
-        <v>1.17</v>
+        <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR110">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AS110">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AT110">
-        <v>3.06</v>
+        <v>3.29</v>
       </c>
       <c r="AU110">
         <v>8</v>
@@ -24201,22 +24201,22 @@
         <v>1.39</v>
       </c>
       <c r="AN111">
-        <v>1.11</v>
+        <v>1.67</v>
       </c>
       <c r="AO111">
-        <v>1.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP111">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ111">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR111">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AS111">
-        <v>1.97</v>
+        <v>1.85</v>
       </c>
       <c r="AT111">
         <v>3.6</v>
@@ -24407,25 +24407,25 @@
         <v>2.2</v>
       </c>
       <c r="AN112">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="AO112">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AP112">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ112">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR112">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.37</v>
       </c>
       <c r="AT112">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24613,25 +24613,25 @@
         <v>2.05</v>
       </c>
       <c r="AN113">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="AO113">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="AP113">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ113">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR113">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AS113">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AT113">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="AU113">
         <v>10</v>
@@ -24819,25 +24819,25 @@
         <v>1.3</v>
       </c>
       <c r="AN114">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO114">
-        <v>1.39</v>
+        <v>0.67</v>
       </c>
       <c r="AP114">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR114">
-        <v>1.32</v>
+        <v>1.51</v>
       </c>
       <c r="AS114">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="AT114">
-        <v>2.89</v>
+        <v>2.94</v>
       </c>
       <c r="AU114">
         <v>6</v>
@@ -25025,25 +25025,25 @@
         <v>1.27</v>
       </c>
       <c r="AN115">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="AO115">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="AP115">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ115">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR115">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AS115">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AT115">
-        <v>3.47</v>
+        <v>3.36</v>
       </c>
       <c r="AU115">
         <v>6</v>
@@ -25231,25 +25231,25 @@
         <v>2.9</v>
       </c>
       <c r="AN116">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="AO116">
-        <v>1.26</v>
+        <v>0.67</v>
       </c>
       <c r="AP116">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ116">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR116">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT116">
-        <v>3.17</v>
+        <v>3.07</v>
       </c>
       <c r="AU116">
         <v>8</v>
@@ -25437,25 +25437,25 @@
         <v>1.44</v>
       </c>
       <c r="AN117">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="AO117">
-        <v>1.21</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP117">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ117">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR117">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS117">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="AT117">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="AU117">
         <v>4</v>
@@ -25643,25 +25643,25 @@
         <v>1.3</v>
       </c>
       <c r="AN118">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO118">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ118">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR118">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AS118">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AT118">
-        <v>3.14</v>
+        <v>3.01</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25849,25 +25849,25 @@
         <v>2.02</v>
       </c>
       <c r="AN119">
-        <v>1.89</v>
+        <v>3</v>
       </c>
       <c r="AO119">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AP119">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ119">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR119">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="AS119">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AT119">
-        <v>3.45</v>
+        <v>3.66</v>
       </c>
       <c r="AU119">
         <v>2</v>
@@ -26055,25 +26055,25 @@
         <v>1.24</v>
       </c>
       <c r="AN120">
-        <v>1.11</v>
+        <v>1.56</v>
       </c>
       <c r="AO120">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ120">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR120">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AS120">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="AT120">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="AU120">
         <v>5</v>
@@ -26261,25 +26261,25 @@
         <v>1.83</v>
       </c>
       <c r="AN121">
-        <v>1.32</v>
+        <v>2.11</v>
       </c>
       <c r="AO121">
-        <v>1.05</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ121">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR121">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AS121">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="AT121">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="AU121">
         <v>4</v>
@@ -26467,25 +26467,25 @@
         <v>1.57</v>
       </c>
       <c r="AN122">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AO122">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP122">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ122">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR122">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="AS122">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="AT122">
-        <v>3.03</v>
+        <v>2.94</v>
       </c>
       <c r="AU122">
         <v>5</v>
@@ -26673,25 +26673,25 @@
         <v>3.2</v>
       </c>
       <c r="AN123">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AO123">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP123">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ123">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR123">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AS123">
-        <v>1.31</v>
+        <v>1.11</v>
       </c>
       <c r="AT123">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="AU123">
         <v>12</v>
@@ -26879,25 +26879,25 @@
         <v>2.1</v>
       </c>
       <c r="AN124">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="AO124">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ124">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR124">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AS124">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AT124">
-        <v>2.94</v>
+        <v>2.93</v>
       </c>
       <c r="AU124">
         <v>3</v>
@@ -27085,25 +27085,25 @@
         <v>2</v>
       </c>
       <c r="AN125">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AO125">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP125">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ125">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR125">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="AS125">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="AT125">
-        <v>3.25</v>
+        <v>3.12</v>
       </c>
       <c r="AU125">
         <v>6</v>
@@ -27291,22 +27291,22 @@
         <v>1.8</v>
       </c>
       <c r="AN126">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="AO126">
+        <v>1.6</v>
+      </c>
+      <c r="AP126">
+        <v>1.95</v>
+      </c>
+      <c r="AQ126">
+        <v>1.42</v>
+      </c>
+      <c r="AR126">
+        <v>1.98</v>
+      </c>
+      <c r="AS126">
         <v>1.75</v>
-      </c>
-      <c r="AP126">
-        <v>1.5</v>
-      </c>
-      <c r="AQ126">
-        <v>1.68</v>
-      </c>
-      <c r="AR126">
-        <v>1.86</v>
-      </c>
-      <c r="AS126">
-        <v>1.87</v>
       </c>
       <c r="AT126">
         <v>3.73</v>
@@ -27500,22 +27500,22 @@
         <v>0.7</v>
       </c>
       <c r="AO127">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP127">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR127">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AS127">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AT127">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27703,25 +27703,25 @@
         <v>1.57</v>
       </c>
       <c r="AN128">
-        <v>1.19</v>
+        <v>1.7</v>
       </c>
       <c r="AO128">
-        <v>1.24</v>
+        <v>0.8</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ128">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR128">
         <v>1.35</v>
       </c>
       <c r="AS128">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AT128">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27909,25 +27909,25 @@
         <v>1.38</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO129">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR129">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AS129">
-        <v>1.76</v>
+        <v>1.49</v>
       </c>
       <c r="AT129">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="AU129">
         <v>5</v>
@@ -28115,25 +28115,25 @@
         <v>1.52</v>
       </c>
       <c r="AN130">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="AO130">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ130">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR130">
         <v>1.5</v>
       </c>
       <c r="AS130">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AT130">
-        <v>3.03</v>
+        <v>3.1</v>
       </c>
       <c r="AU130">
         <v>6</v>
@@ -28321,25 +28321,25 @@
         <v>1.25</v>
       </c>
       <c r="AN131">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="AO131">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AP131">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ131">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR131">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="AS131">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AT131">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="AU131">
         <v>6</v>
@@ -28527,25 +28527,25 @@
         <v>1.47</v>
       </c>
       <c r="AN132">
-        <v>1.48</v>
+        <v>2.2</v>
       </c>
       <c r="AO132">
-        <v>1.71</v>
+        <v>0.9</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ132">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR132">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AS132">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AT132">
-        <v>3.42</v>
+        <v>3.4</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28733,25 +28733,25 @@
         <v>2.62</v>
       </c>
       <c r="AN133">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AO133">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AP133">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ133">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR133">
-        <v>1.85</v>
+        <v>1.99</v>
       </c>
       <c r="AS133">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT133">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AU133">
         <v>5</v>
@@ -28942,22 +28942,22 @@
         <v>0.64</v>
       </c>
       <c r="AO134">
-        <v>0.95</v>
+        <v>0.55</v>
       </c>
       <c r="AP134">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ134">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR134">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS134">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="AT134">
-        <v>2.85</v>
+        <v>2.81</v>
       </c>
       <c r="AU134">
         <v>4</v>
@@ -29145,25 +29145,25 @@
         <v>2.1</v>
       </c>
       <c r="AN135">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="AO135">
-        <v>1.14</v>
+        <v>0.73</v>
       </c>
       <c r="AP135">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ135">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR135">
         <v>1.62</v>
       </c>
       <c r="AS135">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT135">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="AU135">
         <v>2</v>
@@ -29351,25 +29351,25 @@
         <v>1.42</v>
       </c>
       <c r="AN136">
+        <v>1.55</v>
+      </c>
+      <c r="AO136">
+        <v>1.64</v>
+      </c>
+      <c r="AP136">
+        <v>1.74</v>
+      </c>
+      <c r="AQ136">
+        <v>1.58</v>
+      </c>
+      <c r="AR136">
+        <v>1.47</v>
+      </c>
+      <c r="AS136">
         <v>1.5</v>
       </c>
-      <c r="AO136">
-        <v>2.14</v>
-      </c>
-      <c r="AP136">
-        <v>1.71</v>
-      </c>
-      <c r="AQ136">
-        <v>2.03</v>
-      </c>
-      <c r="AR136">
-        <v>1.51</v>
-      </c>
-      <c r="AS136">
-        <v>1.76</v>
-      </c>
       <c r="AT136">
-        <v>3.27</v>
+        <v>2.97</v>
       </c>
       <c r="AU136">
         <v>5</v>
@@ -29557,25 +29557,25 @@
         <v>1.45</v>
       </c>
       <c r="AN137">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="AO137">
-        <v>1.55</v>
+        <v>0.82</v>
       </c>
       <c r="AP137">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ137">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
       </c>
       <c r="AS137">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="AT137">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="AU137">
         <v>6</v>
@@ -29763,25 +29763,25 @@
         <v>1.42</v>
       </c>
       <c r="AN138">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AO138">
-        <v>1.64</v>
+        <v>0.82</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ138">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR138">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AS138">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="AT138">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="AU138">
         <v>2</v>
@@ -29969,25 +29969,25 @@
         <v>1.17</v>
       </c>
       <c r="AN139">
-        <v>1.23</v>
+        <v>1.91</v>
       </c>
       <c r="AO139">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AP139">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ139">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR139">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="AS139">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="AT139">
-        <v>3.13</v>
+        <v>3.19</v>
       </c>
       <c r="AU139">
         <v>5</v>
@@ -30175,25 +30175,25 @@
         <v>2.2</v>
       </c>
       <c r="AN140">
+        <v>2.45</v>
+      </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
+      <c r="AP140">
+        <v>1.95</v>
+      </c>
+      <c r="AQ140">
+        <v>0.95</v>
+      </c>
+      <c r="AR140">
+        <v>1.96</v>
+      </c>
+      <c r="AS140">
         <v>1.57</v>
       </c>
-      <c r="AO140">
-        <v>1.39</v>
-      </c>
-      <c r="AP140">
-        <v>1.5</v>
-      </c>
-      <c r="AQ140">
-        <v>1.29</v>
-      </c>
-      <c r="AR140">
-        <v>1.84</v>
-      </c>
-      <c r="AS140">
-        <v>1.56</v>
-      </c>
       <c r="AT140">
-        <v>3.4</v>
+        <v>3.53</v>
       </c>
       <c r="AU140">
         <v>5</v>
@@ -30381,25 +30381,25 @@
         <v>2.2</v>
       </c>
       <c r="AN141">
-        <v>0.96</v>
+        <v>1.36</v>
       </c>
       <c r="AO141">
-        <v>1.3</v>
+        <v>0.55</v>
       </c>
       <c r="AP141">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ141">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR141">
-        <v>1.61</v>
+        <v>1.7</v>
       </c>
       <c r="AS141">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT141">
-        <v>2.9</v>
+        <v>2.83</v>
       </c>
       <c r="AU141">
         <v>9</v>
@@ -30587,25 +30587,25 @@
         <v>1.47</v>
       </c>
       <c r="AN142">
-        <v>1.09</v>
+        <v>1.55</v>
       </c>
       <c r="AO142">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ142">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR142">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AS142">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AT142">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="AU142">
         <v>4</v>
@@ -30793,25 +30793,25 @@
         <v>3.2</v>
       </c>
       <c r="AN143">
-        <v>2.09</v>
+        <v>2.64</v>
       </c>
       <c r="AO143">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="AP143">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ143">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR143">
-        <v>1.76</v>
+        <v>2.01</v>
       </c>
       <c r="AS143">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT143">
-        <v>3.01</v>
+        <v>3.22</v>
       </c>
       <c r="AU143">
         <v>8</v>
@@ -30999,25 +30999,25 @@
         <v>1.55</v>
       </c>
       <c r="AN144">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="AO144">
-        <v>1.57</v>
+        <v>1.18</v>
       </c>
       <c r="AP144">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ144">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR144">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="AS144">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AT144">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU144">
         <v>5</v>
@@ -31205,25 +31205,25 @@
         <v>1.83</v>
       </c>
       <c r="AN145">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="AO145">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="AP145">
+        <v>1.95</v>
+      </c>
+      <c r="AQ145">
         <v>1.68</v>
       </c>
-      <c r="AQ145">
-        <v>1.71</v>
-      </c>
       <c r="AR145">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="AS145">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="AT145">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="AU145">
         <v>9</v>
@@ -31411,25 +31411,25 @@
         <v>2.82</v>
       </c>
       <c r="AN146">
-        <v>1.54</v>
+        <v>2.33</v>
       </c>
       <c r="AO146">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="AP146">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ146">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR146">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="AS146">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AT146">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="AU146">
         <v>7</v>
@@ -31617,25 +31617,25 @@
         <v>1.32</v>
       </c>
       <c r="AN147">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO147">
-        <v>1.17</v>
+        <v>0.92</v>
       </c>
       <c r="AP147">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ147">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR147">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="AS147">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AT147">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31823,25 +31823,25 @@
         <v>1.44</v>
       </c>
       <c r="AN148">
-        <v>1.17</v>
+        <v>1.67</v>
       </c>
       <c r="AO148">
+        <v>0.75</v>
+      </c>
+      <c r="AP148">
         <v>1.42</v>
       </c>
-      <c r="AP148">
-        <v>1</v>
-      </c>
       <c r="AQ148">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR148">
         <v>1.31</v>
       </c>
       <c r="AS148">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AT148">
-        <v>2.86</v>
+        <v>2.79</v>
       </c>
       <c r="AU148">
         <v>4</v>
@@ -32029,25 +32029,25 @@
         <v>1.47</v>
       </c>
       <c r="AN149">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AO149">
-        <v>1.63</v>
+        <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ149">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR149">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="AS149">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="AT149">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="AU149">
         <v>6</v>
@@ -32235,25 +32235,25 @@
         <v>1.83</v>
       </c>
       <c r="AN150">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="AO150">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AP150">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ150">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR150">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AS150">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AT150">
-        <v>3.2</v>
+        <v>3.31</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32441,25 +32441,25 @@
         <v>1.72</v>
       </c>
       <c r="AN151">
-        <v>2.13</v>
+        <v>2.67</v>
       </c>
       <c r="AO151">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="AP151">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ151">
+        <v>1.42</v>
+      </c>
+      <c r="AR151">
+        <v>2.05</v>
+      </c>
+      <c r="AS151">
         <v>1.68</v>
       </c>
-      <c r="AR151">
-        <v>1.79</v>
-      </c>
-      <c r="AS151">
-        <v>1.84</v>
-      </c>
       <c r="AT151">
-        <v>3.63</v>
+        <v>3.73</v>
       </c>
       <c r="AU151">
         <v>5</v>
@@ -32647,25 +32647,25 @@
         <v>1.83</v>
       </c>
       <c r="AN152">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="AO152">
-        <v>1.6</v>
+        <v>0.75</v>
       </c>
       <c r="AP152">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ152">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR152">
-        <v>1.82</v>
+        <v>1.99</v>
       </c>
       <c r="AS152">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="AT152">
-        <v>3.66</v>
+        <v>3.73</v>
       </c>
       <c r="AU152">
         <v>8</v>
@@ -32853,25 +32853,25 @@
         <v>1.44</v>
       </c>
       <c r="AN153">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO153">
-        <v>1.12</v>
+        <v>0.67</v>
       </c>
       <c r="AP153">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ153">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR153">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AS153">
         <v>1.32</v>
       </c>
       <c r="AT153">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU153">
         <v>4</v>
@@ -33059,25 +33059,25 @@
         <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="AO154">
-        <v>1.04</v>
+        <v>0.58</v>
       </c>
       <c r="AP154">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ154">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR154">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS154">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AT154">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="AU154">
         <v>6</v>
@@ -33265,25 +33265,25 @@
         <v>1.75</v>
       </c>
       <c r="AN155">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="AO155">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ155">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR155">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="AS155">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="AT155">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="AU155">
         <v>5</v>
@@ -33471,25 +33471,25 @@
         <v>1.9</v>
       </c>
       <c r="AN156">
-        <v>1.36</v>
+        <v>1.75</v>
       </c>
       <c r="AO156">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ156">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR156">
         <v>1.55</v>
       </c>
       <c r="AS156">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AT156">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
       <c r="AU156">
         <v>6</v>
@@ -33677,25 +33677,25 @@
         <v>1.5</v>
       </c>
       <c r="AN157">
-        <v>1.56</v>
+        <v>1.92</v>
       </c>
       <c r="AO157">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="AP157">
+        <v>1.79</v>
+      </c>
+      <c r="AQ157">
         <v>1.58</v>
       </c>
-      <c r="AQ157">
-        <v>2.03</v>
-      </c>
       <c r="AR157">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AS157">
-        <v>1.79</v>
+        <v>1.53</v>
       </c>
       <c r="AT157">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="AU157">
         <v>6</v>
@@ -33883,22 +33883,22 @@
         <v>1.66</v>
       </c>
       <c r="AN158">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="AO158">
-        <v>1.12</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP158">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ158">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR158">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="AS158">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AT158">
         <v>2.87</v>
@@ -34089,25 +34089,25 @@
         <v>1.18</v>
       </c>
       <c r="AN159">
-        <v>1.15</v>
+        <v>1.85</v>
       </c>
       <c r="AO159">
+        <v>1.23</v>
+      </c>
+      <c r="AP159">
+        <v>2.11</v>
+      </c>
+      <c r="AQ159">
+        <v>1.37</v>
+      </c>
+      <c r="AR159">
+        <v>1.48</v>
+      </c>
+      <c r="AS159">
         <v>1.62</v>
       </c>
-      <c r="AP159">
-        <v>1.24</v>
-      </c>
-      <c r="AQ159">
-        <v>1.58</v>
-      </c>
-      <c r="AR159">
-        <v>1.32</v>
-      </c>
-      <c r="AS159">
-        <v>1.58</v>
-      </c>
       <c r="AT159">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AU159">
         <v>6</v>
@@ -34295,25 +34295,25 @@
         <v>1.8</v>
       </c>
       <c r="AN160">
-        <v>1.54</v>
+        <v>2.38</v>
       </c>
       <c r="AO160">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AP160">
+        <v>1.95</v>
+      </c>
+      <c r="AQ160">
+        <v>1.68</v>
+      </c>
+      <c r="AR160">
+        <v>1.94</v>
+      </c>
+      <c r="AS160">
         <v>1.5</v>
       </c>
-      <c r="AQ160">
-        <v>1.71</v>
-      </c>
-      <c r="AR160">
-        <v>1.84</v>
-      </c>
-      <c r="AS160">
-        <v>1.48</v>
-      </c>
       <c r="AT160">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="AU160">
         <v>4</v>
@@ -34501,25 +34501,25 @@
         <v>2</v>
       </c>
       <c r="AN161">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="AO161">
-        <v>1.12</v>
+        <v>0.77</v>
       </c>
       <c r="AP161">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ161">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR161">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="AS161">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT161">
-        <v>3.44</v>
+        <v>3.48</v>
       </c>
       <c r="AU161">
         <v>12</v>
@@ -34707,22 +34707,22 @@
         <v>1.3</v>
       </c>
       <c r="AN162">
-        <v>0.62</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO162">
-        <v>1.42</v>
+        <v>0.92</v>
       </c>
       <c r="AP162">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ162">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR162">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AS162">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AT162">
         <v>2.78</v>
@@ -34913,25 +34913,25 @@
         <v>2.05</v>
       </c>
       <c r="AN163">
-        <v>1.96</v>
+        <v>2.46</v>
       </c>
       <c r="AO163">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AP163">
+        <v>2.47</v>
+      </c>
+      <c r="AQ163">
+        <v>1.16</v>
+      </c>
+      <c r="AR163">
         <v>2.03</v>
       </c>
-      <c r="AQ163">
-        <v>1.29</v>
-      </c>
-      <c r="AR163">
-        <v>1.78</v>
-      </c>
       <c r="AS163">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AT163">
-        <v>3.28</v>
+        <v>3.57</v>
       </c>
       <c r="AU163">
         <v>10</v>
@@ -35119,25 +35119,25 @@
         <v>1.83</v>
       </c>
       <c r="AN164">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="AO164">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ164">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR164">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS164">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="AT164">
-        <v>3.06</v>
+        <v>3</v>
       </c>
       <c r="AU164">
         <v>6</v>
@@ -35325,25 +35325,25 @@
         <v>1.35</v>
       </c>
       <c r="AN165">
-        <v>1.07</v>
+        <v>1.54</v>
       </c>
       <c r="AO165">
-        <v>1.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP165">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ165">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR165">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS165">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="AT165">
-        <v>3.15</v>
+        <v>3.06</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35531,25 +35531,25 @@
         <v>2.35</v>
       </c>
       <c r="AN166">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AO166">
-        <v>1.22</v>
+        <v>0.46</v>
       </c>
       <c r="AP166">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ166">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR166">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AS166">
-        <v>1.32</v>
+        <v>1.15</v>
       </c>
       <c r="AT166">
-        <v>2.82</v>
+        <v>2.61</v>
       </c>
       <c r="AU166">
         <v>7</v>
@@ -35737,25 +35737,25 @@
         <v>2.6</v>
       </c>
       <c r="AN167">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO167">
-        <v>0.7</v>
+        <v>0.54</v>
       </c>
       <c r="AP167">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ167">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR167">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AS167">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT167">
-        <v>2.82</v>
+        <v>2.69</v>
       </c>
       <c r="AU167">
         <v>9</v>
@@ -35943,25 +35943,25 @@
         <v>1.35</v>
       </c>
       <c r="AN168">
-        <v>1.07</v>
+        <v>1.46</v>
       </c>
       <c r="AO168">
-        <v>2</v>
+        <v>1.46</v>
       </c>
       <c r="AP168">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ168">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR168">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AS168">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="AT168">
-        <v>3.4</v>
+        <v>3.27</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36149,25 +36149,25 @@
         <v>1.44</v>
       </c>
       <c r="AN169">
-        <v>1.37</v>
+        <v>1.92</v>
       </c>
       <c r="AO169">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AP169">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ169">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR169">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AS169">
-        <v>1.86</v>
+        <v>1.66</v>
       </c>
       <c r="AT169">
-        <v>3.43</v>
+        <v>3.27</v>
       </c>
       <c r="AU169">
         <v>8</v>
@@ -36355,25 +36355,25 @@
         <v>1.22</v>
       </c>
       <c r="AN170">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="AO170">
-        <v>1.93</v>
+        <v>1.64</v>
       </c>
       <c r="AP170">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ170">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR170">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS170">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AT170">
-        <v>3.4</v>
+        <v>3.23</v>
       </c>
       <c r="AU170">
         <v>7</v>
@@ -36561,25 +36561,25 @@
         <v>1.18</v>
       </c>
       <c r="AN171">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AO171">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AP171">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ171">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR171">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="AS171">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="AT171">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36767,25 +36767,25 @@
         <v>1.5</v>
       </c>
       <c r="AN172">
+        <v>1.29</v>
+      </c>
+      <c r="AO172">
         <v>1.14</v>
       </c>
-      <c r="AO172">
-        <v>1.54</v>
-      </c>
       <c r="AP172">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ172">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR172">
         <v>1.54</v>
       </c>
       <c r="AS172">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AT172">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU172">
         <v>4</v>
@@ -36973,25 +36973,25 @@
         <v>1.12</v>
       </c>
       <c r="AN173">
-        <v>1.18</v>
+        <v>1.93</v>
       </c>
       <c r="AO173">
-        <v>1.93</v>
+        <v>1.36</v>
       </c>
       <c r="AP173">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ173">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR173">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="AS173">
-        <v>1.78</v>
+        <v>1.51</v>
       </c>
       <c r="AT173">
-        <v>3.09</v>
+        <v>2.99</v>
       </c>
       <c r="AU173">
         <v>2</v>
@@ -37179,25 +37179,25 @@
         <v>1.47</v>
       </c>
       <c r="AN174">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="AO174">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP174">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ174">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR174">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS174">
-        <v>1.62</v>
+        <v>1.49</v>
       </c>
       <c r="AT174">
-        <v>2.95</v>
+        <v>2.81</v>
       </c>
       <c r="AU174">
         <v>2</v>
@@ -37385,25 +37385,25 @@
         <v>1.72</v>
       </c>
       <c r="AN175">
-        <v>1.46</v>
+        <v>2.21</v>
       </c>
       <c r="AO175">
-        <v>1.36</v>
+        <v>0.86</v>
       </c>
       <c r="AP175">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ175">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR175">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="AS175">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AT175">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="AU175">
         <v>7</v>
@@ -37591,25 +37591,25 @@
         <v>1.75</v>
       </c>
       <c r="AN176">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AO176">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AP176">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ176">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR176">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS176">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AT176">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="AU176">
         <v>4</v>
@@ -37797,25 +37797,25 @@
         <v>3.4</v>
       </c>
       <c r="AN177">
-        <v>1.86</v>
+        <v>2.21</v>
       </c>
       <c r="AO177">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AP177">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ177">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR177">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="AS177">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AT177">
-        <v>3.04</v>
+        <v>3.21</v>
       </c>
       <c r="AU177">
         <v>6</v>
@@ -38003,25 +38003,25 @@
         <v>2</v>
       </c>
       <c r="AN178">
-        <v>1.52</v>
+        <v>1.93</v>
       </c>
       <c r="AO178">
-        <v>1.52</v>
+        <v>1</v>
       </c>
       <c r="AP178">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ178">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR178">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AS178">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AT178">
-        <v>3.16</v>
+        <v>3.09</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38209,25 +38209,25 @@
         <v>1.48</v>
       </c>
       <c r="AN179">
-        <v>1.21</v>
+        <v>1.57</v>
       </c>
       <c r="AO179">
-        <v>1.45</v>
+        <v>0.71</v>
       </c>
       <c r="AP179">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR179">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="AS179">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="AT179">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="AU179">
         <v>7</v>
@@ -38415,25 +38415,25 @@
         <v>2.85</v>
       </c>
       <c r="AN180">
-        <v>1.34</v>
+        <v>1.86</v>
       </c>
       <c r="AO180">
-        <v>1.17</v>
+        <v>0.43</v>
       </c>
       <c r="AP180">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ180">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR180">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="AS180">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT180">
-        <v>2.87</v>
+        <v>2.77</v>
       </c>
       <c r="AU180">
         <v>5</v>
@@ -38621,25 +38621,25 @@
         <v>2.4</v>
       </c>
       <c r="AN181">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="AO181">
-        <v>1.03</v>
+        <v>0.64</v>
       </c>
       <c r="AP181">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ181">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR181">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="AS181">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT181">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="AU181">
         <v>6</v>
@@ -38827,25 +38827,25 @@
         <v>1.22</v>
       </c>
       <c r="AN182">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="AO182">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AP182">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ182">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR182">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AS182">
         <v>1.52</v>
       </c>
       <c r="AT182">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="AU182">
         <v>0</v>
@@ -39033,25 +39033,25 @@
         <v>1.37</v>
       </c>
       <c r="AN183">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO183">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AP183">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ183">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR183">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="AS183">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AT183">
-        <v>3.07</v>
+        <v>3.14</v>
       </c>
       <c r="AU183">
         <v>7</v>
@@ -39239,25 +39239,25 @@
         <v>1.93</v>
       </c>
       <c r="AN184">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="AO184">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AP184">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ184">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR184">
-        <v>1.84</v>
+        <v>2.04</v>
       </c>
       <c r="AS184">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AT184">
-        <v>3.44</v>
+        <v>3.69</v>
       </c>
       <c r="AU184">
         <v>2</v>
@@ -39445,25 +39445,25 @@
         <v>1.78</v>
       </c>
       <c r="AN185">
-        <v>1.4</v>
+        <v>1.93</v>
       </c>
       <c r="AO185">
-        <v>1.2</v>
+        <v>0.87</v>
       </c>
       <c r="AP185">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ185">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR185">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AS185">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="AT185">
-        <v>3.21</v>
+        <v>3.11</v>
       </c>
       <c r="AU185">
         <v>8</v>
@@ -39651,25 +39651,25 @@
         <v>1.54</v>
       </c>
       <c r="AN186">
-        <v>1.43</v>
+        <v>2.13</v>
       </c>
       <c r="AO186">
-        <v>1.93</v>
+        <v>1.33</v>
       </c>
       <c r="AP186">
+        <v>1.95</v>
+      </c>
+      <c r="AQ186">
+        <v>1.58</v>
+      </c>
+      <c r="AR186">
+        <v>1.89</v>
+      </c>
+      <c r="AS186">
         <v>1.5</v>
       </c>
-      <c r="AQ186">
-        <v>2.03</v>
-      </c>
-      <c r="AR186">
-        <v>1.85</v>
-      </c>
-      <c r="AS186">
-        <v>1.76</v>
-      </c>
       <c r="AT186">
-        <v>3.61</v>
+        <v>3.39</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39857,25 +39857,25 @@
         <v>1.47</v>
       </c>
       <c r="AN187">
-        <v>1.13</v>
+        <v>1.87</v>
       </c>
       <c r="AO187">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP187">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ187">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR187">
-        <v>1.29</v>
+        <v>1.45</v>
       </c>
       <c r="AS187">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AT187">
-        <v>2.61</v>
+        <v>2.8</v>
       </c>
       <c r="AU187">
         <v>10</v>
@@ -40063,25 +40063,25 @@
         <v>1.33</v>
       </c>
       <c r="AN188">
-        <v>0.97</v>
+        <v>1.4</v>
       </c>
       <c r="AO188">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AP188">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ188">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR188">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS188">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AT188">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AU188">
         <v>2</v>
@@ -40269,25 +40269,25 @@
         <v>1.53</v>
       </c>
       <c r="AN189">
-        <v>1.19</v>
+        <v>1.53</v>
       </c>
       <c r="AO189">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="AP189">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ189">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR189">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AS189">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="AT189">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="AU189">
         <v>5</v>
@@ -40475,25 +40475,25 @@
         <v>2.7</v>
       </c>
       <c r="AN190">
-        <v>1.42</v>
+        <v>2.06</v>
       </c>
       <c r="AO190">
-        <v>1.19</v>
+        <v>0.4</v>
       </c>
       <c r="AP190">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ190">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR190">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AS190">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AT190">
-        <v>3.15</v>
+        <v>2.98</v>
       </c>
       <c r="AU190">
         <v>8</v>
@@ -40681,25 +40681,25 @@
         <v>1.3</v>
       </c>
       <c r="AN191">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AO191">
-        <v>1.74</v>
+        <v>1.53</v>
       </c>
       <c r="AP191">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ191">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR191">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="AS191">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AT191">
-        <v>3.37</v>
+        <v>3.15</v>
       </c>
       <c r="AU191">
         <v>5</v>
@@ -40887,22 +40887,22 @@
         <v>1.33</v>
       </c>
       <c r="AN192">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AO192">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AP192">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ192">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR192">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="AS192">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="AT192">
         <v>2.73</v>
@@ -41093,25 +41093,25 @@
         <v>1.95</v>
       </c>
       <c r="AN193">
-        <v>1.9</v>
+        <v>2.53</v>
       </c>
       <c r="AO193">
-        <v>1.39</v>
+        <v>0.87</v>
       </c>
       <c r="AP193">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ193">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR193">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="AS193">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="AT193">
-        <v>3.33</v>
+        <v>3.53</v>
       </c>
       <c r="AU193">
         <v>12</v>
@@ -41299,25 +41299,25 @@
         <v>2.45</v>
       </c>
       <c r="AN194">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="AO194">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP194">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ194">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR194">
-        <v>1.82</v>
+        <v>2.02</v>
       </c>
       <c r="AS194">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AT194">
-        <v>3.13</v>
+        <v>3.36</v>
       </c>
       <c r="AU194">
         <v>5</v>
@@ -41505,25 +41505,25 @@
         <v>1.73</v>
       </c>
       <c r="AN195">
-        <v>1.16</v>
+        <v>1.94</v>
       </c>
       <c r="AO195">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="AP195">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ195">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR195">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="AS195">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AT195">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU195">
         <v>7</v>
@@ -41711,25 +41711,25 @@
         <v>1.73</v>
       </c>
       <c r="AN196">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AO196">
-        <v>1.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP196">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ196">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR196">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="AS196">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AT196">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="AU196">
         <v>5</v>
@@ -41917,25 +41917,25 @@
         <v>1.83</v>
       </c>
       <c r="AN197">
-        <v>1.34</v>
+        <v>1.88</v>
       </c>
       <c r="AO197">
-        <v>1.22</v>
+        <v>1.06</v>
       </c>
       <c r="AP197">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ197">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR197">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="AS197">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AT197">
-        <v>3.11</v>
+        <v>3.19</v>
       </c>
       <c r="AU197">
         <v>6</v>
@@ -42123,25 +42123,25 @@
         <v>1.33</v>
       </c>
       <c r="AN198">
-        <v>1.53</v>
+        <v>1.94</v>
       </c>
       <c r="AO198">
-        <v>1.94</v>
+        <v>1.31</v>
       </c>
       <c r="AP198">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ198">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR198">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS198">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="AT198">
-        <v>3.34</v>
+        <v>3.09</v>
       </c>
       <c r="AU198">
         <v>6</v>
@@ -42329,25 +42329,25 @@
         <v>1.62</v>
       </c>
       <c r="AN199">
-        <v>1.5</v>
+        <v>1.87</v>
       </c>
       <c r="AO199">
-        <v>1.47</v>
+        <v>0.73</v>
       </c>
       <c r="AP199">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ199">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR199">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AS199">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AT199">
-        <v>3.47</v>
+        <v>3.38</v>
       </c>
       <c r="AU199">
         <v>2</v>
@@ -42535,25 +42535,25 @@
         <v>2</v>
       </c>
       <c r="AN200">
-        <v>0.91</v>
+        <v>1.31</v>
       </c>
       <c r="AO200">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP200">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ200">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR200">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS200">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT200">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="AU200">
         <v>5</v>
@@ -42741,25 +42741,25 @@
         <v>2.5</v>
       </c>
       <c r="AN201">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="AO201">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="AP201">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ201">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR201">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="AS201">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AT201">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="AU201">
         <v>6</v>
@@ -42947,25 +42947,25 @@
         <v>1.7</v>
       </c>
       <c r="AN202">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="AO202">
-        <v>1.52</v>
+        <v>0.88</v>
       </c>
       <c r="AP202">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ202">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR202">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AS202">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AT202">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="AU202">
         <v>5</v>
@@ -43153,25 +43153,25 @@
         <v>1.66</v>
       </c>
       <c r="AN203">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AO203">
-        <v>1.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AP203">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ203">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR203">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="AS203">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="AT203">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="AU203">
         <v>6</v>
@@ -43359,25 +43359,25 @@
         <v>1.47</v>
       </c>
       <c r="AN204">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="AO204">
-        <v>1.97</v>
+        <v>1.41</v>
       </c>
       <c r="AP204">
+        <v>1.79</v>
+      </c>
+      <c r="AQ204">
         <v>1.58</v>
       </c>
-      <c r="AQ204">
-        <v>2.03</v>
-      </c>
       <c r="AR204">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AS204">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AT204">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="AU204">
         <v>4</v>
@@ -43565,25 +43565,25 @@
         <v>1.3</v>
       </c>
       <c r="AN205">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AO205">
-        <v>1.21</v>
+        <v>0.82</v>
       </c>
       <c r="AP205">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ205">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR205">
-        <v>1.31</v>
+        <v>1.49</v>
       </c>
       <c r="AS205">
-        <v>1.59</v>
+        <v>1.43</v>
       </c>
       <c r="AT205">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="AU205">
         <v>7</v>
@@ -43771,25 +43771,25 @@
         <v>1.65</v>
       </c>
       <c r="AN206">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="AO206">
-        <v>1.21</v>
+        <v>1.06</v>
       </c>
       <c r="AP206">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ206">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR206">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
       <c r="AS206">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="AT206">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="AU206">
         <v>7</v>
@@ -43977,25 +43977,25 @@
         <v>2.04</v>
       </c>
       <c r="AN207">
-        <v>1.32</v>
+        <v>1.82</v>
       </c>
       <c r="AO207">
-        <v>0.97</v>
+        <v>0.53</v>
       </c>
       <c r="AP207">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ207">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR207">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="AS207">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="AT207">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44183,25 +44183,25 @@
         <v>1.9</v>
       </c>
       <c r="AN208">
-        <v>2</v>
+        <v>2.56</v>
       </c>
       <c r="AO208">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="AP208">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ208">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR208">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AS208">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="AT208">
-        <v>3.28</v>
+        <v>3.58</v>
       </c>
       <c r="AU208">
         <v>7</v>
@@ -44389,25 +44389,25 @@
         <v>1.51</v>
       </c>
       <c r="AN209">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="AO209">
-        <v>1.26</v>
+        <v>0.38</v>
       </c>
       <c r="AP209">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ209">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR209">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AS209">
-        <v>1.32</v>
+        <v>1.12</v>
       </c>
       <c r="AT209">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="AU209">
         <v>6</v>
@@ -44595,25 +44595,25 @@
         <v>1.36</v>
       </c>
       <c r="AN210">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="AO210">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="AP210">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ210">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR210">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="AS210">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AT210">
-        <v>3.13</v>
+        <v>3.26</v>
       </c>
       <c r="AU210">
         <v>4</v>
@@ -44801,25 +44801,25 @@
         <v>1.47</v>
       </c>
       <c r="AN211">
-        <v>1.56</v>
+        <v>2.12</v>
       </c>
       <c r="AO211">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="AP211">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ211">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR211">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AS211">
-        <v>1.82</v>
+        <v>1.63</v>
       </c>
       <c r="AT211">
-        <v>3.62</v>
+        <v>3.51</v>
       </c>
       <c r="AU211">
         <v>5</v>
@@ -45007,25 +45007,25 @@
         <v>2.45</v>
       </c>
       <c r="AN212">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AO212">
+        <v>0.65</v>
+      </c>
+      <c r="AP212">
+        <v>1.42</v>
+      </c>
+      <c r="AQ212">
         <v>0.74</v>
       </c>
-      <c r="AP212">
-        <v>1.29</v>
-      </c>
-      <c r="AQ212">
-        <v>0.76</v>
-      </c>
       <c r="AR212">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="AS212">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AT212">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU212">
         <v>6</v>
@@ -45213,25 +45213,25 @@
         <v>2</v>
       </c>
       <c r="AN213">
-        <v>0.97</v>
+        <v>1.41</v>
       </c>
       <c r="AO213">
-        <v>1.23</v>
+        <v>0.35</v>
       </c>
       <c r="AP213">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ213">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR213">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AS213">
-        <v>1.31</v>
+        <v>1.13</v>
       </c>
       <c r="AT213">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AU213">
         <v>7</v>
@@ -45419,25 +45419,25 @@
         <v>1.62</v>
       </c>
       <c r="AN214">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="AO214">
-        <v>1.31</v>
+        <v>0.82</v>
       </c>
       <c r="AP214">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ214">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR214">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="AS214">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="AT214">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="AU214">
         <v>4</v>
@@ -45625,25 +45625,25 @@
         <v>1.45</v>
       </c>
       <c r="AN215">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AO215">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="AP215">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ215">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR215">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AS215">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="AT215">
-        <v>3.4</v>
+        <v>3.13</v>
       </c>
       <c r="AU215">
         <v>5</v>
@@ -45831,25 +45831,25 @@
         <v>2.15</v>
       </c>
       <c r="AN216">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AO216">
-        <v>1.4</v>
+        <v>1.06</v>
       </c>
       <c r="AP216">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ216">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR216">
         <v>1.48</v>
       </c>
       <c r="AS216">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AT216">
-        <v>3.03</v>
+        <v>2.99</v>
       </c>
       <c r="AU216">
         <v>10</v>
@@ -46037,25 +46037,25 @@
         <v>1.7</v>
       </c>
       <c r="AN217">
-        <v>1.94</v>
+        <v>2.41</v>
       </c>
       <c r="AO217">
-        <v>1.54</v>
+        <v>1</v>
       </c>
       <c r="AP217">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ217">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR217">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="AS217">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="AT217">
-        <v>3.59</v>
+        <v>3.8</v>
       </c>
       <c r="AU217">
         <v>8</v>
@@ -46243,25 +46243,25 @@
         <v>1.52</v>
       </c>
       <c r="AN218">
-        <v>1.03</v>
+        <v>1.5</v>
       </c>
       <c r="AO218">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AP218">
-        <v>1</v>
+        <v>1.42</v>
       </c>
       <c r="AQ218">
-        <v>1.29</v>
+        <v>1.16</v>
       </c>
       <c r="AR218">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AS218">
         <v>1.52</v>
       </c>
       <c r="AT218">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="AU218">
         <v>2</v>
@@ -46449,25 +46449,25 @@
         <v>1.21</v>
       </c>
       <c r="AN219">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="AO219">
-        <v>1.14</v>
+        <v>0.78</v>
       </c>
       <c r="AP219">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AQ219">
-        <v>1.18</v>
+        <v>0.89</v>
       </c>
       <c r="AR219">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AS219">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="AT219">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="AU219">
         <v>3</v>
@@ -46655,25 +46655,25 @@
         <v>1.34</v>
       </c>
       <c r="AN220">
-        <v>1.19</v>
+        <v>2.06</v>
       </c>
       <c r="AO220">
-        <v>1.36</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP220">
-        <v>1.24</v>
+        <v>2.11</v>
       </c>
       <c r="AQ220">
-        <v>1.29</v>
+        <v>0.89</v>
       </c>
       <c r="AR220">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="AS220">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT220">
-        <v>2.89</v>
+        <v>3.02</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46861,25 +46861,25 @@
         <v>1.73</v>
       </c>
       <c r="AN221">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="AO221">
-        <v>1.97</v>
+        <v>1.5</v>
       </c>
       <c r="AP221">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AQ221">
-        <v>2.03</v>
+        <v>1.58</v>
       </c>
       <c r="AR221">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AS221">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="AT221">
-        <v>3.61</v>
+        <v>3.53</v>
       </c>
       <c r="AU221">
         <v>0</v>
@@ -47067,25 +47067,25 @@
         <v>1.33</v>
       </c>
       <c r="AN222">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="AO222">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP222">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="AQ222">
-        <v>1.5</v>
+        <v>1.05</v>
       </c>
       <c r="AR222">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="AS222">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="AT222">
-        <v>3.35</v>
+        <v>3.31</v>
       </c>
       <c r="AU222">
         <v>5</v>
@@ -47273,25 +47273,25 @@
         <v>1.62</v>
       </c>
       <c r="AN223">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="AO223">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="AP223">
-        <v>1.58</v>
+        <v>1.79</v>
       </c>
       <c r="AQ223">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="AR223">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="AS223">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="AT223">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="AU223">
         <v>8</v>
@@ -47479,25 +47479,25 @@
         <v>2.25</v>
       </c>
       <c r="AN224">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AO224">
-        <v>1.24</v>
+        <v>0.33</v>
       </c>
       <c r="AP224">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="AQ224">
-        <v>1.24</v>
+        <v>0.37</v>
       </c>
       <c r="AR224">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="AS224">
-        <v>1.33</v>
+        <v>1.15</v>
       </c>
       <c r="AT224">
-        <v>2.85</v>
+        <v>2.66</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47685,25 +47685,25 @@
         <v>1.91</v>
       </c>
       <c r="AN225">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="AO225">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AP225">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="AQ225">
-        <v>1</v>
+        <v>0.58</v>
       </c>
       <c r="AR225">
-        <v>1.64</v>
+        <v>1.77</v>
       </c>
       <c r="AS225">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="AT225">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="AU225">
         <v>5</v>
@@ -47891,25 +47891,25 @@
         <v>2.7</v>
       </c>
       <c r="AN226">
-        <v>1.32</v>
+        <v>1.78</v>
       </c>
       <c r="AO226">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="AP226">
-        <v>1.29</v>
+        <v>1.68</v>
       </c>
       <c r="AQ226">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AR226">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AS226">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AT226">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU226">
         <v>6</v>
@@ -48097,25 +48097,25 @@
         <v>1.79</v>
       </c>
       <c r="AN227">
-        <v>1.54</v>
+        <v>2.06</v>
       </c>
       <c r="AO227">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="AP227">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AQ227">
-        <v>1.58</v>
+        <v>1.37</v>
       </c>
       <c r="AR227">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="AS227">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="AT227">
-        <v>3.37</v>
+        <v>3.53</v>
       </c>
       <c r="AU227">
         <v>9</v>
@@ -48303,25 +48303,25 @@
         <v>1.53</v>
       </c>
       <c r="AN228">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AO228">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="AP228">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AQ228">
-        <v>1.68</v>
+        <v>1.42</v>
       </c>
       <c r="AR228">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AS228">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="AT228">
-        <v>3.33</v>
+        <v>3.15</v>
       </c>
       <c r="AU228">
         <v>3</v>
@@ -48509,25 +48509,25 @@
         <v>2.53</v>
       </c>
       <c r="AN229">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AO229">
-        <v>1.32</v>
+        <v>1</v>
       </c>
       <c r="AP229">
-        <v>2.03</v>
+        <v>2.47</v>
       </c>
       <c r="AQ229">
-        <v>1.29</v>
+        <v>0.95</v>
       </c>
       <c r="AR229">
-        <v>1.81</v>
+        <v>2.09</v>
       </c>
       <c r="AS229">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AT229">
-        <v>3.37</v>
+        <v>3.62</v>
       </c>
       <c r="AU229">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Switzerland Super League_20232024.xlsx
@@ -1780,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="AY2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ2">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BA2">
         <v>3</v>
@@ -1986,10 +1986,10 @@
         <v>5</v>
       </c>
       <c r="AY3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA3">
         <v>9</v>
@@ -2192,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA4">
         <v>5</v>
@@ -2398,10 +2398,10 @@
         <v>4</v>
       </c>
       <c r="AY5">
+        <v>14</v>
+      </c>
+      <c r="AZ5">
         <v>11</v>
-      </c>
-      <c r="AZ5">
-        <v>8</v>
       </c>
       <c r="BA5">
         <v>7</v>
@@ -2604,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA6">
         <v>9</v>
@@ -2810,10 +2810,10 @@
         <v>6</v>
       </c>
       <c r="AY7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA7">
         <v>5</v>
@@ -3016,10 +3016,10 @@
         <v>6</v>
       </c>
       <c r="AY8">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ8">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA8">
         <v>6</v>
@@ -3222,10 +3222,10 @@
         <v>5</v>
       </c>
       <c r="AY9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ9">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA9">
         <v>2</v>
@@ -3428,10 +3428,10 @@
         <v>6</v>
       </c>
       <c r="AY10">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ10">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3634,10 +3634,10 @@
         <v>3</v>
       </c>
       <c r="AY11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3840,10 +3840,10 @@
         <v>3</v>
       </c>
       <c r="AY12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA12">
         <v>6</v>
@@ -4046,10 +4046,10 @@
         <v>4</v>
       </c>
       <c r="AY13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA13">
         <v>8</v>
@@ -4252,10 +4252,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA14">
         <v>8</v>
@@ -4458,10 +4458,10 @@
         <v>7</v>
       </c>
       <c r="AY15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4664,10 +4664,10 @@
         <v>8</v>
       </c>
       <c r="AY16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ16">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA16">
         <v>6</v>
@@ -4870,10 +4870,10 @@
         <v>5</v>
       </c>
       <c r="AY17">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ17">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA17">
         <v>11</v>
@@ -5076,10 +5076,10 @@
         <v>10</v>
       </c>
       <c r="AY18">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ18">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA18">
         <v>8</v>
@@ -5282,10 +5282,10 @@
         <v>2</v>
       </c>
       <c r="AY19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AZ19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA19">
         <v>10</v>
@@ -5488,10 +5488,10 @@
         <v>4</v>
       </c>
       <c r="AY20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ20">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA20">
         <v>8</v>
@@ -5694,10 +5694,10 @@
         <v>2</v>
       </c>
       <c r="AY21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA21">
         <v>2</v>
@@ -5900,10 +5900,10 @@
         <v>14</v>
       </c>
       <c r="AY22">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -6106,10 +6106,10 @@
         <v>2</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ23">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA23">
         <v>3</v>
@@ -6312,10 +6312,10 @@
         <v>3</v>
       </c>
       <c r="AY24">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -6518,10 +6518,10 @@
         <v>6</v>
       </c>
       <c r="AY25">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA25">
         <v>5</v>
@@ -6724,10 +6724,10 @@
         <v>5</v>
       </c>
       <c r="AY26">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ26">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA26">
         <v>3</v>
@@ -6930,10 +6930,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ27">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA27">
         <v>7</v>
@@ -7136,10 +7136,10 @@
         <v>5</v>
       </c>
       <c r="AY28">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA28">
         <v>5</v>
@@ -7342,10 +7342,10 @@
         <v>6</v>
       </c>
       <c r="AY29">
+        <v>18</v>
+      </c>
+      <c r="AZ29">
         <v>14</v>
-      </c>
-      <c r="AZ29">
-        <v>13</v>
       </c>
       <c r="BA29">
         <v>11</v>
@@ -7548,10 +7548,10 @@
         <v>6</v>
       </c>
       <c r="AY30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ30">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7754,10 +7754,10 @@
         <v>4</v>
       </c>
       <c r="AY31">
+        <v>13</v>
+      </c>
+      <c r="AZ31">
         <v>11</v>
-      </c>
-      <c r="AZ31">
-        <v>10</v>
       </c>
       <c r="BA31">
         <v>7</v>
@@ -7960,10 +7960,10 @@
         <v>4</v>
       </c>
       <c r="AY32">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA32">
         <v>4</v>
@@ -8166,10 +8166,10 @@
         <v>4</v>
       </c>
       <c r="AY33">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ33">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA33">
         <v>2</v>
@@ -8372,10 +8372,10 @@
         <v>4</v>
       </c>
       <c r="AY34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ34">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA34">
         <v>3</v>
@@ -8578,10 +8578,10 @@
         <v>5</v>
       </c>
       <c r="AY35">
+        <v>18</v>
+      </c>
+      <c r="AZ35">
         <v>13</v>
-      </c>
-      <c r="AZ35">
-        <v>10</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8787,7 +8787,7 @@
         <v>7</v>
       </c>
       <c r="AZ36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA36">
         <v>1</v>
@@ -8990,10 +8990,10 @@
         <v>6</v>
       </c>
       <c r="AY37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA37">
         <v>5</v>
@@ -9196,10 +9196,10 @@
         <v>7</v>
       </c>
       <c r="AY38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA38">
         <v>4</v>
@@ -9402,10 +9402,10 @@
         <v>3</v>
       </c>
       <c r="AY39">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AZ39">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA39">
         <v>7</v>
@@ -9608,10 +9608,10 @@
         <v>14</v>
       </c>
       <c r="AY40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ40">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="BA40">
         <v>1</v>
@@ -9814,10 +9814,10 @@
         <v>5</v>
       </c>
       <c r="AY41">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ41">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA41">
         <v>6</v>
@@ -10023,7 +10023,7 @@
         <v>8</v>
       </c>
       <c r="AZ42">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA42">
         <v>3</v>
@@ -10226,10 +10226,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>2</v>
@@ -10432,10 +10432,10 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ44">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA44">
         <v>9</v>
@@ -10638,10 +10638,10 @@
         <v>6</v>
       </c>
       <c r="AY45">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ45">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA45">
         <v>6</v>
@@ -10844,10 +10844,10 @@
         <v>5</v>
       </c>
       <c r="AY46">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ46">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA46">
         <v>9</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AY47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ47">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BA47">
         <v>4</v>
@@ -11256,7 +11256,7 @@
         <v>5</v>
       </c>
       <c r="AY48">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ48">
         <v>14</v>
@@ -11462,10 +11462,10 @@
         <v>2</v>
       </c>
       <c r="AY49">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ49">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA49">
         <v>8</v>
@@ -11671,7 +11671,7 @@
         <v>10</v>
       </c>
       <c r="AZ50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11874,10 +11874,10 @@
         <v>10</v>
       </c>
       <c r="AY51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ51">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="BA51">
         <v>6</v>
@@ -12080,7 +12080,7 @@
         <v>3</v>
       </c>
       <c r="AY52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ52">
         <v>10</v>
@@ -12286,10 +12286,10 @@
         <v>6</v>
       </c>
       <c r="AY53">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ53">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA53">
         <v>7</v>
@@ -12492,10 +12492,10 @@
         <v>8</v>
       </c>
       <c r="AY54">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ54">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA54">
         <v>5</v>
@@ -12698,10 +12698,10 @@
         <v>10</v>
       </c>
       <c r="AY55">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ55">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA55">
         <v>4</v>
@@ -12904,10 +12904,10 @@
         <v>5</v>
       </c>
       <c r="AY56">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ56">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA56">
         <v>8</v>
@@ -13110,10 +13110,10 @@
         <v>5</v>
       </c>
       <c r="AY57">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA57">
         <v>5</v>
@@ -13316,10 +13316,10 @@
         <v>4</v>
       </c>
       <c r="AY58">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA58">
         <v>8</v>
@@ -13522,10 +13522,10 @@
         <v>5</v>
       </c>
       <c r="AY59">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ59">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA59">
         <v>6</v>
@@ -13728,10 +13728,10 @@
         <v>7</v>
       </c>
       <c r="AY60">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ60">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA60">
         <v>16</v>
@@ -13934,10 +13934,10 @@
         <v>4</v>
       </c>
       <c r="AY61">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ61">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA61">
         <v>5</v>
@@ -14140,10 +14140,10 @@
         <v>8</v>
       </c>
       <c r="AY62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA62">
         <v>2</v>
@@ -14346,10 +14346,10 @@
         <v>10</v>
       </c>
       <c r="AY63">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ63">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA63">
         <v>4</v>
@@ -14552,10 +14552,10 @@
         <v>10</v>
       </c>
       <c r="AY64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ64">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA64">
         <v>2</v>
@@ -14758,10 +14758,10 @@
         <v>5</v>
       </c>
       <c r="AY65">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -14967,7 +14967,7 @@
         <v>11</v>
       </c>
       <c r="AZ66">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA66">
         <v>3</v>
@@ -15170,10 +15170,10 @@
         <v>4</v>
       </c>
       <c r="AY67">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ67">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA67">
         <v>6</v>
@@ -15582,10 +15582,10 @@
         <v>3</v>
       </c>
       <c r="AY69">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA69">
         <v>5</v>
@@ -15788,10 +15788,10 @@
         <v>4</v>
       </c>
       <c r="AY70">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ70">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA70">
         <v>6</v>
@@ -15994,10 +15994,10 @@
         <v>5</v>
       </c>
       <c r="AY71">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ71">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA71">
         <v>3</v>
@@ -16200,10 +16200,10 @@
         <v>6</v>
       </c>
       <c r="AY72">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ72">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA72">
         <v>6</v>
@@ -16406,10 +16406,10 @@
         <v>6</v>
       </c>
       <c r="AY73">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ73">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16612,10 +16612,10 @@
         <v>9</v>
       </c>
       <c r="AY74">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ74">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA74">
         <v>7</v>
@@ -16818,7 +16818,7 @@
         <v>3</v>
       </c>
       <c r="AY75">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ75">
         <v>7</v>
@@ -17024,10 +17024,10 @@
         <v>5</v>
       </c>
       <c r="AY76">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA76">
         <v>6</v>
@@ -17230,10 +17230,10 @@
         <v>6</v>
       </c>
       <c r="AY77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ77">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA77">
         <v>6</v>
@@ -17436,10 +17436,10 @@
         <v>4</v>
       </c>
       <c r="AY78">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ78">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA78">
         <v>4</v>
@@ -17642,10 +17642,10 @@
         <v>8</v>
       </c>
       <c r="AY79">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ79">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA79">
         <v>4</v>
@@ -17848,10 +17848,10 @@
         <v>5</v>
       </c>
       <c r="AY80">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ80">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA80">
         <v>6</v>
@@ -18054,10 +18054,10 @@
         <v>7</v>
       </c>
       <c r="AY81">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ81">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA81">
         <v>1</v>
@@ -18260,7 +18260,7 @@
         <v>7</v>
       </c>
       <c r="AY82">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ82">
         <v>11</v>
@@ -18466,10 +18466,10 @@
         <v>7</v>
       </c>
       <c r="AY83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ83">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA83">
         <v>2</v>
@@ -18672,10 +18672,10 @@
         <v>10</v>
       </c>
       <c r="AY84">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ84">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA84">
         <v>3</v>
@@ -18878,10 +18878,10 @@
         <v>6</v>
       </c>
       <c r="AY85">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA85">
         <v>9</v>
@@ -19084,10 +19084,10 @@
         <v>6</v>
       </c>
       <c r="AY86">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ86">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA86">
         <v>0</v>
@@ -19290,10 +19290,10 @@
         <v>3</v>
       </c>
       <c r="AY87">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ87">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA87">
         <v>3</v>
@@ -19496,10 +19496,10 @@
         <v>4</v>
       </c>
       <c r="AY88">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ88">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA88">
         <v>8</v>
@@ -19702,10 +19702,10 @@
         <v>6</v>
       </c>
       <c r="AY89">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ89">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA89">
         <v>6</v>
@@ -19908,10 +19908,10 @@
         <v>10</v>
       </c>
       <c r="AY90">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ90">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA90">
         <v>3</v>
@@ -20114,10 +20114,10 @@
         <v>1</v>
       </c>
       <c r="AY91">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ91">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA91">
         <v>7</v>
@@ -20320,10 +20320,10 @@
         <v>6</v>
       </c>
       <c r="AY92">
+        <v>22</v>
+      </c>
+      <c r="AZ92">
         <v>18</v>
-      </c>
-      <c r="AZ92">
-        <v>13</v>
       </c>
       <c r="BA92">
         <v>8</v>
@@ -20526,10 +20526,10 @@
         <v>10</v>
       </c>
       <c r="AY93">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ93">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BA93">
         <v>2</v>
@@ -20732,10 +20732,10 @@
         <v>7</v>
       </c>
       <c r="AY94">
+        <v>20</v>
+      </c>
+      <c r="AZ94">
         <v>14</v>
-      </c>
-      <c r="AZ94">
-        <v>12</v>
       </c>
       <c r="BA94">
         <v>6</v>
@@ -20938,10 +20938,10 @@
         <v>6</v>
       </c>
       <c r="AY95">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ95">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA95">
         <v>2</v>
@@ -21144,10 +21144,10 @@
         <v>7</v>
       </c>
       <c r="AY96">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ96">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA96">
         <v>11</v>
@@ -21350,10 +21350,10 @@
         <v>7</v>
       </c>
       <c r="AY97">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ97">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA97">
         <v>4</v>
@@ -21556,10 +21556,10 @@
         <v>6</v>
       </c>
       <c r="AY98">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ98">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA98">
         <v>7</v>
@@ -21762,10 +21762,10 @@
         <v>3</v>
       </c>
       <c r="AY99">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ99">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA99">
         <v>5</v>
@@ -21968,10 +21968,10 @@
         <v>4</v>
       </c>
       <c r="AY100">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ100">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA100">
         <v>3</v>
@@ -22174,10 +22174,10 @@
         <v>5</v>
       </c>
       <c r="AY101">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ101">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA101">
         <v>6</v>
@@ -22380,7 +22380,7 @@
         <v>1</v>
       </c>
       <c r="AY102">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ102">
         <v>4</v>
@@ -22586,10 +22586,10 @@
         <v>2</v>
       </c>
       <c r="AY103">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ103">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BA103">
         <v>2</v>
@@ -22792,10 +22792,10 @@
         <v>3</v>
       </c>
       <c r="AY104">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ104">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA104">
         <v>4</v>
@@ -22998,10 +22998,10 @@
         <v>2</v>
       </c>
       <c r="AY105">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ105">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA105">
         <v>4</v>
@@ -23204,10 +23204,10 @@
         <v>7</v>
       </c>
       <c r="AY106">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ106">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BA106">
         <v>10</v>
@@ -23410,10 +23410,10 @@
         <v>8</v>
       </c>
       <c r="AY107">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ107">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA107">
         <v>2</v>
@@ -23616,10 +23616,10 @@
         <v>6</v>
       </c>
       <c r="AY108">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AZ108">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA108">
         <v>13</v>
@@ -23822,10 +23822,10 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ109">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA109">
         <v>2</v>
@@ -24028,10 +24028,10 @@
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ110">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA110">
         <v>6</v>
@@ -24234,10 +24234,10 @@
         <v>3</v>
       </c>
       <c r="AY111">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ111">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA111">
         <v>4</v>
@@ -24440,10 +24440,10 @@
         <v>4</v>
       </c>
       <c r="AY112">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ112">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA112">
         <v>7</v>
@@ -24646,7 +24646,7 @@
         <v>1</v>
       </c>
       <c r="AY113">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ113">
         <v>7</v>
@@ -24852,10 +24852,10 @@
         <v>4</v>
       </c>
       <c r="AY114">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ114">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA114">
         <v>4</v>
@@ -25058,10 +25058,10 @@
         <v>3</v>
       </c>
       <c r="AY115">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ115">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA115">
         <v>4</v>
@@ -25264,10 +25264,10 @@
         <v>3</v>
       </c>
       <c r="AY116">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AZ116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA116">
         <v>10</v>
@@ -25470,10 +25470,10 @@
         <v>2</v>
       </c>
       <c r="AY117">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ117">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA117">
         <v>3</v>
@@ -25676,7 +25676,7 @@
         <v>7</v>
       </c>
       <c r="AY118">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ118">
         <v>11</v>
@@ -25882,10 +25882,10 @@
         <v>6</v>
       </c>
       <c r="AY119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ119">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA119">
         <v>4</v>
@@ -26088,10 +26088,10 @@
         <v>7</v>
       </c>
       <c r="AY120">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ120">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA120">
         <v>3</v>
@@ -26294,10 +26294,10 @@
         <v>7</v>
       </c>
       <c r="AY121">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ121">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA121">
         <v>7</v>
@@ -26500,10 +26500,10 @@
         <v>12</v>
       </c>
       <c r="AY122">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ122">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="BA122">
         <v>1</v>
@@ -26706,10 +26706,10 @@
         <v>2</v>
       </c>
       <c r="AY123">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AZ123">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA123">
         <v>8</v>
@@ -26912,10 +26912,10 @@
         <v>2</v>
       </c>
       <c r="AY124">
+        <v>8</v>
+      </c>
+      <c r="AZ124">
         <v>5</v>
-      </c>
-      <c r="AZ124">
-        <v>4</v>
       </c>
       <c r="BA124">
         <v>1</v>
@@ -27118,10 +27118,10 @@
         <v>10</v>
       </c>
       <c r="AY125">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ125">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA125">
         <v>2</v>
@@ -27324,10 +27324,10 @@
         <v>4</v>
       </c>
       <c r="AY126">
+        <v>16</v>
+      </c>
+      <c r="AZ126">
         <v>10</v>
-      </c>
-      <c r="AZ126">
-        <v>8</v>
       </c>
       <c r="BA126">
         <v>10</v>
@@ -27530,10 +27530,10 @@
         <v>3</v>
       </c>
       <c r="AY127">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ127">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA127">
         <v>9</v>
@@ -27736,10 +27736,10 @@
         <v>1</v>
       </c>
       <c r="AY128">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ128">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA128">
         <v>4</v>
@@ -27942,10 +27942,10 @@
         <v>3</v>
       </c>
       <c r="AY129">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ129">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA129">
         <v>5</v>
@@ -28148,10 +28148,10 @@
         <v>5</v>
       </c>
       <c r="AY130">
+        <v>13</v>
+      </c>
+      <c r="AZ130">
         <v>10</v>
-      </c>
-      <c r="AZ130">
-        <v>7</v>
       </c>
       <c r="BA130">
         <v>6</v>
@@ -28354,10 +28354,10 @@
         <v>2</v>
       </c>
       <c r="AY131">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ131">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA131">
         <v>2</v>
@@ -28560,10 +28560,10 @@
         <v>7</v>
       </c>
       <c r="AY132">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ132">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA132">
         <v>7</v>
@@ -28766,10 +28766,10 @@
         <v>1</v>
       </c>
       <c r="AY133">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ133">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA133">
         <v>0</v>
@@ -28972,10 +28972,10 @@
         <v>5</v>
       </c>
       <c r="AY134">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA134">
         <v>6</v>
@@ -29178,10 +29178,10 @@
         <v>4</v>
       </c>
       <c r="AY135">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ135">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA135">
         <v>1</v>
@@ -29384,10 +29384,10 @@
         <v>6</v>
       </c>
       <c r="AY136">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ136">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA136">
         <v>3</v>
@@ -29590,10 +29590,10 @@
         <v>4</v>
       </c>
       <c r="AY137">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ137">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA137">
         <v>4</v>
@@ -29799,7 +29799,7 @@
         <v>5</v>
       </c>
       <c r="AZ138">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA138">
         <v>5</v>
@@ -30002,10 +30002,10 @@
         <v>4</v>
       </c>
       <c r="AY139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ139">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA139">
         <v>3</v>
@@ -30208,10 +30208,10 @@
         <v>5</v>
       </c>
       <c r="AY140">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ140">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA140">
         <v>6</v>
@@ -30414,10 +30414,10 @@
         <v>4</v>
       </c>
       <c r="AY141">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ141">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA141">
         <v>5</v>
@@ -30620,10 +30620,10 @@
         <v>5</v>
       </c>
       <c r="AY142">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ142">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA142">
         <v>5</v>
@@ -30826,10 +30826,10 @@
         <v>3</v>
       </c>
       <c r="AY143">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ143">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA143">
         <v>5</v>
@@ -31032,10 +31032,10 @@
         <v>6</v>
       </c>
       <c r="AY144">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ144">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA144">
         <v>3</v>
@@ -31238,10 +31238,10 @@
         <v>5</v>
       </c>
       <c r="AY145">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ145">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA145">
         <v>13</v>
@@ -31444,10 +31444,10 @@
         <v>3</v>
       </c>
       <c r="AY146">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ146">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA146">
         <v>6</v>
@@ -31650,10 +31650,10 @@
         <v>10</v>
       </c>
       <c r="AY147">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ147">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA147">
         <v>12</v>
@@ -31856,10 +31856,10 @@
         <v>6</v>
       </c>
       <c r="AY148">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ148">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -32062,7 +32062,7 @@
         <v>5</v>
       </c>
       <c r="AY149">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ149">
         <v>9</v>
@@ -32268,10 +32268,10 @@
         <v>2</v>
       </c>
       <c r="AY150">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ150">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA150">
         <v>7</v>
@@ -32474,10 +32474,10 @@
         <v>5</v>
       </c>
       <c r="AY151">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ151">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA151">
         <v>6</v>
@@ -32680,10 +32680,10 @@
         <v>12</v>
       </c>
       <c r="AY152">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AZ152">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="BA152">
         <v>7</v>
@@ -33092,10 +33092,10 @@
         <v>3</v>
       </c>
       <c r="AY154">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ154">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA154">
         <v>6</v>
@@ -33298,10 +33298,10 @@
         <v>5</v>
       </c>
       <c r="AY155">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ155">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA155">
         <v>6</v>
@@ -33504,10 +33504,10 @@
         <v>8</v>
       </c>
       <c r="AY156">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ156">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA156">
         <v>8</v>
@@ -33710,10 +33710,10 @@
         <v>7</v>
       </c>
       <c r="AY157">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ157">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA157">
         <v>6</v>
@@ -33916,10 +33916,10 @@
         <v>6</v>
       </c>
       <c r="AY158">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ158">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA158">
         <v>3</v>
@@ -34122,10 +34122,10 @@
         <v>7</v>
       </c>
       <c r="AY159">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ159">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA159">
         <v>5</v>
@@ -34328,10 +34328,10 @@
         <v>7</v>
       </c>
       <c r="AY160">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ160">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA160">
         <v>4</v>
@@ -34534,10 +34534,10 @@
         <v>7</v>
       </c>
       <c r="AY161">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AZ161">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA161">
         <v>7</v>
@@ -34740,10 +34740,10 @@
         <v>2</v>
       </c>
       <c r="AY162">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ162">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA162">
         <v>4</v>
@@ -34946,10 +34946,10 @@
         <v>6</v>
       </c>
       <c r="AY163">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ163">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA163">
         <v>3</v>
@@ -35152,10 +35152,10 @@
         <v>6</v>
       </c>
       <c r="AY164">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AZ164">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA164">
         <v>6</v>
@@ -35358,10 +35358,10 @@
         <v>10</v>
       </c>
       <c r="AY165">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ165">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="BA165">
         <v>5</v>
@@ -35564,10 +35564,10 @@
         <v>2</v>
       </c>
       <c r="AY166">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ166">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA166">
         <v>6</v>
@@ -35770,10 +35770,10 @@
         <v>2</v>
       </c>
       <c r="AY167">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ167">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA167">
         <v>7</v>
@@ -35976,10 +35976,10 @@
         <v>6</v>
       </c>
       <c r="AY168">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ168">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA168">
         <v>6</v>
@@ -36182,10 +36182,10 @@
         <v>4</v>
       </c>
       <c r="AY169">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ169">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA169">
         <v>8</v>
@@ -36388,10 +36388,10 @@
         <v>7</v>
       </c>
       <c r="AY170">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ170">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA170">
         <v>1</v>
@@ -36594,10 +36594,10 @@
         <v>5</v>
       </c>
       <c r="AY171">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ171">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA171">
         <v>4</v>
@@ -36803,7 +36803,7 @@
         <v>7</v>
       </c>
       <c r="AZ172">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA172">
         <v>4</v>
@@ -37006,10 +37006,10 @@
         <v>8</v>
       </c>
       <c r="AY173">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ173">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA173">
         <v>2</v>
@@ -37212,10 +37212,10 @@
         <v>7</v>
       </c>
       <c r="AY174">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ174">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA174">
         <v>6</v>
@@ -37418,10 +37418,10 @@
         <v>4</v>
       </c>
       <c r="AY175">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ175">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA175">
         <v>7</v>
@@ -37624,10 +37624,10 @@
         <v>2</v>
       </c>
       <c r="AY176">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ176">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA176">
         <v>9</v>
@@ -37830,10 +37830,10 @@
         <v>4</v>
       </c>
       <c r="AY177">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ177">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA177">
         <v>9</v>
@@ -38036,10 +38036,10 @@
         <v>8</v>
       </c>
       <c r="AY178">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AZ178">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA178">
         <v>6</v>
@@ -38242,10 +38242,10 @@
         <v>3</v>
       </c>
       <c r="AY179">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AZ179">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA179">
         <v>9</v>
@@ -38448,10 +38448,10 @@
         <v>6</v>
       </c>
       <c r="AY180">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ180">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA180">
         <v>7</v>
@@ -38654,10 +38654,10 @@
         <v>9</v>
       </c>
       <c r="AY181">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ181">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA181">
         <v>2</v>
@@ -38860,10 +38860,10 @@
         <v>4</v>
       </c>
       <c r="AY182">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ182">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA182">
         <v>2</v>
@@ -39066,10 +39066,10 @@
         <v>4</v>
       </c>
       <c r="AY183">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ183">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BA183">
         <v>8</v>
@@ -39272,10 +39272,10 @@
         <v>4</v>
       </c>
       <c r="AY184">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ184">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA184">
         <v>9</v>
@@ -39478,10 +39478,10 @@
         <v>6</v>
       </c>
       <c r="AY185">
+        <v>14</v>
+      </c>
+      <c r="AZ185">
         <v>13</v>
-      </c>
-      <c r="AZ185">
-        <v>10</v>
       </c>
       <c r="BA185">
         <v>9</v>
@@ -39684,10 +39684,10 @@
         <v>5</v>
       </c>
       <c r="AY186">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AZ186">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA186">
         <v>9</v>
@@ -39890,10 +39890,10 @@
         <v>2</v>
       </c>
       <c r="AY187">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ187">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA187">
         <v>2</v>
@@ -40096,10 +40096,10 @@
         <v>2</v>
       </c>
       <c r="AY188">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ188">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA188">
         <v>7</v>
@@ -40302,10 +40302,10 @@
         <v>6</v>
       </c>
       <c r="AY189">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ189">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA189">
         <v>5</v>
@@ -40508,7 +40508,7 @@
         <v>0</v>
       </c>
       <c r="AY190">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ190">
         <v>5</v>
@@ -40714,10 +40714,10 @@
         <v>8</v>
       </c>
       <c r="AY191">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ191">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA191">
         <v>2</v>
@@ -40920,10 +40920,10 @@
         <v>6</v>
       </c>
       <c r="AY192">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ192">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA192">
         <v>4</v>
@@ -41126,10 +41126,10 @@
         <v>8</v>
       </c>
       <c r="AY193">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ193">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA193">
         <v>7</v>
@@ -41332,10 +41332,10 @@
         <v>2</v>
       </c>
       <c r="AY194">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ194">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA194">
         <v>4</v>
@@ -41538,10 +41538,10 @@
         <v>1</v>
       </c>
       <c r="AY195">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ195">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA195">
         <v>5</v>
@@ -41747,7 +41747,7 @@
         <v>9</v>
       </c>
       <c r="AZ196">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA196">
         <v>4</v>
@@ -41950,10 +41950,10 @@
         <v>7</v>
       </c>
       <c r="AY197">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ197">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA197">
         <v>11</v>
@@ -42156,10 +42156,10 @@
         <v>8</v>
       </c>
       <c r="AY198">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ198">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA198">
         <v>5</v>
@@ -42365,7 +42365,7 @@
         <v>5</v>
       </c>
       <c r="AZ199">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA199">
         <v>4</v>
@@ -42568,10 +42568,10 @@
         <v>4</v>
       </c>
       <c r="AY200">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ200">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA200">
         <v>4</v>
@@ -42774,10 +42774,10 @@
         <v>6</v>
       </c>
       <c r="AY201">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ201">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA201">
         <v>10</v>
@@ -42980,10 +42980,10 @@
         <v>5</v>
       </c>
       <c r="AY202">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AZ202">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA202">
         <v>8</v>
@@ -43186,10 +43186,10 @@
         <v>3</v>
       </c>
       <c r="AY203">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ203">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA203">
         <v>5</v>
@@ -43392,7 +43392,7 @@
         <v>4</v>
       </c>
       <c r="AY204">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ204">
         <v>10</v>
@@ -43601,7 +43601,7 @@
         <v>10</v>
       </c>
       <c r="AZ205">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BA205">
         <v>5</v>
@@ -43804,10 +43804,10 @@
         <v>6</v>
       </c>
       <c r="AY206">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ206">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA206">
         <v>9</v>
@@ -44010,10 +44010,10 @@
         <v>7</v>
       </c>
       <c r="AY207">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ207">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA207">
         <v>5</v>
@@ -44216,10 +44216,10 @@
         <v>3</v>
       </c>
       <c r="AY208">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ208">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA208">
         <v>6</v>
@@ -44422,10 +44422,10 @@
         <v>5</v>
       </c>
       <c r="AY209">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ209">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA209">
         <v>5</v>
@@ -44628,10 +44628,10 @@
         <v>4</v>
       </c>
       <c r="AY210">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ210">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA210">
         <v>3</v>
@@ -44834,10 +44834,10 @@
         <v>11</v>
       </c>
       <c r="AY211">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AZ211">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA211">
         <v>6</v>
@@ -45040,10 +45040,10 @@
         <v>3</v>
       </c>
       <c r="AY212">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ212">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA212">
         <v>9</v>
@@ -45246,10 +45246,10 @@
         <v>8</v>
       </c>
       <c r="AY213">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ213">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA213">
         <v>8</v>
@@ -45452,10 +45452,10 @@
         <v>3</v>
       </c>
       <c r="AY214">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ214">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA214">
         <v>4</v>
@@ -45658,10 +45658,10 @@
         <v>5</v>
       </c>
       <c r="AY215">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ215">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA215">
         <v>3</v>
@@ -45864,10 +45864,10 @@
         <v>9</v>
       </c>
       <c r="AY216">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ216">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA216">
         <v>6</v>
@@ -46070,10 +46070,10 @@
         <v>6</v>
       </c>
       <c r="AY217">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ217">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA217">
         <v>14</v>
@@ -46276,10 +46276,10 @@
         <v>9</v>
       </c>
       <c r="AY218">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ218">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA218">
         <v>6</v>
@@ -46485,7 +46485,7 @@
         <v>8</v>
       </c>
       <c r="AZ219">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA219">
         <v>3</v>
@@ -46688,10 +46688,10 @@
         <v>7</v>
       </c>
       <c r="AY220">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ220">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA220">
         <v>4</v>
@@ -46894,10 +46894,10 @@
         <v>12</v>
       </c>
       <c r="AY221">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ221">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA221">
         <v>2</v>
@@ -47100,10 +47100,10 @@
         <v>3</v>
       </c>
       <c r="AY222">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ222">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA222">
         <v>5</v>
@@ -47306,10 +47306,10 @@
         <v>23</v>
       </c>
       <c r="AY223">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ223">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="BA223">
         <v>3</v>
@@ -47512,10 +47512,10 @@
         <v>11</v>
       </c>
       <c r="AY224">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ224">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA224">
         <v>6</v>
@@ -47718,10 +47718,10 @@
         <v>4</v>
       </c>
       <c r="AY225">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AZ225">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA225">
         <v>4</v>
@@ -47924,10 +47924,10 @@
         <v>6</v>
       </c>
       <c r="AY226">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ226">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA226">
         <v>7</v>
@@ -48130,10 +48130,10 @@
         <v>13</v>
       </c>
       <c r="AY227">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AZ227">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="BA227">
         <v>5</v>
@@ -48336,10 +48336,10 @@
         <v>10</v>
       </c>
       <c r="AY228">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ228">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA228">
         <v>2</v>
@@ -48542,10 +48542,10 @@
         <v>9</v>
       </c>
       <c r="AY229">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ229">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA229">
         <v>8</v>
